--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
   <si>
     <t>Week</t>
   </si>
@@ -317,6 +317,9 @@
                    168 hours/week (24hours * 7 days)
                    4704 hours/30 weeks (168 hours * 28 weeks) </t>
   </si>
+  <si>
+    <t>Present work that team completed in this week 2</t>
+  </si>
 </sst>
 </file>
 
@@ -325,7 +328,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +402,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -608,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -724,6 +733,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,15 +755,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -751,14 +764,119 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -768,120 +886,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -909,13 +926,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1198,7 +1208,7 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1310,13 +1320,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O157"/>
+  <dimension ref="A1:O158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1339,81 +1349,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="66"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="67"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="67" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="72"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="76"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="16"/>
       <c r="H5" s="46" t="s">
         <v>80</v>
@@ -1458,13 +1468,13 @@
       <c r="J6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="76">
+      <c r="A7" s="77">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1477,11 +1487,11 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="E7" s="19">
-        <v>1.1000000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F7" s="19">
         <f>E7</f>
-        <v>1.1000000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>10</v>
@@ -1491,21 +1501,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="56"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="35">
-        <f>SUM(M8:M40)</f>
-        <v>13.100000000000001</v>
+        <f>SUM(M8:M41)</f>
+        <v>15.953000000000001</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="94">
+      <c r="A8" s="78"/>
+      <c r="B8" s="92">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1515,11 +1525,11 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="E8" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F8" s="96">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F8" s="94">
         <f>SUM(E8:E9)</f>
-        <v>1.4000000000000001</v>
+        <v>1.66</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>22</v>
@@ -1537,15 +1547,15 @@
       <c r="L8" s="9"/>
       <c r="M8" s="36">
         <f>SUM(E7:E9)</f>
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1553,9 +1563,9 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="E9" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="F9" s="97"/>
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="95"/>
       <c r="G9" s="32" t="s">
         <v>27</v>
       </c>
@@ -1568,7 +1578,7 @@
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="91">
+      <c r="A10" s="89">
         <v>2</v>
       </c>
       <c r="B10" s="23">
@@ -1581,11 +1591,11 @@
         <v>0.625</v>
       </c>
       <c r="E10" s="25">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="F10" s="25">
         <f>E10</f>
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>23</v>
@@ -1602,8 +1612,8 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="4">
-        <f>SUM(E10:E17)</f>
-        <v>10.600000000000001</v>
+        <f>SUM(E10:E18)</f>
+        <v>13.133000000000001</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>9</v>
@@ -1611,8 +1621,8 @@
       <c r="O10" s="37"/>
     </row>
     <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
-      <c r="B11" s="62">
+      <c r="A11" s="90"/>
+      <c r="B11" s="60">
         <v>41591</v>
       </c>
       <c r="C11" s="27">
@@ -1624,7 +1634,7 @@
       <c r="E11" s="30">
         <v>2</v>
       </c>
-      <c r="F11" s="88">
+      <c r="F11" s="62">
         <f>SUM(E11:E12)</f>
         <v>3</v>
       </c>
@@ -1644,8 +1654,8 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1655,7 +1665,7 @@
       <c r="E12" s="30">
         <v>1</v>
       </c>
-      <c r="F12" s="90"/>
+      <c r="F12" s="63"/>
       <c r="G12" s="31" t="s">
         <v>26</v>
       </c>
@@ -1671,7 +1681,7 @@
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="10">
-        <f>SUM(E18:E22)</f>
+        <f>SUM(E19:E23)</f>
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
@@ -1679,8 +1689,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="92"/>
-      <c r="B13" s="23">
+      <c r="A13" s="90"/>
+      <c r="B13" s="60">
         <v>41592</v>
       </c>
       <c r="C13" s="27">
@@ -1690,11 +1700,11 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="E13" s="30">
-        <v>0.45</v>
-      </c>
-      <c r="F13" s="30">
-        <f>E13</f>
-        <v>0.45</v>
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="62">
+        <f>SUM(E13:E14)</f>
+        <v>2</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>28</v>
@@ -1711,193 +1721,196 @@
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="10">
-        <f>SUM(E23:E27)</f>
+        <f>SUM(E24:E28)</f>
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="62">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="90"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1.25</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="40"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="90"/>
+      <c r="B15" s="60">
         <v>41593</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C15" s="27">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D15" s="27">
         <v>0.58680555555555558</v>
       </c>
-      <c r="E14" s="30">
-        <v>1.05</v>
-      </c>
-      <c r="F14" s="88">
-        <f>SUM(E14:E17)</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="33" t="s">
+      <c r="E15" s="30">
+        <v>1.083</v>
+      </c>
+      <c r="F15" s="62">
+        <f>SUM(E15:E18)</f>
+        <v>5.883</v>
+      </c>
+      <c r="G15" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H15" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I15" s="38" t="s">
         <v>77</v>
-      </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="10">
-        <f>SUM(E28:E32)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="27">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D15" s="27">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E15" s="30">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>71</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="10">
-        <f>SUM(E33:E37)</f>
+        <f>SUM(E29:E33)</f>
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="62">
-        <v>41594</v>
-      </c>
+    <row r="16" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="90"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="27">
-        <v>0.33680555555555558</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D16" s="27">
-        <v>0.375</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E16" s="30">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F16" s="89"/>
+        <v>2.33</v>
+      </c>
+      <c r="F16" s="63"/>
       <c r="G16" s="31" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J16" s="40"/>
       <c r="K16" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E38:E42)</f>
+        <f>SUM(E34:E38)</f>
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
-      <c r="B17" s="63"/>
+    <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="90"/>
+      <c r="B17" s="60">
+        <v>41594</v>
+      </c>
       <c r="C17" s="27">
-        <v>0.83333333333333337</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="D17" s="27">
-        <v>0.93055555555555547</v>
+        <v>0.375</v>
       </c>
       <c r="E17" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="F17" s="90"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F17" s="62">
+        <f>SUM(E17:E18)</f>
+        <v>2.4699999999999998</v>
+      </c>
       <c r="G17" s="31" t="s">
         <v>26</v>
       </c>
       <c r="H17" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="40"/>
+      <c r="K17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="10">
+        <f>SUM(E39:E43)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="91"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="27">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="E18" s="30">
+        <v>1.92</v>
+      </c>
+      <c r="F18" s="63"/>
+      <c r="G18" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I18" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
+      <c r="J18" s="40"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="59">
         <v>3</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B19" s="28">
         <v>41596</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
-        <f t="shared" ref="F18:F49" si="0">E18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="10">
-        <f>SUM(E43:E47)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="28">
-        <v>41597</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F19:F50" si="0">E19</f>
         <v>0</v>
       </c>
       <c r="G19" s="42"/>
@@ -1905,11 +1918,11 @@
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E48:E52)</f>
+        <f>SUM(E44:E48)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -1917,9 +1930,9 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="28">
-        <v>41598</v>
+        <v>41597</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1933,11 +1946,11 @@
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
       <c r="K20" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="10">
-        <f>SUM(E53:E57)</f>
+        <f>SUM(E49:E53)</f>
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
@@ -1945,9 +1958,9 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="28">
-        <v>41599</v>
+        <v>41598</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1961,11 +1974,11 @@
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="K21" s="8" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E58:E62)</f>
+        <f>SUM(E54:E58)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -1973,9 +1986,9 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="28">
-        <v>41600</v>
+        <v>41599</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1989,11 +2002,11 @@
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
       <c r="K22" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="10">
-        <f>SUM(E63:E67)</f>
+        <f>SUM(E59:E63)</f>
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -2001,29 +2014,27 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="50">
-        <v>4</v>
-      </c>
-      <c r="B23" s="29">
-        <v>41603</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6">
+      <c r="A23" s="59"/>
+      <c r="B23" s="28">
+        <v>41600</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E68:E72)</f>
+        <f>SUM(E64:E68)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2031,9 +2042,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="49">
+        <v>4</v>
+      </c>
       <c r="B24" s="29">
-        <v>41604</v>
+        <v>41603</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -2047,11 +2060,11 @@
       <c r="I24" s="43"/>
       <c r="J24" s="43"/>
       <c r="K24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10">
-        <f>SUM(E73:E77)</f>
+        <f>SUM(E69:E73)</f>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2059,9 +2072,9 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="29">
-        <v>41605</v>
+        <v>41604</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -2075,11 +2088,11 @@
       <c r="I25" s="43"/>
       <c r="J25" s="43"/>
       <c r="K25" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="10">
-        <f>SUM(E78:E82)</f>
+        <f>SUM(E74:E78)</f>
         <v>0</v>
       </c>
       <c r="N25" s="3" t="s">
@@ -2087,9 +2100,9 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="29">
-        <v>41606</v>
+        <v>41605</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -2103,11 +2116,11 @@
       <c r="I26" s="43"/>
       <c r="J26" s="43"/>
       <c r="K26" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="10">
-        <f>SUM(E83:E87)</f>
+        <f>SUM(E79:E83)</f>
         <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
@@ -2115,9 +2128,9 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="29">
-        <v>41607</v>
+        <v>41606</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -2131,11 +2144,11 @@
       <c r="I27" s="43"/>
       <c r="J27" s="43"/>
       <c r="K27" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="10">
-        <f>SUM(E88:E92)</f>
+        <f>SUM(E84:E88)</f>
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -2143,29 +2156,27 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="47">
-        <v>5</v>
-      </c>
-      <c r="B28" s="28">
-        <v>41610</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5">
+      <c r="A28" s="51"/>
+      <c r="B28" s="29">
+        <v>41607</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
       <c r="K28" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="10">
-        <f>SUM(E93:E97)</f>
+        <f>SUM(E89:E93)</f>
         <v>0</v>
       </c>
       <c r="N28" s="3" t="s">
@@ -2173,9 +2184,11 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="52">
+        <v>5</v>
+      </c>
       <c r="B29" s="28">
-        <v>41611</v>
+        <v>41610</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2189,11 +2202,11 @@
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
       <c r="K29" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="10">
-        <f>SUM(E98:E102)</f>
+        <f>SUM(E94:E98)</f>
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
@@ -2201,9 +2214,9 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="28">
-        <v>41612</v>
+        <v>41611</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -2217,11 +2230,11 @@
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
       <c r="K30" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="10">
-        <f>SUM(E103:E107)</f>
+        <f>SUM(E99:E103)</f>
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -2229,9 +2242,9 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="28">
-        <v>41613</v>
+        <v>41612</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2245,11 +2258,11 @@
       <c r="I31" s="42"/>
       <c r="J31" s="42"/>
       <c r="K31" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="10">
-        <f>SUM(E108:E112)</f>
+        <f>SUM(E104:E108)</f>
         <v>0</v>
       </c>
       <c r="N31" s="3" t="s">
@@ -2257,9 +2270,9 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="28">
-        <v>41614</v>
+        <v>41613</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2273,11 +2286,11 @@
       <c r="I32" s="42"/>
       <c r="J32" s="42"/>
       <c r="K32" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="10">
-        <f>SUM(E113:E117)</f>
+        <f>SUM(E109:E113)</f>
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
@@ -2285,29 +2298,27 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="50">
-        <v>6</v>
-      </c>
-      <c r="B33" s="29">
-        <v>41617</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6">
+      <c r="A33" s="54"/>
+      <c r="B33" s="28">
+        <v>41614</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
       <c r="K33" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="10">
-        <f>SUM(E118:E122)</f>
+        <f>SUM(E114:E118)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2315,9 +2326,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
+      <c r="A34" s="49">
+        <v>6</v>
+      </c>
       <c r="B34" s="29">
-        <v>41618</v>
+        <v>41617</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -2331,11 +2344,11 @@
       <c r="I34" s="43"/>
       <c r="J34" s="43"/>
       <c r="K34" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="10">
-        <f>SUM(E123:E127)</f>
+        <f>SUM(E119:E123)</f>
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -2343,9 +2356,9 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="29">
-        <v>41619</v>
+        <v>41618</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2359,11 +2372,11 @@
       <c r="I35" s="43"/>
       <c r="J35" s="43"/>
       <c r="K35" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E128:E132)</f>
+        <f>SUM(E124:E128)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2371,9 +2384,9 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="29">
-        <v>41620</v>
+        <v>41619</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -2387,11 +2400,11 @@
       <c r="I36" s="43"/>
       <c r="J36" s="43"/>
       <c r="K36" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="10">
-        <f>SUM(E133:E137)</f>
+        <f>SUM(E129:E133)</f>
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
@@ -2399,9 +2412,9 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="29">
-        <v>41621</v>
+        <v>41620</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -2415,11 +2428,11 @@
       <c r="I37" s="43"/>
       <c r="J37" s="43"/>
       <c r="K37" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E138:E142)</f>
+        <f>SUM(E134:E138)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2427,29 +2440,27 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="47">
-        <v>7</v>
-      </c>
-      <c r="B38" s="28">
-        <v>41624</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5">
+      <c r="A38" s="51"/>
+      <c r="B38" s="29">
+        <v>41621</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
       <c r="K38" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="10">
-        <f>SUM(E143:E147)</f>
+        <f>SUM(E139:E143)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2457,9 +2468,11 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="52">
+        <v>7</v>
+      </c>
       <c r="B39" s="28">
-        <v>41625</v>
+        <v>41624</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2473,11 +2486,11 @@
       <c r="I39" s="42"/>
       <c r="J39" s="42"/>
       <c r="K39" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E148:E152)</f>
+        <f>SUM(E144:E148)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2485,9 +2498,9 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="28">
-        <v>41626</v>
+        <v>41625</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2501,11 +2514,11 @@
       <c r="I40" s="42"/>
       <c r="J40" s="42"/>
       <c r="K40" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E153:E157)</f>
+        <f>SUM(E149:E153)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2513,9 +2526,9 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="28">
-        <v>41627</v>
+        <v>41626</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2528,11 +2541,22 @@
       <c r="H41" s="42"/>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
+      <c r="K41" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41" s="10">
+        <f>SUM(E154:E158)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="28">
-        <v>41628</v>
+        <v>41627</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2547,28 +2571,28 @@
       <c r="J42" s="42"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="50">
+      <c r="A43" s="54"/>
+      <c r="B43" s="28">
+        <v>41628</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="49">
         <v>8</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B44" s="29">
         <v>41631</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="29">
-        <v>41632</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2583,9 +2607,9 @@
       <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="29">
-        <v>41633</v>
+        <v>41632</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -2600,9 +2624,9 @@
       <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="29">
-        <v>41634</v>
+        <v>41633</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2617,9 +2641,9 @@
       <c r="J46" s="43"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="29">
-        <v>41635</v>
+        <v>41634</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -2634,28 +2658,28 @@
       <c r="J47" s="43"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="47">
+      <c r="A48" s="51"/>
+      <c r="B48" s="29">
+        <v>41635</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="52">
         <v>9</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B49" s="28">
         <v>41638</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="28">
-        <v>41639</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -2670,15 +2694,15 @@
       <c r="J49" s="42"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="28">
-        <v>41640</v>
+        <v>41639</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5">
-        <f t="shared" ref="F50:F81" si="1">E50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G50" s="42"/>
@@ -2687,15 +2711,15 @@
       <c r="J50" s="42"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="28">
-        <v>41641</v>
+        <v>41640</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F51:F82" si="1">E51</f>
         <v>0</v>
       </c>
       <c r="G51" s="42"/>
@@ -2704,9 +2728,9 @@
       <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="28">
-        <v>41642</v>
+        <v>41641</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -2721,28 +2745,28 @@
       <c r="J52" s="42"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="50">
+      <c r="A53" s="54"/>
+      <c r="B53" s="28">
+        <v>41642</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="49">
         <v>10</v>
       </c>
-      <c r="B53" s="29">
+      <c r="B54" s="29">
         <v>41645</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="29">
-        <v>41646</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2757,9 +2781,9 @@
       <c r="J54" s="43"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="29">
-        <v>41647</v>
+        <v>41646</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2774,9 +2798,9 @@
       <c r="J55" s="43"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="29">
-        <v>41648</v>
+        <v>41647</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2791,9 +2815,9 @@
       <c r="J56" s="43"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="52"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="29">
-        <v>41649</v>
+        <v>41648</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -2808,28 +2832,28 @@
       <c r="J57" s="43"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="47">
+      <c r="A58" s="51"/>
+      <c r="B58" s="29">
+        <v>41649</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="52">
         <v>11</v>
       </c>
-      <c r="B58" s="28">
+      <c r="B59" s="28">
         <v>41652</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="28">
-        <v>41653</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2844,9 +2868,9 @@
       <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
+      <c r="A60" s="53"/>
       <c r="B60" s="28">
-        <v>41654</v>
+        <v>41653</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2861,9 +2885,9 @@
       <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
+      <c r="A61" s="53"/>
       <c r="B61" s="28">
-        <v>41655</v>
+        <v>41654</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2878,9 +2902,9 @@
       <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
+      <c r="A62" s="53"/>
       <c r="B62" s="28">
-        <v>41656</v>
+        <v>41655</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -2895,28 +2919,28 @@
       <c r="J62" s="42"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="50">
+      <c r="A63" s="54"/>
+      <c r="B63" s="28">
+        <v>41656</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="49">
         <v>12</v>
       </c>
-      <c r="B63" s="29">
+      <c r="B64" s="29">
         <v>41659</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="29">
-        <v>41660</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2931,9 +2955,9 @@
       <c r="J64" s="43"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="29">
-        <v>41661</v>
+        <v>41660</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2948,9 +2972,9 @@
       <c r="J65" s="43"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
+      <c r="A66" s="50"/>
       <c r="B66" s="29">
-        <v>41662</v>
+        <v>41661</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -2965,9 +2989,9 @@
       <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="52"/>
+      <c r="A67" s="50"/>
       <c r="B67" s="29">
-        <v>41663</v>
+        <v>41662</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -2982,30 +3006,28 @@
       <c r="J67" s="43"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="47">
+      <c r="A68" s="51"/>
+      <c r="B68" s="29">
+        <v>41663</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="52">
         <v>13</v>
       </c>
-      <c r="B68" s="28">
+      <c r="B69" s="28">
         <v>41666</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
-      <c r="B69" s="28">
-        <v>41667</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -3022,9 +3044,9 @@
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
+      <c r="A70" s="53"/>
       <c r="B70" s="28">
-        <v>41668</v>
+        <v>41667</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -3041,9 +3063,9 @@
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
+      <c r="A71" s="53"/>
       <c r="B71" s="28">
-        <v>41669</v>
+        <v>41668</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3060,9 +3082,9 @@
       <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
+      <c r="A72" s="53"/>
       <c r="B72" s="28">
-        <v>41670</v>
+        <v>41669</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -3079,30 +3101,30 @@
       <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="50">
+      <c r="A73" s="54"/>
+      <c r="B73" s="28">
+        <v>41670</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="49">
         <v>14</v>
       </c>
-      <c r="B73" s="29">
+      <c r="B74" s="29">
         <v>41673</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
-      <c r="B74" s="29">
-        <v>41674</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -3119,9 +3141,9 @@
       <c r="J74" s="43"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="29">
-        <v>41675</v>
+        <v>41674</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -3138,9 +3160,9 @@
       <c r="J75" s="43"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="29">
-        <v>41676</v>
+        <v>41675</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -3157,9 +3179,9 @@
       <c r="J76" s="43"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="52"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="29">
-        <v>41677</v>
+        <v>41676</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -3176,28 +3198,30 @@
       <c r="J77" s="43"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="47">
+      <c r="A78" s="51"/>
+      <c r="B78" s="29">
+        <v>41677</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="52">
         <v>15</v>
       </c>
-      <c r="B78" s="28">
+      <c r="B79" s="28">
         <v>41680</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
-      <c r="B79" s="28">
-        <v>41681</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -3212,9 +3236,9 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
+      <c r="A80" s="53"/>
       <c r="B80" s="28">
-        <v>41682</v>
+        <v>41681</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -3229,9 +3253,9 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="48"/>
+      <c r="A81" s="53"/>
       <c r="B81" s="28">
-        <v>41683</v>
+        <v>41682</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -3246,15 +3270,15 @@
       <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="28">
-        <v>41684</v>
+        <v>41683</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5">
-        <f t="shared" ref="F82:F113" si="2">E82</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G82" s="42"/>
@@ -3263,28 +3287,28 @@
       <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="50">
+      <c r="A83" s="54"/>
+      <c r="B83" s="28">
+        <v>41684</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5">
+        <f t="shared" ref="F83:F114" si="2">E83</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="49">
         <v>16</v>
       </c>
-      <c r="B83" s="29">
+      <c r="B84" s="29">
         <v>41687</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="43"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
-      <c r="B84" s="29">
-        <v>41688</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -3299,9 +3323,9 @@
       <c r="J84" s="43"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
+      <c r="A85" s="50"/>
       <c r="B85" s="29">
-        <v>41689</v>
+        <v>41688</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -3316,9 +3340,9 @@
       <c r="J85" s="43"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
+      <c r="A86" s="50"/>
       <c r="B86" s="29">
-        <v>41690</v>
+        <v>41689</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -3333,9 +3357,9 @@
       <c r="J86" s="43"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="52"/>
+      <c r="A87" s="50"/>
       <c r="B87" s="29">
-        <v>41691</v>
+        <v>41690</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -3350,28 +3374,28 @@
       <c r="J87" s="43"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="47">
+      <c r="A88" s="51"/>
+      <c r="B88" s="29">
+        <v>41691</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="52">
         <v>17</v>
       </c>
-      <c r="B88" s="28">
+      <c r="B89" s="28">
         <v>41694</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
-      <c r="B89" s="28">
-        <v>41695</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -3386,9 +3410,9 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
+      <c r="A90" s="53"/>
       <c r="B90" s="28">
-        <v>41696</v>
+        <v>41695</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -3403,9 +3427,9 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
+      <c r="A91" s="53"/>
       <c r="B91" s="28">
-        <v>41697</v>
+        <v>41696</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -3420,9 +3444,9 @@
       <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
+      <c r="A92" s="53"/>
       <c r="B92" s="28">
-        <v>41698</v>
+        <v>41697</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -3437,28 +3461,28 @@
       <c r="J92" s="42"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="50">
+      <c r="A93" s="54"/>
+      <c r="B93" s="28">
+        <v>41698</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="49">
         <v>18</v>
       </c>
-      <c r="B93" s="29">
+      <c r="B94" s="29">
         <v>41701</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="43"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
-      <c r="B94" s="29">
-        <v>41702</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -3473,9 +3497,9 @@
       <c r="J94" s="43"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="29">
-        <v>41703</v>
+        <v>41702</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3490,9 +3514,9 @@
       <c r="J95" s="43"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="29">
-        <v>41704</v>
+        <v>41703</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3507,9 +3531,9 @@
       <c r="J96" s="43"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="52"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="29">
-        <v>41705</v>
+        <v>41704</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -3524,28 +3548,28 @@
       <c r="J97" s="43"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="47">
+      <c r="A98" s="51"/>
+      <c r="B98" s="29">
+        <v>41705</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="43"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="52">
         <v>19</v>
       </c>
-      <c r="B98" s="28">
+      <c r="B99" s="28">
         <v>41708</v>
-      </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="42"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="48"/>
-      <c r="B99" s="28">
-        <v>41709</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -3560,9 +3584,9 @@
       <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="48"/>
+      <c r="A100" s="53"/>
       <c r="B100" s="28">
-        <v>41710</v>
+        <v>41709</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -3577,9 +3601,9 @@
       <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="48"/>
+      <c r="A101" s="53"/>
       <c r="B101" s="28">
-        <v>41711</v>
+        <v>41710</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -3594,9 +3618,9 @@
       <c r="J101" s="42"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="49"/>
+      <c r="A102" s="53"/>
       <c r="B102" s="28">
-        <v>41712</v>
+        <v>41711</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -3611,28 +3635,28 @@
       <c r="J102" s="42"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="50">
+      <c r="A103" s="54"/>
+      <c r="B103" s="28">
+        <v>41712</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="49">
         <v>20</v>
       </c>
-      <c r="B103" s="29">
+      <c r="B104" s="29">
         <v>41715</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="43"/>
-      <c r="H103" s="43"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="43"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="51"/>
-      <c r="B104" s="29">
-        <v>41716</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3647,9 +3671,9 @@
       <c r="J104" s="43"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="51"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="29">
-        <v>41717</v>
+        <v>41716</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3664,9 +3688,9 @@
       <c r="J105" s="43"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="51"/>
+      <c r="A106" s="50"/>
       <c r="B106" s="29">
-        <v>41718</v>
+        <v>41717</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3681,9 +3705,9 @@
       <c r="J106" s="43"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="52"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="29">
-        <v>41719</v>
+        <v>41718</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3698,28 +3722,28 @@
       <c r="J107" s="43"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="47">
+      <c r="A108" s="51"/>
+      <c r="B108" s="29">
+        <v>41719</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="43"/>
+      <c r="H108" s="43"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="43"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="52">
         <v>21</v>
       </c>
-      <c r="B108" s="28">
+      <c r="B109" s="28">
         <v>41722</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="42"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
-      <c r="B109" s="28">
-        <v>41723</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -3734,9 +3758,9 @@
       <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="48"/>
+      <c r="A110" s="53"/>
       <c r="B110" s="28">
-        <v>41724</v>
+        <v>41723</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -3751,9 +3775,9 @@
       <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="48"/>
+      <c r="A111" s="53"/>
       <c r="B111" s="28">
-        <v>41725</v>
+        <v>41724</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3768,9 +3792,9 @@
       <c r="J111" s="42"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="28">
-        <v>41726</v>
+        <v>41725</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -3785,34 +3809,34 @@
       <c r="J112" s="42"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="50">
+      <c r="A113" s="54"/>
+      <c r="B113" s="28">
+        <v>41726</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="42"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="42"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="49">
         <v>22</v>
       </c>
-      <c r="B113" s="29">
+      <c r="B114" s="29">
         <v>41729</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G113" s="43"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="43"/>
-      <c r="J113" s="43"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="51"/>
-      <c r="B114" s="29">
-        <v>41730</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6">
-        <f t="shared" ref="F114:F145" si="3">E114</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G114" s="43"/>
@@ -3821,15 +3845,15 @@
       <c r="J114" s="43"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="51"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="29">
-        <v>41731</v>
+        <v>41730</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F115:F146" si="3">E115</f>
         <v>0</v>
       </c>
       <c r="G115" s="43"/>
@@ -3838,9 +3862,9 @@
       <c r="J115" s="43"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="51"/>
+      <c r="A116" s="50"/>
       <c r="B116" s="29">
-        <v>41732</v>
+        <v>41731</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3855,9 +3879,9 @@
       <c r="J116" s="43"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="52"/>
+      <c r="A117" s="50"/>
       <c r="B117" s="29">
-        <v>41733</v>
+        <v>41732</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3872,28 +3896,28 @@
       <c r="J117" s="43"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="47">
+      <c r="A118" s="51"/>
+      <c r="B118" s="29">
+        <v>41733</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
+      <c r="J118" s="43"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="52">
         <v>23</v>
       </c>
-      <c r="B118" s="28">
+      <c r="B119" s="28">
         <v>41736</v>
-      </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="42"/>
-      <c r="H118" s="42"/>
-      <c r="I118" s="42"/>
-      <c r="J118" s="42"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="48"/>
-      <c r="B119" s="28">
-        <v>41737</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -3908,9 +3932,9 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="48"/>
+      <c r="A120" s="53"/>
       <c r="B120" s="28">
-        <v>41738</v>
+        <v>41737</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -3925,9 +3949,9 @@
       <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="48"/>
+      <c r="A121" s="53"/>
       <c r="B121" s="28">
-        <v>41739</v>
+        <v>41738</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -3942,9 +3966,9 @@
       <c r="J121" s="42"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="49"/>
+      <c r="A122" s="53"/>
       <c r="B122" s="28">
-        <v>41740</v>
+        <v>41739</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -3959,28 +3983,28 @@
       <c r="J122" s="42"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="50">
+      <c r="A123" s="54"/>
+      <c r="B123" s="28">
+        <v>41740</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="42"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="49">
         <v>24</v>
       </c>
-      <c r="B123" s="29">
+      <c r="B124" s="29">
         <v>41743</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="43"/>
-      <c r="H123" s="43"/>
-      <c r="I123" s="43"/>
-      <c r="J123" s="43"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="51"/>
-      <c r="B124" s="29">
-        <v>41744</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3995,9 +4019,9 @@
       <c r="J124" s="43"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="51"/>
+      <c r="A125" s="50"/>
       <c r="B125" s="29">
-        <v>41745</v>
+        <v>41744</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -4012,9 +4036,9 @@
       <c r="J125" s="43"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="51"/>
+      <c r="A126" s="50"/>
       <c r="B126" s="29">
-        <v>41746</v>
+        <v>41745</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -4029,9 +4053,9 @@
       <c r="J126" s="43"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="52"/>
+      <c r="A127" s="50"/>
       <c r="B127" s="29">
-        <v>41747</v>
+        <v>41746</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -4046,28 +4070,28 @@
       <c r="J127" s="43"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="47">
+      <c r="A128" s="51"/>
+      <c r="B128" s="29">
+        <v>41747</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43"/>
+      <c r="I128" s="43"/>
+      <c r="J128" s="43"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="52">
         <v>25</v>
       </c>
-      <c r="B128" s="28">
+      <c r="B129" s="28">
         <v>41750</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G128" s="42"/>
-      <c r="H128" s="42"/>
-      <c r="I128" s="42"/>
-      <c r="J128" s="42"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="48"/>
-      <c r="B129" s="28">
-        <v>41751</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -4082,9 +4106,9 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="48"/>
+      <c r="A130" s="53"/>
       <c r="B130" s="28">
-        <v>41752</v>
+        <v>41751</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -4099,9 +4123,9 @@
       <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="48"/>
+      <c r="A131" s="53"/>
       <c r="B131" s="28">
-        <v>41753</v>
+        <v>41752</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -4116,9 +4140,9 @@
       <c r="J131" s="42"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="49"/>
+      <c r="A132" s="53"/>
       <c r="B132" s="28">
-        <v>41754</v>
+        <v>41753</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -4133,28 +4157,28 @@
       <c r="J132" s="42"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="50">
+      <c r="A133" s="54"/>
+      <c r="B133" s="28">
+        <v>41754</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="49">
         <v>26</v>
       </c>
-      <c r="B133" s="29">
+      <c r="B134" s="29">
         <v>41757</v>
-      </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G133" s="43"/>
-      <c r="H133" s="43"/>
-      <c r="I133" s="43"/>
-      <c r="J133" s="43"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="51"/>
-      <c r="B134" s="29">
-        <v>41758</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -4169,9 +4193,9 @@
       <c r="J134" s="43"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="51"/>
+      <c r="A135" s="50"/>
       <c r="B135" s="29">
-        <v>41759</v>
+        <v>41758</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -4186,9 +4210,9 @@
       <c r="J135" s="43"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="51"/>
+      <c r="A136" s="50"/>
       <c r="B136" s="29">
-        <v>41760</v>
+        <v>41759</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -4203,9 +4227,9 @@
       <c r="J136" s="43"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="52"/>
+      <c r="A137" s="50"/>
       <c r="B137" s="29">
-        <v>41761</v>
+        <v>41760</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -4220,28 +4244,28 @@
       <c r="J137" s="43"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="47">
+      <c r="A138" s="51"/>
+      <c r="B138" s="29">
+        <v>41761</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="43"/>
+      <c r="H138" s="43"/>
+      <c r="I138" s="43"/>
+      <c r="J138" s="43"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="52">
         <v>27</v>
       </c>
-      <c r="B138" s="28">
+      <c r="B139" s="28">
         <v>41764</v>
-      </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G138" s="42"/>
-      <c r="H138" s="42"/>
-      <c r="I138" s="42"/>
-      <c r="J138" s="42"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="48"/>
-      <c r="B139" s="28">
-        <v>41765</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -4256,9 +4280,9 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="48"/>
+      <c r="A140" s="53"/>
       <c r="B140" s="28">
-        <v>41766</v>
+        <v>41765</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -4273,9 +4297,9 @@
       <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="48"/>
+      <c r="A141" s="53"/>
       <c r="B141" s="28">
-        <v>41767</v>
+        <v>41766</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -4290,9 +4314,9 @@
       <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="49"/>
+      <c r="A142" s="53"/>
       <c r="B142" s="28">
-        <v>41768</v>
+        <v>41767</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -4307,28 +4331,28 @@
       <c r="J142" s="42"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="50">
+      <c r="A143" s="54"/>
+      <c r="B143" s="28">
+        <v>41768</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="42"/>
+      <c r="H143" s="42"/>
+      <c r="I143" s="42"/>
+      <c r="J143" s="42"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="49">
         <v>28</v>
       </c>
-      <c r="B143" s="29">
+      <c r="B144" s="29">
         <v>41771</v>
-      </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G143" s="43"/>
-      <c r="H143" s="43"/>
-      <c r="I143" s="43"/>
-      <c r="J143" s="43"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="51"/>
-      <c r="B144" s="29">
-        <v>41772</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -4343,9 +4367,9 @@
       <c r="J144" s="43"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="51"/>
+      <c r="A145" s="50"/>
       <c r="B145" s="29">
-        <v>41773</v>
+        <v>41772</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -4360,15 +4384,15 @@
       <c r="J145" s="43"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="51"/>
+      <c r="A146" s="50"/>
       <c r="B146" s="29">
-        <v>41774</v>
+        <v>41773</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6">
-        <f t="shared" ref="F146:F177" si="4">E146</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G146" s="43"/>
@@ -4377,15 +4401,15 @@
       <c r="J146" s="43"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="52"/>
+      <c r="A147" s="50"/>
       <c r="B147" s="29">
-        <v>41775</v>
+        <v>41774</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F147:F158" si="4">E147</f>
         <v>0</v>
       </c>
       <c r="G147" s="43"/>
@@ -4394,28 +4418,28 @@
       <c r="J147" s="43"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="47">
+      <c r="A148" s="51"/>
+      <c r="B148" s="29">
+        <v>41775</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="43"/>
+      <c r="H148" s="43"/>
+      <c r="I148" s="43"/>
+      <c r="J148" s="43"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="52">
         <v>29</v>
       </c>
-      <c r="B148" s="28">
+      <c r="B149" s="28">
         <v>41778</v>
-      </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G148" s="42"/>
-      <c r="H148" s="42"/>
-      <c r="I148" s="42"/>
-      <c r="J148" s="42"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="48"/>
-      <c r="B149" s="28">
-        <v>41779</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -4430,9 +4454,9 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="48"/>
+      <c r="A150" s="53"/>
       <c r="B150" s="28">
-        <v>41780</v>
+        <v>41779</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -4447,9 +4471,9 @@
       <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="48"/>
+      <c r="A151" s="53"/>
       <c r="B151" s="28">
-        <v>41781</v>
+        <v>41780</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -4464,9 +4488,9 @@
       <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="49"/>
+      <c r="A152" s="53"/>
       <c r="B152" s="28">
-        <v>41782</v>
+        <v>41781</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -4481,28 +4505,28 @@
       <c r="J152" s="42"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="53">
+      <c r="A153" s="54"/>
+      <c r="B153" s="28">
+        <v>41782</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="42"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="42"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="55">
         <v>30</v>
       </c>
-      <c r="B153" s="29">
+      <c r="B154" s="29">
         <v>41785</v>
-      </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G153" s="44"/>
-      <c r="H153" s="44"/>
-      <c r="I153" s="44"/>
-      <c r="J153" s="44"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="54"/>
-      <c r="B154" s="29">
-        <v>41786</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -4517,9 +4541,9 @@
       <c r="J154" s="44"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="54"/>
+      <c r="A155" s="56"/>
       <c r="B155" s="29">
-        <v>41787</v>
+        <v>41786</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -4534,9 +4558,9 @@
       <c r="J155" s="44"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="54"/>
+      <c r="A156" s="56"/>
       <c r="B156" s="29">
-        <v>41788</v>
+        <v>41787</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -4551,9 +4575,9 @@
       <c r="J156" s="44"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="55"/>
+      <c r="A157" s="56"/>
       <c r="B157" s="29">
-        <v>41789</v>
+        <v>41788</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -4567,78 +4591,98 @@
       <c r="I157" s="44"/>
       <c r="J157" s="44"/>
     </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="57"/>
+      <c r="B158" s="29">
+        <v>41789</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="44"/>
+      <c r="H158" s="44"/>
+      <c r="I158" s="44"/>
+      <c r="J158" s="44"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="47">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A10:A18"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A59:A63"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>5000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>700</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+      <formula>4704</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
       <formula>700</formula>
       <formula>4704</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>4704</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>700</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>5000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M11:M12 F8 F11 F14" formulaRange="1"/>
+    <ignoredError sqref="M10:M12 M8 F8 F11 F13 F15 F17" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="37" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
+          <x14:cfRule type="iconSet" priority="38" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4657,7 +4701,7 @@
           <xm:sqref>M10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
+          <x14:cfRule type="iconSet" priority="37" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4676,7 +4720,7 @@
           <xm:sqref>M12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="35" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
+          <x14:cfRule type="iconSet" priority="36" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4692,29 +4736,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M13</xm:sqref>
+          <xm:sqref>M13:M14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="34" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{D55CCFD4-ED16-4942-B8E7-E8596BA63DE9}">
+          <x14:cfRule type="iconSet" priority="35" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4733,7 +4758,7 @@
           <xm:sqref>M15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{8DF54BCB-92DC-49D8-B5B7-C930B758DAC9}">
+          <x14:cfRule type="iconSet" priority="34" id="{D55CCFD4-ED16-4942-B8E7-E8596BA63DE9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4749,10 +4774,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M16:M17</xm:sqref>
+          <xm:sqref>M16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
+          <x14:cfRule type="iconSet" priority="33" id="{8DF54BCB-92DC-49D8-B5B7-C930B758DAC9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4768,10 +4793,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M18</xm:sqref>
+          <xm:sqref>M17:M18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
+          <x14:cfRule type="iconSet" priority="32" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4790,7 +4815,7 @@
           <xm:sqref>M19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
+          <x14:cfRule type="iconSet" priority="31" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4809,7 +4834,7 @@
           <xm:sqref>M20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
+          <x14:cfRule type="iconSet" priority="30" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4828,7 +4853,7 @@
           <xm:sqref>M21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
+          <x14:cfRule type="iconSet" priority="29" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4847,7 +4872,7 @@
           <xm:sqref>M22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
+          <x14:cfRule type="iconSet" priority="28" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4866,7 +4891,7 @@
           <xm:sqref>M23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
+          <x14:cfRule type="iconSet" priority="27" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4885,7 +4910,7 @@
           <xm:sqref>M24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
+          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4904,7 +4929,7 @@
           <xm:sqref>M25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
+          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4923,7 +4948,7 @@
           <xm:sqref>M26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4942,7 +4967,7 @@
           <xm:sqref>M27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4961,7 +4986,7 @@
           <xm:sqref>M28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4980,7 +5005,7 @@
           <xm:sqref>M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4999,7 +5024,7 @@
           <xm:sqref>M30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5018,7 +5043,7 @@
           <xm:sqref>M31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5037,7 +5062,7 @@
           <xm:sqref>M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5056,7 +5081,7 @@
           <xm:sqref>M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5075,7 +5100,7 @@
           <xm:sqref>M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5094,7 +5119,7 @@
           <xm:sqref>M35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5113,7 +5138,7 @@
           <xm:sqref>M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5132,7 +5157,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5151,7 +5176,7 @@
           <xm:sqref>M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5170,7 +5195,7 @@
           <xm:sqref>M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5189,7 +5214,26 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
+          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5208,7 +5252,7 @@
           <xm:sqref>M8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+          <x14:cfRule type="iconSet" priority="8" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5224,7 +5268,26 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F7:F8 F18:F157 F10:F11 F13:F14</xm:sqref>
+          <xm:sqref>F7:F8 F19:F158 F10:F11 F13 F15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{3E29B8AA-8D68-43AF-9EB7-101178C89B70}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -81,9 +81,6 @@
     <t>Time for doing week 7</t>
   </si>
   <si>
-    <t>Time for doing week 8</t>
-  </si>
-  <si>
     <t>Time for doing week 9</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>Present work that team completed in this week 2</t>
+  </si>
+  <si>
+    <t>Update time log template</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -737,6 +737,51 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,6 +791,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -755,6 +869,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -764,127 +887,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1219,10 +1237,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1230,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1238,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1246,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1254,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1262,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1270,7 +1288,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1278,7 +1296,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1286,7 +1304,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1294,7 +1312,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1302,7 +1320,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1310,7 +1328,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1320,13 +1338,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O158"/>
+  <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1334,7 +1352,7 @@
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
@@ -1349,87 +1367,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67"/>
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="70"/>
+      <c r="A2" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
+      <c r="A3" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="60"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="16"/>
       <c r="H5" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="46" t="s">
         <v>80</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>81</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1454,13 +1472,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="34" t="s">
         <v>6</v>
@@ -1468,13 +1486,13 @@
       <c r="J6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="77">
+      <c r="A7" s="61">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1497,25 +1515,25 @@
         <v>10</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="64" t="s">
+      <c r="K7" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="64"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="35">
-        <f>SUM(M8:M41)</f>
-        <v>15.953000000000001</v>
+        <f>SUM(M8:M40)</f>
+        <v>17.953000000000003</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="92">
+      <c r="A8" s="62"/>
+      <c r="B8" s="81">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1527,18 +1545,18 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="94">
+      <c r="F8" s="83">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="8" t="s">
@@ -1554,8 +1572,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="93"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1565,20 +1583,20 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="95"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="89">
+      <c r="A10" s="78">
         <v>2</v>
       </c>
       <c r="B10" s="23">
@@ -1598,13 +1616,13 @@
         <v>2.25</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="8" t="s">
@@ -1621,8 +1639,8 @@
       <c r="O10" s="37"/>
     </row>
     <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
-      <c r="B11" s="60">
+      <c r="A11" s="79"/>
+      <c r="B11" s="67">
         <v>41591</v>
       </c>
       <c r="C11" s="27">
@@ -1634,18 +1652,18 @@
       <c r="E11" s="30">
         <v>2</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="85">
         <f>SUM(E11:E12)</f>
         <v>3</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="8"/>
@@ -1654,8 +1672,8 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1665,15 +1683,15 @@
       <c r="E12" s="30">
         <v>1</v>
       </c>
-      <c r="F12" s="63"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="8" t="s">
@@ -1681,16 +1699,16 @@
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="10">
-        <f>SUM(E19:E23)</f>
-        <v>0</v>
+        <f>SUM(E19:E22)</f>
+        <v>2</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
-      <c r="B13" s="60">
+      <c r="A13" s="79"/>
+      <c r="B13" s="67">
         <v>41592</v>
       </c>
       <c r="C13" s="27">
@@ -1702,18 +1720,18 @@
       <c r="E13" s="30">
         <v>0.75</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="85">
         <f>SUM(E13:E14)</f>
         <v>2</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="8" t="s">
@@ -1721,7 +1739,7 @@
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="10">
-        <f>SUM(E24:E28)</f>
+        <f>SUM(E23:E27)</f>
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
@@ -1729,8 +1747,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
-      <c r="B14" s="61"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="27">
         <v>0.875</v>
       </c>
@@ -1740,15 +1758,15 @@
       <c r="E14" s="30">
         <v>1.25</v>
       </c>
-      <c r="F14" s="63"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="8"/>
@@ -1757,8 +1775,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
-      <c r="B15" s="60">
+      <c r="A15" s="79"/>
+      <c r="B15" s="67">
         <v>41593</v>
       </c>
       <c r="C15" s="27">
@@ -1770,18 +1788,18 @@
       <c r="E15" s="30">
         <v>1.083</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="85">
         <f>SUM(E15:E18)</f>
         <v>5.883</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="8" t="s">
@@ -1789,7 +1807,7 @@
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="10">
-        <f>SUM(E29:E33)</f>
+        <f>SUM(E28:E32)</f>
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
@@ -1797,8 +1815,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1808,15 +1826,15 @@
       <c r="E16" s="30">
         <v>2.33</v>
       </c>
-      <c r="F16" s="63"/>
+      <c r="F16" s="86"/>
       <c r="G16" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="40"/>
       <c r="K16" s="8" t="s">
@@ -1824,7 +1842,7 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E34:E38)</f>
+        <f>SUM(E33:E37)</f>
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
@@ -1832,8 +1850,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="60">
+      <c r="A17" s="79"/>
+      <c r="B17" s="67">
         <v>41594</v>
       </c>
       <c r="C17" s="27">
@@ -1845,18 +1863,18 @@
       <c r="E17" s="30">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="85">
         <f>SUM(E17:E18)</f>
         <v>2.4699999999999998</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="40"/>
       <c r="K17" s="8" t="s">
@@ -1864,7 +1882,7 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E39:E43)</f>
+        <f>SUM(E38:E42)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -1872,8 +1890,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="27">
         <v>0.83333333333333337</v>
       </c>
@@ -1883,15 +1901,15 @@
       <c r="E18" s="30">
         <v>1.92</v>
       </c>
-      <c r="F18" s="63"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="8"/>
@@ -1900,21 +1918,29 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="59">
-        <v>3</v>
-      </c>
+      <c r="A19" s="94"/>
       <c r="B19" s="28">
-        <v>41596</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5">
-        <f t="shared" ref="F19:F50" si="0">E19</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+        <v>41597</v>
+      </c>
+      <c r="C19" s="99">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D19" s="99">
+        <v>0.4375</v>
+      </c>
+      <c r="E19" s="100">
+        <v>2</v>
+      </c>
+      <c r="F19" s="101">
+        <f t="shared" ref="F19:F49" si="0">E19</f>
+        <v>2</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>82</v>
+      </c>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="8" t="s">
@@ -1922,7 +1948,7 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E44:E48)</f>
+        <f>SUM(E48:E52)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -1930,14 +1956,14 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="28">
-        <v>41597</v>
+        <v>41598</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5">
+      <c r="F20" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1950,7 +1976,7 @@
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="10">
-        <f>SUM(E49:E53)</f>
+        <f>SUM(E53:E57)</f>
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
@@ -1958,14 +1984,14 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
+      <c r="A21" s="94"/>
       <c r="B21" s="28">
-        <v>41598</v>
+        <v>41599</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5">
+      <c r="F21" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1974,11 +2000,11 @@
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="K21" s="8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E54:E58)</f>
+        <f>SUM(E58:E62)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -1986,14 +2012,14 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="94"/>
       <c r="B22" s="28">
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5">
+      <c r="F22" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2006,7 +2032,7 @@
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="10">
-        <f>SUM(E59:E63)</f>
+        <f>SUM(E63:E67)</f>
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -2014,27 +2040,29 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="28">
-        <v>41600</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5">
+      <c r="A23" s="64">
+        <v>4</v>
+      </c>
+      <c r="B23" s="29">
+        <v>41603</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
       <c r="K23" s="8" t="s">
         <v>39</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E64:E68)</f>
+        <f>SUM(E68:E72)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2042,16 +2070,14 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="49">
-        <v>4</v>
-      </c>
+      <c r="A24" s="65"/>
       <c r="B24" s="29">
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6">
+      <c r="F24" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2064,7 +2090,7 @@
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10">
-        <f>SUM(E69:E73)</f>
+        <f>SUM(E73:E77)</f>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2072,14 +2098,14 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="29">
-        <v>41604</v>
+        <v>41605</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6">
+      <c r="F25" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2092,7 +2118,7 @@
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="10">
-        <f>SUM(E74:E78)</f>
+        <f>SUM(E78:E82)</f>
         <v>0</v>
       </c>
       <c r="N25" s="3" t="s">
@@ -2100,14 +2126,14 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="29">
-        <v>41605</v>
+        <v>41606</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6">
+      <c r="F26" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2120,7 +2146,7 @@
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="10">
-        <f>SUM(E79:E83)</f>
+        <f>SUM(E83:E87)</f>
         <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
@@ -2128,14 +2154,14 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="29">
-        <v>41606</v>
+        <v>41607</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6">
+      <c r="F27" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2148,7 +2174,7 @@
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="10">
-        <f>SUM(E84:E88)</f>
+        <f>SUM(E88:E92)</f>
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -2156,27 +2182,29 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="29">
-        <v>41607</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6">
+      <c r="A28" s="90">
+        <v>5</v>
+      </c>
+      <c r="B28" s="28">
+        <v>41610</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="8" t="s">
         <v>44</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="10">
-        <f>SUM(E89:E93)</f>
+        <f>SUM(E93:E97)</f>
         <v>0</v>
       </c>
       <c r="N28" s="3" t="s">
@@ -2184,16 +2212,14 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="52">
-        <v>5</v>
-      </c>
+      <c r="A29" s="91"/>
       <c r="B29" s="28">
-        <v>41610</v>
+        <v>41611</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5">
+      <c r="F29" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2206,7 +2232,7 @@
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="10">
-        <f>SUM(E94:E98)</f>
+        <f>SUM(E98:E102)</f>
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
@@ -2214,14 +2240,14 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="28">
-        <v>41611</v>
+        <v>41612</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="5">
+      <c r="F30" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2234,7 +2260,7 @@
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="10">
-        <f>SUM(E99:E103)</f>
+        <f>SUM(E103:E107)</f>
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -2242,14 +2268,14 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="28">
-        <v>41612</v>
+        <v>41613</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5">
+      <c r="F31" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2262,7 +2288,7 @@
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="10">
-        <f>SUM(E104:E108)</f>
+        <f>SUM(E108:E112)</f>
         <v>0</v>
       </c>
       <c r="N31" s="3" t="s">
@@ -2270,14 +2296,14 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="28">
-        <v>41613</v>
+        <v>41614</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="5">
+      <c r="F32" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2290,7 +2316,7 @@
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="10">
-        <f>SUM(E109:E113)</f>
+        <f>SUM(E113:E117)</f>
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
@@ -2298,27 +2324,29 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="28">
-        <v>41614</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5">
+      <c r="A33" s="64">
+        <v>6</v>
+      </c>
+      <c r="B33" s="29">
+        <v>41617</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
       <c r="K33" s="8" t="s">
         <v>49</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="10">
-        <f>SUM(E114:E118)</f>
+        <f>SUM(E118:E122)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2326,16 +2354,14 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="49">
-        <v>6</v>
-      </c>
+      <c r="A34" s="65"/>
       <c r="B34" s="29">
-        <v>41617</v>
+        <v>41618</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6">
+      <c r="F34" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2348,7 +2374,7 @@
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="10">
-        <f>SUM(E119:E123)</f>
+        <f>SUM(E123:E127)</f>
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -2356,14 +2382,14 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="29">
-        <v>41618</v>
+        <v>41619</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="6">
+      <c r="F35" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2376,7 +2402,7 @@
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E124:E128)</f>
+        <f>SUM(E128:E132)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2384,14 +2410,14 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="29">
-        <v>41619</v>
+        <v>41620</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="6">
+      <c r="F36" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2404,7 +2430,7 @@
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="10">
-        <f>SUM(E129:E133)</f>
+        <f>SUM(E133:E137)</f>
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
@@ -2412,14 +2438,14 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="29">
-        <v>41620</v>
+        <v>41621</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="6">
+      <c r="F37" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2432,7 +2458,7 @@
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E134:E138)</f>
+        <f>SUM(E138:E142)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2440,27 +2466,29 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="29">
-        <v>41621</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6">
+      <c r="A38" s="90">
+        <v>7</v>
+      </c>
+      <c r="B38" s="28">
+        <v>41624</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
       <c r="K38" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="10">
-        <f>SUM(E139:E143)</f>
+        <f>SUM(E143:E147)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2468,16 +2496,14 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="52">
-        <v>7</v>
-      </c>
+      <c r="A39" s="91"/>
       <c r="B39" s="28">
-        <v>41624</v>
+        <v>41625</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="5">
+      <c r="F39" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2490,7 +2516,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E144:E148)</f>
+        <f>SUM(E148:E152)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2498,14 +2524,14 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="28">
-        <v>41625</v>
+        <v>41626</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="5">
+      <c r="F40" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2518,7 +2544,7 @@
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E149:E153)</f>
+        <f>SUM(E153:E157)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2526,14 +2552,14 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
+      <c r="A41" s="91"/>
       <c r="B41" s="28">
-        <v>41626</v>
+        <v>41627</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="5">
+      <c r="F41" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2541,27 +2567,16 @@
       <c r="H41" s="42"/>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
-      <c r="K41" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="10">
-        <f>SUM(E154:E158)</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
+      <c r="A42" s="92"/>
       <c r="B42" s="28">
-        <v>41627</v>
+        <v>41628</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="5">
+      <c r="F42" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2571,33 +2586,33 @@
       <c r="J42" s="42"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="28">
-        <v>41628</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5">
+      <c r="A43" s="64">
+        <v>8</v>
+      </c>
+      <c r="B43" s="29">
+        <v>41631</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="49">
-        <v>8</v>
-      </c>
+      <c r="A44" s="65"/>
       <c r="B44" s="29">
-        <v>41631</v>
+        <v>41632</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="6">
+      <c r="F44" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2607,14 +2622,14 @@
       <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="29">
-        <v>41632</v>
+        <v>41633</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="6">
+      <c r="F45" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2624,14 +2639,14 @@
       <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="29">
-        <v>41633</v>
+        <v>41634</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="6">
+      <c r="F46" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2641,14 +2656,14 @@
       <c r="J46" s="43"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="29">
-        <v>41634</v>
+        <v>41635</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="6">
+      <c r="F47" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2658,33 +2673,33 @@
       <c r="J47" s="43"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="29">
-        <v>41635</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6">
+      <c r="A48" s="90">
+        <v>9</v>
+      </c>
+      <c r="B48" s="28">
+        <v>41638</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="52">
-        <v>9</v>
-      </c>
+      <c r="A49" s="91"/>
       <c r="B49" s="28">
-        <v>41638</v>
+        <v>41639</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="5">
+      <c r="F49" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2694,15 +2709,15 @@
       <c r="J49" s="42"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+      <c r="A50" s="91"/>
       <c r="B50" s="28">
-        <v>41639</v>
+        <v>41640</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="5">
-        <f t="shared" si="0"/>
+      <c r="F50" s="102">
+        <f t="shared" ref="F50:F81" si="1">E50</f>
         <v>0</v>
       </c>
       <c r="G50" s="42"/>
@@ -2711,15 +2726,15 @@
       <c r="J50" s="42"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+      <c r="A51" s="91"/>
       <c r="B51" s="28">
-        <v>41640</v>
+        <v>41641</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="5">
-        <f t="shared" ref="F51:F82" si="1">E51</f>
+      <c r="F51" s="102">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G51" s="42"/>
@@ -2728,14 +2743,14 @@
       <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
+      <c r="A52" s="92"/>
       <c r="B52" s="28">
-        <v>41641</v>
+        <v>41642</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="5">
+      <c r="F52" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2745,33 +2760,33 @@
       <c r="J52" s="42"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="28">
-        <v>41642</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5">
+      <c r="A53" s="64">
+        <v>10</v>
+      </c>
+      <c r="B53" s="29">
+        <v>41645</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="49">
-        <v>10</v>
-      </c>
+      <c r="A54" s="65"/>
       <c r="B54" s="29">
-        <v>41645</v>
+        <v>41646</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="6">
+      <c r="F54" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2781,14 +2796,14 @@
       <c r="J54" s="43"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
+      <c r="A55" s="65"/>
       <c r="B55" s="29">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="6">
+      <c r="F55" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2798,14 +2813,14 @@
       <c r="J55" s="43"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="29">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="6">
+      <c r="F56" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2815,14 +2830,14 @@
       <c r="J56" s="43"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="29">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="6">
+      <c r="F57" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2832,33 +2847,33 @@
       <c r="J57" s="43"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="29">
-        <v>41649</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6">
+      <c r="A58" s="90">
+        <v>11</v>
+      </c>
+      <c r="B58" s="28">
+        <v>41652</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="52">
-        <v>11</v>
-      </c>
+      <c r="A59" s="91"/>
       <c r="B59" s="28">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="5">
+      <c r="F59" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2868,14 +2883,14 @@
       <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
+      <c r="A60" s="91"/>
       <c r="B60" s="28">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="5">
+      <c r="F60" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2885,14 +2900,14 @@
       <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
+      <c r="A61" s="91"/>
       <c r="B61" s="28">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="5">
+      <c r="F61" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2902,14 +2917,14 @@
       <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
+      <c r="A62" s="92"/>
       <c r="B62" s="28">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="5">
+      <c r="F62" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2919,33 +2934,33 @@
       <c r="J62" s="42"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
-      <c r="B63" s="28">
-        <v>41656</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5">
+      <c r="A63" s="64">
+        <v>12</v>
+      </c>
+      <c r="B63" s="29">
+        <v>41659</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="49">
-        <v>12</v>
-      </c>
+      <c r="A64" s="65"/>
       <c r="B64" s="29">
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
-      <c r="F64" s="6">
+      <c r="F64" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2955,14 +2970,14 @@
       <c r="J64" s="43"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="29">
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="6">
+      <c r="F65" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2972,14 +2987,14 @@
       <c r="J65" s="43"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
+      <c r="A66" s="65"/>
       <c r="B66" s="29">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="6">
+      <c r="F66" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2989,14 +3004,14 @@
       <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="29">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="6">
+      <c r="F67" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3006,227 +3021,227 @@
       <c r="J67" s="43"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
-      <c r="B68" s="29">
-        <v>41663</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6">
+      <c r="A68" s="90">
+        <v>13</v>
+      </c>
+      <c r="B68" s="28">
+        <v>41666</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
+      <c r="G68" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="52">
-        <v>13</v>
-      </c>
+      <c r="A69" s="91"/>
       <c r="B69" s="28">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="5">
+      <c r="F69" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G69" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69" s="42"/>
       <c r="I69" s="42"/>
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="53"/>
+      <c r="A70" s="91"/>
       <c r="B70" s="28">
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="5">
+      <c r="F70" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G70" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H70" s="42"/>
       <c r="I70" s="42"/>
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="53"/>
+      <c r="A71" s="91"/>
       <c r="B71" s="28">
-        <v>41668</v>
+        <v>41669</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="5">
+      <c r="F71" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G71" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H71" s="42"/>
       <c r="I71" s="42"/>
       <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
+      <c r="A72" s="92"/>
       <c r="B72" s="28">
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="5">
+      <c r="F72" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G72" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72" s="42"/>
       <c r="I72" s="42"/>
       <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
-      <c r="B73" s="28">
-        <v>41670</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5">
+      <c r="A73" s="64">
+        <v>14</v>
+      </c>
+      <c r="B73" s="29">
+        <v>41673</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G73" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
+      <c r="G73" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="49">
-        <v>14</v>
-      </c>
+      <c r="A74" s="65"/>
       <c r="B74" s="29">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="6">
+      <c r="F74" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G74" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H74" s="43"/>
       <c r="I74" s="43"/>
       <c r="J74" s="43"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="29">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
-      <c r="F75" s="6">
+      <c r="F75" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G75" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75" s="43"/>
       <c r="I75" s="43"/>
       <c r="J75" s="43"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="50"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="29">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="6">
+      <c r="F76" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G76" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76" s="43"/>
       <c r="I76" s="43"/>
       <c r="J76" s="43"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="29">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
-      <c r="F77" s="6">
+      <c r="F77" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G77" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H77" s="43"/>
       <c r="I77" s="43"/>
       <c r="J77" s="43"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="29">
-        <v>41677</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6">
+      <c r="A78" s="90">
+        <v>15</v>
+      </c>
+      <c r="B78" s="28">
+        <v>41680</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G78" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="52">
-        <v>15</v>
-      </c>
+      <c r="A79" s="91"/>
       <c r="B79" s="28">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="5">
+      <c r="F79" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3236,14 +3251,14 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="53"/>
+      <c r="A80" s="91"/>
       <c r="B80" s="28">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="5">
+      <c r="F80" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3253,14 +3268,14 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="53"/>
+      <c r="A81" s="91"/>
       <c r="B81" s="28">
-        <v>41682</v>
+        <v>41683</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
-      <c r="F81" s="5">
+      <c r="F81" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3270,15 +3285,15 @@
       <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="53"/>
+      <c r="A82" s="92"/>
       <c r="B82" s="28">
-        <v>41683</v>
+        <v>41684</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
-      <c r="F82" s="5">
-        <f t="shared" si="1"/>
+      <c r="F82" s="102">
+        <f t="shared" ref="F82:F113" si="2">E82</f>
         <v>0</v>
       </c>
       <c r="G82" s="42"/>
@@ -3287,33 +3302,33 @@
       <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="54"/>
-      <c r="B83" s="28">
-        <v>41684</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5">
-        <f t="shared" ref="F83:F114" si="2">E83</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
+      <c r="A83" s="64">
+        <v>16</v>
+      </c>
+      <c r="B83" s="29">
+        <v>41687</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="103">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="49">
-        <v>16</v>
-      </c>
+      <c r="A84" s="65"/>
       <c r="B84" s="29">
-        <v>41687</v>
+        <v>41688</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="6">
+      <c r="F84" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3323,14 +3338,14 @@
       <c r="J84" s="43"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
+      <c r="A85" s="65"/>
       <c r="B85" s="29">
-        <v>41688</v>
+        <v>41689</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="6">
+      <c r="F85" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3340,14 +3355,14 @@
       <c r="J85" s="43"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="50"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="29">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="6">
+      <c r="F86" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3357,14 +3372,14 @@
       <c r="J86" s="43"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="50"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="29">
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="6">
+      <c r="F87" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3374,33 +3389,33 @@
       <c r="J87" s="43"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
-      <c r="B88" s="29">
-        <v>41691</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6">
+      <c r="A88" s="90">
+        <v>17</v>
+      </c>
+      <c r="B88" s="28">
+        <v>41694</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="43"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="52">
-        <v>17</v>
-      </c>
+      <c r="A89" s="91"/>
       <c r="B89" s="28">
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
-      <c r="F89" s="5">
+      <c r="F89" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3410,14 +3425,14 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="53"/>
+      <c r="A90" s="91"/>
       <c r="B90" s="28">
-        <v>41695</v>
+        <v>41696</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="5">
+      <c r="F90" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3427,14 +3442,14 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="53"/>
+      <c r="A91" s="91"/>
       <c r="B91" s="28">
-        <v>41696</v>
+        <v>41697</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="5">
+      <c r="F91" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3444,14 +3459,14 @@
       <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="53"/>
+      <c r="A92" s="92"/>
       <c r="B92" s="28">
-        <v>41697</v>
+        <v>41698</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
-      <c r="F92" s="5">
+      <c r="F92" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3461,33 +3476,33 @@
       <c r="J92" s="42"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
-      <c r="B93" s="28">
-        <v>41698</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5">
+      <c r="A93" s="64">
+        <v>18</v>
+      </c>
+      <c r="B93" s="29">
+        <v>41701</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G93" s="42"/>
-      <c r="H93" s="42"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="42"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="49">
-        <v>18</v>
-      </c>
+      <c r="A94" s="65"/>
       <c r="B94" s="29">
-        <v>41701</v>
+        <v>41702</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
-      <c r="F94" s="6">
+      <c r="F94" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3497,14 +3512,14 @@
       <c r="J94" s="43"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="50"/>
+      <c r="A95" s="65"/>
       <c r="B95" s="29">
-        <v>41702</v>
+        <v>41703</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
-      <c r="F95" s="6">
+      <c r="F95" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3514,14 +3529,14 @@
       <c r="J95" s="43"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="50"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="29">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
-      <c r="F96" s="6">
+      <c r="F96" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3531,14 +3546,14 @@
       <c r="J96" s="43"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="50"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="29">
-        <v>41704</v>
+        <v>41705</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="6">
+      <c r="F97" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3548,33 +3563,33 @@
       <c r="J97" s="43"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
-      <c r="B98" s="29">
-        <v>41705</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6">
+      <c r="A98" s="90">
+        <v>19</v>
+      </c>
+      <c r="B98" s="28">
+        <v>41708</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="43"/>
-      <c r="J98" s="43"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="52">
-        <v>19</v>
-      </c>
+      <c r="A99" s="91"/>
       <c r="B99" s="28">
-        <v>41708</v>
+        <v>41709</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
-      <c r="F99" s="5">
+      <c r="F99" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3584,14 +3599,14 @@
       <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="53"/>
+      <c r="A100" s="91"/>
       <c r="B100" s="28">
-        <v>41709</v>
+        <v>41710</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
-      <c r="F100" s="5">
+      <c r="F100" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3601,14 +3616,14 @@
       <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="53"/>
+      <c r="A101" s="91"/>
       <c r="B101" s="28">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="5">
+      <c r="F101" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3618,14 +3633,14 @@
       <c r="J101" s="42"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="53"/>
+      <c r="A102" s="92"/>
       <c r="B102" s="28">
-        <v>41711</v>
+        <v>41712</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
-      <c r="F102" s="5">
+      <c r="F102" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3635,33 +3650,33 @@
       <c r="J102" s="42"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="54"/>
-      <c r="B103" s="28">
-        <v>41712</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5">
+      <c r="A103" s="64">
+        <v>20</v>
+      </c>
+      <c r="B103" s="29">
+        <v>41715</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="42"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="43"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="49">
-        <v>20</v>
-      </c>
+      <c r="A104" s="65"/>
       <c r="B104" s="29">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
-      <c r="F104" s="6">
+      <c r="F104" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3671,14 +3686,14 @@
       <c r="J104" s="43"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="50"/>
+      <c r="A105" s="65"/>
       <c r="B105" s="29">
-        <v>41716</v>
+        <v>41717</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
-      <c r="F105" s="6">
+      <c r="F105" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3688,14 +3703,14 @@
       <c r="J105" s="43"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="50"/>
+      <c r="A106" s="65"/>
       <c r="B106" s="29">
-        <v>41717</v>
+        <v>41718</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
-      <c r="F106" s="6">
+      <c r="F106" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3705,14 +3720,14 @@
       <c r="J106" s="43"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="50"/>
+      <c r="A107" s="66"/>
       <c r="B107" s="29">
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
-      <c r="F107" s="6">
+      <c r="F107" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3722,33 +3737,33 @@
       <c r="J107" s="43"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="51"/>
-      <c r="B108" s="29">
-        <v>41719</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6">
+      <c r="A108" s="90">
+        <v>21</v>
+      </c>
+      <c r="B108" s="28">
+        <v>41722</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G108" s="43"/>
-      <c r="H108" s="43"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="43"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="52">
-        <v>21</v>
-      </c>
+      <c r="A109" s="91"/>
       <c r="B109" s="28">
-        <v>41722</v>
+        <v>41723</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
-      <c r="F109" s="5">
+      <c r="F109" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3758,14 +3773,14 @@
       <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="53"/>
+      <c r="A110" s="91"/>
       <c r="B110" s="28">
-        <v>41723</v>
+        <v>41724</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="5">
+      <c r="F110" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3775,14 +3790,14 @@
       <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="53"/>
+      <c r="A111" s="91"/>
       <c r="B111" s="28">
-        <v>41724</v>
+        <v>41725</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
-      <c r="F111" s="5">
+      <c r="F111" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3792,14 +3807,14 @@
       <c r="J111" s="42"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="53"/>
+      <c r="A112" s="92"/>
       <c r="B112" s="28">
-        <v>41725</v>
+        <v>41726</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
-      <c r="F112" s="5">
+      <c r="F112" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3809,34 +3824,34 @@
       <c r="J112" s="42"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="54"/>
-      <c r="B113" s="28">
-        <v>41726</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5">
+      <c r="A113" s="64">
+        <v>22</v>
+      </c>
+      <c r="B113" s="29">
+        <v>41729</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G113" s="42"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="42"/>
-      <c r="J113" s="42"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
+      <c r="I113" s="43"/>
+      <c r="J113" s="43"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="49">
-        <v>22</v>
-      </c>
+      <c r="A114" s="65"/>
       <c r="B114" s="29">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
-      <c r="F114" s="6">
-        <f t="shared" si="2"/>
+      <c r="F114" s="103">
+        <f t="shared" ref="F114:F145" si="3">E114</f>
         <v>0</v>
       </c>
       <c r="G114" s="43"/>
@@ -3845,15 +3860,15 @@
       <c r="J114" s="43"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="50"/>
+      <c r="A115" s="65"/>
       <c r="B115" s="29">
-        <v>41730</v>
+        <v>41731</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
-      <c r="F115" s="6">
-        <f t="shared" ref="F115:F146" si="3">E115</f>
+      <c r="F115" s="103">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G115" s="43"/>
@@ -3862,14 +3877,14 @@
       <c r="J115" s="43"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="50"/>
+      <c r="A116" s="65"/>
       <c r="B116" s="29">
-        <v>41731</v>
+        <v>41732</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
-      <c r="F116" s="6">
+      <c r="F116" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3879,14 +3894,14 @@
       <c r="J116" s="43"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="50"/>
+      <c r="A117" s="66"/>
       <c r="B117" s="29">
-        <v>41732</v>
+        <v>41733</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
-      <c r="F117" s="6">
+      <c r="F117" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3896,33 +3911,33 @@
       <c r="J117" s="43"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="51"/>
-      <c r="B118" s="29">
-        <v>41733</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6">
+      <c r="A118" s="90">
+        <v>23</v>
+      </c>
+      <c r="B118" s="28">
+        <v>41736</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G118" s="43"/>
-      <c r="H118" s="43"/>
-      <c r="I118" s="43"/>
-      <c r="J118" s="43"/>
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="42"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="52">
-        <v>23</v>
-      </c>
+      <c r="A119" s="91"/>
       <c r="B119" s="28">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-      <c r="F119" s="5">
+      <c r="F119" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3932,14 +3947,14 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="53"/>
+      <c r="A120" s="91"/>
       <c r="B120" s="28">
-        <v>41737</v>
+        <v>41738</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="5">
+      <c r="F120" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3949,14 +3964,14 @@
       <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="53"/>
+      <c r="A121" s="91"/>
       <c r="B121" s="28">
-        <v>41738</v>
+        <v>41739</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="5">
+      <c r="F121" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3966,14 +3981,14 @@
       <c r="J121" s="42"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="53"/>
+      <c r="A122" s="92"/>
       <c r="B122" s="28">
-        <v>41739</v>
+        <v>41740</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
-      <c r="F122" s="5">
+      <c r="F122" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3983,33 +3998,33 @@
       <c r="J122" s="42"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="54"/>
-      <c r="B123" s="28">
-        <v>41740</v>
-      </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5">
+      <c r="A123" s="64">
+        <v>24</v>
+      </c>
+      <c r="B123" s="29">
+        <v>41743</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G123" s="42"/>
-      <c r="H123" s="42"/>
-      <c r="I123" s="42"/>
-      <c r="J123" s="42"/>
+      <c r="G123" s="43"/>
+      <c r="H123" s="43"/>
+      <c r="I123" s="43"/>
+      <c r="J123" s="43"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="49">
-        <v>24</v>
-      </c>
+      <c r="A124" s="65"/>
       <c r="B124" s="29">
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
-      <c r="F124" s="6">
+      <c r="F124" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4019,14 +4034,14 @@
       <c r="J124" s="43"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="50"/>
+      <c r="A125" s="65"/>
       <c r="B125" s="29">
-        <v>41744</v>
+        <v>41745</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
-      <c r="F125" s="6">
+      <c r="F125" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4036,14 +4051,14 @@
       <c r="J125" s="43"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="50"/>
+      <c r="A126" s="65"/>
       <c r="B126" s="29">
-        <v>41745</v>
+        <v>41746</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
-      <c r="F126" s="6">
+      <c r="F126" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4053,14 +4068,14 @@
       <c r="J126" s="43"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="50"/>
+      <c r="A127" s="66"/>
       <c r="B127" s="29">
-        <v>41746</v>
+        <v>41747</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
-      <c r="F127" s="6">
+      <c r="F127" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4070,33 +4085,33 @@
       <c r="J127" s="43"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="51"/>
-      <c r="B128" s="29">
-        <v>41747</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6">
+      <c r="A128" s="90">
+        <v>25</v>
+      </c>
+      <c r="B128" s="28">
+        <v>41750</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G128" s="43"/>
-      <c r="H128" s="43"/>
-      <c r="I128" s="43"/>
-      <c r="J128" s="43"/>
+      <c r="G128" s="42"/>
+      <c r="H128" s="42"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="42"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="52">
-        <v>25</v>
-      </c>
+      <c r="A129" s="91"/>
       <c r="B129" s="28">
-        <v>41750</v>
+        <v>41751</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
-      <c r="F129" s="5">
+      <c r="F129" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4106,14 +4121,14 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="53"/>
+      <c r="A130" s="91"/>
       <c r="B130" s="28">
-        <v>41751</v>
+        <v>41752</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="5">
+      <c r="F130" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4123,14 +4138,14 @@
       <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="53"/>
+      <c r="A131" s="91"/>
       <c r="B131" s="28">
-        <v>41752</v>
+        <v>41753</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
-      <c r="F131" s="5">
+      <c r="F131" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4140,14 +4155,14 @@
       <c r="J131" s="42"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="53"/>
+      <c r="A132" s="92"/>
       <c r="B132" s="28">
-        <v>41753</v>
+        <v>41754</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="5">
+      <c r="F132" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4157,33 +4172,33 @@
       <c r="J132" s="42"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="54"/>
-      <c r="B133" s="28">
-        <v>41754</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5">
+      <c r="A133" s="64">
+        <v>26</v>
+      </c>
+      <c r="B133" s="29">
+        <v>41757</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G133" s="42"/>
-      <c r="H133" s="42"/>
-      <c r="I133" s="42"/>
-      <c r="J133" s="42"/>
+      <c r="G133" s="43"/>
+      <c r="H133" s="43"/>
+      <c r="I133" s="43"/>
+      <c r="J133" s="43"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="49">
-        <v>26</v>
-      </c>
+      <c r="A134" s="65"/>
       <c r="B134" s="29">
-        <v>41757</v>
+        <v>41758</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
-      <c r="F134" s="6">
+      <c r="F134" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4193,14 +4208,14 @@
       <c r="J134" s="43"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="50"/>
+      <c r="A135" s="65"/>
       <c r="B135" s="29">
-        <v>41758</v>
+        <v>41759</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
-      <c r="F135" s="6">
+      <c r="F135" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4210,14 +4225,14 @@
       <c r="J135" s="43"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="50"/>
+      <c r="A136" s="65"/>
       <c r="B136" s="29">
-        <v>41759</v>
+        <v>41760</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
-      <c r="F136" s="6">
+      <c r="F136" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4227,14 +4242,14 @@
       <c r="J136" s="43"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="50"/>
+      <c r="A137" s="66"/>
       <c r="B137" s="29">
-        <v>41760</v>
+        <v>41761</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
-      <c r="F137" s="6">
+      <c r="F137" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4244,33 +4259,33 @@
       <c r="J137" s="43"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="51"/>
-      <c r="B138" s="29">
-        <v>41761</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6">
+      <c r="A138" s="90">
+        <v>27</v>
+      </c>
+      <c r="B138" s="28">
+        <v>41764</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G138" s="43"/>
-      <c r="H138" s="43"/>
-      <c r="I138" s="43"/>
-      <c r="J138" s="43"/>
+      <c r="G138" s="42"/>
+      <c r="H138" s="42"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="42"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="52">
-        <v>27</v>
-      </c>
+      <c r="A139" s="91"/>
       <c r="B139" s="28">
-        <v>41764</v>
+        <v>41765</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="5">
+      <c r="F139" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4280,14 +4295,14 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="53"/>
+      <c r="A140" s="91"/>
       <c r="B140" s="28">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="5">
+      <c r="F140" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4297,14 +4312,14 @@
       <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="53"/>
+      <c r="A141" s="91"/>
       <c r="B141" s="28">
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="5">
+      <c r="F141" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4314,14 +4329,14 @@
       <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="53"/>
+      <c r="A142" s="92"/>
       <c r="B142" s="28">
-        <v>41767</v>
+        <v>41768</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="5">
+      <c r="F142" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4331,33 +4346,33 @@
       <c r="J142" s="42"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="54"/>
-      <c r="B143" s="28">
-        <v>41768</v>
-      </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5">
+      <c r="A143" s="64">
+        <v>28</v>
+      </c>
+      <c r="B143" s="29">
+        <v>41771</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G143" s="42"/>
-      <c r="H143" s="42"/>
-      <c r="I143" s="42"/>
-      <c r="J143" s="42"/>
+      <c r="G143" s="43"/>
+      <c r="H143" s="43"/>
+      <c r="I143" s="43"/>
+      <c r="J143" s="43"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="49">
-        <v>28</v>
-      </c>
+      <c r="A144" s="65"/>
       <c r="B144" s="29">
-        <v>41771</v>
+        <v>41772</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
-      <c r="F144" s="6">
+      <c r="F144" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4367,14 +4382,14 @@
       <c r="J144" s="43"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="50"/>
+      <c r="A145" s="65"/>
       <c r="B145" s="29">
-        <v>41772</v>
+        <v>41773</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
-      <c r="F145" s="6">
+      <c r="F145" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4384,15 +4399,15 @@
       <c r="J145" s="43"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="50"/>
+      <c r="A146" s="65"/>
       <c r="B146" s="29">
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
-      <c r="F146" s="6">
-        <f t="shared" si="3"/>
+      <c r="F146" s="103">
+        <f t="shared" ref="F146:F157" si="4">E146</f>
         <v>0</v>
       </c>
       <c r="G146" s="43"/>
@@ -4401,15 +4416,15 @@
       <c r="J146" s="43"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="50"/>
+      <c r="A147" s="66"/>
       <c r="B147" s="29">
-        <v>41774</v>
+        <v>41775</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
-      <c r="F147" s="6">
-        <f t="shared" ref="F147:F158" si="4">E147</f>
+      <c r="F147" s="103">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G147" s="43"/>
@@ -4418,33 +4433,33 @@
       <c r="J147" s="43"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="51"/>
-      <c r="B148" s="29">
-        <v>41775</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6">
+      <c r="A148" s="90">
+        <v>29</v>
+      </c>
+      <c r="B148" s="28">
+        <v>41778</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G148" s="43"/>
-      <c r="H148" s="43"/>
-      <c r="I148" s="43"/>
-      <c r="J148" s="43"/>
+      <c r="G148" s="42"/>
+      <c r="H148" s="42"/>
+      <c r="I148" s="42"/>
+      <c r="J148" s="42"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="52">
-        <v>29</v>
-      </c>
+      <c r="A149" s="91"/>
       <c r="B149" s="28">
-        <v>41778</v>
+        <v>41779</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="5">
+      <c r="F149" s="102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4454,14 +4469,14 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="53"/>
+      <c r="A150" s="91"/>
       <c r="B150" s="28">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-      <c r="F150" s="5">
+      <c r="F150" s="102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4471,14 +4486,14 @@
       <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="53"/>
+      <c r="A151" s="91"/>
       <c r="B151" s="28">
-        <v>41780</v>
+        <v>41781</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
-      <c r="F151" s="5">
+      <c r="F151" s="102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4488,14 +4503,14 @@
       <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="53"/>
+      <c r="A152" s="92"/>
       <c r="B152" s="28">
-        <v>41781</v>
+        <v>41782</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
-      <c r="F152" s="5">
+      <c r="F152" s="102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4505,33 +4520,33 @@
       <c r="J152" s="42"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="54"/>
-      <c r="B153" s="28">
-        <v>41782</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5">
+      <c r="A153" s="96">
+        <v>30</v>
+      </c>
+      <c r="B153" s="29">
+        <v>41785</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G153" s="42"/>
-      <c r="H153" s="42"/>
-      <c r="I153" s="42"/>
-      <c r="J153" s="42"/>
+      <c r="G153" s="44"/>
+      <c r="H153" s="44"/>
+      <c r="I153" s="44"/>
+      <c r="J153" s="44"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="55">
-        <v>30</v>
-      </c>
+      <c r="A154" s="97"/>
       <c r="B154" s="29">
-        <v>41785</v>
+        <v>41786</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
-      <c r="F154" s="2">
+      <c r="F154" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4541,14 +4556,14 @@
       <c r="J154" s="44"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="56"/>
+      <c r="A155" s="97"/>
       <c r="B155" s="29">
-        <v>41786</v>
+        <v>41787</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
-      <c r="F155" s="2">
+      <c r="F155" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4558,14 +4573,14 @@
       <c r="J155" s="44"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="56"/>
+      <c r="A156" s="97"/>
       <c r="B156" s="29">
-        <v>41787</v>
+        <v>41788</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
-      <c r="F156" s="2">
+      <c r="F156" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4575,14 +4590,14 @@
       <c r="J156" s="44"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="56"/>
+      <c r="A157" s="98"/>
       <c r="B157" s="29">
-        <v>41788</v>
+        <v>41789</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
-      <c r="F157" s="2">
+      <c r="F157" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4591,29 +4606,43 @@
       <c r="I157" s="44"/>
       <c r="J157" s="44"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="57"/>
-      <c r="B158" s="29">
-        <v>41789</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G158" s="44"/>
-      <c r="H158" s="44"/>
-      <c r="I158" s="44"/>
-      <c r="J158" s="44"/>
-    </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A53:A57"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
@@ -4623,40 +4652,9 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A42"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
@@ -4676,7 +4674,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M10:M12 M8 F8 F11 F13 F15 F17" formulaRange="1"/>
+    <ignoredError sqref="M10:M12 M8 F8 F11 F13 F17" formulaRange="1"/>
+    <ignoredError sqref="F15" formula="1" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4796,7 +4795,7 @@
           <xm:sqref>M17:M18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
+          <x14:cfRule type="iconSet" priority="31" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4815,7 +4814,7 @@
           <xm:sqref>M19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
+          <x14:cfRule type="iconSet" priority="30" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4834,7 +4833,7 @@
           <xm:sqref>M20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
+          <x14:cfRule type="iconSet" priority="29" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4853,7 +4852,7 @@
           <xm:sqref>M21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
+          <x14:cfRule type="iconSet" priority="28" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4872,7 +4871,7 @@
           <xm:sqref>M22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
+          <x14:cfRule type="iconSet" priority="27" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4891,7 +4890,7 @@
           <xm:sqref>M23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
+          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4910,7 +4909,7 @@
           <xm:sqref>M24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
+          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4929,7 +4928,7 @@
           <xm:sqref>M25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
+          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4948,7 +4947,7 @@
           <xm:sqref>M26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
+          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4967,7 +4966,7 @@
           <xm:sqref>M27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4986,7 +4985,7 @@
           <xm:sqref>M28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5005,7 +5004,7 @@
           <xm:sqref>M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5024,7 +5023,7 @@
           <xm:sqref>M30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5043,7 +5042,7 @@
           <xm:sqref>M31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5062,7 +5061,7 @@
           <xm:sqref>M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5081,7 +5080,7 @@
           <xm:sqref>M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5100,7 +5099,7 @@
           <xm:sqref>M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5119,7 +5118,7 @@
           <xm:sqref>M35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5138,7 +5137,7 @@
           <xm:sqref>M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5157,7 +5156,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5176,7 +5175,7 @@
           <xm:sqref>M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5195,7 +5194,7 @@
           <xm:sqref>M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5214,25 +5213,6 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
@@ -5252,25 +5232,6 @@
           <xm:sqref>M8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>5</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>24</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F7:F8 F19:F158 F10:F11 F13 F15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{3E29B8AA-8D68-43AF-9EB7-101178C89B70}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
@@ -5289,6 +5250,25 @@
           </x14:cfRule>
           <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="39" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F7:F8 F19:F157 F10:F11 F13 F15</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -249,9 +249,6 @@
  - Update Measurement plan</t>
   </si>
   <si>
-    <t>Meeting minute:</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Review Team charter
  - Review Communication plan
  - Review Configuration plan
@@ -318,7 +315,12 @@
     <t>Present work that team completed in this week 2</t>
   </si>
   <si>
-    <t>Update time log template</t>
+    <t xml:space="preserve"> - Update time log template</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Review Change management plan
+ - Review Scrum modal and ACDM
+ - Review Test management plan</t>
   </si>
 </sst>
 </file>
@@ -617,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -737,6 +739,66 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -782,21 +844,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -845,12 +892,6 @@
     <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -860,50 +901,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1338,13 +1358,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O157"/>
+  <dimension ref="A1:O158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F155" sqref="F155"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1367,87 +1387,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="51"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="52" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="57"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="60"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="80"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="102"/>
       <c r="F5" s="16"/>
       <c r="H5" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="46" t="s">
         <v>79</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>80</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1472,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>5</v>
@@ -1486,13 +1506,13 @@
       <c r="J6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="61">
+      <c r="A7" s="81">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1519,21 +1539,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="95"/>
+      <c r="L7" s="63"/>
       <c r="M7" s="35">
-        <f>SUM(M8:M40)</f>
-        <v>17.953000000000003</v>
+        <f>SUM(M8:M41)</f>
+        <v>18.953000000000003</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="81">
+      <c r="A8" s="82"/>
+      <c r="B8" s="96">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1545,7 +1565,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="98">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1555,9 +1575,7 @@
       <c r="H8" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="45" t="s">
-        <v>68</v>
-      </c>
+      <c r="I8" s="45"/>
       <c r="J8" s="32"/>
       <c r="K8" s="8" t="s">
         <v>11</v>
@@ -1572,8 +1590,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1583,20 +1601,18 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="99"/>
       <c r="G9" s="32" t="s">
         <v>26</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="45" t="s">
-        <v>68</v>
-      </c>
+      <c r="I9" s="45"/>
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
+      <c r="A10" s="93">
         <v>2</v>
       </c>
       <c r="B10" s="23">
@@ -1619,10 +1635,10 @@
         <v>22</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="8" t="s">
@@ -1639,8 +1655,8 @@
       <c r="O10" s="37"/>
     </row>
     <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="67">
+      <c r="A11" s="94"/>
+      <c r="B11" s="66">
         <v>41591</v>
       </c>
       <c r="C11" s="27">
@@ -1652,7 +1668,7 @@
       <c r="E11" s="30">
         <v>2</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="64">
         <f>SUM(E11:E12)</f>
         <v>3</v>
       </c>
@@ -1663,7 +1679,7 @@
         <v>57</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="8"/>
@@ -1672,8 +1688,8 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="68"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1683,7 +1699,7 @@
       <c r="E12" s="30">
         <v>1</v>
       </c>
-      <c r="F12" s="86"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="31" t="s">
         <v>25</v>
       </c>
@@ -1691,7 +1707,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="8" t="s">
@@ -1699,16 +1715,16 @@
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="10">
-        <f>SUM(E19:E22)</f>
-        <v>2</v>
+        <f>SUM(E19:E23)</f>
+        <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="67">
+      <c r="A13" s="94"/>
+      <c r="B13" s="66">
         <v>41592</v>
       </c>
       <c r="C13" s="27">
@@ -1720,7 +1736,7 @@
       <c r="E13" s="30">
         <v>0.75</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="64">
         <f>SUM(E13:E14)</f>
         <v>2</v>
       </c>
@@ -1731,7 +1747,7 @@
         <v>62</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="8" t="s">
@@ -1739,7 +1755,7 @@
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="10">
-        <f>SUM(E23:E27)</f>
+        <f>SUM(E24:E28)</f>
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
@@ -1747,8 +1763,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="68"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="27">
         <v>0.875</v>
       </c>
@@ -1758,15 +1774,15 @@
       <c r="E14" s="30">
         <v>1.25</v>
       </c>
-      <c r="F14" s="86"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="47" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="8"/>
@@ -1775,8 +1791,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="67">
+      <c r="A15" s="94"/>
+      <c r="B15" s="66">
         <v>41593</v>
       </c>
       <c r="C15" s="27">
@@ -1788,7 +1804,7 @@
       <c r="E15" s="30">
         <v>1.083</v>
       </c>
-      <c r="F15" s="85">
+      <c r="F15" s="64">
         <f>SUM(E15:E18)</f>
         <v>5.883</v>
       </c>
@@ -1799,7 +1815,7 @@
         <v>65</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="8" t="s">
@@ -1807,7 +1823,7 @@
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="10">
-        <f>SUM(E28:E32)</f>
+        <f>SUM(E29:E33)</f>
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
@@ -1815,8 +1831,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="68"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1826,7 +1842,7 @@
       <c r="E16" s="30">
         <v>2.33</v>
       </c>
-      <c r="F16" s="86"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="31" t="s">
         <v>25</v>
       </c>
@@ -1834,7 +1850,7 @@
         <v>66</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" s="40"/>
       <c r="K16" s="8" t="s">
@@ -1842,7 +1858,7 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E33:E37)</f>
+        <f>SUM(E34:E38)</f>
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
@@ -1850,8 +1866,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="67">
+      <c r="A17" s="94"/>
+      <c r="B17" s="66">
         <v>41594</v>
       </c>
       <c r="C17" s="27">
@@ -1863,7 +1879,7 @@
       <c r="E17" s="30">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F17" s="85">
+      <c r="F17" s="64">
         <f>SUM(E17:E18)</f>
         <v>2.4699999999999998</v>
       </c>
@@ -1874,7 +1890,7 @@
         <v>67</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" s="40"/>
       <c r="K17" s="8" t="s">
@@ -1882,7 +1898,7 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E38:E42)</f>
+        <f>SUM(E39:E43)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -1890,8 +1906,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="68"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="27">
         <v>0.83333333333333337</v>
       </c>
@@ -1901,15 +1917,15 @@
       <c r="E18" s="30">
         <v>1.92</v>
       </c>
-      <c r="F18" s="86"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="31" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="8"/>
@@ -1918,28 +1934,28 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="28">
+      <c r="A19" s="68"/>
+      <c r="B19" s="104">
         <v>41597</v>
       </c>
-      <c r="C19" s="99">
+      <c r="C19" s="49">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D19" s="99">
+      <c r="D19" s="49">
         <v>0.4375</v>
       </c>
-      <c r="E19" s="100">
+      <c r="E19" s="50">
         <v>2</v>
       </c>
-      <c r="F19" s="101">
-        <f t="shared" ref="F19:F49" si="0">E19</f>
-        <v>2</v>
+      <c r="F19" s="109">
+        <f>SUM(E19:E20)</f>
+        <v>3</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="32" t="s">
-        <v>82</v>
+      <c r="H19" s="107" t="s">
+        <v>81</v>
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
@@ -1948,51 +1964,49 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E48:E52)</f>
+        <f>SUM(E49:E53)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="28">
-        <v>41598</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+    <row r="20" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="68"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="49">
+        <v>0.5625</v>
+      </c>
+      <c r="D20" s="49">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E20" s="50">
+        <v>1</v>
+      </c>
+      <c r="F20" s="110"/>
+      <c r="G20" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="108" t="s">
+        <v>82</v>
+      </c>
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
-      <c r="K20" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="K20" s="8"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="10">
-        <f>SUM(E53:E57)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="28">
-        <v>41599</v>
+        <v>41598</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="102">
-        <f t="shared" si="0"/>
+      <c r="F21" s="51">
+        <f t="shared" ref="F19:F50" si="0">E21</f>
         <v>0</v>
       </c>
       <c r="G21" s="42"/>
@@ -2000,11 +2014,11 @@
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="K21" s="8" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E58:E62)</f>
+        <f>SUM(E54:E58)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -2012,14 +2026,14 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="28">
-        <v>41600</v>
+        <v>41599</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="102">
+      <c r="F22" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2028,11 +2042,11 @@
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
       <c r="K22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="10">
-        <f>SUM(E63:E67)</f>
+        <f>SUM(E59:E63)</f>
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -2040,29 +2054,27 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="64">
-        <v>4</v>
-      </c>
-      <c r="B23" s="29">
-        <v>41603</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="103">
+      <c r="A23" s="68"/>
+      <c r="B23" s="28">
+        <v>41600</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E68:E72)</f>
+        <f>SUM(E64:E68)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2070,14 +2082,16 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
+      <c r="A24" s="57">
+        <v>4</v>
+      </c>
       <c r="B24" s="29">
-        <v>41604</v>
+        <v>41603</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="103">
+      <c r="F24" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2086,11 +2100,11 @@
       <c r="I24" s="43"/>
       <c r="J24" s="43"/>
       <c r="K24" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10">
-        <f>SUM(E73:E77)</f>
+        <f>SUM(E69:E73)</f>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2098,14 +2112,14 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="29">
-        <v>41605</v>
+        <v>41604</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="103">
+      <c r="F25" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2114,11 +2128,11 @@
       <c r="I25" s="43"/>
       <c r="J25" s="43"/>
       <c r="K25" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="10">
-        <f>SUM(E78:E82)</f>
+        <f>SUM(E74:E78)</f>
         <v>0</v>
       </c>
       <c r="N25" s="3" t="s">
@@ -2126,14 +2140,14 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="29">
-        <v>41606</v>
+        <v>41605</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="103">
+      <c r="F26" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2142,11 +2156,11 @@
       <c r="I26" s="43"/>
       <c r="J26" s="43"/>
       <c r="K26" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="10">
-        <f>SUM(E83:E87)</f>
+        <f>SUM(E79:E83)</f>
         <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
@@ -2154,14 +2168,14 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="29">
-        <v>41607</v>
+        <v>41606</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="103">
+      <c r="F27" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2170,11 +2184,11 @@
       <c r="I27" s="43"/>
       <c r="J27" s="43"/>
       <c r="K27" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="10">
-        <f>SUM(E88:E92)</f>
+        <f>SUM(E84:E88)</f>
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -2182,29 +2196,27 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="90">
-        <v>5</v>
-      </c>
-      <c r="B28" s="28">
-        <v>41610</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="102">
+      <c r="A28" s="59"/>
+      <c r="B28" s="29">
+        <v>41607</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
       <c r="K28" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="10">
-        <f>SUM(E93:E97)</f>
+        <f>SUM(E89:E93)</f>
         <v>0</v>
       </c>
       <c r="N28" s="3" t="s">
@@ -2212,14 +2224,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="91"/>
+      <c r="A29" s="60">
+        <v>5</v>
+      </c>
       <c r="B29" s="28">
-        <v>41611</v>
+        <v>41610</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="102">
+      <c r="F29" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2228,11 +2242,11 @@
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
       <c r="K29" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="10">
-        <f>SUM(E98:E102)</f>
+        <f>SUM(E94:E98)</f>
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
@@ -2240,14 +2254,14 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="28">
-        <v>41612</v>
+        <v>41611</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="102">
+      <c r="F30" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2256,11 +2270,11 @@
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
       <c r="K30" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="10">
-        <f>SUM(E103:E107)</f>
+        <f>SUM(E99:E103)</f>
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -2268,14 +2282,14 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="91"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="28">
-        <v>41613</v>
+        <v>41612</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="102">
+      <c r="F31" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2284,11 +2298,11 @@
       <c r="I31" s="42"/>
       <c r="J31" s="42"/>
       <c r="K31" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="10">
-        <f>SUM(E108:E112)</f>
+        <f>SUM(E104:E108)</f>
         <v>0</v>
       </c>
       <c r="N31" s="3" t="s">
@@ -2296,14 +2310,14 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="28">
-        <v>41614</v>
+        <v>41613</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="102">
+      <c r="F32" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2312,11 +2326,11 @@
       <c r="I32" s="42"/>
       <c r="J32" s="42"/>
       <c r="K32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="10">
-        <f>SUM(E113:E117)</f>
+        <f>SUM(E109:E113)</f>
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
@@ -2324,29 +2338,27 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="64">
-        <v>6</v>
-      </c>
-      <c r="B33" s="29">
-        <v>41617</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="103">
+      <c r="A33" s="62"/>
+      <c r="B33" s="28">
+        <v>41614</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
       <c r="K33" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="10">
-        <f>SUM(E118:E122)</f>
+        <f>SUM(E114:E118)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2354,14 +2366,16 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+      <c r="A34" s="57">
+        <v>6</v>
+      </c>
       <c r="B34" s="29">
-        <v>41618</v>
+        <v>41617</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="103">
+      <c r="F34" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2370,11 +2384,11 @@
       <c r="I34" s="43"/>
       <c r="J34" s="43"/>
       <c r="K34" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="10">
-        <f>SUM(E123:E127)</f>
+        <f>SUM(E119:E123)</f>
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -2382,14 +2396,14 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="29">
-        <v>41619</v>
+        <v>41618</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="103">
+      <c r="F35" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2398,11 +2412,11 @@
       <c r="I35" s="43"/>
       <c r="J35" s="43"/>
       <c r="K35" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E128:E132)</f>
+        <f>SUM(E124:E128)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2410,14 +2424,14 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="29">
-        <v>41620</v>
+        <v>41619</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="103">
+      <c r="F36" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2426,11 +2440,11 @@
       <c r="I36" s="43"/>
       <c r="J36" s="43"/>
       <c r="K36" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="10">
-        <f>SUM(E133:E137)</f>
+        <f>SUM(E129:E133)</f>
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
@@ -2438,14 +2452,14 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="29">
-        <v>41621</v>
+        <v>41620</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="103">
+      <c r="F37" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2454,11 +2468,11 @@
       <c r="I37" s="43"/>
       <c r="J37" s="43"/>
       <c r="K37" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E138:E142)</f>
+        <f>SUM(E134:E138)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2466,29 +2480,27 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="90">
-        <v>7</v>
-      </c>
-      <c r="B38" s="28">
-        <v>41624</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="102">
+      <c r="A38" s="59"/>
+      <c r="B38" s="29">
+        <v>41621</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
       <c r="K38" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="10">
-        <f>SUM(E143:E147)</f>
+        <f>SUM(E139:E143)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2496,14 +2508,16 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="91"/>
+      <c r="A39" s="60">
+        <v>7</v>
+      </c>
       <c r="B39" s="28">
-        <v>41625</v>
+        <v>41624</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="102">
+      <c r="F39" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2512,11 +2526,11 @@
       <c r="I39" s="42"/>
       <c r="J39" s="42"/>
       <c r="K39" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E148:E152)</f>
+        <f>SUM(E144:E148)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2524,14 +2538,14 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="28">
-        <v>41626</v>
+        <v>41625</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="102">
+      <c r="F40" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2540,11 +2554,11 @@
       <c r="I40" s="42"/>
       <c r="J40" s="42"/>
       <c r="K40" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E153:E157)</f>
+        <f>SUM(E149:E153)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2552,14 +2566,14 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="91"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="28">
-        <v>41627</v>
+        <v>41626</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="102">
+      <c r="F41" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2567,16 +2581,27 @@
       <c r="H41" s="42"/>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
+      <c r="K41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41" s="10">
+        <f>SUM(E154:E158)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="92"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="28">
-        <v>41628</v>
+        <v>41627</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="102">
+      <c r="F42" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2586,33 +2611,33 @@
       <c r="J42" s="42"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="64">
+      <c r="A43" s="62"/>
+      <c r="B43" s="28">
+        <v>41628</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="57">
         <v>8</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B44" s="29">
         <v>41631</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="103">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="29">
-        <v>41632</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="103">
+      <c r="F44" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2622,14 +2647,14 @@
       <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="29">
-        <v>41633</v>
+        <v>41632</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="103">
+      <c r="F45" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2639,14 +2664,14 @@
       <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="29">
-        <v>41634</v>
+        <v>41633</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="103">
+      <c r="F46" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2656,14 +2681,14 @@
       <c r="J46" s="43"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="29">
-        <v>41635</v>
+        <v>41634</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="103">
+      <c r="F47" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2673,33 +2698,33 @@
       <c r="J47" s="43"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="90">
+      <c r="A48" s="59"/>
+      <c r="B48" s="29">
+        <v>41635</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="60">
         <v>9</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B49" s="28">
         <v>41638</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="91"/>
-      <c r="B49" s="28">
-        <v>41639</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="102">
+      <c r="F49" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2709,15 +2734,15 @@
       <c r="J49" s="42"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="91"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="28">
-        <v>41640</v>
+        <v>41639</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="102">
-        <f t="shared" ref="F50:F81" si="1">E50</f>
+      <c r="F50" s="51">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G50" s="42"/>
@@ -2726,15 +2751,15 @@
       <c r="J50" s="42"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="91"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="28">
-        <v>41641</v>
+        <v>41640</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="102">
-        <f t="shared" si="1"/>
+      <c r="F51" s="51">
+        <f t="shared" ref="F51:F82" si="1">E51</f>
         <v>0</v>
       </c>
       <c r="G51" s="42"/>
@@ -2743,14 +2768,14 @@
       <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="92"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="28">
-        <v>41642</v>
+        <v>41641</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="102">
+      <c r="F52" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2760,33 +2785,33 @@
       <c r="J52" s="42"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="64">
+      <c r="A53" s="62"/>
+      <c r="B53" s="28">
+        <v>41642</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="57">
         <v>10</v>
       </c>
-      <c r="B53" s="29">
+      <c r="B54" s="29">
         <v>41645</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
-      <c r="B54" s="29">
-        <v>41646</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="103">
+      <c r="F54" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2796,14 +2821,14 @@
       <c r="J54" s="43"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="29">
-        <v>41647</v>
+        <v>41646</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="103">
+      <c r="F55" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2813,14 +2838,14 @@
       <c r="J55" s="43"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="29">
-        <v>41648</v>
+        <v>41647</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="103">
+      <c r="F56" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2830,14 +2855,14 @@
       <c r="J56" s="43"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="29">
-        <v>41649</v>
+        <v>41648</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="103">
+      <c r="F57" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2847,33 +2872,33 @@
       <c r="J57" s="43"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="90">
+      <c r="A58" s="59"/>
+      <c r="B58" s="29">
+        <v>41649</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="60">
         <v>11</v>
       </c>
-      <c r="B58" s="28">
+      <c r="B59" s="28">
         <v>41652</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="91"/>
-      <c r="B59" s="28">
-        <v>41653</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="102">
+      <c r="F59" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2883,14 +2908,14 @@
       <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="91"/>
+      <c r="A60" s="61"/>
       <c r="B60" s="28">
-        <v>41654</v>
+        <v>41653</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="102">
+      <c r="F60" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2900,14 +2925,14 @@
       <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="91"/>
+      <c r="A61" s="61"/>
       <c r="B61" s="28">
-        <v>41655</v>
+        <v>41654</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="102">
+      <c r="F61" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2917,14 +2942,14 @@
       <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="92"/>
+      <c r="A62" s="61"/>
       <c r="B62" s="28">
-        <v>41656</v>
+        <v>41655</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="102">
+      <c r="F62" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2934,33 +2959,33 @@
       <c r="J62" s="42"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="64">
+      <c r="A63" s="62"/>
+      <c r="B63" s="28">
+        <v>41656</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="57">
         <v>12</v>
       </c>
-      <c r="B63" s="29">
+      <c r="B64" s="29">
         <v>41659</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="65"/>
-      <c r="B64" s="29">
-        <v>41660</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
-      <c r="F64" s="103">
+      <c r="F64" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2970,14 +2995,14 @@
       <c r="J64" s="43"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="65"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="29">
-        <v>41661</v>
+        <v>41660</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="103">
+      <c r="F65" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2987,14 +3012,14 @@
       <c r="J65" s="43"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="29">
-        <v>41662</v>
+        <v>41661</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="103">
+      <c r="F66" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3004,14 +3029,14 @@
       <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="66"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="29">
-        <v>41663</v>
+        <v>41662</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="103">
+      <c r="F67" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3021,35 +3046,33 @@
       <c r="J67" s="43"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="90">
+      <c r="A68" s="59"/>
+      <c r="B68" s="29">
+        <v>41663</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="60">
         <v>13</v>
       </c>
-      <c r="B68" s="28">
+      <c r="B69" s="28">
         <v>41666</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="91"/>
-      <c r="B69" s="28">
-        <v>41667</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="102">
+      <c r="F69" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3061,14 +3084,14 @@
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="91"/>
+      <c r="A70" s="61"/>
       <c r="B70" s="28">
-        <v>41668</v>
+        <v>41667</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="102">
+      <c r="F70" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3080,14 +3103,14 @@
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="91"/>
+      <c r="A71" s="61"/>
       <c r="B71" s="28">
-        <v>41669</v>
+        <v>41668</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="102">
+      <c r="F71" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3099,14 +3122,14 @@
       <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="92"/>
+      <c r="A72" s="61"/>
       <c r="B72" s="28">
-        <v>41670</v>
+        <v>41669</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="102">
+      <c r="F72" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3118,35 +3141,35 @@
       <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="64">
+      <c r="A73" s="62"/>
+      <c r="B73" s="28">
+        <v>41670</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="57">
         <v>14</v>
       </c>
-      <c r="B73" s="29">
+      <c r="B74" s="29">
         <v>41673</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="65"/>
-      <c r="B74" s="29">
-        <v>41674</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="103">
+      <c r="F74" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3158,14 +3181,14 @@
       <c r="J74" s="43"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="65"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="29">
-        <v>41675</v>
+        <v>41674</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
-      <c r="F75" s="103">
+      <c r="F75" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3177,14 +3200,14 @@
       <c r="J75" s="43"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="29">
-        <v>41676</v>
+        <v>41675</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="103">
+      <c r="F76" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3196,14 +3219,14 @@
       <c r="J76" s="43"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="66"/>
+      <c r="A77" s="58"/>
       <c r="B77" s="29">
-        <v>41677</v>
+        <v>41676</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
-      <c r="F77" s="103">
+      <c r="F77" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3215,33 +3238,35 @@
       <c r="J77" s="43"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="90">
+      <c r="A78" s="59"/>
+      <c r="B78" s="29">
+        <v>41677</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="60">
         <v>15</v>
       </c>
-      <c r="B78" s="28">
+      <c r="B79" s="28">
         <v>41680</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="91"/>
-      <c r="B79" s="28">
-        <v>41681</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="102">
+      <c r="F79" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3251,14 +3276,14 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="91"/>
+      <c r="A80" s="61"/>
       <c r="B80" s="28">
-        <v>41682</v>
+        <v>41681</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="102">
+      <c r="F80" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3268,14 +3293,14 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="91"/>
+      <c r="A81" s="61"/>
       <c r="B81" s="28">
-        <v>41683</v>
+        <v>41682</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
-      <c r="F81" s="102">
+      <c r="F81" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3285,15 +3310,15 @@
       <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="92"/>
+      <c r="A82" s="61"/>
       <c r="B82" s="28">
-        <v>41684</v>
+        <v>41683</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
-      <c r="F82" s="102">
-        <f t="shared" ref="F82:F113" si="2">E82</f>
+      <c r="F82" s="51">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G82" s="42"/>
@@ -3302,33 +3327,33 @@
       <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="64">
+      <c r="A83" s="62"/>
+      <c r="B83" s="28">
+        <v>41684</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="51">
+        <f t="shared" ref="F83:F114" si="2">E83</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="57">
         <v>16</v>
       </c>
-      <c r="B83" s="29">
+      <c r="B84" s="29">
         <v>41687</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="103">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="43"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="65"/>
-      <c r="B84" s="29">
-        <v>41688</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="103">
+      <c r="F84" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3338,14 +3363,14 @@
       <c r="J84" s="43"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="65"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="29">
-        <v>41689</v>
+        <v>41688</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="103">
+      <c r="F85" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3355,14 +3380,14 @@
       <c r="J85" s="43"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="65"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="29">
-        <v>41690</v>
+        <v>41689</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="103">
+      <c r="F86" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3372,14 +3397,14 @@
       <c r="J86" s="43"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="66"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="29">
-        <v>41691</v>
+        <v>41690</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="103">
+      <c r="F87" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3389,33 +3414,33 @@
       <c r="J87" s="43"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="90">
+      <c r="A88" s="59"/>
+      <c r="B88" s="29">
+        <v>41691</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="60">
         <v>17</v>
       </c>
-      <c r="B88" s="28">
+      <c r="B89" s="28">
         <v>41694</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="102">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="91"/>
-      <c r="B89" s="28">
-        <v>41695</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
-      <c r="F89" s="102">
+      <c r="F89" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3425,14 +3450,14 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="91"/>
+      <c r="A90" s="61"/>
       <c r="B90" s="28">
-        <v>41696</v>
+        <v>41695</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="102">
+      <c r="F90" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3442,14 +3467,14 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="91"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="28">
-        <v>41697</v>
+        <v>41696</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="102">
+      <c r="F91" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3459,14 +3484,14 @@
       <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="92"/>
+      <c r="A92" s="61"/>
       <c r="B92" s="28">
-        <v>41698</v>
+        <v>41697</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
-      <c r="F92" s="102">
+      <c r="F92" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3476,33 +3501,33 @@
       <c r="J92" s="42"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="64">
+      <c r="A93" s="62"/>
+      <c r="B93" s="28">
+        <v>41698</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="57">
         <v>18</v>
       </c>
-      <c r="B93" s="29">
+      <c r="B94" s="29">
         <v>41701</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="103">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="43"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="65"/>
-      <c r="B94" s="29">
-        <v>41702</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
-      <c r="F94" s="103">
+      <c r="F94" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3512,14 +3537,14 @@
       <c r="J94" s="43"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="65"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="29">
-        <v>41703</v>
+        <v>41702</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
-      <c r="F95" s="103">
+      <c r="F95" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3529,14 +3554,14 @@
       <c r="J95" s="43"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="65"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="29">
-        <v>41704</v>
+        <v>41703</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
-      <c r="F96" s="103">
+      <c r="F96" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3546,14 +3571,14 @@
       <c r="J96" s="43"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="66"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="29">
-        <v>41705</v>
+        <v>41704</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="103">
+      <c r="F97" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3563,33 +3588,33 @@
       <c r="J97" s="43"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="90">
+      <c r="A98" s="59"/>
+      <c r="B98" s="29">
+        <v>41705</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="43"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="60">
         <v>19</v>
       </c>
-      <c r="B98" s="28">
+      <c r="B99" s="28">
         <v>41708</v>
-      </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="102">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="42"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="91"/>
-      <c r="B99" s="28">
-        <v>41709</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
-      <c r="F99" s="102">
+      <c r="F99" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3599,14 +3624,14 @@
       <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="91"/>
+      <c r="A100" s="61"/>
       <c r="B100" s="28">
-        <v>41710</v>
+        <v>41709</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
-      <c r="F100" s="102">
+      <c r="F100" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3616,14 +3641,14 @@
       <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="91"/>
+      <c r="A101" s="61"/>
       <c r="B101" s="28">
-        <v>41711</v>
+        <v>41710</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="102">
+      <c r="F101" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3633,14 +3658,14 @@
       <c r="J101" s="42"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="92"/>
+      <c r="A102" s="61"/>
       <c r="B102" s="28">
-        <v>41712</v>
+        <v>41711</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
-      <c r="F102" s="102">
+      <c r="F102" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3650,33 +3675,33 @@
       <c r="J102" s="42"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="64">
+      <c r="A103" s="62"/>
+      <c r="B103" s="28">
+        <v>41712</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="57">
         <v>20</v>
       </c>
-      <c r="B103" s="29">
+      <c r="B104" s="29">
         <v>41715</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="103">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="43"/>
-      <c r="H103" s="43"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="43"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="65"/>
-      <c r="B104" s="29">
-        <v>41716</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
-      <c r="F104" s="103">
+      <c r="F104" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3686,14 +3711,14 @@
       <c r="J104" s="43"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="65"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="29">
-        <v>41717</v>
+        <v>41716</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
-      <c r="F105" s="103">
+      <c r="F105" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3703,14 +3728,14 @@
       <c r="J105" s="43"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="65"/>
+      <c r="A106" s="58"/>
       <c r="B106" s="29">
-        <v>41718</v>
+        <v>41717</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
-      <c r="F106" s="103">
+      <c r="F106" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3720,14 +3745,14 @@
       <c r="J106" s="43"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="66"/>
+      <c r="A107" s="58"/>
       <c r="B107" s="29">
-        <v>41719</v>
+        <v>41718</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
-      <c r="F107" s="103">
+      <c r="F107" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3737,33 +3762,33 @@
       <c r="J107" s="43"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="90">
+      <c r="A108" s="59"/>
+      <c r="B108" s="29">
+        <v>41719</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="43"/>
+      <c r="H108" s="43"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="43"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="60">
         <v>21</v>
       </c>
-      <c r="B108" s="28">
+      <c r="B109" s="28">
         <v>41722</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="102">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="42"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="91"/>
-      <c r="B109" s="28">
-        <v>41723</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
-      <c r="F109" s="102">
+      <c r="F109" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3773,14 +3798,14 @@
       <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="91"/>
+      <c r="A110" s="61"/>
       <c r="B110" s="28">
-        <v>41724</v>
+        <v>41723</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="102">
+      <c r="F110" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3790,14 +3815,14 @@
       <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="91"/>
+      <c r="A111" s="61"/>
       <c r="B111" s="28">
-        <v>41725</v>
+        <v>41724</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
-      <c r="F111" s="102">
+      <c r="F111" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3807,14 +3832,14 @@
       <c r="J111" s="42"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="92"/>
+      <c r="A112" s="61"/>
       <c r="B112" s="28">
-        <v>41726</v>
+        <v>41725</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
-      <c r="F112" s="102">
+      <c r="F112" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3824,34 +3849,34 @@
       <c r="J112" s="42"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="64">
+      <c r="A113" s="62"/>
+      <c r="B113" s="28">
+        <v>41726</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="42"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="42"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="57">
         <v>22</v>
       </c>
-      <c r="B113" s="29">
+      <c r="B114" s="29">
         <v>41729</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="103">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G113" s="43"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="43"/>
-      <c r="J113" s="43"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="65"/>
-      <c r="B114" s="29">
-        <v>41730</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
-      <c r="F114" s="103">
-        <f t="shared" ref="F114:F145" si="3">E114</f>
+      <c r="F114" s="52">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G114" s="43"/>
@@ -3860,15 +3885,15 @@
       <c r="J114" s="43"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="65"/>
+      <c r="A115" s="58"/>
       <c r="B115" s="29">
-        <v>41731</v>
+        <v>41730</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
-      <c r="F115" s="103">
-        <f t="shared" si="3"/>
+      <c r="F115" s="52">
+        <f t="shared" ref="F115:F146" si="3">E115</f>
         <v>0</v>
       </c>
       <c r="G115" s="43"/>
@@ -3877,14 +3902,14 @@
       <c r="J115" s="43"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="65"/>
+      <c r="A116" s="58"/>
       <c r="B116" s="29">
-        <v>41732</v>
+        <v>41731</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
-      <c r="F116" s="103">
+      <c r="F116" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3894,14 +3919,14 @@
       <c r="J116" s="43"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="66"/>
+      <c r="A117" s="58"/>
       <c r="B117" s="29">
-        <v>41733</v>
+        <v>41732</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
-      <c r="F117" s="103">
+      <c r="F117" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3911,33 +3936,33 @@
       <c r="J117" s="43"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="90">
+      <c r="A118" s="59"/>
+      <c r="B118" s="29">
+        <v>41733</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
+      <c r="J118" s="43"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="60">
         <v>23</v>
       </c>
-      <c r="B118" s="28">
+      <c r="B119" s="28">
         <v>41736</v>
-      </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="102">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="42"/>
-      <c r="H118" s="42"/>
-      <c r="I118" s="42"/>
-      <c r="J118" s="42"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="91"/>
-      <c r="B119" s="28">
-        <v>41737</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-      <c r="F119" s="102">
+      <c r="F119" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3947,14 +3972,14 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="91"/>
+      <c r="A120" s="61"/>
       <c r="B120" s="28">
-        <v>41738</v>
+        <v>41737</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="102">
+      <c r="F120" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3964,14 +3989,14 @@
       <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="91"/>
+      <c r="A121" s="61"/>
       <c r="B121" s="28">
-        <v>41739</v>
+        <v>41738</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="102">
+      <c r="F121" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3981,14 +4006,14 @@
       <c r="J121" s="42"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="92"/>
+      <c r="A122" s="61"/>
       <c r="B122" s="28">
-        <v>41740</v>
+        <v>41739</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
-      <c r="F122" s="102">
+      <c r="F122" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3998,33 +4023,33 @@
       <c r="J122" s="42"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="64">
+      <c r="A123" s="62"/>
+      <c r="B123" s="28">
+        <v>41740</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="42"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="57">
         <v>24</v>
       </c>
-      <c r="B123" s="29">
+      <c r="B124" s="29">
         <v>41743</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="43"/>
-      <c r="H123" s="43"/>
-      <c r="I123" s="43"/>
-      <c r="J123" s="43"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="65"/>
-      <c r="B124" s="29">
-        <v>41744</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
-      <c r="F124" s="103">
+      <c r="F124" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4034,14 +4059,14 @@
       <c r="J124" s="43"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="65"/>
+      <c r="A125" s="58"/>
       <c r="B125" s="29">
-        <v>41745</v>
+        <v>41744</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
-      <c r="F125" s="103">
+      <c r="F125" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4051,14 +4076,14 @@
       <c r="J125" s="43"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="65"/>
+      <c r="A126" s="58"/>
       <c r="B126" s="29">
-        <v>41746</v>
+        <v>41745</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
-      <c r="F126" s="103">
+      <c r="F126" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4068,14 +4093,14 @@
       <c r="J126" s="43"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="66"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="29">
-        <v>41747</v>
+        <v>41746</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
-      <c r="F127" s="103">
+      <c r="F127" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4085,33 +4110,33 @@
       <c r="J127" s="43"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="90">
+      <c r="A128" s="59"/>
+      <c r="B128" s="29">
+        <v>41747</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43"/>
+      <c r="I128" s="43"/>
+      <c r="J128" s="43"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="60">
         <v>25</v>
       </c>
-      <c r="B128" s="28">
+      <c r="B129" s="28">
         <v>41750</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="102">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G128" s="42"/>
-      <c r="H128" s="42"/>
-      <c r="I128" s="42"/>
-      <c r="J128" s="42"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="91"/>
-      <c r="B129" s="28">
-        <v>41751</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
-      <c r="F129" s="102">
+      <c r="F129" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4121,14 +4146,14 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="91"/>
+      <c r="A130" s="61"/>
       <c r="B130" s="28">
-        <v>41752</v>
+        <v>41751</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="102">
+      <c r="F130" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4138,14 +4163,14 @@
       <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="91"/>
+      <c r="A131" s="61"/>
       <c r="B131" s="28">
-        <v>41753</v>
+        <v>41752</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
-      <c r="F131" s="102">
+      <c r="F131" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4155,14 +4180,14 @@
       <c r="J131" s="42"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="92"/>
+      <c r="A132" s="61"/>
       <c r="B132" s="28">
-        <v>41754</v>
+        <v>41753</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="102">
+      <c r="F132" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4172,33 +4197,33 @@
       <c r="J132" s="42"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="64">
+      <c r="A133" s="62"/>
+      <c r="B133" s="28">
+        <v>41754</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="57">
         <v>26</v>
       </c>
-      <c r="B133" s="29">
+      <c r="B134" s="29">
         <v>41757</v>
-      </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G133" s="43"/>
-      <c r="H133" s="43"/>
-      <c r="I133" s="43"/>
-      <c r="J133" s="43"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="65"/>
-      <c r="B134" s="29">
-        <v>41758</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
-      <c r="F134" s="103">
+      <c r="F134" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4208,14 +4233,14 @@
       <c r="J134" s="43"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="65"/>
+      <c r="A135" s="58"/>
       <c r="B135" s="29">
-        <v>41759</v>
+        <v>41758</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
-      <c r="F135" s="103">
+      <c r="F135" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4225,14 +4250,14 @@
       <c r="J135" s="43"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="65"/>
+      <c r="A136" s="58"/>
       <c r="B136" s="29">
-        <v>41760</v>
+        <v>41759</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
-      <c r="F136" s="103">
+      <c r="F136" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4242,14 +4267,14 @@
       <c r="J136" s="43"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="66"/>
+      <c r="A137" s="58"/>
       <c r="B137" s="29">
-        <v>41761</v>
+        <v>41760</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
-      <c r="F137" s="103">
+      <c r="F137" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4259,33 +4284,33 @@
       <c r="J137" s="43"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="90">
+      <c r="A138" s="59"/>
+      <c r="B138" s="29">
+        <v>41761</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="43"/>
+      <c r="H138" s="43"/>
+      <c r="I138" s="43"/>
+      <c r="J138" s="43"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="60">
         <v>27</v>
       </c>
-      <c r="B138" s="28">
+      <c r="B139" s="28">
         <v>41764</v>
-      </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="102">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G138" s="42"/>
-      <c r="H138" s="42"/>
-      <c r="I138" s="42"/>
-      <c r="J138" s="42"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="91"/>
-      <c r="B139" s="28">
-        <v>41765</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="102">
+      <c r="F139" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4295,14 +4320,14 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="91"/>
+      <c r="A140" s="61"/>
       <c r="B140" s="28">
-        <v>41766</v>
+        <v>41765</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="102">
+      <c r="F140" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4312,14 +4337,14 @@
       <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="91"/>
+      <c r="A141" s="61"/>
       <c r="B141" s="28">
-        <v>41767</v>
+        <v>41766</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="102">
+      <c r="F141" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4329,14 +4354,14 @@
       <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="92"/>
+      <c r="A142" s="61"/>
       <c r="B142" s="28">
-        <v>41768</v>
+        <v>41767</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="102">
+      <c r="F142" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4346,33 +4371,33 @@
       <c r="J142" s="42"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="64">
+      <c r="A143" s="62"/>
+      <c r="B143" s="28">
+        <v>41768</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="42"/>
+      <c r="H143" s="42"/>
+      <c r="I143" s="42"/>
+      <c r="J143" s="42"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="57">
         <v>28</v>
       </c>
-      <c r="B143" s="29">
+      <c r="B144" s="29">
         <v>41771</v>
-      </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G143" s="43"/>
-      <c r="H143" s="43"/>
-      <c r="I143" s="43"/>
-      <c r="J143" s="43"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="65"/>
-      <c r="B144" s="29">
-        <v>41772</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
-      <c r="F144" s="103">
+      <c r="F144" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4382,14 +4407,14 @@
       <c r="J144" s="43"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="65"/>
+      <c r="A145" s="58"/>
       <c r="B145" s="29">
-        <v>41773</v>
+        <v>41772</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
-      <c r="F145" s="103">
+      <c r="F145" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4399,15 +4424,15 @@
       <c r="J145" s="43"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="65"/>
+      <c r="A146" s="58"/>
       <c r="B146" s="29">
-        <v>41774</v>
+        <v>41773</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
-      <c r="F146" s="103">
-        <f t="shared" ref="F146:F157" si="4">E146</f>
+      <c r="F146" s="52">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G146" s="43"/>
@@ -4416,15 +4441,15 @@
       <c r="J146" s="43"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="66"/>
+      <c r="A147" s="58"/>
       <c r="B147" s="29">
-        <v>41775</v>
+        <v>41774</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
-      <c r="F147" s="103">
-        <f t="shared" si="4"/>
+      <c r="F147" s="52">
+        <f t="shared" ref="F147:F158" si="4">E147</f>
         <v>0</v>
       </c>
       <c r="G147" s="43"/>
@@ -4433,33 +4458,33 @@
       <c r="J147" s="43"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="90">
+      <c r="A148" s="59"/>
+      <c r="B148" s="29">
+        <v>41775</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="43"/>
+      <c r="H148" s="43"/>
+      <c r="I148" s="43"/>
+      <c r="J148" s="43"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="60">
         <v>29</v>
       </c>
-      <c r="B148" s="28">
+      <c r="B149" s="28">
         <v>41778</v>
-      </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="102">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G148" s="42"/>
-      <c r="H148" s="42"/>
-      <c r="I148" s="42"/>
-      <c r="J148" s="42"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="91"/>
-      <c r="B149" s="28">
-        <v>41779</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="102">
+      <c r="F149" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4469,14 +4494,14 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="91"/>
+      <c r="A150" s="61"/>
       <c r="B150" s="28">
-        <v>41780</v>
+        <v>41779</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-      <c r="F150" s="102">
+      <c r="F150" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4486,14 +4511,14 @@
       <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="91"/>
+      <c r="A151" s="61"/>
       <c r="B151" s="28">
-        <v>41781</v>
+        <v>41780</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
-      <c r="F151" s="102">
+      <c r="F151" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4503,14 +4528,14 @@
       <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="92"/>
+      <c r="A152" s="61"/>
       <c r="B152" s="28">
-        <v>41782</v>
+        <v>41781</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
-      <c r="F152" s="102">
+      <c r="F152" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4520,33 +4545,33 @@
       <c r="J152" s="42"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="96">
+      <c r="A153" s="62"/>
+      <c r="B153" s="28">
+        <v>41782</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="42"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="42"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="54">
         <v>30</v>
       </c>
-      <c r="B153" s="29">
+      <c r="B154" s="29">
         <v>41785</v>
-      </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G153" s="44"/>
-      <c r="H153" s="44"/>
-      <c r="I153" s="44"/>
-      <c r="J153" s="44"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="97"/>
-      <c r="B154" s="29">
-        <v>41786</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
-      <c r="F154" s="104">
+      <c r="F154" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4556,14 +4581,14 @@
       <c r="J154" s="44"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="97"/>
+      <c r="A155" s="55"/>
       <c r="B155" s="29">
-        <v>41787</v>
+        <v>41786</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
-      <c r="F155" s="104">
+      <c r="F155" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4573,14 +4598,14 @@
       <c r="J155" s="44"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="97"/>
+      <c r="A156" s="55"/>
       <c r="B156" s="29">
-        <v>41788</v>
+        <v>41787</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
-      <c r="F156" s="104">
+      <c r="F156" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4590,14 +4615,14 @@
       <c r="J156" s="44"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="98"/>
+      <c r="A157" s="55"/>
       <c r="B157" s="29">
-        <v>41789</v>
+        <v>41788</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
-      <c r="F157" s="104">
+      <c r="F157" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4606,43 +4631,30 @@
       <c r="I157" s="44"/>
       <c r="J157" s="44"/>
     </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="56"/>
+      <c r="B158" s="29">
+        <v>41789</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="44"/>
+      <c r="H158" s="44"/>
+      <c r="I158" s="44"/>
+      <c r="J158" s="44"/>
+    </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B13:B14"/>
+  <mergeCells count="49">
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A54:A58"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
@@ -4652,9 +4664,41 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
@@ -4674,7 +4718,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M10:M12 M8 F8 F11 F13 F17" formulaRange="1"/>
+    <ignoredError sqref="M10:M12 M8 F8 F11 F13 F17 F19" formulaRange="1"/>
     <ignoredError sqref="F15" formula="1" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
@@ -4811,29 +4855,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M19</xm:sqref>
+          <xm:sqref>M19:M20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="30" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4852,7 +4877,7 @@
           <xm:sqref>M21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
+          <x14:cfRule type="iconSet" priority="29" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4871,7 +4896,7 @@
           <xm:sqref>M22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
+          <x14:cfRule type="iconSet" priority="28" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4890,7 +4915,7 @@
           <xm:sqref>M23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
+          <x14:cfRule type="iconSet" priority="27" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4909,7 +4934,7 @@
           <xm:sqref>M24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
+          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4928,7 +4953,7 @@
           <xm:sqref>M25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
+          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4947,7 +4972,7 @@
           <xm:sqref>M26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4966,7 +4991,7 @@
           <xm:sqref>M27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4985,7 +5010,7 @@
           <xm:sqref>M28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5004,7 +5029,7 @@
           <xm:sqref>M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5023,7 +5048,7 @@
           <xm:sqref>M30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5042,7 +5067,7 @@
           <xm:sqref>M31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5061,7 +5086,7 @@
           <xm:sqref>M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5080,7 +5105,7 @@
           <xm:sqref>M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5099,7 +5124,7 @@
           <xm:sqref>M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5118,7 +5143,7 @@
           <xm:sqref>M35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5137,7 +5162,7 @@
           <xm:sqref>M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5156,7 +5181,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5175,7 +5200,7 @@
           <xm:sqref>M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5194,7 +5219,7 @@
           <xm:sqref>M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5211,6 +5236,25 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5267,7 +5311,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F7:F8 F19:F157 F10:F11 F13 F15</xm:sqref>
+          <xm:sqref>F7:F8 F10:F11 F13 F15 F19 F21:F158</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
   <si>
     <t>Week</t>
   </si>
@@ -321,6 +321,14 @@
     <t xml:space="preserve"> - Review Change management plan
  - Review Scrum modal and ACDM
  - Review Test management plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Review Change management plan
+ - Review Requirement plan
+ - Review Architecture plan
+ - Review Change log template
+ - Review Master plan
+ - Review Scrum model and ACDM</t>
   </si>
 </sst>
 </file>
@@ -619,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -754,6 +762,168 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,167 +933,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1361,10 +1375,10 @@
   <dimension ref="A1:O158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8:I9"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1387,81 +1401,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="71"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="72" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="74"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="80"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
       <c r="F5" s="16"/>
       <c r="H5" s="46" t="s">
         <v>78</v>
@@ -1512,7 +1526,7 @@
       <c r="N6" s="103"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
+      <c r="A7" s="71">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1539,21 +1553,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="63" t="s">
+      <c r="K7" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="63"/>
+      <c r="L7" s="104"/>
       <c r="M7" s="35">
         <f>SUM(M8:M41)</f>
-        <v>18.953000000000003</v>
+        <v>22.953000000000003</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="96">
+      <c r="A8" s="72"/>
+      <c r="B8" s="91">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1565,7 +1579,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="93">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1590,8 +1604,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="97"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1601,7 +1615,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="99"/>
+      <c r="F9" s="94"/>
       <c r="G9" s="32" t="s">
         <v>26</v>
       </c>
@@ -1612,7 +1626,7 @@
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="93">
+      <c r="A10" s="88">
         <v>2</v>
       </c>
       <c r="B10" s="23">
@@ -1655,8 +1669,8 @@
       <c r="O10" s="37"/>
     </row>
     <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="66">
+      <c r="A11" s="89"/>
+      <c r="B11" s="77">
         <v>41591</v>
       </c>
       <c r="C11" s="27">
@@ -1668,7 +1682,7 @@
       <c r="E11" s="30">
         <v>2</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="95">
         <f>SUM(E11:E12)</f>
         <v>3</v>
       </c>
@@ -1688,8 +1702,8 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="67"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1699,7 +1713,7 @@
       <c r="E12" s="30">
         <v>1</v>
       </c>
-      <c r="F12" s="65"/>
+      <c r="F12" s="96"/>
       <c r="G12" s="31" t="s">
         <v>25</v>
       </c>
@@ -1716,15 +1730,15 @@
       <c r="L12" s="6"/>
       <c r="M12" s="10">
         <f>SUM(E19:E23)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="66">
+      <c r="A13" s="89"/>
+      <c r="B13" s="77">
         <v>41592</v>
       </c>
       <c r="C13" s="27">
@@ -1736,7 +1750,7 @@
       <c r="E13" s="30">
         <v>0.75</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="95">
         <f>SUM(E13:E14)</f>
         <v>2</v>
       </c>
@@ -1763,8 +1777,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="67"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="27">
         <v>0.875</v>
       </c>
@@ -1774,7 +1788,7 @@
       <c r="E14" s="30">
         <v>1.25</v>
       </c>
-      <c r="F14" s="65"/>
+      <c r="F14" s="96"/>
       <c r="G14" s="47" t="s">
         <v>26</v>
       </c>
@@ -1791,8 +1805,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="66">
+      <c r="A15" s="89"/>
+      <c r="B15" s="77">
         <v>41593</v>
       </c>
       <c r="C15" s="27">
@@ -1804,7 +1818,7 @@
       <c r="E15" s="30">
         <v>1.083</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="95">
         <f>SUM(E15:E18)</f>
         <v>5.883</v>
       </c>
@@ -1831,8 +1845,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="67"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1842,7 +1856,7 @@
       <c r="E16" s="30">
         <v>2.33</v>
       </c>
-      <c r="F16" s="65"/>
+      <c r="F16" s="96"/>
       <c r="G16" s="31" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1880,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="66">
+      <c r="A17" s="89"/>
+      <c r="B17" s="77">
         <v>41594</v>
       </c>
       <c r="C17" s="27">
@@ -1879,7 +1893,7 @@
       <c r="E17" s="30">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="95">
         <f>SUM(E17:E18)</f>
         <v>2.4699999999999998</v>
       </c>
@@ -1906,8 +1920,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="27">
         <v>0.83333333333333337</v>
       </c>
@@ -1917,7 +1931,7 @@
       <c r="E18" s="30">
         <v>1.92</v>
       </c>
-      <c r="F18" s="65"/>
+      <c r="F18" s="96"/>
       <c r="G18" s="31" t="s">
         <v>25</v>
       </c>
@@ -1934,8 +1948,8 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="104">
+      <c r="A19" s="105"/>
+      <c r="B19" s="106">
         <v>41597</v>
       </c>
       <c r="C19" s="49">
@@ -1947,14 +1961,14 @@
       <c r="E19" s="50">
         <v>2</v>
       </c>
-      <c r="F19" s="109">
+      <c r="F19" s="57">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="107" t="s">
+      <c r="H19" s="55" t="s">
         <v>81</v>
       </c>
       <c r="I19" s="42"/>
@@ -1972,8 +1986,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="49">
         <v>0.5625</v>
       </c>
@@ -1983,11 +1997,11 @@
       <c r="E20" s="50">
         <v>1</v>
       </c>
-      <c r="F20" s="110"/>
-      <c r="G20" s="106" t="s">
+      <c r="F20" s="58"/>
+      <c r="G20" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="108" t="s">
+      <c r="H20" s="56" t="s">
         <v>82</v>
       </c>
       <c r="I20" s="42"/>
@@ -1997,20 +2011,30 @@
       <c r="M20" s="10"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
+    <row r="21" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="105"/>
       <c r="B21" s="28">
         <v>41598</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="51">
-        <f t="shared" ref="F19:F50" si="0">E21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="C21" s="112">
+        <v>0.5625</v>
+      </c>
+      <c r="D21" s="112">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E21" s="50">
+        <v>4</v>
+      </c>
+      <c r="F21" s="111">
+        <f t="shared" ref="F21:F50" si="0">E21</f>
+        <v>4</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>83</v>
+      </c>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="K21" s="8" t="s">
@@ -2026,7 +2050,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="28">
         <v>41599</v>
       </c>
@@ -2054,7 +2078,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="28">
         <v>41600</v>
       </c>
@@ -2082,7 +2106,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="57">
+      <c r="A24" s="74">
         <v>4</v>
       </c>
       <c r="B24" s="29">
@@ -2112,7 +2136,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="29">
         <v>41604</v>
       </c>
@@ -2140,7 +2164,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="29">
         <v>41605</v>
       </c>
@@ -2168,7 +2192,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="29">
         <v>41606</v>
       </c>
@@ -2196,7 +2220,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="29">
         <v>41607</v>
       </c>
@@ -2224,7 +2248,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="60">
+      <c r="A29" s="100">
         <v>5</v>
       </c>
       <c r="B29" s="28">
@@ -2254,7 +2278,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="28">
         <v>41611</v>
       </c>
@@ -2282,7 +2306,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="28">
         <v>41612</v>
       </c>
@@ -2310,7 +2334,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="28">
         <v>41613</v>
       </c>
@@ -2338,7 +2362,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
+      <c r="A33" s="102"/>
       <c r="B33" s="28">
         <v>41614</v>
       </c>
@@ -2366,7 +2390,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="57">
+      <c r="A34" s="74">
         <v>6</v>
       </c>
       <c r="B34" s="29">
@@ -2396,7 +2420,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="75"/>
       <c r="B35" s="29">
         <v>41618</v>
       </c>
@@ -2424,7 +2448,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="75"/>
       <c r="B36" s="29">
         <v>41619</v>
       </c>
@@ -2452,7 +2476,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="29">
         <v>41620</v>
       </c>
@@ -2480,7 +2504,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="29">
         <v>41621</v>
       </c>
@@ -2508,7 +2532,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="60">
+      <c r="A39" s="100">
         <v>7</v>
       </c>
       <c r="B39" s="28">
@@ -2538,7 +2562,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="101"/>
       <c r="B40" s="28">
         <v>41625</v>
       </c>
@@ -2566,7 +2590,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="101"/>
       <c r="B41" s="28">
         <v>41626</v>
       </c>
@@ -2594,7 +2618,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="28">
         <v>41627</v>
       </c>
@@ -2611,7 +2635,7 @@
       <c r="J42" s="42"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
+      <c r="A43" s="102"/>
       <c r="B43" s="28">
         <v>41628</v>
       </c>
@@ -2628,7 +2652,7 @@
       <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="57">
+      <c r="A44" s="74">
         <v>8</v>
       </c>
       <c r="B44" s="29">
@@ -2647,7 +2671,7 @@
       <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="75"/>
       <c r="B45" s="29">
         <v>41632</v>
       </c>
@@ -2664,7 +2688,7 @@
       <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="75"/>
       <c r="B46" s="29">
         <v>41633</v>
       </c>
@@ -2681,7 +2705,7 @@
       <c r="J46" s="43"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="75"/>
       <c r="B47" s="29">
         <v>41634</v>
       </c>
@@ -2698,7 +2722,7 @@
       <c r="J47" s="43"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
+      <c r="A48" s="76"/>
       <c r="B48" s="29">
         <v>41635</v>
       </c>
@@ -2715,7 +2739,7 @@
       <c r="J48" s="43"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="60">
+      <c r="A49" s="100">
         <v>9</v>
       </c>
       <c r="B49" s="28">
@@ -2734,7 +2758,7 @@
       <c r="J49" s="42"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
+      <c r="A50" s="101"/>
       <c r="B50" s="28">
         <v>41639</v>
       </c>
@@ -2751,7 +2775,7 @@
       <c r="J50" s="42"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
+      <c r="A51" s="101"/>
       <c r="B51" s="28">
         <v>41640</v>
       </c>
@@ -2768,7 +2792,7 @@
       <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
+      <c r="A52" s="101"/>
       <c r="B52" s="28">
         <v>41641</v>
       </c>
@@ -2785,7 +2809,7 @@
       <c r="J52" s="42"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
+      <c r="A53" s="102"/>
       <c r="B53" s="28">
         <v>41642</v>
       </c>
@@ -2802,7 +2826,7 @@
       <c r="J53" s="42"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="57">
+      <c r="A54" s="74">
         <v>10</v>
       </c>
       <c r="B54" s="29">
@@ -2821,7 +2845,7 @@
       <c r="J54" s="43"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
+      <c r="A55" s="75"/>
       <c r="B55" s="29">
         <v>41646</v>
       </c>
@@ -2838,7 +2862,7 @@
       <c r="J55" s="43"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
+      <c r="A56" s="75"/>
       <c r="B56" s="29">
         <v>41647</v>
       </c>
@@ -2855,7 +2879,7 @@
       <c r="J56" s="43"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
+      <c r="A57" s="75"/>
       <c r="B57" s="29">
         <v>41648</v>
       </c>
@@ -2872,7 +2896,7 @@
       <c r="J57" s="43"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
+      <c r="A58" s="76"/>
       <c r="B58" s="29">
         <v>41649</v>
       </c>
@@ -2889,7 +2913,7 @@
       <c r="J58" s="43"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="60">
+      <c r="A59" s="100">
         <v>11</v>
       </c>
       <c r="B59" s="28">
@@ -2908,7 +2932,7 @@
       <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
+      <c r="A60" s="101"/>
       <c r="B60" s="28">
         <v>41653</v>
       </c>
@@ -2925,7 +2949,7 @@
       <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
+      <c r="A61" s="101"/>
       <c r="B61" s="28">
         <v>41654</v>
       </c>
@@ -2942,7 +2966,7 @@
       <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
+      <c r="A62" s="101"/>
       <c r="B62" s="28">
         <v>41655</v>
       </c>
@@ -2959,7 +2983,7 @@
       <c r="J62" s="42"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
+      <c r="A63" s="102"/>
       <c r="B63" s="28">
         <v>41656</v>
       </c>
@@ -2976,7 +3000,7 @@
       <c r="J63" s="42"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="57">
+      <c r="A64" s="74">
         <v>12</v>
       </c>
       <c r="B64" s="29">
@@ -2995,7 +3019,7 @@
       <c r="J64" s="43"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
+      <c r="A65" s="75"/>
       <c r="B65" s="29">
         <v>41660</v>
       </c>
@@ -3012,7 +3036,7 @@
       <c r="J65" s="43"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
+      <c r="A66" s="75"/>
       <c r="B66" s="29">
         <v>41661</v>
       </c>
@@ -3029,7 +3053,7 @@
       <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
+      <c r="A67" s="75"/>
       <c r="B67" s="29">
         <v>41662</v>
       </c>
@@ -3046,7 +3070,7 @@
       <c r="J67" s="43"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
+      <c r="A68" s="76"/>
       <c r="B68" s="29">
         <v>41663</v>
       </c>
@@ -3063,7 +3087,7 @@
       <c r="J68" s="43"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="60">
+      <c r="A69" s="100">
         <v>13</v>
       </c>
       <c r="B69" s="28">
@@ -3084,7 +3108,7 @@
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
+      <c r="A70" s="101"/>
       <c r="B70" s="28">
         <v>41667</v>
       </c>
@@ -3103,7 +3127,7 @@
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
+      <c r="A71" s="101"/>
       <c r="B71" s="28">
         <v>41668</v>
       </c>
@@ -3122,7 +3146,7 @@
       <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
+      <c r="A72" s="101"/>
       <c r="B72" s="28">
         <v>41669</v>
       </c>
@@ -3141,7 +3165,7 @@
       <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="62"/>
+      <c r="A73" s="102"/>
       <c r="B73" s="28">
         <v>41670</v>
       </c>
@@ -3160,7 +3184,7 @@
       <c r="J73" s="42"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="57">
+      <c r="A74" s="74">
         <v>14</v>
       </c>
       <c r="B74" s="29">
@@ -3181,7 +3205,7 @@
       <c r="J74" s="43"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
+      <c r="A75" s="75"/>
       <c r="B75" s="29">
         <v>41674</v>
       </c>
@@ -3200,7 +3224,7 @@
       <c r="J75" s="43"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="58"/>
+      <c r="A76" s="75"/>
       <c r="B76" s="29">
         <v>41675</v>
       </c>
@@ -3219,7 +3243,7 @@
       <c r="J76" s="43"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
+      <c r="A77" s="75"/>
       <c r="B77" s="29">
         <v>41676</v>
       </c>
@@ -3238,7 +3262,7 @@
       <c r="J77" s="43"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
+      <c r="A78" s="76"/>
       <c r="B78" s="29">
         <v>41677</v>
       </c>
@@ -3257,7 +3281,7 @@
       <c r="J78" s="43"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="60">
+      <c r="A79" s="100">
         <v>15</v>
       </c>
       <c r="B79" s="28">
@@ -3276,7 +3300,7 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
+      <c r="A80" s="101"/>
       <c r="B80" s="28">
         <v>41681</v>
       </c>
@@ -3293,7 +3317,7 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
+      <c r="A81" s="101"/>
       <c r="B81" s="28">
         <v>41682</v>
       </c>
@@ -3310,7 +3334,7 @@
       <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="61"/>
+      <c r="A82" s="101"/>
       <c r="B82" s="28">
         <v>41683</v>
       </c>
@@ -3327,7 +3351,7 @@
       <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="62"/>
+      <c r="A83" s="102"/>
       <c r="B83" s="28">
         <v>41684</v>
       </c>
@@ -3344,7 +3368,7 @@
       <c r="J83" s="42"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="57">
+      <c r="A84" s="74">
         <v>16</v>
       </c>
       <c r="B84" s="29">
@@ -3363,7 +3387,7 @@
       <c r="J84" s="43"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="58"/>
+      <c r="A85" s="75"/>
       <c r="B85" s="29">
         <v>41688</v>
       </c>
@@ -3380,7 +3404,7 @@
       <c r="J85" s="43"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="58"/>
+      <c r="A86" s="75"/>
       <c r="B86" s="29">
         <v>41689</v>
       </c>
@@ -3397,7 +3421,7 @@
       <c r="J86" s="43"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="58"/>
+      <c r="A87" s="75"/>
       <c r="B87" s="29">
         <v>41690</v>
       </c>
@@ -3414,7 +3438,7 @@
       <c r="J87" s="43"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="59"/>
+      <c r="A88" s="76"/>
       <c r="B88" s="29">
         <v>41691</v>
       </c>
@@ -3431,7 +3455,7 @@
       <c r="J88" s="43"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="60">
+      <c r="A89" s="100">
         <v>17</v>
       </c>
       <c r="B89" s="28">
@@ -3450,7 +3474,7 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
+      <c r="A90" s="101"/>
       <c r="B90" s="28">
         <v>41695</v>
       </c>
@@ -3467,7 +3491,7 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
+      <c r="A91" s="101"/>
       <c r="B91" s="28">
         <v>41696</v>
       </c>
@@ -3484,7 +3508,7 @@
       <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
+      <c r="A92" s="101"/>
       <c r="B92" s="28">
         <v>41697</v>
       </c>
@@ -3501,7 +3525,7 @@
       <c r="J92" s="42"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="62"/>
+      <c r="A93" s="102"/>
       <c r="B93" s="28">
         <v>41698</v>
       </c>
@@ -3518,7 +3542,7 @@
       <c r="J93" s="42"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="57">
+      <c r="A94" s="74">
         <v>18</v>
       </c>
       <c r="B94" s="29">
@@ -3537,7 +3561,7 @@
       <c r="J94" s="43"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
+      <c r="A95" s="75"/>
       <c r="B95" s="29">
         <v>41702</v>
       </c>
@@ -3554,7 +3578,7 @@
       <c r="J95" s="43"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="58"/>
+      <c r="A96" s="75"/>
       <c r="B96" s="29">
         <v>41703</v>
       </c>
@@ -3571,7 +3595,7 @@
       <c r="J96" s="43"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="58"/>
+      <c r="A97" s="75"/>
       <c r="B97" s="29">
         <v>41704</v>
       </c>
@@ -3588,7 +3612,7 @@
       <c r="J97" s="43"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="59"/>
+      <c r="A98" s="76"/>
       <c r="B98" s="29">
         <v>41705</v>
       </c>
@@ -3605,7 +3629,7 @@
       <c r="J98" s="43"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="60">
+      <c r="A99" s="100">
         <v>19</v>
       </c>
       <c r="B99" s="28">
@@ -3624,7 +3648,7 @@
       <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
+      <c r="A100" s="101"/>
       <c r="B100" s="28">
         <v>41709</v>
       </c>
@@ -3641,7 +3665,7 @@
       <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
+      <c r="A101" s="101"/>
       <c r="B101" s="28">
         <v>41710</v>
       </c>
@@ -3658,7 +3682,7 @@
       <c r="J101" s="42"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
+      <c r="A102" s="101"/>
       <c r="B102" s="28">
         <v>41711</v>
       </c>
@@ -3675,7 +3699,7 @@
       <c r="J102" s="42"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="62"/>
+      <c r="A103" s="102"/>
       <c r="B103" s="28">
         <v>41712</v>
       </c>
@@ -3692,7 +3716,7 @@
       <c r="J103" s="42"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="57">
+      <c r="A104" s="74">
         <v>20</v>
       </c>
       <c r="B104" s="29">
@@ -3711,7 +3735,7 @@
       <c r="J104" s="43"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="58"/>
+      <c r="A105" s="75"/>
       <c r="B105" s="29">
         <v>41716</v>
       </c>
@@ -3728,7 +3752,7 @@
       <c r="J105" s="43"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="58"/>
+      <c r="A106" s="75"/>
       <c r="B106" s="29">
         <v>41717</v>
       </c>
@@ -3745,7 +3769,7 @@
       <c r="J106" s="43"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="58"/>
+      <c r="A107" s="75"/>
       <c r="B107" s="29">
         <v>41718</v>
       </c>
@@ -3762,7 +3786,7 @@
       <c r="J107" s="43"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="59"/>
+      <c r="A108" s="76"/>
       <c r="B108" s="29">
         <v>41719</v>
       </c>
@@ -3779,7 +3803,7 @@
       <c r="J108" s="43"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="60">
+      <c r="A109" s="100">
         <v>21</v>
       </c>
       <c r="B109" s="28">
@@ -3798,7 +3822,7 @@
       <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="61"/>
+      <c r="A110" s="101"/>
       <c r="B110" s="28">
         <v>41723</v>
       </c>
@@ -3815,7 +3839,7 @@
       <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="61"/>
+      <c r="A111" s="101"/>
       <c r="B111" s="28">
         <v>41724</v>
       </c>
@@ -3832,7 +3856,7 @@
       <c r="J111" s="42"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="61"/>
+      <c r="A112" s="101"/>
       <c r="B112" s="28">
         <v>41725</v>
       </c>
@@ -3849,7 +3873,7 @@
       <c r="J112" s="42"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="62"/>
+      <c r="A113" s="102"/>
       <c r="B113" s="28">
         <v>41726</v>
       </c>
@@ -3866,7 +3890,7 @@
       <c r="J113" s="42"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="57">
+      <c r="A114" s="74">
         <v>22</v>
       </c>
       <c r="B114" s="29">
@@ -3885,7 +3909,7 @@
       <c r="J114" s="43"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="58"/>
+      <c r="A115" s="75"/>
       <c r="B115" s="29">
         <v>41730</v>
       </c>
@@ -3902,7 +3926,7 @@
       <c r="J115" s="43"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="58"/>
+      <c r="A116" s="75"/>
       <c r="B116" s="29">
         <v>41731</v>
       </c>
@@ -3919,7 +3943,7 @@
       <c r="J116" s="43"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="58"/>
+      <c r="A117" s="75"/>
       <c r="B117" s="29">
         <v>41732</v>
       </c>
@@ -3936,7 +3960,7 @@
       <c r="J117" s="43"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="59"/>
+      <c r="A118" s="76"/>
       <c r="B118" s="29">
         <v>41733</v>
       </c>
@@ -3953,7 +3977,7 @@
       <c r="J118" s="43"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="60">
+      <c r="A119" s="100">
         <v>23</v>
       </c>
       <c r="B119" s="28">
@@ -3972,7 +3996,7 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="61"/>
+      <c r="A120" s="101"/>
       <c r="B120" s="28">
         <v>41737</v>
       </c>
@@ -3989,7 +4013,7 @@
       <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
+      <c r="A121" s="101"/>
       <c r="B121" s="28">
         <v>41738</v>
       </c>
@@ -4006,7 +4030,7 @@
       <c r="J121" s="42"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="61"/>
+      <c r="A122" s="101"/>
       <c r="B122" s="28">
         <v>41739</v>
       </c>
@@ -4023,7 +4047,7 @@
       <c r="J122" s="42"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="62"/>
+      <c r="A123" s="102"/>
       <c r="B123" s="28">
         <v>41740</v>
       </c>
@@ -4040,7 +4064,7 @@
       <c r="J123" s="42"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="57">
+      <c r="A124" s="74">
         <v>24</v>
       </c>
       <c r="B124" s="29">
@@ -4059,7 +4083,7 @@
       <c r="J124" s="43"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="58"/>
+      <c r="A125" s="75"/>
       <c r="B125" s="29">
         <v>41744</v>
       </c>
@@ -4076,7 +4100,7 @@
       <c r="J125" s="43"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="58"/>
+      <c r="A126" s="75"/>
       <c r="B126" s="29">
         <v>41745</v>
       </c>
@@ -4093,7 +4117,7 @@
       <c r="J126" s="43"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="58"/>
+      <c r="A127" s="75"/>
       <c r="B127" s="29">
         <v>41746</v>
       </c>
@@ -4110,7 +4134,7 @@
       <c r="J127" s="43"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="59"/>
+      <c r="A128" s="76"/>
       <c r="B128" s="29">
         <v>41747</v>
       </c>
@@ -4127,7 +4151,7 @@
       <c r="J128" s="43"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="60">
+      <c r="A129" s="100">
         <v>25</v>
       </c>
       <c r="B129" s="28">
@@ -4146,7 +4170,7 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="61"/>
+      <c r="A130" s="101"/>
       <c r="B130" s="28">
         <v>41751</v>
       </c>
@@ -4163,7 +4187,7 @@
       <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="61"/>
+      <c r="A131" s="101"/>
       <c r="B131" s="28">
         <v>41752</v>
       </c>
@@ -4180,7 +4204,7 @@
       <c r="J131" s="42"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="61"/>
+      <c r="A132" s="101"/>
       <c r="B132" s="28">
         <v>41753</v>
       </c>
@@ -4197,7 +4221,7 @@
       <c r="J132" s="42"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="62"/>
+      <c r="A133" s="102"/>
       <c r="B133" s="28">
         <v>41754</v>
       </c>
@@ -4214,7 +4238,7 @@
       <c r="J133" s="42"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="57">
+      <c r="A134" s="74">
         <v>26</v>
       </c>
       <c r="B134" s="29">
@@ -4233,7 +4257,7 @@
       <c r="J134" s="43"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="58"/>
+      <c r="A135" s="75"/>
       <c r="B135" s="29">
         <v>41758</v>
       </c>
@@ -4250,7 +4274,7 @@
       <c r="J135" s="43"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="58"/>
+      <c r="A136" s="75"/>
       <c r="B136" s="29">
         <v>41759</v>
       </c>
@@ -4267,7 +4291,7 @@
       <c r="J136" s="43"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="58"/>
+      <c r="A137" s="75"/>
       <c r="B137" s="29">
         <v>41760</v>
       </c>
@@ -4284,7 +4308,7 @@
       <c r="J137" s="43"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="59"/>
+      <c r="A138" s="76"/>
       <c r="B138" s="29">
         <v>41761</v>
       </c>
@@ -4301,7 +4325,7 @@
       <c r="J138" s="43"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="60">
+      <c r="A139" s="100">
         <v>27</v>
       </c>
       <c r="B139" s="28">
@@ -4320,7 +4344,7 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="61"/>
+      <c r="A140" s="101"/>
       <c r="B140" s="28">
         <v>41765</v>
       </c>
@@ -4337,7 +4361,7 @@
       <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="61"/>
+      <c r="A141" s="101"/>
       <c r="B141" s="28">
         <v>41766</v>
       </c>
@@ -4354,7 +4378,7 @@
       <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="61"/>
+      <c r="A142" s="101"/>
       <c r="B142" s="28">
         <v>41767</v>
       </c>
@@ -4371,7 +4395,7 @@
       <c r="J142" s="42"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="62"/>
+      <c r="A143" s="102"/>
       <c r="B143" s="28">
         <v>41768</v>
       </c>
@@ -4388,7 +4412,7 @@
       <c r="J143" s="42"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="57">
+      <c r="A144" s="74">
         <v>28</v>
       </c>
       <c r="B144" s="29">
@@ -4407,7 +4431,7 @@
       <c r="J144" s="43"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="58"/>
+      <c r="A145" s="75"/>
       <c r="B145" s="29">
         <v>41772</v>
       </c>
@@ -4424,7 +4448,7 @@
       <c r="J145" s="43"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="58"/>
+      <c r="A146" s="75"/>
       <c r="B146" s="29">
         <v>41773</v>
       </c>
@@ -4441,7 +4465,7 @@
       <c r="J146" s="43"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="58"/>
+      <c r="A147" s="75"/>
       <c r="B147" s="29">
         <v>41774</v>
       </c>
@@ -4458,7 +4482,7 @@
       <c r="J147" s="43"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="59"/>
+      <c r="A148" s="76"/>
       <c r="B148" s="29">
         <v>41775</v>
       </c>
@@ -4475,7 +4499,7 @@
       <c r="J148" s="43"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="60">
+      <c r="A149" s="100">
         <v>29</v>
       </c>
       <c r="B149" s="28">
@@ -4494,7 +4518,7 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="61"/>
+      <c r="A150" s="101"/>
       <c r="B150" s="28">
         <v>41779</v>
       </c>
@@ -4511,7 +4535,7 @@
       <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="61"/>
+      <c r="A151" s="101"/>
       <c r="B151" s="28">
         <v>41780</v>
       </c>
@@ -4528,7 +4552,7 @@
       <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="61"/>
+      <c r="A152" s="101"/>
       <c r="B152" s="28">
         <v>41781</v>
       </c>
@@ -4545,7 +4569,7 @@
       <c r="J152" s="42"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="62"/>
+      <c r="A153" s="102"/>
       <c r="B153" s="28">
         <v>41782</v>
       </c>
@@ -4562,7 +4586,7 @@
       <c r="J153" s="42"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="54">
+      <c r="A154" s="108">
         <v>30</v>
       </c>
       <c r="B154" s="29">
@@ -4581,7 +4605,7 @@
       <c r="J154" s="44"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="55"/>
+      <c r="A155" s="109"/>
       <c r="B155" s="29">
         <v>41786</v>
       </c>
@@ -4598,7 +4622,7 @@
       <c r="J155" s="44"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="55"/>
+      <c r="A156" s="109"/>
       <c r="B156" s="29">
         <v>41787</v>
       </c>
@@ -4615,7 +4639,7 @@
       <c r="J156" s="44"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="55"/>
+      <c r="A157" s="109"/>
       <c r="B157" s="29">
         <v>41788</v>
       </c>
@@ -4632,7 +4656,7 @@
       <c r="J157" s="44"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="56"/>
+      <c r="A158" s="110"/>
       <c r="B158" s="29">
         <v>41789</v>
       </c>
@@ -4650,6 +4674,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A69:A73"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
@@ -4666,39 +4723,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A43"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
@@ -4718,7 +4742,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M10:M12 M8 F8 F11 F13 F17 F19" formulaRange="1"/>
+    <ignoredError sqref="M10:M11 M8 F8 F11 F13 F17 F19" formulaRange="1"/>
     <ignoredError sqref="F15" formula="1" formulaRange="1"/>
   </ignoredErrors>
   <extLst>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -771,6 +771,66 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,21 +882,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,12 +930,6 @@
     <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,45 +938,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1375,10 +1375,10 @@
   <dimension ref="A1:O158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1401,81 +1401,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="61"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="81"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="62" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="70"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="99"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="16"/>
       <c r="H5" s="46" t="s">
         <v>78</v>
@@ -1520,13 +1520,13 @@
       <c r="J6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="71">
+      <c r="A7" s="91">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1553,10 +1553,10 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="104"/>
+      <c r="L7" s="76"/>
       <c r="M7" s="35">
         <f>SUM(M8:M41)</f>
         <v>22.953000000000003</v>
@@ -1566,8 +1566,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="91">
+      <c r="A8" s="92"/>
+      <c r="B8" s="106">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1579,7 +1579,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="93">
+      <c r="F8" s="108">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1604,8 +1604,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="92"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="94"/>
+      <c r="F9" s="109"/>
       <c r="G9" s="32" t="s">
         <v>26</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="88">
+      <c r="A10" s="103">
         <v>2</v>
       </c>
       <c r="B10" s="23">
@@ -1669,8 +1669,8 @@
       <c r="O10" s="37"/>
     </row>
     <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="77">
+      <c r="A11" s="104"/>
+      <c r="B11" s="70">
         <v>41591</v>
       </c>
       <c r="C11" s="27">
@@ -1682,7 +1682,7 @@
       <c r="E11" s="30">
         <v>2</v>
       </c>
-      <c r="F11" s="95">
+      <c r="F11" s="68">
         <f>SUM(E11:E12)</f>
         <v>3</v>
       </c>
@@ -1702,8 +1702,8 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="78"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="E12" s="30">
         <v>1</v>
       </c>
-      <c r="F12" s="96"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="31" t="s">
         <v>25</v>
       </c>
@@ -1737,8 +1737,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
-      <c r="B13" s="77">
+      <c r="A13" s="104"/>
+      <c r="B13" s="70">
         <v>41592</v>
       </c>
       <c r="C13" s="27">
@@ -1750,7 +1750,7 @@
       <c r="E13" s="30">
         <v>0.75</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="68">
         <f>SUM(E13:E14)</f>
         <v>2</v>
       </c>
@@ -1777,8 +1777,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="27">
         <v>0.875</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="E14" s="30">
         <v>1.25</v>
       </c>
-      <c r="F14" s="96"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="47" t="s">
         <v>26</v>
       </c>
@@ -1805,8 +1805,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="77">
+      <c r="A15" s="104"/>
+      <c r="B15" s="70">
         <v>41593</v>
       </c>
       <c r="C15" s="27">
@@ -1818,7 +1818,7 @@
       <c r="E15" s="30">
         <v>1.083</v>
       </c>
-      <c r="F15" s="95">
+      <c r="F15" s="68">
         <f>SUM(E15:E18)</f>
         <v>5.883</v>
       </c>
@@ -1845,8 +1845,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="E16" s="30">
         <v>2.33</v>
       </c>
-      <c r="F16" s="96"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="31" t="s">
         <v>25</v>
       </c>
@@ -1880,8 +1880,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="77">
+      <c r="A17" s="104"/>
+      <c r="B17" s="70">
         <v>41594</v>
       </c>
       <c r="C17" s="27">
@@ -1893,7 +1893,7 @@
       <c r="E17" s="30">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F17" s="95">
+      <c r="F17" s="68">
         <f>SUM(E17:E18)</f>
         <v>2.4699999999999998</v>
       </c>
@@ -1920,8 +1920,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="27">
         <v>0.83333333333333337</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="E18" s="30">
         <v>1.92</v>
       </c>
-      <c r="F18" s="96"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="31" t="s">
         <v>25</v>
       </c>
@@ -1948,8 +1948,10 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="105"/>
-      <c r="B19" s="106">
+      <c r="A19" s="72">
+        <v>3</v>
+      </c>
+      <c r="B19" s="73">
         <v>41597</v>
       </c>
       <c r="C19" s="49">
@@ -1961,7 +1963,7 @@
       <c r="E19" s="50">
         <v>2</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="77">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
@@ -1986,8 +1988,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="105"/>
-      <c r="B20" s="107"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="49">
         <v>0.5625</v>
       </c>
@@ -1997,7 +1999,7 @@
       <c r="E20" s="50">
         <v>1</v>
       </c>
-      <c r="F20" s="58"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="54" t="s">
         <v>22</v>
       </c>
@@ -2012,20 +2014,20 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="28">
         <v>41598</v>
       </c>
-      <c r="C21" s="112">
+      <c r="C21" s="58">
         <v>0.5625</v>
       </c>
-      <c r="D21" s="112">
+      <c r="D21" s="58">
         <v>0.72916666666666663</v>
       </c>
       <c r="E21" s="50">
         <v>4</v>
       </c>
-      <c r="F21" s="111">
+      <c r="F21" s="57">
         <f t="shared" ref="F21:F50" si="0">E21</f>
         <v>4</v>
       </c>
@@ -2050,7 +2052,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="28">
         <v>41599</v>
       </c>
@@ -2078,7 +2080,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="105"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="28">
         <v>41600</v>
       </c>
@@ -2106,7 +2108,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="74">
+      <c r="A24" s="62">
         <v>4</v>
       </c>
       <c r="B24" s="29">
@@ -2136,7 +2138,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="29">
         <v>41604</v>
       </c>
@@ -2164,7 +2166,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="75"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="29">
         <v>41605</v>
       </c>
@@ -2192,7 +2194,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="29">
         <v>41606</v>
       </c>
@@ -2220,7 +2222,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="29">
         <v>41607</v>
       </c>
@@ -2248,7 +2250,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="100">
+      <c r="A29" s="65">
         <v>5</v>
       </c>
       <c r="B29" s="28">
@@ -2278,7 +2280,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="101"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="28">
         <v>41611</v>
       </c>
@@ -2306,7 +2308,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="101"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="28">
         <v>41612</v>
       </c>
@@ -2334,7 +2336,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="28">
         <v>41613</v>
       </c>
@@ -2362,7 +2364,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="102"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="28">
         <v>41614</v>
       </c>
@@ -2390,7 +2392,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="74">
+      <c r="A34" s="62">
         <v>6</v>
       </c>
       <c r="B34" s="29">
@@ -2420,7 +2422,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="29">
         <v>41618</v>
       </c>
@@ -2448,7 +2450,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="29">
         <v>41619</v>
       </c>
@@ -2476,7 +2478,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="29">
         <v>41620</v>
       </c>
@@ -2504,7 +2506,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="29">
         <v>41621</v>
       </c>
@@ -2532,7 +2534,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="100">
+      <c r="A39" s="65">
         <v>7</v>
       </c>
       <c r="B39" s="28">
@@ -2562,7 +2564,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="101"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="28">
         <v>41625</v>
       </c>
@@ -2590,7 +2592,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="101"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="28">
         <v>41626</v>
       </c>
@@ -2618,7 +2620,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="101"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="28">
         <v>41627</v>
       </c>
@@ -2635,7 +2637,7 @@
       <c r="J42" s="42"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="102"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="28">
         <v>41628</v>
       </c>
@@ -2652,7 +2654,7 @@
       <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="74">
+      <c r="A44" s="62">
         <v>8</v>
       </c>
       <c r="B44" s="29">
@@ -2671,7 +2673,7 @@
       <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="75"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="29">
         <v>41632</v>
       </c>
@@ -2688,7 +2690,7 @@
       <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="75"/>
+      <c r="A46" s="63"/>
       <c r="B46" s="29">
         <v>41633</v>
       </c>
@@ -2705,7 +2707,7 @@
       <c r="J46" s="43"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="75"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="29">
         <v>41634</v>
       </c>
@@ -2722,7 +2724,7 @@
       <c r="J47" s="43"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="76"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="29">
         <v>41635</v>
       </c>
@@ -2739,7 +2741,7 @@
       <c r="J48" s="43"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="100">
+      <c r="A49" s="65">
         <v>9</v>
       </c>
       <c r="B49" s="28">
@@ -2758,7 +2760,7 @@
       <c r="J49" s="42"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="101"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="28">
         <v>41639</v>
       </c>
@@ -2775,7 +2777,7 @@
       <c r="J50" s="42"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="101"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="28">
         <v>41640</v>
       </c>
@@ -2792,7 +2794,7 @@
       <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="101"/>
+      <c r="A52" s="66"/>
       <c r="B52" s="28">
         <v>41641</v>
       </c>
@@ -2809,7 +2811,7 @@
       <c r="J52" s="42"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="102"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="28">
         <v>41642</v>
       </c>
@@ -2826,7 +2828,7 @@
       <c r="J53" s="42"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="74">
+      <c r="A54" s="62">
         <v>10</v>
       </c>
       <c r="B54" s="29">
@@ -2845,7 +2847,7 @@
       <c r="J54" s="43"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="75"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="29">
         <v>41646</v>
       </c>
@@ -2862,7 +2864,7 @@
       <c r="J55" s="43"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="75"/>
+      <c r="A56" s="63"/>
       <c r="B56" s="29">
         <v>41647</v>
       </c>
@@ -2879,7 +2881,7 @@
       <c r="J56" s="43"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="75"/>
+      <c r="A57" s="63"/>
       <c r="B57" s="29">
         <v>41648</v>
       </c>
@@ -2896,7 +2898,7 @@
       <c r="J57" s="43"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="76"/>
+      <c r="A58" s="64"/>
       <c r="B58" s="29">
         <v>41649</v>
       </c>
@@ -2913,7 +2915,7 @@
       <c r="J58" s="43"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="100">
+      <c r="A59" s="65">
         <v>11</v>
       </c>
       <c r="B59" s="28">
@@ -2932,7 +2934,7 @@
       <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="101"/>
+      <c r="A60" s="66"/>
       <c r="B60" s="28">
         <v>41653</v>
       </c>
@@ -2949,7 +2951,7 @@
       <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="101"/>
+      <c r="A61" s="66"/>
       <c r="B61" s="28">
         <v>41654</v>
       </c>
@@ -2966,7 +2968,7 @@
       <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="101"/>
+      <c r="A62" s="66"/>
       <c r="B62" s="28">
         <v>41655</v>
       </c>
@@ -2983,7 +2985,7 @@
       <c r="J62" s="42"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="102"/>
+      <c r="A63" s="67"/>
       <c r="B63" s="28">
         <v>41656</v>
       </c>
@@ -3000,7 +3002,7 @@
       <c r="J63" s="42"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="74">
+      <c r="A64" s="62">
         <v>12</v>
       </c>
       <c r="B64" s="29">
@@ -3019,7 +3021,7 @@
       <c r="J64" s="43"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="75"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="29">
         <v>41660</v>
       </c>
@@ -3036,7 +3038,7 @@
       <c r="J65" s="43"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="75"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="29">
         <v>41661</v>
       </c>
@@ -3053,7 +3055,7 @@
       <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="75"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="29">
         <v>41662</v>
       </c>
@@ -3070,7 +3072,7 @@
       <c r="J67" s="43"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="76"/>
+      <c r="A68" s="64"/>
       <c r="B68" s="29">
         <v>41663</v>
       </c>
@@ -3087,7 +3089,7 @@
       <c r="J68" s="43"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="100">
+      <c r="A69" s="65">
         <v>13</v>
       </c>
       <c r="B69" s="28">
@@ -3108,7 +3110,7 @@
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="101"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="28">
         <v>41667</v>
       </c>
@@ -3127,7 +3129,7 @@
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="101"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="28">
         <v>41668</v>
       </c>
@@ -3146,7 +3148,7 @@
       <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="101"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="28">
         <v>41669</v>
       </c>
@@ -3165,7 +3167,7 @@
       <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="102"/>
+      <c r="A73" s="67"/>
       <c r="B73" s="28">
         <v>41670</v>
       </c>
@@ -3184,7 +3186,7 @@
       <c r="J73" s="42"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="74">
+      <c r="A74" s="62">
         <v>14</v>
       </c>
       <c r="B74" s="29">
@@ -3205,7 +3207,7 @@
       <c r="J74" s="43"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="75"/>
+      <c r="A75" s="63"/>
       <c r="B75" s="29">
         <v>41674</v>
       </c>
@@ -3224,7 +3226,7 @@
       <c r="J75" s="43"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="75"/>
+      <c r="A76" s="63"/>
       <c r="B76" s="29">
         <v>41675</v>
       </c>
@@ -3243,7 +3245,7 @@
       <c r="J76" s="43"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="75"/>
+      <c r="A77" s="63"/>
       <c r="B77" s="29">
         <v>41676</v>
       </c>
@@ -3262,7 +3264,7 @@
       <c r="J77" s="43"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="76"/>
+      <c r="A78" s="64"/>
       <c r="B78" s="29">
         <v>41677</v>
       </c>
@@ -3281,7 +3283,7 @@
       <c r="J78" s="43"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="100">
+      <c r="A79" s="65">
         <v>15</v>
       </c>
       <c r="B79" s="28">
@@ -3300,7 +3302,7 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="101"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="28">
         <v>41681</v>
       </c>
@@ -3317,7 +3319,7 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="101"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="28">
         <v>41682</v>
       </c>
@@ -3334,7 +3336,7 @@
       <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="101"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="28">
         <v>41683</v>
       </c>
@@ -3351,7 +3353,7 @@
       <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="102"/>
+      <c r="A83" s="67"/>
       <c r="B83" s="28">
         <v>41684</v>
       </c>
@@ -3368,7 +3370,7 @@
       <c r="J83" s="42"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="74">
+      <c r="A84" s="62">
         <v>16</v>
       </c>
       <c r="B84" s="29">
@@ -3387,7 +3389,7 @@
       <c r="J84" s="43"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="75"/>
+      <c r="A85" s="63"/>
       <c r="B85" s="29">
         <v>41688</v>
       </c>
@@ -3404,7 +3406,7 @@
       <c r="J85" s="43"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="75"/>
+      <c r="A86" s="63"/>
       <c r="B86" s="29">
         <v>41689</v>
       </c>
@@ -3421,7 +3423,7 @@
       <c r="J86" s="43"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="75"/>
+      <c r="A87" s="63"/>
       <c r="B87" s="29">
         <v>41690</v>
       </c>
@@ -3438,7 +3440,7 @@
       <c r="J87" s="43"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="76"/>
+      <c r="A88" s="64"/>
       <c r="B88" s="29">
         <v>41691</v>
       </c>
@@ -3455,7 +3457,7 @@
       <c r="J88" s="43"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="100">
+      <c r="A89" s="65">
         <v>17</v>
       </c>
       <c r="B89" s="28">
@@ -3474,7 +3476,7 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="101"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="28">
         <v>41695</v>
       </c>
@@ -3491,7 +3493,7 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="101"/>
+      <c r="A91" s="66"/>
       <c r="B91" s="28">
         <v>41696</v>
       </c>
@@ -3508,7 +3510,7 @@
       <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="101"/>
+      <c r="A92" s="66"/>
       <c r="B92" s="28">
         <v>41697</v>
       </c>
@@ -3525,7 +3527,7 @@
       <c r="J92" s="42"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="102"/>
+      <c r="A93" s="67"/>
       <c r="B93" s="28">
         <v>41698</v>
       </c>
@@ -3542,7 +3544,7 @@
       <c r="J93" s="42"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="74">
+      <c r="A94" s="62">
         <v>18</v>
       </c>
       <c r="B94" s="29">
@@ -3561,7 +3563,7 @@
       <c r="J94" s="43"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="75"/>
+      <c r="A95" s="63"/>
       <c r="B95" s="29">
         <v>41702</v>
       </c>
@@ -3578,7 +3580,7 @@
       <c r="J95" s="43"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="75"/>
+      <c r="A96" s="63"/>
       <c r="B96" s="29">
         <v>41703</v>
       </c>
@@ -3595,7 +3597,7 @@
       <c r="J96" s="43"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="75"/>
+      <c r="A97" s="63"/>
       <c r="B97" s="29">
         <v>41704</v>
       </c>
@@ -3612,7 +3614,7 @@
       <c r="J97" s="43"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="76"/>
+      <c r="A98" s="64"/>
       <c r="B98" s="29">
         <v>41705</v>
       </c>
@@ -3629,7 +3631,7 @@
       <c r="J98" s="43"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="100">
+      <c r="A99" s="65">
         <v>19</v>
       </c>
       <c r="B99" s="28">
@@ -3648,7 +3650,7 @@
       <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="101"/>
+      <c r="A100" s="66"/>
       <c r="B100" s="28">
         <v>41709</v>
       </c>
@@ -3665,7 +3667,7 @@
       <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="101"/>
+      <c r="A101" s="66"/>
       <c r="B101" s="28">
         <v>41710</v>
       </c>
@@ -3682,7 +3684,7 @@
       <c r="J101" s="42"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="101"/>
+      <c r="A102" s="66"/>
       <c r="B102" s="28">
         <v>41711</v>
       </c>
@@ -3699,7 +3701,7 @@
       <c r="J102" s="42"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="102"/>
+      <c r="A103" s="67"/>
       <c r="B103" s="28">
         <v>41712</v>
       </c>
@@ -3716,7 +3718,7 @@
       <c r="J103" s="42"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="74">
+      <c r="A104" s="62">
         <v>20</v>
       </c>
       <c r="B104" s="29">
@@ -3735,7 +3737,7 @@
       <c r="J104" s="43"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="75"/>
+      <c r="A105" s="63"/>
       <c r="B105" s="29">
         <v>41716</v>
       </c>
@@ -3752,7 +3754,7 @@
       <c r="J105" s="43"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="75"/>
+      <c r="A106" s="63"/>
       <c r="B106" s="29">
         <v>41717</v>
       </c>
@@ -3769,7 +3771,7 @@
       <c r="J106" s="43"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="75"/>
+      <c r="A107" s="63"/>
       <c r="B107" s="29">
         <v>41718</v>
       </c>
@@ -3786,7 +3788,7 @@
       <c r="J107" s="43"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="76"/>
+      <c r="A108" s="64"/>
       <c r="B108" s="29">
         <v>41719</v>
       </c>
@@ -3803,7 +3805,7 @@
       <c r="J108" s="43"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="100">
+      <c r="A109" s="65">
         <v>21</v>
       </c>
       <c r="B109" s="28">
@@ -3822,7 +3824,7 @@
       <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="101"/>
+      <c r="A110" s="66"/>
       <c r="B110" s="28">
         <v>41723</v>
       </c>
@@ -3839,7 +3841,7 @@
       <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="101"/>
+      <c r="A111" s="66"/>
       <c r="B111" s="28">
         <v>41724</v>
       </c>
@@ -3856,7 +3858,7 @@
       <c r="J111" s="42"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="101"/>
+      <c r="A112" s="66"/>
       <c r="B112" s="28">
         <v>41725</v>
       </c>
@@ -3873,7 +3875,7 @@
       <c r="J112" s="42"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="102"/>
+      <c r="A113" s="67"/>
       <c r="B113" s="28">
         <v>41726</v>
       </c>
@@ -3890,7 +3892,7 @@
       <c r="J113" s="42"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="74">
+      <c r="A114" s="62">
         <v>22</v>
       </c>
       <c r="B114" s="29">
@@ -3909,7 +3911,7 @@
       <c r="J114" s="43"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="75"/>
+      <c r="A115" s="63"/>
       <c r="B115" s="29">
         <v>41730</v>
       </c>
@@ -3926,7 +3928,7 @@
       <c r="J115" s="43"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="75"/>
+      <c r="A116" s="63"/>
       <c r="B116" s="29">
         <v>41731</v>
       </c>
@@ -3943,7 +3945,7 @@
       <c r="J116" s="43"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="75"/>
+      <c r="A117" s="63"/>
       <c r="B117" s="29">
         <v>41732</v>
       </c>
@@ -3960,7 +3962,7 @@
       <c r="J117" s="43"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="76"/>
+      <c r="A118" s="64"/>
       <c r="B118" s="29">
         <v>41733</v>
       </c>
@@ -3977,7 +3979,7 @@
       <c r="J118" s="43"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="100">
+      <c r="A119" s="65">
         <v>23</v>
       </c>
       <c r="B119" s="28">
@@ -3996,7 +3998,7 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="101"/>
+      <c r="A120" s="66"/>
       <c r="B120" s="28">
         <v>41737</v>
       </c>
@@ -4013,7 +4015,7 @@
       <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="101"/>
+      <c r="A121" s="66"/>
       <c r="B121" s="28">
         <v>41738</v>
       </c>
@@ -4030,7 +4032,7 @@
       <c r="J121" s="42"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="101"/>
+      <c r="A122" s="66"/>
       <c r="B122" s="28">
         <v>41739</v>
       </c>
@@ -4047,7 +4049,7 @@
       <c r="J122" s="42"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="102"/>
+      <c r="A123" s="67"/>
       <c r="B123" s="28">
         <v>41740</v>
       </c>
@@ -4064,7 +4066,7 @@
       <c r="J123" s="42"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="74">
+      <c r="A124" s="62">
         <v>24</v>
       </c>
       <c r="B124" s="29">
@@ -4083,7 +4085,7 @@
       <c r="J124" s="43"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="75"/>
+      <c r="A125" s="63"/>
       <c r="B125" s="29">
         <v>41744</v>
       </c>
@@ -4100,7 +4102,7 @@
       <c r="J125" s="43"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="75"/>
+      <c r="A126" s="63"/>
       <c r="B126" s="29">
         <v>41745</v>
       </c>
@@ -4117,7 +4119,7 @@
       <c r="J126" s="43"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="75"/>
+      <c r="A127" s="63"/>
       <c r="B127" s="29">
         <v>41746</v>
       </c>
@@ -4134,7 +4136,7 @@
       <c r="J127" s="43"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="76"/>
+      <c r="A128" s="64"/>
       <c r="B128" s="29">
         <v>41747</v>
       </c>
@@ -4151,7 +4153,7 @@
       <c r="J128" s="43"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="100">
+      <c r="A129" s="65">
         <v>25</v>
       </c>
       <c r="B129" s="28">
@@ -4170,7 +4172,7 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="101"/>
+      <c r="A130" s="66"/>
       <c r="B130" s="28">
         <v>41751</v>
       </c>
@@ -4187,7 +4189,7 @@
       <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="101"/>
+      <c r="A131" s="66"/>
       <c r="B131" s="28">
         <v>41752</v>
       </c>
@@ -4204,7 +4206,7 @@
       <c r="J131" s="42"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="101"/>
+      <c r="A132" s="66"/>
       <c r="B132" s="28">
         <v>41753</v>
       </c>
@@ -4221,7 +4223,7 @@
       <c r="J132" s="42"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="102"/>
+      <c r="A133" s="67"/>
       <c r="B133" s="28">
         <v>41754</v>
       </c>
@@ -4238,7 +4240,7 @@
       <c r="J133" s="42"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="74">
+      <c r="A134" s="62">
         <v>26</v>
       </c>
       <c r="B134" s="29">
@@ -4257,7 +4259,7 @@
       <c r="J134" s="43"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="75"/>
+      <c r="A135" s="63"/>
       <c r="B135" s="29">
         <v>41758</v>
       </c>
@@ -4274,7 +4276,7 @@
       <c r="J135" s="43"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="75"/>
+      <c r="A136" s="63"/>
       <c r="B136" s="29">
         <v>41759</v>
       </c>
@@ -4291,7 +4293,7 @@
       <c r="J136" s="43"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="75"/>
+      <c r="A137" s="63"/>
       <c r="B137" s="29">
         <v>41760</v>
       </c>
@@ -4308,7 +4310,7 @@
       <c r="J137" s="43"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="76"/>
+      <c r="A138" s="64"/>
       <c r="B138" s="29">
         <v>41761</v>
       </c>
@@ -4325,7 +4327,7 @@
       <c r="J138" s="43"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="100">
+      <c r="A139" s="65">
         <v>27</v>
       </c>
       <c r="B139" s="28">
@@ -4344,7 +4346,7 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="101"/>
+      <c r="A140" s="66"/>
       <c r="B140" s="28">
         <v>41765</v>
       </c>
@@ -4361,7 +4363,7 @@
       <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="101"/>
+      <c r="A141" s="66"/>
       <c r="B141" s="28">
         <v>41766</v>
       </c>
@@ -4378,7 +4380,7 @@
       <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="101"/>
+      <c r="A142" s="66"/>
       <c r="B142" s="28">
         <v>41767</v>
       </c>
@@ -4395,7 +4397,7 @@
       <c r="J142" s="42"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="102"/>
+      <c r="A143" s="67"/>
       <c r="B143" s="28">
         <v>41768</v>
       </c>
@@ -4412,7 +4414,7 @@
       <c r="J143" s="42"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="74">
+      <c r="A144" s="62">
         <v>28</v>
       </c>
       <c r="B144" s="29">
@@ -4431,7 +4433,7 @@
       <c r="J144" s="43"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="75"/>
+      <c r="A145" s="63"/>
       <c r="B145" s="29">
         <v>41772</v>
       </c>
@@ -4448,7 +4450,7 @@
       <c r="J145" s="43"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="75"/>
+      <c r="A146" s="63"/>
       <c r="B146" s="29">
         <v>41773</v>
       </c>
@@ -4465,7 +4467,7 @@
       <c r="J146" s="43"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="75"/>
+      <c r="A147" s="63"/>
       <c r="B147" s="29">
         <v>41774</v>
       </c>
@@ -4482,7 +4484,7 @@
       <c r="J147" s="43"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="76"/>
+      <c r="A148" s="64"/>
       <c r="B148" s="29">
         <v>41775</v>
       </c>
@@ -4499,7 +4501,7 @@
       <c r="J148" s="43"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="100">
+      <c r="A149" s="65">
         <v>29</v>
       </c>
       <c r="B149" s="28">
@@ -4518,7 +4520,7 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="101"/>
+      <c r="A150" s="66"/>
       <c r="B150" s="28">
         <v>41779</v>
       </c>
@@ -4535,7 +4537,7 @@
       <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="101"/>
+      <c r="A151" s="66"/>
       <c r="B151" s="28">
         <v>41780</v>
       </c>
@@ -4552,7 +4554,7 @@
       <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="101"/>
+      <c r="A152" s="66"/>
       <c r="B152" s="28">
         <v>41781</v>
       </c>
@@ -4569,7 +4571,7 @@
       <c r="J152" s="42"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="102"/>
+      <c r="A153" s="67"/>
       <c r="B153" s="28">
         <v>41782</v>
       </c>
@@ -4586,7 +4588,7 @@
       <c r="J153" s="42"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="108">
+      <c r="A154" s="59">
         <v>30</v>
       </c>
       <c r="B154" s="29">
@@ -4605,7 +4607,7 @@
       <c r="J154" s="44"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="109"/>
+      <c r="A155" s="60"/>
       <c r="B155" s="29">
         <v>41786</v>
       </c>
@@ -4622,7 +4624,7 @@
       <c r="J155" s="44"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="109"/>
+      <c r="A156" s="60"/>
       <c r="B156" s="29">
         <v>41787</v>
       </c>
@@ -4639,7 +4641,7 @@
       <c r="J156" s="44"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="109"/>
+      <c r="A157" s="60"/>
       <c r="B157" s="29">
         <v>41788</v>
       </c>
@@ -4656,7 +4658,7 @@
       <c r="J157" s="44"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="110"/>
+      <c r="A158" s="61"/>
       <c r="B158" s="29">
         <v>41789</v>
       </c>
@@ -4674,40 +4676,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="F19:F20"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
@@ -4723,6 +4691,40 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A43"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -777,6 +777,159 @@
     <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,159 +938,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,7 +1378,7 @@
       <pane xSplit="6" ySplit="6" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:A28"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1401,81 +1401,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="81"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="82" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="84"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="87"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
       <c r="F5" s="16"/>
       <c r="H5" s="46" t="s">
         <v>78</v>
@@ -1520,13 +1520,13 @@
       <c r="J6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="91">
+      <c r="A7" s="71">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1553,10 +1553,10 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="76" t="s">
+      <c r="K7" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="76"/>
+      <c r="L7" s="104"/>
       <c r="M7" s="35">
         <f>SUM(M8:M41)</f>
         <v>22.953000000000003</v>
@@ -1566,8 +1566,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="106">
+      <c r="A8" s="72"/>
+      <c r="B8" s="91">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1579,7 +1579,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="108">
+      <c r="F8" s="93">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1604,8 +1604,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
-      <c r="B9" s="107"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="109"/>
+      <c r="F9" s="94"/>
       <c r="G9" s="32" t="s">
         <v>26</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="103">
+      <c r="A10" s="88">
         <v>2</v>
       </c>
       <c r="B10" s="23">
@@ -1669,8 +1669,8 @@
       <c r="O10" s="37"/>
     </row>
     <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
-      <c r="B11" s="70">
+      <c r="A11" s="89"/>
+      <c r="B11" s="77">
         <v>41591</v>
       </c>
       <c r="C11" s="27">
@@ -1682,7 +1682,7 @@
       <c r="E11" s="30">
         <v>2</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="95">
         <f>SUM(E11:E12)</f>
         <v>3</v>
       </c>
@@ -1702,8 +1702,8 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="E12" s="30">
         <v>1</v>
       </c>
-      <c r="F12" s="69"/>
+      <c r="F12" s="96"/>
       <c r="G12" s="31" t="s">
         <v>25</v>
       </c>
@@ -1737,8 +1737,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="104"/>
-      <c r="B13" s="70">
+      <c r="A13" s="89"/>
+      <c r="B13" s="77">
         <v>41592</v>
       </c>
       <c r="C13" s="27">
@@ -1750,7 +1750,7 @@
       <c r="E13" s="30">
         <v>0.75</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="95">
         <f>SUM(E13:E14)</f>
         <v>2</v>
       </c>
@@ -1777,8 +1777,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="27">
         <v>0.875</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="E14" s="30">
         <v>1.25</v>
       </c>
-      <c r="F14" s="69"/>
+      <c r="F14" s="96"/>
       <c r="G14" s="47" t="s">
         <v>26</v>
       </c>
@@ -1805,8 +1805,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="104"/>
-      <c r="B15" s="70">
+      <c r="A15" s="89"/>
+      <c r="B15" s="77">
         <v>41593</v>
       </c>
       <c r="C15" s="27">
@@ -1818,7 +1818,7 @@
       <c r="E15" s="30">
         <v>1.083</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="95">
         <f>SUM(E15:E18)</f>
         <v>5.883</v>
       </c>
@@ -1845,8 +1845,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="E16" s="30">
         <v>2.33</v>
       </c>
-      <c r="F16" s="69"/>
+      <c r="F16" s="96"/>
       <c r="G16" s="31" t="s">
         <v>25</v>
       </c>
@@ -1880,8 +1880,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="70">
+      <c r="A17" s="89"/>
+      <c r="B17" s="77">
         <v>41594</v>
       </c>
       <c r="C17" s="27">
@@ -1893,7 +1893,7 @@
       <c r="E17" s="30">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="95">
         <f>SUM(E17:E18)</f>
         <v>2.4699999999999998</v>
       </c>
@@ -1920,8 +1920,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="105"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="27">
         <v>0.83333333333333337</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="E18" s="30">
         <v>1.92</v>
       </c>
-      <c r="F18" s="69"/>
+      <c r="F18" s="96"/>
       <c r="G18" s="31" t="s">
         <v>25</v>
       </c>
@@ -1948,10 +1948,10 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="72">
+      <c r="A19" s="107">
         <v>3</v>
       </c>
-      <c r="B19" s="73">
+      <c r="B19" s="108">
         <v>41597</v>
       </c>
       <c r="C19" s="49">
@@ -1963,7 +1963,7 @@
       <c r="E19" s="50">
         <v>2</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="105">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
@@ -1988,8 +1988,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="49">
         <v>0.5625</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="E20" s="50">
         <v>1</v>
       </c>
-      <c r="F20" s="78"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="54" t="s">
         <v>22</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="28">
         <v>41598</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H21" s="56" t="s">
         <v>83</v>
@@ -2052,7 +2052,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="28">
         <v>41599</v>
       </c>
@@ -2080,7 +2080,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="28">
         <v>41600</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="62">
+      <c r="A24" s="74">
         <v>4</v>
       </c>
       <c r="B24" s="29">
@@ -2138,7 +2138,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="29">
         <v>41604</v>
       </c>
@@ -2166,7 +2166,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="29">
         <v>41605</v>
       </c>
@@ -2194,7 +2194,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="29">
         <v>41606</v>
       </c>
@@ -2222,7 +2222,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="29">
         <v>41607</v>
       </c>
@@ -2250,7 +2250,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="65">
+      <c r="A29" s="100">
         <v>5</v>
       </c>
       <c r="B29" s="28">
@@ -2280,7 +2280,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="28">
         <v>41611</v>
       </c>
@@ -2308,7 +2308,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="28">
         <v>41612</v>
       </c>
@@ -2336,7 +2336,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="66"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="28">
         <v>41613</v>
       </c>
@@ -2364,7 +2364,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
+      <c r="A33" s="102"/>
       <c r="B33" s="28">
         <v>41614</v>
       </c>
@@ -2392,7 +2392,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="62">
+      <c r="A34" s="74">
         <v>6</v>
       </c>
       <c r="B34" s="29">
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
+      <c r="A35" s="75"/>
       <c r="B35" s="29">
         <v>41618</v>
       </c>
@@ -2450,7 +2450,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
+      <c r="A36" s="75"/>
       <c r="B36" s="29">
         <v>41619</v>
       </c>
@@ -2478,7 +2478,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="29">
         <v>41620</v>
       </c>
@@ -2506,7 +2506,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="29">
         <v>41621</v>
       </c>
@@ -2534,7 +2534,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="65">
+      <c r="A39" s="100">
         <v>7</v>
       </c>
       <c r="B39" s="28">
@@ -2564,7 +2564,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="66"/>
+      <c r="A40" s="101"/>
       <c r="B40" s="28">
         <v>41625</v>
       </c>
@@ -2592,7 +2592,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
+      <c r="A41" s="101"/>
       <c r="B41" s="28">
         <v>41626</v>
       </c>
@@ -2620,7 +2620,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="66"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="28">
         <v>41627</v>
       </c>
@@ -2637,7 +2637,7 @@
       <c r="J42" s="42"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
+      <c r="A43" s="102"/>
       <c r="B43" s="28">
         <v>41628</v>
       </c>
@@ -2654,7 +2654,7 @@
       <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="62">
+      <c r="A44" s="74">
         <v>8</v>
       </c>
       <c r="B44" s="29">
@@ -2673,7 +2673,7 @@
       <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
+      <c r="A45" s="75"/>
       <c r="B45" s="29">
         <v>41632</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
+      <c r="A46" s="75"/>
       <c r="B46" s="29">
         <v>41633</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="J46" s="43"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
+      <c r="A47" s="75"/>
       <c r="B47" s="29">
         <v>41634</v>
       </c>
@@ -2724,7 +2724,7 @@
       <c r="J47" s="43"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
+      <c r="A48" s="76"/>
       <c r="B48" s="29">
         <v>41635</v>
       </c>
@@ -2741,7 +2741,7 @@
       <c r="J48" s="43"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="65">
+      <c r="A49" s="100">
         <v>9</v>
       </c>
       <c r="B49" s="28">
@@ -2760,7 +2760,7 @@
       <c r="J49" s="42"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
+      <c r="A50" s="101"/>
       <c r="B50" s="28">
         <v>41639</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="J50" s="42"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
+      <c r="A51" s="101"/>
       <c r="B51" s="28">
         <v>41640</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="66"/>
+      <c r="A52" s="101"/>
       <c r="B52" s="28">
         <v>41641</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="J52" s="42"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
+      <c r="A53" s="102"/>
       <c r="B53" s="28">
         <v>41642</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="J53" s="42"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="62">
+      <c r="A54" s="74">
         <v>10</v>
       </c>
       <c r="B54" s="29">
@@ -2847,7 +2847,7 @@
       <c r="J54" s="43"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
+      <c r="A55" s="75"/>
       <c r="B55" s="29">
         <v>41646</v>
       </c>
@@ -2864,7 +2864,7 @@
       <c r="J55" s="43"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
+      <c r="A56" s="75"/>
       <c r="B56" s="29">
         <v>41647</v>
       </c>
@@ -2881,7 +2881,7 @@
       <c r="J56" s="43"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
+      <c r="A57" s="75"/>
       <c r="B57" s="29">
         <v>41648</v>
       </c>
@@ -2898,7 +2898,7 @@
       <c r="J57" s="43"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="64"/>
+      <c r="A58" s="76"/>
       <c r="B58" s="29">
         <v>41649</v>
       </c>
@@ -2915,7 +2915,7 @@
       <c r="J58" s="43"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="65">
+      <c r="A59" s="100">
         <v>11</v>
       </c>
       <c r="B59" s="28">
@@ -2934,7 +2934,7 @@
       <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="66"/>
+      <c r="A60" s="101"/>
       <c r="B60" s="28">
         <v>41653</v>
       </c>
@@ -2951,7 +2951,7 @@
       <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="66"/>
+      <c r="A61" s="101"/>
       <c r="B61" s="28">
         <v>41654</v>
       </c>
@@ -2968,7 +2968,7 @@
       <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="66"/>
+      <c r="A62" s="101"/>
       <c r="B62" s="28">
         <v>41655</v>
       </c>
@@ -2985,7 +2985,7 @@
       <c r="J62" s="42"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
+      <c r="A63" s="102"/>
       <c r="B63" s="28">
         <v>41656</v>
       </c>
@@ -3002,7 +3002,7 @@
       <c r="J63" s="42"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="62">
+      <c r="A64" s="74">
         <v>12</v>
       </c>
       <c r="B64" s="29">
@@ -3021,7 +3021,7 @@
       <c r="J64" s="43"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
+      <c r="A65" s="75"/>
       <c r="B65" s="29">
         <v>41660</v>
       </c>
@@ -3038,7 +3038,7 @@
       <c r="J65" s="43"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
+      <c r="A66" s="75"/>
       <c r="B66" s="29">
         <v>41661</v>
       </c>
@@ -3055,7 +3055,7 @@
       <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="63"/>
+      <c r="A67" s="75"/>
       <c r="B67" s="29">
         <v>41662</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="J67" s="43"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="64"/>
+      <c r="A68" s="76"/>
       <c r="B68" s="29">
         <v>41663</v>
       </c>
@@ -3089,7 +3089,7 @@
       <c r="J68" s="43"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="65">
+      <c r="A69" s="100">
         <v>13</v>
       </c>
       <c r="B69" s="28">
@@ -3110,7 +3110,7 @@
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="66"/>
+      <c r="A70" s="101"/>
       <c r="B70" s="28">
         <v>41667</v>
       </c>
@@ -3129,7 +3129,7 @@
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
+      <c r="A71" s="101"/>
       <c r="B71" s="28">
         <v>41668</v>
       </c>
@@ -3148,7 +3148,7 @@
       <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="66"/>
+      <c r="A72" s="101"/>
       <c r="B72" s="28">
         <v>41669</v>
       </c>
@@ -3167,7 +3167,7 @@
       <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
+      <c r="A73" s="102"/>
       <c r="B73" s="28">
         <v>41670</v>
       </c>
@@ -3186,7 +3186,7 @@
       <c r="J73" s="42"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="62">
+      <c r="A74" s="74">
         <v>14</v>
       </c>
       <c r="B74" s="29">
@@ -3207,7 +3207,7 @@
       <c r="J74" s="43"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="63"/>
+      <c r="A75" s="75"/>
       <c r="B75" s="29">
         <v>41674</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="J75" s="43"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
+      <c r="A76" s="75"/>
       <c r="B76" s="29">
         <v>41675</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="J76" s="43"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="63"/>
+      <c r="A77" s="75"/>
       <c r="B77" s="29">
         <v>41676</v>
       </c>
@@ -3264,7 +3264,7 @@
       <c r="J77" s="43"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="64"/>
+      <c r="A78" s="76"/>
       <c r="B78" s="29">
         <v>41677</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="J78" s="43"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="65">
+      <c r="A79" s="100">
         <v>15</v>
       </c>
       <c r="B79" s="28">
@@ -3302,7 +3302,7 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="66"/>
+      <c r="A80" s="101"/>
       <c r="B80" s="28">
         <v>41681</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="66"/>
+      <c r="A81" s="101"/>
       <c r="B81" s="28">
         <v>41682</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="66"/>
+      <c r="A82" s="101"/>
       <c r="B82" s="28">
         <v>41683</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="67"/>
+      <c r="A83" s="102"/>
       <c r="B83" s="28">
         <v>41684</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="J83" s="42"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="62">
+      <c r="A84" s="74">
         <v>16</v>
       </c>
       <c r="B84" s="29">
@@ -3389,7 +3389,7 @@
       <c r="J84" s="43"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="63"/>
+      <c r="A85" s="75"/>
       <c r="B85" s="29">
         <v>41688</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="J85" s="43"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="63"/>
+      <c r="A86" s="75"/>
       <c r="B86" s="29">
         <v>41689</v>
       </c>
@@ -3423,7 +3423,7 @@
       <c r="J86" s="43"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="63"/>
+      <c r="A87" s="75"/>
       <c r="B87" s="29">
         <v>41690</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="J87" s="43"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="64"/>
+      <c r="A88" s="76"/>
       <c r="B88" s="29">
         <v>41691</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="J88" s="43"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="65">
+      <c r="A89" s="100">
         <v>17</v>
       </c>
       <c r="B89" s="28">
@@ -3476,7 +3476,7 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="66"/>
+      <c r="A90" s="101"/>
       <c r="B90" s="28">
         <v>41695</v>
       </c>
@@ -3493,7 +3493,7 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="66"/>
+      <c r="A91" s="101"/>
       <c r="B91" s="28">
         <v>41696</v>
       </c>
@@ -3510,7 +3510,7 @@
       <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="66"/>
+      <c r="A92" s="101"/>
       <c r="B92" s="28">
         <v>41697</v>
       </c>
@@ -3527,7 +3527,7 @@
       <c r="J92" s="42"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="67"/>
+      <c r="A93" s="102"/>
       <c r="B93" s="28">
         <v>41698</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="J93" s="42"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="62">
+      <c r="A94" s="74">
         <v>18</v>
       </c>
       <c r="B94" s="29">
@@ -3563,7 +3563,7 @@
       <c r="J94" s="43"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="63"/>
+      <c r="A95" s="75"/>
       <c r="B95" s="29">
         <v>41702</v>
       </c>
@@ -3580,7 +3580,7 @@
       <c r="J95" s="43"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="63"/>
+      <c r="A96" s="75"/>
       <c r="B96" s="29">
         <v>41703</v>
       </c>
@@ -3597,7 +3597,7 @@
       <c r="J96" s="43"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="63"/>
+      <c r="A97" s="75"/>
       <c r="B97" s="29">
         <v>41704</v>
       </c>
@@ -3614,7 +3614,7 @@
       <c r="J97" s="43"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="64"/>
+      <c r="A98" s="76"/>
       <c r="B98" s="29">
         <v>41705</v>
       </c>
@@ -3631,7 +3631,7 @@
       <c r="J98" s="43"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="65">
+      <c r="A99" s="100">
         <v>19</v>
       </c>
       <c r="B99" s="28">
@@ -3650,7 +3650,7 @@
       <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="66"/>
+      <c r="A100" s="101"/>
       <c r="B100" s="28">
         <v>41709</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="66"/>
+      <c r="A101" s="101"/>
       <c r="B101" s="28">
         <v>41710</v>
       </c>
@@ -3684,7 +3684,7 @@
       <c r="J101" s="42"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="66"/>
+      <c r="A102" s="101"/>
       <c r="B102" s="28">
         <v>41711</v>
       </c>
@@ -3701,7 +3701,7 @@
       <c r="J102" s="42"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="67"/>
+      <c r="A103" s="102"/>
       <c r="B103" s="28">
         <v>41712</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="J103" s="42"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="62">
+      <c r="A104" s="74">
         <v>20</v>
       </c>
       <c r="B104" s="29">
@@ -3737,7 +3737,7 @@
       <c r="J104" s="43"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="63"/>
+      <c r="A105" s="75"/>
       <c r="B105" s="29">
         <v>41716</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="J105" s="43"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="63"/>
+      <c r="A106" s="75"/>
       <c r="B106" s="29">
         <v>41717</v>
       </c>
@@ -3771,7 +3771,7 @@
       <c r="J106" s="43"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="63"/>
+      <c r="A107" s="75"/>
       <c r="B107" s="29">
         <v>41718</v>
       </c>
@@ -3788,7 +3788,7 @@
       <c r="J107" s="43"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="64"/>
+      <c r="A108" s="76"/>
       <c r="B108" s="29">
         <v>41719</v>
       </c>
@@ -3805,7 +3805,7 @@
       <c r="J108" s="43"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="65">
+      <c r="A109" s="100">
         <v>21</v>
       </c>
       <c r="B109" s="28">
@@ -3824,7 +3824,7 @@
       <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="66"/>
+      <c r="A110" s="101"/>
       <c r="B110" s="28">
         <v>41723</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="66"/>
+      <c r="A111" s="101"/>
       <c r="B111" s="28">
         <v>41724</v>
       </c>
@@ -3858,7 +3858,7 @@
       <c r="J111" s="42"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="66"/>
+      <c r="A112" s="101"/>
       <c r="B112" s="28">
         <v>41725</v>
       </c>
@@ -3875,7 +3875,7 @@
       <c r="J112" s="42"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="67"/>
+      <c r="A113" s="102"/>
       <c r="B113" s="28">
         <v>41726</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="J113" s="42"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="62">
+      <c r="A114" s="74">
         <v>22</v>
       </c>
       <c r="B114" s="29">
@@ -3911,7 +3911,7 @@
       <c r="J114" s="43"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="63"/>
+      <c r="A115" s="75"/>
       <c r="B115" s="29">
         <v>41730</v>
       </c>
@@ -3928,7 +3928,7 @@
       <c r="J115" s="43"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="63"/>
+      <c r="A116" s="75"/>
       <c r="B116" s="29">
         <v>41731</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="J116" s="43"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="63"/>
+      <c r="A117" s="75"/>
       <c r="B117" s="29">
         <v>41732</v>
       </c>
@@ -3962,7 +3962,7 @@
       <c r="J117" s="43"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="64"/>
+      <c r="A118" s="76"/>
       <c r="B118" s="29">
         <v>41733</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="J118" s="43"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="65">
+      <c r="A119" s="100">
         <v>23</v>
       </c>
       <c r="B119" s="28">
@@ -3998,7 +3998,7 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="66"/>
+      <c r="A120" s="101"/>
       <c r="B120" s="28">
         <v>41737</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="66"/>
+      <c r="A121" s="101"/>
       <c r="B121" s="28">
         <v>41738</v>
       </c>
@@ -4032,7 +4032,7 @@
       <c r="J121" s="42"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="66"/>
+      <c r="A122" s="101"/>
       <c r="B122" s="28">
         <v>41739</v>
       </c>
@@ -4049,7 +4049,7 @@
       <c r="J122" s="42"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="67"/>
+      <c r="A123" s="102"/>
       <c r="B123" s="28">
         <v>41740</v>
       </c>
@@ -4066,7 +4066,7 @@
       <c r="J123" s="42"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="62">
+      <c r="A124" s="74">
         <v>24</v>
       </c>
       <c r="B124" s="29">
@@ -4085,7 +4085,7 @@
       <c r="J124" s="43"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="63"/>
+      <c r="A125" s="75"/>
       <c r="B125" s="29">
         <v>41744</v>
       </c>
@@ -4102,7 +4102,7 @@
       <c r="J125" s="43"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="63"/>
+      <c r="A126" s="75"/>
       <c r="B126" s="29">
         <v>41745</v>
       </c>
@@ -4119,7 +4119,7 @@
       <c r="J126" s="43"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="63"/>
+      <c r="A127" s="75"/>
       <c r="B127" s="29">
         <v>41746</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="J127" s="43"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="64"/>
+      <c r="A128" s="76"/>
       <c r="B128" s="29">
         <v>41747</v>
       </c>
@@ -4153,7 +4153,7 @@
       <c r="J128" s="43"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="65">
+      <c r="A129" s="100">
         <v>25</v>
       </c>
       <c r="B129" s="28">
@@ -4172,7 +4172,7 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="66"/>
+      <c r="A130" s="101"/>
       <c r="B130" s="28">
         <v>41751</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="66"/>
+      <c r="A131" s="101"/>
       <c r="B131" s="28">
         <v>41752</v>
       </c>
@@ -4206,7 +4206,7 @@
       <c r="J131" s="42"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="66"/>
+      <c r="A132" s="101"/>
       <c r="B132" s="28">
         <v>41753</v>
       </c>
@@ -4223,7 +4223,7 @@
       <c r="J132" s="42"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="67"/>
+      <c r="A133" s="102"/>
       <c r="B133" s="28">
         <v>41754</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="J133" s="42"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="62">
+      <c r="A134" s="74">
         <v>26</v>
       </c>
       <c r="B134" s="29">
@@ -4259,7 +4259,7 @@
       <c r="J134" s="43"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="63"/>
+      <c r="A135" s="75"/>
       <c r="B135" s="29">
         <v>41758</v>
       </c>
@@ -4276,7 +4276,7 @@
       <c r="J135" s="43"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="63"/>
+      <c r="A136" s="75"/>
       <c r="B136" s="29">
         <v>41759</v>
       </c>
@@ -4293,7 +4293,7 @@
       <c r="J136" s="43"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="63"/>
+      <c r="A137" s="75"/>
       <c r="B137" s="29">
         <v>41760</v>
       </c>
@@ -4310,7 +4310,7 @@
       <c r="J137" s="43"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="64"/>
+      <c r="A138" s="76"/>
       <c r="B138" s="29">
         <v>41761</v>
       </c>
@@ -4327,7 +4327,7 @@
       <c r="J138" s="43"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="65">
+      <c r="A139" s="100">
         <v>27</v>
       </c>
       <c r="B139" s="28">
@@ -4346,7 +4346,7 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="66"/>
+      <c r="A140" s="101"/>
       <c r="B140" s="28">
         <v>41765</v>
       </c>
@@ -4363,7 +4363,7 @@
       <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="66"/>
+      <c r="A141" s="101"/>
       <c r="B141" s="28">
         <v>41766</v>
       </c>
@@ -4380,7 +4380,7 @@
       <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="66"/>
+      <c r="A142" s="101"/>
       <c r="B142" s="28">
         <v>41767</v>
       </c>
@@ -4397,7 +4397,7 @@
       <c r="J142" s="42"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="67"/>
+      <c r="A143" s="102"/>
       <c r="B143" s="28">
         <v>41768</v>
       </c>
@@ -4414,7 +4414,7 @@
       <c r="J143" s="42"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="62">
+      <c r="A144" s="74">
         <v>28</v>
       </c>
       <c r="B144" s="29">
@@ -4433,7 +4433,7 @@
       <c r="J144" s="43"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="63"/>
+      <c r="A145" s="75"/>
       <c r="B145" s="29">
         <v>41772</v>
       </c>
@@ -4450,7 +4450,7 @@
       <c r="J145" s="43"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="63"/>
+      <c r="A146" s="75"/>
       <c r="B146" s="29">
         <v>41773</v>
       </c>
@@ -4467,7 +4467,7 @@
       <c r="J146" s="43"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="63"/>
+      <c r="A147" s="75"/>
       <c r="B147" s="29">
         <v>41774</v>
       </c>
@@ -4484,7 +4484,7 @@
       <c r="J147" s="43"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="64"/>
+      <c r="A148" s="76"/>
       <c r="B148" s="29">
         <v>41775</v>
       </c>
@@ -4501,7 +4501,7 @@
       <c r="J148" s="43"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="65">
+      <c r="A149" s="100">
         <v>29</v>
       </c>
       <c r="B149" s="28">
@@ -4520,7 +4520,7 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="66"/>
+      <c r="A150" s="101"/>
       <c r="B150" s="28">
         <v>41779</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="66"/>
+      <c r="A151" s="101"/>
       <c r="B151" s="28">
         <v>41780</v>
       </c>
@@ -4554,7 +4554,7 @@
       <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="66"/>
+      <c r="A152" s="101"/>
       <c r="B152" s="28">
         <v>41781</v>
       </c>
@@ -4571,7 +4571,7 @@
       <c r="J152" s="42"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="67"/>
+      <c r="A153" s="102"/>
       <c r="B153" s="28">
         <v>41782</v>
       </c>
@@ -4588,7 +4588,7 @@
       <c r="J153" s="42"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="59">
+      <c r="A154" s="110">
         <v>30</v>
       </c>
       <c r="B154" s="29">
@@ -4607,7 +4607,7 @@
       <c r="J154" s="44"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="60"/>
+      <c r="A155" s="111"/>
       <c r="B155" s="29">
         <v>41786</v>
       </c>
@@ -4624,7 +4624,7 @@
       <c r="J155" s="44"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="60"/>
+      <c r="A156" s="111"/>
       <c r="B156" s="29">
         <v>41787</v>
       </c>
@@ -4641,7 +4641,7 @@
       <c r="J156" s="44"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="60"/>
+      <c r="A157" s="111"/>
       <c r="B157" s="29">
         <v>41788</v>
       </c>
@@ -4658,7 +4658,7 @@
       <c r="J157" s="44"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="61"/>
+      <c r="A158" s="112"/>
       <c r="B158" s="29">
         <v>41789</v>
       </c>
@@ -4676,6 +4676,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
@@ -4692,39 +4725,6 @@
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>Week</t>
   </si>
@@ -85,10 +85,6 @@
   </si>
   <si>
     <t>Time for doing week 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start Date: 08/11/2013
-End Date: </t>
   </si>
   <si>
     <t>Kick off meeting</t>
@@ -330,6 +326,36 @@
  - Review Master plan
  - Review Scrum model and ACDM</t>
   </si>
+  <si>
+    <t xml:space="preserve"> - Review weekly report 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - AS_DeadlineTeam_Week3.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Present about work that assigned in week3
+ - Present about Change management plan
+ - Present about ACDM and Scrum model
+ - Present about Requirement plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Devide work for week 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Research about Stage 6 and role Supporter in ACDM</t>
+  </si>
+  <si>
+    <t>Stage 6 + Sup.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Integrate the work of member about ACDM</t>
+  </si>
+  <si>
+    <t>ACDM.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Read ACDM book</t>
+  </si>
 </sst>
 </file>
 
@@ -338,7 +364,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +444,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -627,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -750,200 +784,230 @@
     <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -978,6 +1042,33 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1260,7 +1351,7 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1271,10 +1362,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1282,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1290,7 +1381,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1298,7 +1389,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1306,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1314,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1322,7 +1413,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1330,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1338,7 +1429,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1346,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1354,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1362,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1372,21 +1463,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O158"/>
+  <dimension ref="A1:O163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
@@ -1401,87 +1491,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="61"/>
+      <c r="A1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
+      <c r="A2" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
+      <c r="A3" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="63"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="70"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="66"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="99"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="16"/>
       <c r="H5" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="46" t="s">
         <v>78</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>79</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1506,13 +1594,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="34" t="s">
         <v>6</v>
@@ -1520,13 +1608,13 @@
       <c r="J6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="71">
+      <c r="A7" s="67">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1549,25 +1637,25 @@
         <v>10</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="104"/>
+      <c r="L7" s="100"/>
       <c r="M7" s="35">
-        <f>SUM(M8:M41)</f>
-        <v>22.953000000000003</v>
+        <f>SUM(M8:M46)</f>
+        <v>33.803000000000004</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="91">
+      <c r="A8" s="68"/>
+      <c r="B8" s="87">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1579,15 +1667,15 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="93">
+      <c r="F8" s="89">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" s="45"/>
       <c r="J8" s="32"/>
@@ -1604,8 +1692,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="92"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1615,18 +1703,18 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="94"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="45"/>
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="88">
+      <c r="A10" s="84">
         <v>2</v>
       </c>
       <c r="B10" s="23">
@@ -1646,13 +1734,13 @@
         <v>2.25</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="8" t="s">
@@ -1669,8 +1757,8 @@
       <c r="O10" s="37"/>
     </row>
     <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="77">
+      <c r="A11" s="85"/>
+      <c r="B11" s="73">
         <v>41591</v>
       </c>
       <c r="C11" s="27">
@@ -1682,18 +1770,18 @@
       <c r="E11" s="30">
         <v>2</v>
       </c>
-      <c r="F11" s="95">
+      <c r="F11" s="91">
         <f>SUM(E11:E12)</f>
         <v>3</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="8"/>
@@ -1702,8 +1790,8 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="78"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1713,15 +1801,15 @@
       <c r="E12" s="30">
         <v>1</v>
       </c>
-      <c r="F12" s="96"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="8" t="s">
@@ -1729,16 +1817,16 @@
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="10">
-        <f>SUM(E19:E23)</f>
-        <v>7</v>
+        <f>SUM(E19:E28)</f>
+        <v>17.850000000000001</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
-      <c r="B13" s="77">
+      <c r="A13" s="85"/>
+      <c r="B13" s="73">
         <v>41592</v>
       </c>
       <c r="C13" s="27">
@@ -1750,18 +1838,18 @@
       <c r="E13" s="30">
         <v>0.75</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="91">
         <f>SUM(E13:E14)</f>
         <v>2</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="8" t="s">
@@ -1769,7 +1857,7 @@
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="10">
-        <f>SUM(E24:E28)</f>
+        <f>SUM(E29:E33)</f>
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
@@ -1777,8 +1865,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="27">
         <v>0.875</v>
       </c>
@@ -1788,15 +1876,15 @@
       <c r="E14" s="30">
         <v>1.25</v>
       </c>
-      <c r="F14" s="96"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="8"/>
@@ -1805,8 +1893,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="77">
+      <c r="A15" s="85"/>
+      <c r="B15" s="73">
         <v>41593</v>
       </c>
       <c r="C15" s="27">
@@ -1818,18 +1906,18 @@
       <c r="E15" s="30">
         <v>1.083</v>
       </c>
-      <c r="F15" s="95">
+      <c r="F15" s="91">
         <f>SUM(E15:E18)</f>
         <v>5.883</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="8" t="s">
@@ -1837,7 +1925,7 @@
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="10">
-        <f>SUM(E29:E33)</f>
+        <f>SUM(E34:E38)</f>
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
@@ -1845,8 +1933,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1856,15 +1944,15 @@
       <c r="E16" s="30">
         <v>2.33</v>
       </c>
-      <c r="F16" s="96"/>
+      <c r="F16" s="92"/>
       <c r="G16" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J16" s="40"/>
       <c r="K16" s="8" t="s">
@@ -1872,7 +1960,7 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E34:E38)</f>
+        <f>SUM(E39:E43)</f>
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
@@ -1880,8 +1968,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="77">
+      <c r="A17" s="85"/>
+      <c r="B17" s="73">
         <v>41594</v>
       </c>
       <c r="C17" s="27">
@@ -1893,18 +1981,18 @@
       <c r="E17" s="30">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F17" s="95">
+      <c r="F17" s="91">
         <f>SUM(E17:E18)</f>
         <v>2.4699999999999998</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" s="40"/>
       <c r="K17" s="8" t="s">
@@ -1912,7 +2000,7 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E39:E43)</f>
+        <f>SUM(E44:E48)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -1920,8 +2008,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="27">
         <v>0.83333333333333337</v>
       </c>
@@ -1931,15 +2019,15 @@
       <c r="E18" s="30">
         <v>1.92</v>
       </c>
-      <c r="F18" s="96"/>
+      <c r="F18" s="92"/>
       <c r="G18" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="8"/>
@@ -1947,11 +2035,11 @@
       <c r="M18" s="10"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="107">
+    <row r="19" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="108">
         <v>3</v>
       </c>
-      <c r="B19" s="108">
+      <c r="B19" s="87">
         <v>41597</v>
       </c>
       <c r="C19" s="49">
@@ -1960,603 +2048,607 @@
       <c r="D19" s="49">
         <v>0.4375</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="53">
         <v>2</v>
       </c>
-      <c r="F19" s="105">
+      <c r="F19" s="101">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="10">
-        <f>SUM(E49:E53)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="3" t="s">
+      <c r="L19" s="110"/>
+      <c r="M19" s="111">
+        <f>SUM(E54:E58)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="112" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
-      <c r="B20" s="109"/>
+    <row r="20" spans="1:14" s="113" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="108"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="49">
         <v>0.5625</v>
       </c>
       <c r="D20" s="49">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="53">
         <v>1</v>
       </c>
-      <c r="F20" s="106"/>
-      <c r="G20" s="54" t="s">
+      <c r="F20" s="102"/>
+      <c r="G20" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="112"/>
+    </row>
+    <row r="21" spans="1:14" s="113" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="108"/>
+      <c r="B21" s="17">
+        <v>41598</v>
+      </c>
+      <c r="C21" s="54">
+        <v>0.5625</v>
+      </c>
+      <c r="D21" s="54">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E21" s="53">
+        <v>4</v>
+      </c>
+      <c r="F21" s="53">
+        <f t="shared" ref="F21:F55" si="0">E21</f>
+        <v>4</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="110"/>
+      <c r="M21" s="111">
+        <f>SUM(E59:E63)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="108"/>
+      <c r="B22" s="87">
+        <v>41599</v>
+      </c>
+      <c r="C22" s="114">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D22" s="114">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="53">
+        <v>1</v>
+      </c>
+      <c r="F22" s="101">
+        <f>SUM(E22:E27)</f>
+        <v>10.850000000000001</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="32"/>
+      <c r="K22" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="110"/>
+      <c r="M22" s="111">
+        <f>SUM(E64:E68)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="113" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="108"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="114">
+        <v>0.375</v>
+      </c>
+      <c r="D23" s="114">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E23" s="53">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F23" s="106"/>
+      <c r="G23" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="112"/>
+    </row>
+    <row r="24" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="108"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="114">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D24" s="114">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E24" s="53">
+        <v>1.03</v>
+      </c>
+      <c r="F24" s="106"/>
+      <c r="G24" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="112"/>
+    </row>
+    <row r="25" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="108"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="114">
+        <v>0.5625</v>
+      </c>
+      <c r="D25" s="114">
+        <v>0.625</v>
+      </c>
+      <c r="E25" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="106"/>
+      <c r="G25" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" s="32"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="112"/>
+    </row>
+    <row r="26" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="108"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="114">
+        <v>0.625</v>
+      </c>
+      <c r="D26" s="114">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E26" s="53">
+        <v>2.16</v>
+      </c>
+      <c r="F26" s="106"/>
+      <c r="G26" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" s="32"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="112"/>
+    </row>
+    <row r="27" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="108"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="114">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D27" s="114">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="E27" s="53">
+        <v>4</v>
+      </c>
+      <c r="F27" s="102"/>
+      <c r="G27" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
-      <c r="B21" s="28">
-        <v>41598</v>
-      </c>
-      <c r="C21" s="58">
-        <v>0.5625</v>
-      </c>
-      <c r="D21" s="58">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="E21" s="50">
+      <c r="H27" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="112"/>
+    </row>
+    <row r="28" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="108"/>
+      <c r="B28" s="17">
+        <v>41600</v>
+      </c>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" s="110"/>
+      <c r="M28" s="111">
+        <f>SUM(E69:E73)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="116">
         <v>4</v>
       </c>
-      <c r="F21" s="57">
-        <f t="shared" ref="F21:F50" si="0">E21</f>
-        <v>4</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="10">
-        <f>SUM(E54:E58)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
+      <c r="B29" s="23">
+        <v>41603</v>
+      </c>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="110"/>
+      <c r="M29" s="111">
+        <f>SUM(E74:E78)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="112" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="28">
-        <v>41599</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="51">
+    <row r="30" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="118"/>
+      <c r="B30" s="23">
+        <v>41604</v>
+      </c>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="10">
-        <f>SUM(E59:E63)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="110"/>
+      <c r="M30" s="111">
+        <f>SUM(E79:E83)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="112" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
-      <c r="B23" s="28">
-        <v>41600</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="51">
+    <row r="31" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="118"/>
+      <c r="B31" s="23">
+        <v>41605</v>
+      </c>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="10">
-        <f>SUM(E64:E68)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="110"/>
+      <c r="M31" s="111">
+        <f>SUM(E84:E88)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="112" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="74">
-        <v>4</v>
-      </c>
-      <c r="B24" s="29">
-        <v>41603</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="52">
+    <row r="32" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="118"/>
+      <c r="B32" s="23">
+        <v>41606</v>
+      </c>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="10">
-        <f>SUM(E69:E73)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="110"/>
+      <c r="M32" s="111">
+        <f>SUM(E89:E93)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="112" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
-      <c r="B25" s="29">
-        <v>41604</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="52">
+    <row r="33" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="119"/>
+      <c r="B33" s="23">
+        <v>41607</v>
+      </c>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="10">
-        <f>SUM(E74:E78)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="3" t="s">
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="110"/>
+      <c r="M33" s="111">
+        <f>SUM(E94:E98)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="112" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="75"/>
-      <c r="B26" s="29">
-        <v>41605</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="52">
+    <row r="34" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="120">
+        <v>5</v>
+      </c>
+      <c r="B34" s="17">
+        <v>41610</v>
+      </c>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="10">
-        <f>SUM(E79:E83)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="110"/>
+      <c r="M34" s="111">
+        <f>SUM(E99:E103)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="112" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
-      <c r="B27" s="29">
-        <v>41606</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="52">
+    <row r="35" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="121"/>
+      <c r="B35" s="17">
+        <v>41611</v>
+      </c>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="10">
-        <f>SUM(E84:E88)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="110"/>
+      <c r="M35" s="111">
+        <f>SUM(E104:E108)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="112" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
-      <c r="B28" s="29">
-        <v>41607</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="52">
+    <row r="36" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="121"/>
+      <c r="B36" s="17">
+        <v>41612</v>
+      </c>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="10">
-        <f>SUM(E89:E93)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="3" t="s">
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36" s="110"/>
+      <c r="M36" s="111">
+        <f>SUM(E109:E113)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="112" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="100">
-        <v>5</v>
-      </c>
-      <c r="B29" s="28">
-        <v>41610</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="51">
+    <row r="37" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="121"/>
+      <c r="B37" s="17">
+        <v>41613</v>
+      </c>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="10">
-        <f>SUM(E94:E98)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37" s="110"/>
+      <c r="M37" s="111">
+        <f>SUM(E114:E118)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="112" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="101"/>
-      <c r="B30" s="28">
-        <v>41611</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="51">
+    <row r="38" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="122"/>
+      <c r="B38" s="17">
+        <v>41614</v>
+      </c>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="10">
-        <f>SUM(E99:E103)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="3" t="s">
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="L38" s="110"/>
+      <c r="M38" s="111">
+        <f>SUM(E119:E123)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="112" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="101"/>
-      <c r="B31" s="28">
-        <v>41612</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="51">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="70">
+        <v>6</v>
+      </c>
+      <c r="B39" s="29">
+        <v>41617</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="10">
-        <f>SUM(E104:E108)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
-      <c r="B32" s="28">
-        <v>41613</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="10">
-        <f>SUM(E109:E113)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="102"/>
-      <c r="B33" s="28">
-        <v>41614</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="8" t="s">
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="10">
-        <f>SUM(E114:E118)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="74">
-        <v>6</v>
-      </c>
-      <c r="B34" s="29">
-        <v>41617</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="10">
-        <f>SUM(E119:E123)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
-      <c r="B35" s="29">
-        <v>41618</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="10">
-        <f>SUM(E124:E128)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
-      <c r="B36" s="29">
-        <v>41619</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="10">
-        <f>SUM(E129:E133)</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
-      <c r="B37" s="29">
-        <v>41620</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="10">
-        <f>SUM(E134:E138)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
-      <c r="B38" s="29">
-        <v>41621</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="10">
-        <f>SUM(E139:E143)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="100">
-        <v>7</v>
-      </c>
-      <c r="B39" s="28">
-        <v>41624</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E144:E148)</f>
+        <f>SUM(E124:E128)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2564,27 +2656,27 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="101"/>
-      <c r="B40" s="28">
-        <v>41625</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="51">
+      <c r="A40" s="71"/>
+      <c r="B40" s="29">
+        <v>41618</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
       <c r="K40" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E149:E153)</f>
+        <f>SUM(E129:E133)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2592,27 +2684,27 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="101"/>
-      <c r="B41" s="28">
-        <v>41626</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="51">
+      <c r="A41" s="71"/>
+      <c r="B41" s="29">
+        <v>41619</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
       <c r="K41" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E154:E158)</f>
+        <f>SUM(E134:E138)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2620,2099 +2712,2243 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="101"/>
-      <c r="B42" s="28">
+      <c r="A42" s="71"/>
+      <c r="B42" s="29">
+        <v>41620</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L42" s="6"/>
+      <c r="M42" s="10">
+        <f>SUM(E139:E143)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="72"/>
+      <c r="B43" s="29">
+        <v>41621</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" s="6"/>
+      <c r="M43" s="10">
+        <f>SUM(E144:E148)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="96">
+        <v>7</v>
+      </c>
+      <c r="B44" s="28">
+        <v>41624</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="10">
+        <f>SUM(E149:E153)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="97"/>
+      <c r="B45" s="28">
+        <v>41625</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="10">
+        <f>SUM(E154:E158)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="97"/>
+      <c r="B46" s="28">
+        <v>41626</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L46" s="6"/>
+      <c r="M46" s="10">
+        <f>SUM(E159:E163)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="97"/>
+      <c r="B47" s="28">
         <v>41627</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="51">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="102"/>
-      <c r="B43" s="28">
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="98"/>
+      <c r="B48" s="28">
         <v>41628</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="51">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="74">
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="70">
         <v>8</v>
       </c>
-      <c r="B44" s="29">
+      <c r="B49" s="29">
         <v>41631</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="52">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="75"/>
-      <c r="B45" s="29">
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="71"/>
+      <c r="B50" s="29">
         <v>41632</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="52">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="75"/>
-      <c r="B46" s="29">
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="71"/>
+      <c r="B51" s="29">
         <v>41633</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="52">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="75"/>
-      <c r="B47" s="29">
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="71"/>
+      <c r="B52" s="29">
         <v>41634</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="52">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="76"/>
-      <c r="B48" s="29">
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="72"/>
+      <c r="B53" s="29">
         <v>41635</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="52">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="100">
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="96">
         <v>9</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B54" s="28">
         <v>41638</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="51">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="101"/>
-      <c r="B50" s="28">
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="97"/>
+      <c r="B55" s="28">
         <v>41639</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="51">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="101"/>
-      <c r="B51" s="28">
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="97"/>
+      <c r="B56" s="28">
         <v>41640</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="51">
-        <f t="shared" ref="F51:F82" si="1">E51</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="101"/>
-      <c r="B52" s="28">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="53">
+        <f t="shared" ref="F56:F87" si="1">E56</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="97"/>
+      <c r="B57" s="28">
         <v>41641</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="51">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="102"/>
-      <c r="B53" s="28">
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="98"/>
+      <c r="B58" s="28">
         <v>41642</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="51">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="74">
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="70">
         <v>10</v>
       </c>
-      <c r="B54" s="29">
+      <c r="B59" s="29">
         <v>41645</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="52">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="124"/>
+      <c r="F59" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="75"/>
-      <c r="B55" s="29">
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="71"/>
+      <c r="B60" s="29">
         <v>41646</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="52">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="75"/>
-      <c r="B56" s="29">
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="71"/>
+      <c r="B61" s="29">
         <v>41647</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="52">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="75"/>
-      <c r="B57" s="29">
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="71"/>
+      <c r="B62" s="29">
         <v>41648</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="52">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="76"/>
-      <c r="B58" s="29">
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="72"/>
+      <c r="B63" s="29">
         <v>41649</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="52">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="100">
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="96">
         <v>11</v>
       </c>
-      <c r="B59" s="28">
+      <c r="B64" s="28">
         <v>41652</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="51">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="101"/>
-      <c r="B60" s="28">
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="97"/>
+      <c r="B65" s="28">
         <v>41653</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="51">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="101"/>
-      <c r="B61" s="28">
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="97"/>
+      <c r="B66" s="28">
         <v>41654</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="51">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="101"/>
-      <c r="B62" s="28">
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="97"/>
+      <c r="B67" s="28">
         <v>41655</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="51">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="125"/>
+      <c r="F67" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="102"/>
-      <c r="B63" s="28">
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="98"/>
+      <c r="B68" s="28">
         <v>41656</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="51">
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="125"/>
+      <c r="F68" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="74">
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="70">
         <v>12</v>
       </c>
-      <c r="B64" s="29">
+      <c r="B69" s="29">
         <v>41659</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="52">
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="124"/>
+      <c r="F69" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="75"/>
-      <c r="B65" s="29">
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="71"/>
+      <c r="B70" s="29">
         <v>41660</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="52">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="75"/>
-      <c r="B66" s="29">
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="71"/>
+      <c r="B71" s="29">
         <v>41661</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="52">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="75"/>
-      <c r="B67" s="29">
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="71"/>
+      <c r="B72" s="29">
         <v>41662</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="52">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="76"/>
-      <c r="B68" s="29">
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="72"/>
+      <c r="B73" s="29">
         <v>41663</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="52">
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="124"/>
+      <c r="F73" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="100">
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="96">
         <v>13</v>
       </c>
-      <c r="B69" s="28">
+      <c r="B74" s="28">
         <v>41666</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="51">
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="125"/>
+      <c r="F74" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G69" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="101"/>
-      <c r="B70" s="28">
+      <c r="G74" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="97"/>
+      <c r="B75" s="28">
         <v>41667</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="51">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="125"/>
+      <c r="F75" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G70" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="101"/>
-      <c r="B71" s="28">
+      <c r="G75" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="97"/>
+      <c r="B76" s="28">
         <v>41668</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="51">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="125"/>
+      <c r="F76" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G71" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="101"/>
-      <c r="B72" s="28">
+      <c r="G76" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="97"/>
+      <c r="B77" s="28">
         <v>41669</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="51">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G72" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="102"/>
-      <c r="B73" s="28">
+      <c r="G77" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="98"/>
+      <c r="B78" s="28">
         <v>41670</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="51">
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="125"/>
+      <c r="F78" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G73" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="74">
+      <c r="G78" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="70">
         <v>14</v>
       </c>
-      <c r="B74" s="29">
+      <c r="B79" s="29">
         <v>41673</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="52">
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="124"/>
+      <c r="F79" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G74" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="75"/>
-      <c r="B75" s="29">
+      <c r="G79" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="71"/>
+      <c r="B80" s="29">
         <v>41674</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="52">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="124"/>
+      <c r="F80" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G75" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="75"/>
-      <c r="B76" s="29">
+      <c r="G80" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="71"/>
+      <c r="B81" s="29">
         <v>41675</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="52">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="124"/>
+      <c r="F81" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G76" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="75"/>
-      <c r="B77" s="29">
+      <c r="G81" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="71"/>
+      <c r="B82" s="29">
         <v>41676</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="52">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="124"/>
+      <c r="F82" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G77" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="76"/>
-      <c r="B78" s="29">
+      <c r="G82" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="43"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="72"/>
+      <c r="B83" s="29">
         <v>41677</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="52">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="124"/>
+      <c r="F83" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G78" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="100">
+      <c r="G83" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="96">
         <v>15</v>
       </c>
-      <c r="B79" s="28">
+      <c r="B84" s="28">
         <v>41680</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="51">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="101"/>
-      <c r="B80" s="28">
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="97"/>
+      <c r="B85" s="28">
         <v>41681</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="51">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="125"/>
+      <c r="F85" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="101"/>
-      <c r="B81" s="28">
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="97"/>
+      <c r="B86" s="28">
         <v>41682</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="51">
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="125"/>
+      <c r="F86" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="101"/>
-      <c r="B82" s="28">
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="97"/>
+      <c r="B87" s="28">
         <v>41683</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="51">
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="125"/>
+      <c r="F87" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="102"/>
-      <c r="B83" s="28">
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="98"/>
+      <c r="B88" s="28">
         <v>41684</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="51">
-        <f t="shared" ref="F83:F114" si="2">E83</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="74">
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="125"/>
+      <c r="F88" s="53">
+        <f t="shared" ref="F88:F119" si="2">E88</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="70">
         <v>16</v>
       </c>
-      <c r="B84" s="29">
+      <c r="B89" s="29">
         <v>41687</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="52">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="124"/>
+      <c r="F89" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="43"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="75"/>
-      <c r="B85" s="29">
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="43"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="71"/>
+      <c r="B90" s="29">
         <v>41688</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="52">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="124"/>
+      <c r="F90" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="43"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="75"/>
-      <c r="B86" s="29">
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="71"/>
+      <c r="B91" s="29">
         <v>41689</v>
       </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="52">
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="124"/>
+      <c r="F91" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="43"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="75"/>
-      <c r="B87" s="29">
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="43"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="71"/>
+      <c r="B92" s="29">
         <v>41690</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="52">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="124"/>
+      <c r="F92" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43"/>
-      <c r="J87" s="43"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="76"/>
-      <c r="B88" s="29">
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="72"/>
+      <c r="B93" s="29">
         <v>41691</v>
       </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="52">
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="124"/>
+      <c r="F93" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="43"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="100">
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="96">
         <v>17</v>
       </c>
-      <c r="B89" s="28">
+      <c r="B94" s="28">
         <v>41694</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="51">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="125"/>
+      <c r="F94" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="42"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="101"/>
-      <c r="B90" s="28">
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="42"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="97"/>
+      <c r="B95" s="28">
         <v>41695</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="51">
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="125"/>
+      <c r="F95" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G90" s="42"/>
-      <c r="H90" s="42"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="42"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="101"/>
-      <c r="B91" s="28">
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="97"/>
+      <c r="B96" s="28">
         <v>41696</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="51">
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="125"/>
+      <c r="F96" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G91" s="42"/>
-      <c r="H91" s="42"/>
-      <c r="I91" s="42"/>
-      <c r="J91" s="42"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="101"/>
-      <c r="B92" s="28">
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="97"/>
+      <c r="B97" s="28">
         <v>41697</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="51">
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="125"/>
+      <c r="F97" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G92" s="42"/>
-      <c r="H92" s="42"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="102"/>
-      <c r="B93" s="28">
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="98"/>
+      <c r="B98" s="28">
         <v>41698</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="51">
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="125"/>
+      <c r="F98" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G93" s="42"/>
-      <c r="H93" s="42"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="42"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="74">
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="70">
         <v>18</v>
       </c>
-      <c r="B94" s="29">
+      <c r="B99" s="29">
         <v>41701</v>
       </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="52">
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="124"/>
+      <c r="F99" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="43"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="75"/>
-      <c r="B95" s="29">
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="71"/>
+      <c r="B100" s="29">
         <v>41702</v>
       </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="52">
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="124"/>
+      <c r="F100" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="43"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="75"/>
-      <c r="B96" s="29">
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="71"/>
+      <c r="B101" s="29">
         <v>41703</v>
       </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="52">
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="124"/>
+      <c r="F101" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="75"/>
-      <c r="B97" s="29">
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="43"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="71"/>
+      <c r="B102" s="29">
         <v>41704</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="52">
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="124"/>
+      <c r="F102" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="43"/>
-      <c r="J97" s="43"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="76"/>
-      <c r="B98" s="29">
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="43"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="72"/>
+      <c r="B103" s="29">
         <v>41705</v>
       </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="52">
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="124"/>
+      <c r="F103" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="43"/>
-      <c r="J98" s="43"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="100">
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="43"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="96">
         <v>19</v>
       </c>
-      <c r="B99" s="28">
+      <c r="B104" s="28">
         <v>41708</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="51">
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="125"/>
+      <c r="F104" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G99" s="42"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="42"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="101"/>
-      <c r="B100" s="28">
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="97"/>
+      <c r="B105" s="28">
         <v>41709</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="51">
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="125"/>
+      <c r="F105" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="101"/>
-      <c r="B101" s="28">
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="42"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="97"/>
+      <c r="B106" s="28">
         <v>41710</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="51">
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="125"/>
+      <c r="F106" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="101"/>
-      <c r="B102" s="28">
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="97"/>
+      <c r="B107" s="28">
         <v>41711</v>
       </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="51">
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="125"/>
+      <c r="F107" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="102"/>
-      <c r="B103" s="28">
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="98"/>
+      <c r="B108" s="28">
         <v>41712</v>
       </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="51">
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="125"/>
+      <c r="F108" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="42"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="74">
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="70">
         <v>20</v>
       </c>
-      <c r="B104" s="29">
+      <c r="B109" s="29">
         <v>41715</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="52">
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="124"/>
+      <c r="F109" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="43"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="75"/>
-      <c r="B105" s="29">
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="43"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="71"/>
+      <c r="B110" s="29">
         <v>41716</v>
       </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="52">
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="124"/>
+      <c r="F110" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G105" s="43"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="43"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="75"/>
-      <c r="B106" s="29">
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="43"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="71"/>
+      <c r="B111" s="29">
         <v>41717</v>
       </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="52">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="124"/>
+      <c r="F111" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G106" s="43"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="43"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="75"/>
-      <c r="B107" s="29">
+      <c r="G111" s="43"/>
+      <c r="H111" s="43"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="43"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="71"/>
+      <c r="B112" s="29">
         <v>41718</v>
       </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="52">
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="124"/>
+      <c r="F112" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="76"/>
-      <c r="B108" s="29">
+      <c r="G112" s="43"/>
+      <c r="H112" s="43"/>
+      <c r="I112" s="43"/>
+      <c r="J112" s="43"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="72"/>
+      <c r="B113" s="29">
         <v>41719</v>
       </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="52">
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="124"/>
+      <c r="F113" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G108" s="43"/>
-      <c r="H108" s="43"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="43"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="100">
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
+      <c r="I113" s="43"/>
+      <c r="J113" s="43"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="96">
         <v>21</v>
       </c>
-      <c r="B109" s="28">
+      <c r="B114" s="28">
         <v>41722</v>
       </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="51">
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="125"/>
+      <c r="F114" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
-      <c r="J109" s="42"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="101"/>
-      <c r="B110" s="28">
+      <c r="G114" s="42"/>
+      <c r="H114" s="42"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="42"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="97"/>
+      <c r="B115" s="28">
         <v>41723</v>
       </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="51">
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="125"/>
+      <c r="F115" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G110" s="42"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="42"/>
-      <c r="J110" s="42"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="101"/>
-      <c r="B111" s="28">
+      <c r="G115" s="42"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="42"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="97"/>
+      <c r="B116" s="28">
         <v>41724</v>
       </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="51">
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="125"/>
+      <c r="F116" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G111" s="42"/>
-      <c r="H111" s="42"/>
-      <c r="I111" s="42"/>
-      <c r="J111" s="42"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="101"/>
-      <c r="B112" s="28">
+      <c r="G116" s="42"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="42"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="97"/>
+      <c r="B117" s="28">
         <v>41725</v>
       </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="51">
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="125"/>
+      <c r="F117" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G112" s="42"/>
-      <c r="H112" s="42"/>
-      <c r="I112" s="42"/>
-      <c r="J112" s="42"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="102"/>
-      <c r="B113" s="28">
+      <c r="G117" s="42"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="42"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="98"/>
+      <c r="B118" s="28">
         <v>41726</v>
       </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="51">
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="125"/>
+      <c r="F118" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G113" s="42"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="42"/>
-      <c r="J113" s="42"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="74">
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="42"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="70">
         <v>22</v>
       </c>
-      <c r="B114" s="29">
+      <c r="B119" s="29">
         <v>41729</v>
       </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="52">
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="124"/>
+      <c r="F119" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G114" s="43"/>
-      <c r="H114" s="43"/>
-      <c r="I114" s="43"/>
-      <c r="J114" s="43"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="75"/>
-      <c r="B115" s="29">
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="43"/>
+      <c r="J119" s="43"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="71"/>
+      <c r="B120" s="29">
         <v>41730</v>
       </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="52">
-        <f t="shared" ref="F115:F146" si="3">E115</f>
-        <v>0</v>
-      </c>
-      <c r="G115" s="43"/>
-      <c r="H115" s="43"/>
-      <c r="I115" s="43"/>
-      <c r="J115" s="43"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="75"/>
-      <c r="B116" s="29">
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="124"/>
+      <c r="F120" s="123">
+        <f t="shared" ref="F120:F151" si="3">E120</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="43"/>
+      <c r="H120" s="43"/>
+      <c r="I120" s="43"/>
+      <c r="J120" s="43"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="71"/>
+      <c r="B121" s="29">
         <v>41731</v>
       </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="52">
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="124"/>
+      <c r="F121" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G116" s="43"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="43"/>
-      <c r="J116" s="43"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="75"/>
-      <c r="B117" s="29">
+      <c r="G121" s="43"/>
+      <c r="H121" s="43"/>
+      <c r="I121" s="43"/>
+      <c r="J121" s="43"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="71"/>
+      <c r="B122" s="29">
         <v>41732</v>
       </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="52">
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="124"/>
+      <c r="F122" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G117" s="43"/>
-      <c r="H117" s="43"/>
-      <c r="I117" s="43"/>
-      <c r="J117" s="43"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="76"/>
-      <c r="B118" s="29">
+      <c r="G122" s="43"/>
+      <c r="H122" s="43"/>
+      <c r="I122" s="43"/>
+      <c r="J122" s="43"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="72"/>
+      <c r="B123" s="29">
         <v>41733</v>
       </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="52">
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="124"/>
+      <c r="F123" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G118" s="43"/>
-      <c r="H118" s="43"/>
-      <c r="I118" s="43"/>
-      <c r="J118" s="43"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="100">
+      <c r="G123" s="43"/>
+      <c r="H123" s="43"/>
+      <c r="I123" s="43"/>
+      <c r="J123" s="43"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="96">
         <v>23</v>
       </c>
-      <c r="B119" s="28">
+      <c r="B124" s="28">
         <v>41736</v>
       </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="51">
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="125"/>
+      <c r="F124" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G119" s="42"/>
-      <c r="H119" s="42"/>
-      <c r="I119" s="42"/>
-      <c r="J119" s="42"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="101"/>
-      <c r="B120" s="28">
+      <c r="G124" s="42"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="42"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="97"/>
+      <c r="B125" s="28">
         <v>41737</v>
       </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="51">
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="125"/>
+      <c r="F125" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G120" s="42"/>
-      <c r="H120" s="42"/>
-      <c r="I120" s="42"/>
-      <c r="J120" s="42"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="101"/>
-      <c r="B121" s="28">
+      <c r="G125" s="42"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="42"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="97"/>
+      <c r="B126" s="28">
         <v>41738</v>
       </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="51">
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="125"/>
+      <c r="F126" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G121" s="42"/>
-      <c r="H121" s="42"/>
-      <c r="I121" s="42"/>
-      <c r="J121" s="42"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="101"/>
-      <c r="B122" s="28">
+      <c r="G126" s="42"/>
+      <c r="H126" s="42"/>
+      <c r="I126" s="42"/>
+      <c r="J126" s="42"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="97"/>
+      <c r="B127" s="28">
         <v>41739</v>
       </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="51">
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="125"/>
+      <c r="F127" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G122" s="42"/>
-      <c r="H122" s="42"/>
-      <c r="I122" s="42"/>
-      <c r="J122" s="42"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="102"/>
-      <c r="B123" s="28">
+      <c r="G127" s="42"/>
+      <c r="H127" s="42"/>
+      <c r="I127" s="42"/>
+      <c r="J127" s="42"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="98"/>
+      <c r="B128" s="28">
         <v>41740</v>
       </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="51">
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="125"/>
+      <c r="F128" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G123" s="42"/>
-      <c r="H123" s="42"/>
-      <c r="I123" s="42"/>
-      <c r="J123" s="42"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="74">
+      <c r="G128" s="42"/>
+      <c r="H128" s="42"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="42"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="70">
         <v>24</v>
       </c>
-      <c r="B124" s="29">
+      <c r="B129" s="29">
         <v>41743</v>
       </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="52">
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="124"/>
+      <c r="F129" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G124" s="43"/>
-      <c r="H124" s="43"/>
-      <c r="I124" s="43"/>
-      <c r="J124" s="43"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="75"/>
-      <c r="B125" s="29">
+      <c r="G129" s="43"/>
+      <c r="H129" s="43"/>
+      <c r="I129" s="43"/>
+      <c r="J129" s="43"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="71"/>
+      <c r="B130" s="29">
         <v>41744</v>
       </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="52">
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="124"/>
+      <c r="F130" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G125" s="43"/>
-      <c r="H125" s="43"/>
-      <c r="I125" s="43"/>
-      <c r="J125" s="43"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="75"/>
-      <c r="B126" s="29">
+      <c r="G130" s="43"/>
+      <c r="H130" s="43"/>
+      <c r="I130" s="43"/>
+      <c r="J130" s="43"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="71"/>
+      <c r="B131" s="29">
         <v>41745</v>
       </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="52">
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="124"/>
+      <c r="F131" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G126" s="43"/>
-      <c r="H126" s="43"/>
-      <c r="I126" s="43"/>
-      <c r="J126" s="43"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="75"/>
-      <c r="B127" s="29">
+      <c r="G131" s="43"/>
+      <c r="H131" s="43"/>
+      <c r="I131" s="43"/>
+      <c r="J131" s="43"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="71"/>
+      <c r="B132" s="29">
         <v>41746</v>
       </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="52">
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="124"/>
+      <c r="F132" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G127" s="43"/>
-      <c r="H127" s="43"/>
-      <c r="I127" s="43"/>
-      <c r="J127" s="43"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="76"/>
-      <c r="B128" s="29">
+      <c r="G132" s="43"/>
+      <c r="H132" s="43"/>
+      <c r="I132" s="43"/>
+      <c r="J132" s="43"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="72"/>
+      <c r="B133" s="29">
         <v>41747</v>
       </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="52">
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="124"/>
+      <c r="F133" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G128" s="43"/>
-      <c r="H128" s="43"/>
-      <c r="I128" s="43"/>
-      <c r="J128" s="43"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="100">
+      <c r="G133" s="43"/>
+      <c r="H133" s="43"/>
+      <c r="I133" s="43"/>
+      <c r="J133" s="43"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="96">
         <v>25</v>
       </c>
-      <c r="B129" s="28">
+      <c r="B134" s="28">
         <v>41750</v>
       </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="51">
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="125"/>
+      <c r="F134" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G129" s="42"/>
-      <c r="H129" s="42"/>
-      <c r="I129" s="42"/>
-      <c r="J129" s="42"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="101"/>
-      <c r="B130" s="28">
+      <c r="G134" s="42"/>
+      <c r="H134" s="42"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="42"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="97"/>
+      <c r="B135" s="28">
         <v>41751</v>
       </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="51">
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="125"/>
+      <c r="F135" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G130" s="42"/>
-      <c r="H130" s="42"/>
-      <c r="I130" s="42"/>
-      <c r="J130" s="42"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="101"/>
-      <c r="B131" s="28">
+      <c r="G135" s="42"/>
+      <c r="H135" s="42"/>
+      <c r="I135" s="42"/>
+      <c r="J135" s="42"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="97"/>
+      <c r="B136" s="28">
         <v>41752</v>
       </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="51">
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="125"/>
+      <c r="F136" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G131" s="42"/>
-      <c r="H131" s="42"/>
-      <c r="I131" s="42"/>
-      <c r="J131" s="42"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="101"/>
-      <c r="B132" s="28">
+      <c r="G136" s="42"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="42"/>
+      <c r="J136" s="42"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="97"/>
+      <c r="B137" s="28">
         <v>41753</v>
       </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="51">
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="125"/>
+      <c r="F137" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G132" s="42"/>
-      <c r="H132" s="42"/>
-      <c r="I132" s="42"/>
-      <c r="J132" s="42"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="102"/>
-      <c r="B133" s="28">
+      <c r="G137" s="42"/>
+      <c r="H137" s="42"/>
+      <c r="I137" s="42"/>
+      <c r="J137" s="42"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="98"/>
+      <c r="B138" s="28">
         <v>41754</v>
       </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="51">
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="125"/>
+      <c r="F138" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G133" s="42"/>
-      <c r="H133" s="42"/>
-      <c r="I133" s="42"/>
-      <c r="J133" s="42"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="74">
+      <c r="G138" s="42"/>
+      <c r="H138" s="42"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="42"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="70">
         <v>26</v>
       </c>
-      <c r="B134" s="29">
+      <c r="B139" s="29">
         <v>41757</v>
       </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="52">
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="124"/>
+      <c r="F139" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G134" s="43"/>
-      <c r="H134" s="43"/>
-      <c r="I134" s="43"/>
-      <c r="J134" s="43"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="75"/>
-      <c r="B135" s="29">
+      <c r="G139" s="43"/>
+      <c r="H139" s="43"/>
+      <c r="I139" s="43"/>
+      <c r="J139" s="43"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="71"/>
+      <c r="B140" s="29">
         <v>41758</v>
       </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="52">
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="124"/>
+      <c r="F140" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G135" s="43"/>
-      <c r="H135" s="43"/>
-      <c r="I135" s="43"/>
-      <c r="J135" s="43"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="75"/>
-      <c r="B136" s="29">
+      <c r="G140" s="43"/>
+      <c r="H140" s="43"/>
+      <c r="I140" s="43"/>
+      <c r="J140" s="43"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="71"/>
+      <c r="B141" s="29">
         <v>41759</v>
       </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="52">
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="124"/>
+      <c r="F141" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G136" s="43"/>
-      <c r="H136" s="43"/>
-      <c r="I136" s="43"/>
-      <c r="J136" s="43"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="75"/>
-      <c r="B137" s="29">
+      <c r="G141" s="43"/>
+      <c r="H141" s="43"/>
+      <c r="I141" s="43"/>
+      <c r="J141" s="43"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="71"/>
+      <c r="B142" s="29">
         <v>41760</v>
       </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="52">
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="124"/>
+      <c r="F142" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G137" s="43"/>
-      <c r="H137" s="43"/>
-      <c r="I137" s="43"/>
-      <c r="J137" s="43"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="76"/>
-      <c r="B138" s="29">
+      <c r="G142" s="43"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="43"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="72"/>
+      <c r="B143" s="29">
         <v>41761</v>
       </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="52">
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="124"/>
+      <c r="F143" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G138" s="43"/>
-      <c r="H138" s="43"/>
-      <c r="I138" s="43"/>
-      <c r="J138" s="43"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="100">
+      <c r="G143" s="43"/>
+      <c r="H143" s="43"/>
+      <c r="I143" s="43"/>
+      <c r="J143" s="43"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="96">
         <v>27</v>
       </c>
-      <c r="B139" s="28">
+      <c r="B144" s="28">
         <v>41764</v>
       </c>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="51">
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="125"/>
+      <c r="F144" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G139" s="42"/>
-      <c r="H139" s="42"/>
-      <c r="I139" s="42"/>
-      <c r="J139" s="42"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="101"/>
-      <c r="B140" s="28">
+      <c r="G144" s="42"/>
+      <c r="H144" s="42"/>
+      <c r="I144" s="42"/>
+      <c r="J144" s="42"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="97"/>
+      <c r="B145" s="28">
         <v>41765</v>
       </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="51">
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="125"/>
+      <c r="F145" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G140" s="42"/>
-      <c r="H140" s="42"/>
-      <c r="I140" s="42"/>
-      <c r="J140" s="42"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="101"/>
-      <c r="B141" s="28">
+      <c r="G145" s="42"/>
+      <c r="H145" s="42"/>
+      <c r="I145" s="42"/>
+      <c r="J145" s="42"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="97"/>
+      <c r="B146" s="28">
         <v>41766</v>
       </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="51">
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="125"/>
+      <c r="F146" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G141" s="42"/>
-      <c r="H141" s="42"/>
-      <c r="I141" s="42"/>
-      <c r="J141" s="42"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="101"/>
-      <c r="B142" s="28">
+      <c r="G146" s="42"/>
+      <c r="H146" s="42"/>
+      <c r="I146" s="42"/>
+      <c r="J146" s="42"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="97"/>
+      <c r="B147" s="28">
         <v>41767</v>
       </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="51">
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="125"/>
+      <c r="F147" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G142" s="42"/>
-      <c r="H142" s="42"/>
-      <c r="I142" s="42"/>
-      <c r="J142" s="42"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="102"/>
-      <c r="B143" s="28">
+      <c r="G147" s="42"/>
+      <c r="H147" s="42"/>
+      <c r="I147" s="42"/>
+      <c r="J147" s="42"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="98"/>
+      <c r="B148" s="28">
         <v>41768</v>
       </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="51">
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="125"/>
+      <c r="F148" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G143" s="42"/>
-      <c r="H143" s="42"/>
-      <c r="I143" s="42"/>
-      <c r="J143" s="42"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="74">
+      <c r="G148" s="42"/>
+      <c r="H148" s="42"/>
+      <c r="I148" s="42"/>
+      <c r="J148" s="42"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="70">
         <v>28</v>
       </c>
-      <c r="B144" s="29">
+      <c r="B149" s="29">
         <v>41771</v>
       </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="52">
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="124"/>
+      <c r="F149" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G144" s="43"/>
-      <c r="H144" s="43"/>
-      <c r="I144" s="43"/>
-      <c r="J144" s="43"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="75"/>
-      <c r="B145" s="29">
+      <c r="G149" s="43"/>
+      <c r="H149" s="43"/>
+      <c r="I149" s="43"/>
+      <c r="J149" s="43"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="71"/>
+      <c r="B150" s="29">
         <v>41772</v>
       </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="52">
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="124"/>
+      <c r="F150" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G145" s="43"/>
-      <c r="H145" s="43"/>
-      <c r="I145" s="43"/>
-      <c r="J145" s="43"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="75"/>
-      <c r="B146" s="29">
+      <c r="G150" s="43"/>
+      <c r="H150" s="43"/>
+      <c r="I150" s="43"/>
+      <c r="J150" s="43"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="71"/>
+      <c r="B151" s="29">
         <v>41773</v>
       </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="52">
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="124"/>
+      <c r="F151" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G146" s="43"/>
-      <c r="H146" s="43"/>
-      <c r="I146" s="43"/>
-      <c r="J146" s="43"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="75"/>
-      <c r="B147" s="29">
+      <c r="G151" s="43"/>
+      <c r="H151" s="43"/>
+      <c r="I151" s="43"/>
+      <c r="J151" s="43"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="71"/>
+      <c r="B152" s="29">
         <v>41774</v>
       </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="52">
-        <f t="shared" ref="F147:F158" si="4">E147</f>
-        <v>0</v>
-      </c>
-      <c r="G147" s="43"/>
-      <c r="H147" s="43"/>
-      <c r="I147" s="43"/>
-      <c r="J147" s="43"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="76"/>
-      <c r="B148" s="29">
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="124"/>
+      <c r="F152" s="123">
+        <f t="shared" ref="F152:F163" si="4">E152</f>
+        <v>0</v>
+      </c>
+      <c r="G152" s="43"/>
+      <c r="H152" s="43"/>
+      <c r="I152" s="43"/>
+      <c r="J152" s="43"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="72"/>
+      <c r="B153" s="29">
         <v>41775</v>
       </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="52">
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="124"/>
+      <c r="F153" s="123">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G148" s="43"/>
-      <c r="H148" s="43"/>
-      <c r="I148" s="43"/>
-      <c r="J148" s="43"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="100">
+      <c r="G153" s="43"/>
+      <c r="H153" s="43"/>
+      <c r="I153" s="43"/>
+      <c r="J153" s="43"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="96">
         <v>29</v>
       </c>
-      <c r="B149" s="28">
+      <c r="B154" s="28">
         <v>41778</v>
       </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G149" s="42"/>
-      <c r="H149" s="42"/>
-      <c r="I149" s="42"/>
-      <c r="J149" s="42"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="101"/>
-      <c r="B150" s="28">
-        <v>41779</v>
-      </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G150" s="42"/>
-      <c r="H150" s="42"/>
-      <c r="I150" s="42"/>
-      <c r="J150" s="42"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="101"/>
-      <c r="B151" s="28">
-        <v>41780</v>
-      </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G151" s="42"/>
-      <c r="H151" s="42"/>
-      <c r="I151" s="42"/>
-      <c r="J151" s="42"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="101"/>
-      <c r="B152" s="28">
-        <v>41781</v>
-      </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G152" s="42"/>
-      <c r="H152" s="42"/>
-      <c r="I152" s="42"/>
-      <c r="J152" s="42"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="102"/>
-      <c r="B153" s="28">
-        <v>41782</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G153" s="42"/>
-      <c r="H153" s="42"/>
-      <c r="I153" s="42"/>
-      <c r="J153" s="42"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="110">
-        <v>30</v>
-      </c>
-      <c r="B154" s="29">
-        <v>41785</v>
-      </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="125"/>
       <c r="F154" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G154" s="44"/>
-      <c r="H154" s="44"/>
-      <c r="I154" s="44"/>
-      <c r="J154" s="44"/>
+      <c r="G154" s="42"/>
+      <c r="H154" s="42"/>
+      <c r="I154" s="42"/>
+      <c r="J154" s="42"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="111"/>
-      <c r="B155" s="29">
-        <v>41786</v>
-      </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
+      <c r="A155" s="97"/>
+      <c r="B155" s="28">
+        <v>41779</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="125"/>
       <c r="F155" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G155" s="44"/>
-      <c r="H155" s="44"/>
-      <c r="I155" s="44"/>
-      <c r="J155" s="44"/>
+      <c r="G155" s="42"/>
+      <c r="H155" s="42"/>
+      <c r="I155" s="42"/>
+      <c r="J155" s="42"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="111"/>
-      <c r="B156" s="29">
-        <v>41787</v>
-      </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
+      <c r="A156" s="97"/>
+      <c r="B156" s="28">
+        <v>41780</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="125"/>
       <c r="F156" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G156" s="44"/>
-      <c r="H156" s="44"/>
-      <c r="I156" s="44"/>
-      <c r="J156" s="44"/>
+      <c r="G156" s="42"/>
+      <c r="H156" s="42"/>
+      <c r="I156" s="42"/>
+      <c r="J156" s="42"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="111"/>
-      <c r="B157" s="29">
-        <v>41788</v>
-      </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
+      <c r="A157" s="97"/>
+      <c r="B157" s="28">
+        <v>41781</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="125"/>
       <c r="F157" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G157" s="44"/>
-      <c r="H157" s="44"/>
-      <c r="I157" s="44"/>
-      <c r="J157" s="44"/>
+      <c r="G157" s="42"/>
+      <c r="H157" s="42"/>
+      <c r="I157" s="42"/>
+      <c r="J157" s="42"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="112"/>
-      <c r="B158" s="29">
-        <v>41789</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
+      <c r="A158" s="98"/>
+      <c r="B158" s="28">
+        <v>41782</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="125"/>
       <c r="F158" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G158" s="44"/>
-      <c r="H158" s="44"/>
-      <c r="I158" s="44"/>
-      <c r="J158" s="44"/>
+      <c r="G158" s="42"/>
+      <c r="H158" s="42"/>
+      <c r="I158" s="42"/>
+      <c r="J158" s="42"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="103">
+        <v>30</v>
+      </c>
+      <c r="B159" s="29">
+        <v>41785</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="126"/>
+      <c r="F159" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="44"/>
+      <c r="H159" s="44"/>
+      <c r="I159" s="44"/>
+      <c r="J159" s="44"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="104"/>
+      <c r="B160" s="29">
+        <v>41786</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="126"/>
+      <c r="F160" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G160" s="44"/>
+      <c r="H160" s="44"/>
+      <c r="I160" s="44"/>
+      <c r="J160" s="44"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="104"/>
+      <c r="B161" s="29">
+        <v>41787</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="126"/>
+      <c r="F161" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G161" s="44"/>
+      <c r="H161" s="44"/>
+      <c r="I161" s="44"/>
+      <c r="J161" s="44"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="104"/>
+      <c r="B162" s="29">
+        <v>41788</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="126"/>
+      <c r="F162" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G162" s="44"/>
+      <c r="H162" s="44"/>
+      <c r="I162" s="44"/>
+      <c r="J162" s="44"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="105"/>
+      <c r="B163" s="29">
+        <v>41789</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="126"/>
+      <c r="F163" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="44"/>
+      <c r="H163" s="44"/>
+      <c r="I163" s="44"/>
+      <c r="J163" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A114:A118"/>
+  <mergeCells count="51">
+    <mergeCell ref="A159:A163"/>
     <mergeCell ref="A119:A123"/>
     <mergeCell ref="A124:A128"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A139:A143"/>
     <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A114:A118"/>
     <mergeCell ref="A144:A148"/>
     <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A154:A158"/>
     <mergeCell ref="A84:A88"/>
     <mergeCell ref="A89:A93"/>
     <mergeCell ref="A94:A98"/>
     <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A79:A83"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A44:A48"/>
     <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A58"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A19:A28"/>
     <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A69:A73"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
@@ -4722,21 +4958,18 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A48"/>
     <mergeCell ref="K6:N6"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
-      <formula>5000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
       <formula>700</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>4704</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>700</formula>
       <formula>4704</formula>
     </cfRule>
@@ -4744,7 +4977,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M10:M11 M8 F8 F11 F13 F17 F19" formulaRange="1"/>
+    <ignoredError sqref="M10:M12 M8 F8 F11 F13 F17 F19 F22" formulaRange="1"/>
     <ignoredError sqref="F15" formula="1" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
@@ -4919,105 +5152,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M22</xm:sqref>
+          <xm:sqref>M22:M27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="28" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5036,7 +5174,7 @@
           <xm:sqref>M28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="27" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5055,7 +5193,7 @@
           <xm:sqref>M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5074,7 +5212,7 @@
           <xm:sqref>M30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5093,7 +5231,7 @@
           <xm:sqref>M31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5112,7 +5250,7 @@
           <xm:sqref>M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5131,7 +5269,7 @@
           <xm:sqref>M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5150,7 +5288,7 @@
           <xm:sqref>M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5169,7 +5307,7 @@
           <xm:sqref>M35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5188,7 +5326,7 @@
           <xm:sqref>M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5207,7 +5345,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5226,7 +5364,7 @@
           <xm:sqref>M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5245,7 +5383,7 @@
           <xm:sqref>M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5264,7 +5402,7 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5281,6 +5419,101 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5337,7 +5570,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F7:F8 F10:F11 F13 F15 F19 F21:F158</xm:sqref>
+          <xm:sqref>F7:F8 F10:F11 F13 F15 F19 F21:F22 F28:F163</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
   <si>
     <t>Week</t>
   </si>
@@ -348,22 +348,36 @@
     <t>Stage 6 + Sup.docx</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Integrate the work of member about ACDM</t>
-  </si>
-  <si>
-    <t>ACDM.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Read ACDM book</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Review Scrum model
+ - Review Scrum role and responsibility
+ - Review how to map ACDM into Scrum
+ - Devide team work for team member</t>
+  </si>
+  <si>
+    <t>DevideTeamWork3.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Integrate the work of member about ACDM
+ - Devide team work for team member</t>
+  </si>
+  <si>
+    <t>ACDM.xlsx
+DevideTeamWork1.docx
+DevideTeamWork2.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Update devide team work for team member
+ - Review test process
+ - Update team evaluation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -661,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -743,9 +757,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -794,171 +805,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,12 +816,63 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -991,60 +888,137 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1463,13 +1437,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O163"/>
+  <dimension ref="A1:O164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1491,84 +1465,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="57"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="93"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="96"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="99"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="66"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="102"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="95"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="16"/>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="45" t="s">
         <v>78</v>
       </c>
       <c r="J5" s="6"/>
@@ -1608,13 +1582,13 @@
       <c r="J6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="67">
+      <c r="A7" s="103">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1641,21 +1615,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="100" t="s">
+      <c r="K7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="100"/>
-      <c r="M7" s="35">
-        <f>SUM(M8:M46)</f>
-        <v>33.803000000000004</v>
+      <c r="L7" s="90"/>
+      <c r="M7" s="125">
+        <f>SUM(M8:M47)</f>
+        <v>36.053000000000004</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="87">
+      <c r="A8" s="104"/>
+      <c r="B8" s="84">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1667,7 +1641,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="89">
+      <c r="F8" s="118">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1677,13 +1651,13 @@
       <c r="H8" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="45"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="32"/>
       <c r="K8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="9"/>
-      <c r="M8" s="36">
+      <c r="M8" s="35">
         <f>SUM(E7:E9)</f>
         <v>2.82</v>
       </c>
@@ -1692,8 +1666,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1703,18 +1677,18 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="119"/>
       <c r="G9" s="32" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="45"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="84">
+      <c r="A10" s="115">
         <v>2</v>
       </c>
       <c r="B10" s="23">
@@ -1739,10 +1713,10 @@
       <c r="H10" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="40"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="8" t="s">
         <v>12</v>
       </c>
@@ -1754,11 +1728,11 @@
       <c r="N10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="37"/>
+      <c r="O10" s="36"/>
     </row>
     <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="73">
+      <c r="A11" s="116"/>
+      <c r="B11" s="76">
         <v>41591</v>
       </c>
       <c r="C11" s="27">
@@ -1770,28 +1744,28 @@
       <c r="E11" s="30">
         <v>2</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="74">
         <f>SUM(E11:E12)</f>
         <v>3</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="8"/>
       <c r="L11" s="2"/>
       <c r="M11" s="4"/>
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
-      <c r="B12" s="74"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1801,32 +1775,32 @@
       <c r="E12" s="30">
         <v>1</v>
       </c>
-      <c r="F12" s="92"/>
+      <c r="F12" s="75"/>
       <c r="G12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="40"/>
+      <c r="J12" s="39"/>
       <c r="K12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="10">
-        <f>SUM(E19:E28)</f>
-        <v>17.850000000000001</v>
+        <f>SUM(E19:E29)</f>
+        <v>20.100000000000001</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="73">
+      <c r="A13" s="116"/>
+      <c r="B13" s="76">
         <v>41592</v>
       </c>
       <c r="C13" s="27">
@@ -1838,26 +1812,26 @@
       <c r="E13" s="30">
         <v>0.75</v>
       </c>
-      <c r="F13" s="91">
+      <c r="F13" s="74">
         <f>SUM(E13:E14)</f>
         <v>2</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="10">
-        <f>SUM(E29:E33)</f>
+        <f>SUM(E30:E34)</f>
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
@@ -1865,8 +1839,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="74"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="27">
         <v>0.875</v>
       </c>
@@ -1876,25 +1850,25 @@
       <c r="E14" s="30">
         <v>1.25</v>
       </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="47" t="s">
+      <c r="F14" s="75"/>
+      <c r="G14" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="40"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="8"/>
       <c r="L14" s="6"/>
       <c r="M14" s="10"/>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="73">
+      <c r="A15" s="116"/>
+      <c r="B15" s="76">
         <v>41593</v>
       </c>
       <c r="C15" s="27">
@@ -1906,26 +1880,26 @@
       <c r="E15" s="30">
         <v>1.083</v>
       </c>
-      <c r="F15" s="91">
+      <c r="F15" s="74">
         <f>SUM(E15:E18)</f>
         <v>5.883</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="40"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="10">
-        <f>SUM(E34:E38)</f>
+        <f>SUM(E35:E39)</f>
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
@@ -1933,8 +1907,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1944,23 +1918,23 @@
       <c r="E16" s="30">
         <v>2.33</v>
       </c>
-      <c r="F16" s="92"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="40"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E39:E43)</f>
+        <f>SUM(E40:E44)</f>
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
@@ -1968,8 +1942,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
-      <c r="B17" s="73">
+      <c r="A17" s="116"/>
+      <c r="B17" s="76">
         <v>41594</v>
       </c>
       <c r="C17" s="27">
@@ -1981,26 +1955,26 @@
       <c r="E17" s="30">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F17" s="91">
+      <c r="F17" s="74">
         <f>SUM(E17:E18)</f>
         <v>2.4699999999999998</v>
       </c>
       <c r="G17" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="40"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E44:E48)</f>
+        <f>SUM(E45:E49)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -2008,8 +1982,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="74"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="27">
         <v>0.83333333333333337</v>
       </c>
@@ -2019,509 +1993,521 @@
       <c r="E18" s="30">
         <v>1.92</v>
       </c>
-      <c r="F18" s="92"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J18" s="40"/>
+      <c r="J18" s="39"/>
       <c r="K18" s="8"/>
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="108">
+    <row r="19" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="81">
         <v>3</v>
       </c>
-      <c r="B19" s="87">
+      <c r="B19" s="84">
         <v>41597</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="48">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="48">
         <v>0.4375</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="52">
         <v>2</v>
       </c>
-      <c r="F19" s="101">
+      <c r="F19" s="87">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="H19" s="50" t="s">
         <v>80</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
-      <c r="K19" s="109" t="s">
+      <c r="K19" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="110"/>
-      <c r="M19" s="111">
-        <f>SUM(E54:E58)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="112" t="s">
+      <c r="L19" s="54"/>
+      <c r="M19" s="55">
+        <f>SUM(E55:E59)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="113" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="108"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="49">
+    <row r="20" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="82"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="48">
         <v>0.5625</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="48">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="52">
         <v>1</v>
       </c>
-      <c r="F20" s="102"/>
-      <c r="G20" s="50" t="s">
+      <c r="F20" s="89"/>
+      <c r="G20" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="H20" s="51" t="s">
         <v>81</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="112"/>
-    </row>
-    <row r="21" spans="1:14" s="113" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="108"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="56"/>
+    </row>
+    <row r="21" spans="1:14" s="57" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="82"/>
       <c r="B21" s="17">
         <v>41598</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="48">
         <v>0.5625</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="48">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="52">
         <v>4</v>
       </c>
-      <c r="F21" s="53">
-        <f t="shared" ref="F21:F55" si="0">E21</f>
+      <c r="F21" s="52">
+        <f t="shared" ref="F21:F56" si="0">E21</f>
         <v>4</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="51" t="s">
         <v>82</v>
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
-      <c r="K21" s="109" t="s">
+      <c r="K21" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="110"/>
-      <c r="M21" s="111">
-        <f>SUM(E59:E63)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="112" t="s">
+      <c r="L21" s="54"/>
+      <c r="M21" s="55">
+        <f>SUM(E60:E64)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="108"/>
-      <c r="B22" s="87">
+    <row r="22" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="82"/>
+      <c r="B22" s="84">
         <v>41599</v>
       </c>
-      <c r="C22" s="114">
+      <c r="C22" s="48">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D22" s="114">
+      <c r="D22" s="48">
         <v>0.375</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="52">
         <v>1</v>
       </c>
-      <c r="F22" s="101">
+      <c r="F22" s="87">
         <f>SUM(E22:E27)</f>
         <v>10.850000000000001</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="51" t="s">
+      <c r="H22" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="51" t="s">
+      <c r="I22" s="50" t="s">
         <v>84</v>
       </c>
       <c r="J22" s="32"/>
-      <c r="K22" s="109" t="s">
+      <c r="K22" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="110"/>
-      <c r="M22" s="111">
-        <f>SUM(E64:E68)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="112" t="s">
+      <c r="L22" s="54"/>
+      <c r="M22" s="55">
+        <f>SUM(E65:E69)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="113" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="108"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="114">
+    <row r="23" spans="1:14" s="57" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="82"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="48">
         <v>0.375</v>
       </c>
-      <c r="D23" s="114">
+      <c r="D23" s="48">
         <v>0.4236111111111111</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="52">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F23" s="106"/>
+      <c r="F23" s="88"/>
       <c r="G23" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="51" t="s">
         <v>85</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="112"/>
-    </row>
-    <row r="24" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="108"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="114">
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="56"/>
+    </row>
+    <row r="24" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="82"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="58">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D24" s="114">
+      <c r="D24" s="58">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="52">
         <v>1.03</v>
       </c>
-      <c r="F24" s="106"/>
-      <c r="G24" s="50" t="s">
+      <c r="F24" s="88"/>
+      <c r="G24" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="50" t="s">
         <v>86</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="112"/>
-    </row>
-    <row r="25" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="108"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="114">
+      <c r="K24" s="53"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="56"/>
+    </row>
+    <row r="25" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="82"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="48">
         <v>0.5625</v>
       </c>
-      <c r="D25" s="114">
+      <c r="D25" s="48">
         <v>0.625</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="52">
         <v>1.5</v>
       </c>
-      <c r="F25" s="106"/>
+      <c r="F25" s="88"/>
       <c r="G25" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="H25" s="50" t="s">
         <v>87</v>
       </c>
       <c r="I25" s="32" t="s">
         <v>88</v>
       </c>
       <c r="J25" s="32"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="112"/>
-    </row>
-    <row r="26" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="108"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="114">
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="56"/>
+    </row>
+    <row r="26" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="82"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="48">
         <v>0.625</v>
       </c>
-      <c r="D26" s="114">
+      <c r="D26" s="48">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="52">
         <v>2.16</v>
       </c>
-      <c r="F26" s="106"/>
+      <c r="F26" s="88"/>
       <c r="G26" s="32" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="I26" s="124" t="s">
+        <v>93</v>
       </c>
       <c r="J26" s="32"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="112"/>
-    </row>
-    <row r="27" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="108"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="114">
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="56"/>
+    </row>
+    <row r="27" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="82"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="48">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D27" s="114">
+      <c r="D27" s="48">
         <v>0.99930555555555556</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="52">
         <v>4</v>
       </c>
-      <c r="F27" s="102"/>
+      <c r="F27" s="89"/>
       <c r="G27" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="51" t="s">
-        <v>91</v>
+      <c r="H27" s="50" t="s">
+        <v>89</v>
       </c>
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="112"/>
-    </row>
-    <row r="28" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="108"/>
-      <c r="B28" s="17">
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="56"/>
+    </row>
+    <row r="28" spans="1:14" s="57" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="82"/>
+      <c r="B28" s="84">
         <v>41600</v>
       </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53">
+      <c r="C28" s="48">
+        <v>0.5625</v>
+      </c>
+      <c r="D28" s="48">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E28" s="52">
+        <v>1.25</v>
+      </c>
+      <c r="F28" s="87">
+        <f>SUM(E28:E29)</f>
+        <v>2.25</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="32"/>
+      <c r="K28" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" s="54"/>
+      <c r="M28" s="55">
+        <f>SUM(E70:E74)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="83"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="48">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D29" s="48">
+        <v>0.6875</v>
+      </c>
+      <c r="E29" s="52">
+        <v>1</v>
+      </c>
+      <c r="F29" s="89"/>
+      <c r="G29" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="32"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="56"/>
+    </row>
+    <row r="30" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="78">
+        <v>4</v>
+      </c>
+      <c r="B30" s="23">
+        <v>41603</v>
+      </c>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28" s="110"/>
-      <c r="M28" s="111">
-        <f>SUM(E69:E73)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="112" t="s">
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="54"/>
+      <c r="M30" s="55">
+        <f>SUM(E75:E79)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="116">
-        <v>4</v>
-      </c>
-      <c r="B29" s="23">
-        <v>41603</v>
-      </c>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123">
+    <row r="31" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="79"/>
+      <c r="B31" s="23">
+        <v>41604</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="L29" s="110"/>
-      <c r="M29" s="111">
-        <f>SUM(E74:E78)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="112" t="s">
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="54"/>
+      <c r="M31" s="55">
+        <f>SUM(E80:E84)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="118"/>
-      <c r="B30" s="23">
-        <v>41604</v>
-      </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123">
+    <row r="32" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="79"/>
+      <c r="B32" s="23">
+        <v>41605</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="109" t="s">
-        <v>39</v>
-      </c>
-      <c r="L30" s="110"/>
-      <c r="M30" s="111">
-        <f>SUM(E79:E83)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="112" t="s">
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="54"/>
+      <c r="M32" s="55">
+        <f>SUM(E85:E89)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="118"/>
-      <c r="B31" s="23">
-        <v>41605</v>
-      </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123">
+    <row r="33" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="79"/>
+      <c r="B33" s="23">
+        <v>41606</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="109" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="110"/>
-      <c r="M31" s="111">
-        <f>SUM(E84:E88)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="112" t="s">
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="54"/>
+      <c r="M33" s="55">
+        <f>SUM(E90:E94)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="118"/>
-      <c r="B32" s="23">
-        <v>41606</v>
-      </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123">
+    <row r="34" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="80"/>
+      <c r="B34" s="23">
+        <v>41607</v>
+      </c>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" s="110"/>
-      <c r="M32" s="111">
-        <f>SUM(E89:E93)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="112" t="s">
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="54"/>
+      <c r="M34" s="55">
+        <f>SUM(E95:E99)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="119"/>
-      <c r="B33" s="23">
-        <v>41607</v>
-      </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="110"/>
-      <c r="M33" s="111">
-        <f>SUM(E94:E98)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="112" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="120">
+    <row r="35" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="81">
         <v>5</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B35" s="17">
         <v>41610</v>
       </c>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="109" t="s">
-        <v>43</v>
-      </c>
-      <c r="L34" s="110"/>
-      <c r="M34" s="111">
-        <f>SUM(E99:E103)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="112" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="121"/>
-      <c r="B35" s="17">
-        <v>41611</v>
-      </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53">
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2529,27 +2515,27 @@
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
-      <c r="K35" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" s="110"/>
-      <c r="M35" s="111">
-        <f>SUM(E104:E108)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="112" t="s">
+      <c r="K35" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="54"/>
+      <c r="M35" s="55">
+        <f>SUM(E100:E104)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="121"/>
+    <row r="36" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="82"/>
       <c r="B36" s="17">
-        <v>41612</v>
-      </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53">
+        <v>41611</v>
+      </c>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2557,27 +2543,27 @@
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
       <c r="J36" s="32"/>
-      <c r="K36" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="L36" s="110"/>
-      <c r="M36" s="111">
-        <f>SUM(E109:E113)</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="112" t="s">
+      <c r="K36" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="54"/>
+      <c r="M36" s="55">
+        <f>SUM(E105:E109)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="121"/>
+    <row r="37" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="82"/>
       <c r="B37" s="17">
-        <v>41613</v>
-      </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53">
+        <v>41612</v>
+      </c>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2585,27 +2571,27 @@
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
-      <c r="K37" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="L37" s="110"/>
-      <c r="M37" s="111">
-        <f>SUM(E114:E118)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="112" t="s">
+      <c r="K37" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="54"/>
+      <c r="M37" s="55">
+        <f>SUM(E110:E114)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="113" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="122"/>
+    <row r="38" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="82"/>
       <c r="B38" s="17">
-        <v>41614</v>
-      </c>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53">
+        <v>41613</v>
+      </c>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2613,70 +2599,70 @@
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
-      <c r="K38" s="109" t="s">
+      <c r="K38" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" s="54"/>
+      <c r="M38" s="55">
+        <f>SUM(E115:E119)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="83"/>
+      <c r="B39" s="17">
+        <v>41614</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="L38" s="110"/>
-      <c r="M38" s="111">
-        <f>SUM(E119:E123)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="112" t="s">
+      <c r="L39" s="54"/>
+      <c r="M39" s="55">
+        <f>SUM(E120:E124)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="70">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="68">
         <v>6</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B40" s="29">
         <v>41617</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="123">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="10">
-        <f>SUM(E124:E128)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="29">
-        <v>41618</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="123">
+      <c r="E40" s="62"/>
+      <c r="F40" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E129:E133)</f>
+        <f>SUM(E125:E129)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2684,27 +2670,27 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="29">
-        <v>41619</v>
+        <v>41618</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="123">
+      <c r="E41" s="62"/>
+      <c r="F41" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
       <c r="K41" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E134:E138)</f>
+        <f>SUM(E130:E134)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2712,27 +2698,27 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="29">
-        <v>41620</v>
+        <v>41619</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="123">
+      <c r="E42" s="62"/>
+      <c r="F42" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
       <c r="K42" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="10">
-        <f>SUM(E139:E143)</f>
+        <f>SUM(E135:E139)</f>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -2740,27 +2726,27 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="72"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="29">
-        <v>41621</v>
+        <v>41620</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="123">
+      <c r="E43" s="62"/>
+      <c r="F43" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
       <c r="K43" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="10">
-        <f>SUM(E144:E148)</f>
+        <f>SUM(E140:E144)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -2768,16 +2754,14 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="96">
-        <v>7</v>
-      </c>
-      <c r="B44" s="28">
-        <v>41624</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="53">
+      <c r="A44" s="70"/>
+      <c r="B44" s="29">
+        <v>41621</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2786,11 +2770,11 @@
       <c r="I44" s="42"/>
       <c r="J44" s="42"/>
       <c r="K44" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="10">
-        <f>SUM(E149:E153)</f>
+        <f>SUM(E145:E149)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -2798,27 +2782,29 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="97"/>
+      <c r="A45" s="71">
+        <v>7</v>
+      </c>
       <c r="B45" s="28">
-        <v>41625</v>
+        <v>41624</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="53">
+      <c r="E45" s="63"/>
+      <c r="F45" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
       <c r="K45" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="10">
-        <f>SUM(E154:E158)</f>
+        <f>SUM(E150:E154)</f>
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -2826,27 +2812,27 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="97"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="28">
-        <v>41626</v>
+        <v>41625</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="53">
+      <c r="E46" s="63"/>
+      <c r="F46" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
       <c r="K46" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="10">
-        <f>SUM(E159:E163)</f>
+        <f>SUM(E155:E159)</f>
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
@@ -2854,137 +2840,146 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="97"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="28">
-        <v>41627</v>
+        <v>41626</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="53">
+      <c r="E47" s="63"/>
+      <c r="F47" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L47" s="6"/>
+      <c r="M47" s="10">
+        <f>SUM(E160:E164)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="98"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="28">
-        <v>41628</v>
+        <v>41627</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="53">
+      <c r="E48" s="63"/>
+      <c r="F48" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="70">
+      <c r="A49" s="73"/>
+      <c r="B49" s="28">
+        <v>41628</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="68">
         <v>8</v>
       </c>
-      <c r="B49" s="29">
+      <c r="B50" s="29">
         <v>41631</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="123">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
-      <c r="B50" s="29">
-        <v>41632</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="123">
+      <c r="E50" s="62"/>
+      <c r="F50" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="29">
-        <v>41633</v>
+        <v>41632</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="123">
+      <c r="E51" s="62"/>
+      <c r="F51" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
+      <c r="A52" s="69"/>
       <c r="B52" s="29">
-        <v>41634</v>
+        <v>41633</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="123">
+      <c r="E52" s="62"/>
+      <c r="F52" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
+      <c r="A53" s="69"/>
       <c r="B53" s="29">
-        <v>41635</v>
+        <v>41634</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="123">
+      <c r="E53" s="62"/>
+      <c r="F53" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="96">
-        <v>9</v>
-      </c>
-      <c r="B54" s="28">
-        <v>41638</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="53">
+      <c r="A54" s="70"/>
+      <c r="B54" s="29">
+        <v>41635</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2994,171 +2989,171 @@
       <c r="J54" s="42"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="97"/>
+      <c r="A55" s="71">
+        <v>9</v>
+      </c>
       <c r="B55" s="28">
-        <v>41639</v>
+        <v>41638</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="53">
+      <c r="E55" s="63"/>
+      <c r="F55" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="97"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="28">
-        <v>41640</v>
+        <v>41639</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="53">
-        <f t="shared" ref="F56:F87" si="1">E56</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="97"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="28">
-        <v>41641</v>
+        <v>41640</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="125"/>
-      <c r="F57" s="53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="52">
+        <f t="shared" ref="F57:F88" si="1">E57</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="98"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="28">
-        <v>41642</v>
+        <v>41641</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="53">
+      <c r="E58" s="63"/>
+      <c r="F58" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="70">
+      <c r="A59" s="73"/>
+      <c r="B59" s="28">
+        <v>41642</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="68">
         <v>10</v>
       </c>
-      <c r="B59" s="29">
+      <c r="B60" s="29">
         <v>41645</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
-      <c r="B60" s="29">
-        <v>41646</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="124"/>
-      <c r="F60" s="123">
+      <c r="E60" s="62"/>
+      <c r="F60" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
+      <c r="A61" s="69"/>
       <c r="B61" s="29">
-        <v>41647</v>
+        <v>41646</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="123">
+      <c r="E61" s="62"/>
+      <c r="F61" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
+      <c r="A62" s="69"/>
       <c r="B62" s="29">
-        <v>41648</v>
+        <v>41647</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="123">
+      <c r="E62" s="62"/>
+      <c r="F62" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="72"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="29">
-        <v>41649</v>
+        <v>41648</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="123">
+      <c r="E63" s="62"/>
+      <c r="F63" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="96">
-        <v>11</v>
-      </c>
-      <c r="B64" s="28">
-        <v>41652</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="53">
+      <c r="A64" s="70"/>
+      <c r="B64" s="29">
+        <v>41649</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3168,539 +3163,539 @@
       <c r="J64" s="42"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="97"/>
+      <c r="A65" s="71">
+        <v>11</v>
+      </c>
       <c r="B65" s="28">
-        <v>41653</v>
+        <v>41652</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="53">
+      <c r="E65" s="63"/>
+      <c r="F65" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="97"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="28">
-        <v>41654</v>
+        <v>41653</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="53">
+      <c r="E66" s="63"/>
+      <c r="F66" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="97"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="28">
-        <v>41655</v>
+        <v>41654</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="125"/>
-      <c r="F67" s="53">
+      <c r="E67" s="63"/>
+      <c r="F67" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="98"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="28">
-        <v>41656</v>
+        <v>41655</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="125"/>
-      <c r="F68" s="53">
+      <c r="E68" s="63"/>
+      <c r="F68" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="70">
+      <c r="A69" s="73"/>
+      <c r="B69" s="28">
+        <v>41656</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="68">
         <v>12</v>
       </c>
-      <c r="B69" s="29">
+      <c r="B70" s="29">
         <v>41659</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="124"/>
-      <c r="F69" s="123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="29">
-        <v>41660</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="123">
+      <c r="E70" s="62"/>
+      <c r="F70" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="29">
-        <v>41661</v>
+        <v>41660</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="124"/>
-      <c r="F71" s="123">
+      <c r="E71" s="62"/>
+      <c r="F71" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="29">
-        <v>41662</v>
+        <v>41661</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="124"/>
-      <c r="F72" s="123">
+      <c r="E72" s="62"/>
+      <c r="F72" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="72"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="29">
-        <v>41663</v>
+        <v>41662</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="123">
+      <c r="E73" s="62"/>
+      <c r="F73" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="96">
-        <v>13</v>
-      </c>
-      <c r="B74" s="28">
-        <v>41666</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="125"/>
-      <c r="F74" s="53">
+      <c r="A74" s="70"/>
+      <c r="B74" s="29">
+        <v>41663</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G74" s="42" t="s">
-        <v>35</v>
-      </c>
+      <c r="G74" s="42"/>
       <c r="H74" s="42"/>
       <c r="I74" s="42"/>
       <c r="J74" s="42"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="97"/>
+      <c r="A75" s="71">
+        <v>13</v>
+      </c>
       <c r="B75" s="28">
-        <v>41667</v>
+        <v>41666</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="125"/>
-      <c r="F75" s="53">
+      <c r="E75" s="63"/>
+      <c r="F75" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G75" s="42" t="s">
+      <c r="G75" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="97"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="28">
-        <v>41668</v>
+        <v>41667</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="125"/>
-      <c r="F76" s="53">
+      <c r="E76" s="63"/>
+      <c r="F76" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G76" s="42" t="s">
+      <c r="G76" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="97"/>
+      <c r="A77" s="72"/>
       <c r="B77" s="28">
-        <v>41669</v>
+        <v>41668</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="125"/>
-      <c r="F77" s="53">
+      <c r="E77" s="63"/>
+      <c r="F77" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G77" s="42" t="s">
+      <c r="G77" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="98"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="28">
-        <v>41670</v>
+        <v>41669</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="125"/>
-      <c r="F78" s="53">
+      <c r="E78" s="63"/>
+      <c r="F78" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G78" s="42" t="s">
+      <c r="G78" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="70">
+      <c r="A79" s="73"/>
+      <c r="B79" s="28">
+        <v>41670</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="68">
         <v>14</v>
       </c>
-      <c r="B79" s="29">
+      <c r="B80" s="29">
         <v>41673</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="124"/>
-      <c r="F79" s="123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
-      <c r="J79" s="43"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
-      <c r="B80" s="29">
-        <v>41674</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="124"/>
-      <c r="F80" s="123">
+      <c r="E80" s="62"/>
+      <c r="F80" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G80" s="44" t="s">
+      <c r="G80" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="29">
-        <v>41675</v>
+        <v>41674</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="124"/>
-      <c r="F81" s="123">
+      <c r="E81" s="62"/>
+      <c r="F81" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G81" s="44" t="s">
+      <c r="G81" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="43"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
+      <c r="A82" s="69"/>
       <c r="B82" s="29">
-        <v>41676</v>
+        <v>41675</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="124"/>
-      <c r="F82" s="123">
+      <c r="E82" s="62"/>
+      <c r="F82" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G82" s="44" t="s">
+      <c r="G82" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="72"/>
+      <c r="A83" s="69"/>
       <c r="B83" s="29">
-        <v>41677</v>
+        <v>41676</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="124"/>
-      <c r="F83" s="123">
+      <c r="E83" s="62"/>
+      <c r="F83" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G83" s="44" t="s">
+      <c r="G83" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="43"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="96">
-        <v>15</v>
-      </c>
-      <c r="B84" s="28">
-        <v>41680</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="125"/>
-      <c r="F84" s="53">
+      <c r="A84" s="70"/>
+      <c r="B84" s="29">
+        <v>41677</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G84" s="42"/>
+      <c r="G84" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="H84" s="42"/>
       <c r="I84" s="42"/>
       <c r="J84" s="42"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="97"/>
+      <c r="A85" s="71">
+        <v>15</v>
+      </c>
       <c r="B85" s="28">
-        <v>41681</v>
+        <v>41680</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="125"/>
-      <c r="F85" s="53">
+      <c r="E85" s="63"/>
+      <c r="F85" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="97"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="28">
-        <v>41682</v>
+        <v>41681</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="125"/>
-      <c r="F86" s="53">
+      <c r="E86" s="63"/>
+      <c r="F86" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G86" s="42"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="42"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="97"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="28">
-        <v>41683</v>
+        <v>41682</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="125"/>
-      <c r="F87" s="53">
+      <c r="E87" s="63"/>
+      <c r="F87" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G87" s="42"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="42"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="98"/>
+      <c r="A88" s="72"/>
       <c r="B88" s="28">
-        <v>41684</v>
+        <v>41683</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="125"/>
-      <c r="F88" s="53">
-        <f t="shared" ref="F88:F119" si="2">E88</f>
-        <v>0</v>
-      </c>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="70">
+      <c r="A89" s="73"/>
+      <c r="B89" s="28">
+        <v>41684</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="52">
+        <f t="shared" ref="F89:F120" si="2">E89</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="68">
         <v>16</v>
       </c>
-      <c r="B89" s="29">
+      <c r="B90" s="29">
         <v>41687</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="124"/>
-      <c r="F89" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
-      <c r="J89" s="43"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="71"/>
-      <c r="B90" s="29">
-        <v>41688</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="124"/>
-      <c r="F90" s="123">
+      <c r="E90" s="62"/>
+      <c r="F90" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="71"/>
+      <c r="A91" s="69"/>
       <c r="B91" s="29">
-        <v>41689</v>
+        <v>41688</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="124"/>
-      <c r="F91" s="123">
+      <c r="E91" s="62"/>
+      <c r="F91" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="71"/>
+      <c r="A92" s="69"/>
       <c r="B92" s="29">
-        <v>41690</v>
+        <v>41689</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="124"/>
-      <c r="F92" s="123">
+      <c r="E92" s="62"/>
+      <c r="F92" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="72"/>
+      <c r="A93" s="69"/>
       <c r="B93" s="29">
-        <v>41691</v>
+        <v>41690</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="124"/>
-      <c r="F93" s="123">
+      <c r="E93" s="62"/>
+      <c r="F93" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="43"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="96">
-        <v>17</v>
-      </c>
-      <c r="B94" s="28">
-        <v>41694</v>
-      </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="125"/>
-      <c r="F94" s="53">
+      <c r="A94" s="70"/>
+      <c r="B94" s="29">
+        <v>41691</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3710,171 +3705,171 @@
       <c r="J94" s="42"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="97"/>
+      <c r="A95" s="71">
+        <v>17</v>
+      </c>
       <c r="B95" s="28">
-        <v>41695</v>
+        <v>41694</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
-      <c r="E95" s="125"/>
-      <c r="F95" s="53">
+      <c r="E95" s="63"/>
+      <c r="F95" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G95" s="42"/>
-      <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="97"/>
+      <c r="A96" s="72"/>
       <c r="B96" s="28">
-        <v>41696</v>
+        <v>41695</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="125"/>
-      <c r="F96" s="53">
+      <c r="E96" s="63"/>
+      <c r="F96" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="97"/>
+      <c r="A97" s="72"/>
       <c r="B97" s="28">
-        <v>41697</v>
+        <v>41696</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="125"/>
-      <c r="F97" s="53">
+      <c r="E97" s="63"/>
+      <c r="F97" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="42"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="98"/>
+      <c r="A98" s="72"/>
       <c r="B98" s="28">
-        <v>41698</v>
+        <v>41697</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="125"/>
-      <c r="F98" s="53">
+      <c r="E98" s="63"/>
+      <c r="F98" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="42"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="70">
+      <c r="A99" s="73"/>
+      <c r="B99" s="28">
+        <v>41698</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="68">
         <v>18</v>
       </c>
-      <c r="B99" s="29">
+      <c r="B100" s="29">
         <v>41701</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="124"/>
-      <c r="F99" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="71"/>
-      <c r="B100" s="29">
-        <v>41702</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="124"/>
-      <c r="F100" s="123">
+      <c r="E100" s="62"/>
+      <c r="F100" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G100" s="43"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="43"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="71"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="29">
-        <v>41703</v>
+        <v>41702</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="124"/>
-      <c r="F101" s="123">
+      <c r="E101" s="62"/>
+      <c r="F101" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="43"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="71"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="29">
-        <v>41704</v>
+        <v>41703</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="124"/>
-      <c r="F102" s="123">
+      <c r="E102" s="62"/>
+      <c r="F102" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="43"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="72"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="29">
-        <v>41705</v>
+        <v>41704</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="124"/>
-      <c r="F103" s="123">
+      <c r="E103" s="62"/>
+      <c r="F103" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G103" s="43"/>
-      <c r="H103" s="43"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="43"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="96">
-        <v>19</v>
-      </c>
-      <c r="B104" s="28">
-        <v>41708</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="125"/>
-      <c r="F104" s="53">
+      <c r="A104" s="70"/>
+      <c r="B104" s="29">
+        <v>41705</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="62"/>
+      <c r="F104" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3884,171 +3879,171 @@
       <c r="J104" s="42"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="97"/>
+      <c r="A105" s="71">
+        <v>19</v>
+      </c>
       <c r="B105" s="28">
-        <v>41709</v>
+        <v>41708</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
-      <c r="E105" s="125"/>
-      <c r="F105" s="53">
+      <c r="E105" s="63"/>
+      <c r="F105" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G105" s="42"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="42"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="97"/>
+      <c r="A106" s="72"/>
       <c r="B106" s="28">
-        <v>41710</v>
+        <v>41709</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="125"/>
-      <c r="F106" s="53">
+      <c r="E106" s="63"/>
+      <c r="F106" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="42"/>
-      <c r="J106" s="42"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="97"/>
+      <c r="A107" s="72"/>
       <c r="B107" s="28">
-        <v>41711</v>
+        <v>41710</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
-      <c r="E107" s="125"/>
-      <c r="F107" s="53">
+      <c r="E107" s="63"/>
+      <c r="F107" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G107" s="42"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="42"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="98"/>
+      <c r="A108" s="72"/>
       <c r="B108" s="28">
-        <v>41712</v>
+        <v>41711</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
-      <c r="E108" s="125"/>
-      <c r="F108" s="53">
+      <c r="E108" s="63"/>
+      <c r="F108" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="42"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="70">
+      <c r="A109" s="73"/>
+      <c r="B109" s="28">
+        <v>41712</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="68">
         <v>20</v>
       </c>
-      <c r="B109" s="29">
+      <c r="B110" s="29">
         <v>41715</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="124"/>
-      <c r="F109" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G109" s="43"/>
-      <c r="H109" s="43"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="43"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="71"/>
-      <c r="B110" s="29">
-        <v>41716</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="124"/>
-      <c r="F110" s="123">
+      <c r="E110" s="62"/>
+      <c r="F110" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="43"/>
-      <c r="J110" s="43"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="71"/>
+      <c r="A111" s="69"/>
       <c r="B111" s="29">
-        <v>41717</v>
+        <v>41716</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
-      <c r="E111" s="124"/>
-      <c r="F111" s="123">
+      <c r="E111" s="62"/>
+      <c r="F111" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G111" s="43"/>
-      <c r="H111" s="43"/>
-      <c r="I111" s="43"/>
-      <c r="J111" s="43"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="71"/>
+      <c r="A112" s="69"/>
       <c r="B112" s="29">
-        <v>41718</v>
+        <v>41717</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
-      <c r="E112" s="124"/>
-      <c r="F112" s="123">
+      <c r="E112" s="62"/>
+      <c r="F112" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G112" s="43"/>
-      <c r="H112" s="43"/>
-      <c r="I112" s="43"/>
-      <c r="J112" s="43"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="42"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="72"/>
+      <c r="A113" s="69"/>
       <c r="B113" s="29">
-        <v>41719</v>
+        <v>41718</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
-      <c r="E113" s="124"/>
-      <c r="F113" s="123">
+      <c r="E113" s="62"/>
+      <c r="F113" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G113" s="43"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="43"/>
-      <c r="J113" s="43"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="42"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="96">
-        <v>21</v>
-      </c>
-      <c r="B114" s="28">
-        <v>41722</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="125"/>
-      <c r="F114" s="53">
+      <c r="A114" s="70"/>
+      <c r="B114" s="29">
+        <v>41719</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="62"/>
+      <c r="F114" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4058,171 +4053,171 @@
       <c r="J114" s="42"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="97"/>
+      <c r="A115" s="71">
+        <v>21</v>
+      </c>
       <c r="B115" s="28">
-        <v>41723</v>
+        <v>41722</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
-      <c r="E115" s="125"/>
-      <c r="F115" s="53">
+      <c r="E115" s="63"/>
+      <c r="F115" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G115" s="42"/>
-      <c r="H115" s="42"/>
-      <c r="I115" s="42"/>
-      <c r="J115" s="42"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="41"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="97"/>
+      <c r="A116" s="72"/>
       <c r="B116" s="28">
-        <v>41724</v>
+        <v>41723</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="125"/>
-      <c r="F116" s="53">
+      <c r="E116" s="63"/>
+      <c r="F116" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="42"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="41"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="97"/>
+      <c r="A117" s="72"/>
       <c r="B117" s="28">
-        <v>41725</v>
+        <v>41724</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
-      <c r="E117" s="125"/>
-      <c r="F117" s="53">
+      <c r="E117" s="63"/>
+      <c r="F117" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G117" s="42"/>
-      <c r="H117" s="42"/>
-      <c r="I117" s="42"/>
-      <c r="J117" s="42"/>
+      <c r="G117" s="41"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="41"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="98"/>
+      <c r="A118" s="72"/>
       <c r="B118" s="28">
-        <v>41726</v>
+        <v>41725</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
-      <c r="E118" s="125"/>
-      <c r="F118" s="53">
+      <c r="E118" s="63"/>
+      <c r="F118" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G118" s="42"/>
-      <c r="H118" s="42"/>
-      <c r="I118" s="42"/>
-      <c r="J118" s="42"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="41"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="70">
+      <c r="A119" s="73"/>
+      <c r="B119" s="28">
+        <v>41726</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="63"/>
+      <c r="F119" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="41"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="41"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="68">
         <v>22</v>
       </c>
-      <c r="B119" s="29">
+      <c r="B120" s="29">
         <v>41729</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="124"/>
-      <c r="F119" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="43"/>
-      <c r="H119" s="43"/>
-      <c r="I119" s="43"/>
-      <c r="J119" s="43"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="71"/>
-      <c r="B120" s="29">
-        <v>41730</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
-      <c r="E120" s="124"/>
-      <c r="F120" s="123">
-        <f t="shared" ref="F120:F151" si="3">E120</f>
-        <v>0</v>
-      </c>
-      <c r="G120" s="43"/>
-      <c r="H120" s="43"/>
-      <c r="I120" s="43"/>
-      <c r="J120" s="43"/>
+      <c r="E120" s="62"/>
+      <c r="F120" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="42"/>
+      <c r="H120" s="42"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="71"/>
+      <c r="A121" s="69"/>
       <c r="B121" s="29">
-        <v>41731</v>
+        <v>41730</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="124"/>
-      <c r="F121" s="123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G121" s="43"/>
-      <c r="H121" s="43"/>
-      <c r="I121" s="43"/>
-      <c r="J121" s="43"/>
+      <c r="E121" s="62"/>
+      <c r="F121" s="61">
+        <f t="shared" ref="F121:F152" si="3">E121</f>
+        <v>0</v>
+      </c>
+      <c r="G121" s="42"/>
+      <c r="H121" s="42"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="42"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="71"/>
+      <c r="A122" s="69"/>
       <c r="B122" s="29">
-        <v>41732</v>
+        <v>41731</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="124"/>
-      <c r="F122" s="123">
+      <c r="E122" s="62"/>
+      <c r="F122" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G122" s="43"/>
-      <c r="H122" s="43"/>
-      <c r="I122" s="43"/>
-      <c r="J122" s="43"/>
+      <c r="G122" s="42"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="42"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="72"/>
+      <c r="A123" s="69"/>
       <c r="B123" s="29">
-        <v>41733</v>
+        <v>41732</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
-      <c r="E123" s="124"/>
-      <c r="F123" s="123">
+      <c r="E123" s="62"/>
+      <c r="F123" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G123" s="43"/>
-      <c r="H123" s="43"/>
-      <c r="I123" s="43"/>
-      <c r="J123" s="43"/>
+      <c r="G123" s="42"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="96">
-        <v>23</v>
-      </c>
-      <c r="B124" s="28">
-        <v>41736</v>
-      </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="125"/>
-      <c r="F124" s="53">
+      <c r="A124" s="70"/>
+      <c r="B124" s="29">
+        <v>41733</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="62"/>
+      <c r="F124" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4232,171 +4227,171 @@
       <c r="J124" s="42"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="97"/>
+      <c r="A125" s="71">
+        <v>23</v>
+      </c>
       <c r="B125" s="28">
-        <v>41737</v>
+        <v>41736</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
-      <c r="E125" s="125"/>
-      <c r="F125" s="53">
+      <c r="E125" s="63"/>
+      <c r="F125" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G125" s="42"/>
-      <c r="H125" s="42"/>
-      <c r="I125" s="42"/>
-      <c r="J125" s="42"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="41"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="97"/>
+      <c r="A126" s="72"/>
       <c r="B126" s="28">
-        <v>41738</v>
+        <v>41737</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
-      <c r="E126" s="125"/>
-      <c r="F126" s="53">
+      <c r="E126" s="63"/>
+      <c r="F126" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G126" s="42"/>
-      <c r="H126" s="42"/>
-      <c r="I126" s="42"/>
-      <c r="J126" s="42"/>
+      <c r="G126" s="41"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="41"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="97"/>
+      <c r="A127" s="72"/>
       <c r="B127" s="28">
-        <v>41739</v>
+        <v>41738</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
-      <c r="E127" s="125"/>
-      <c r="F127" s="53">
+      <c r="E127" s="63"/>
+      <c r="F127" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G127" s="42"/>
-      <c r="H127" s="42"/>
-      <c r="I127" s="42"/>
-      <c r="J127" s="42"/>
+      <c r="G127" s="41"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="41"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="98"/>
+      <c r="A128" s="72"/>
       <c r="B128" s="28">
-        <v>41740</v>
+        <v>41739</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
-      <c r="E128" s="125"/>
-      <c r="F128" s="53">
+      <c r="E128" s="63"/>
+      <c r="F128" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G128" s="42"/>
-      <c r="H128" s="42"/>
-      <c r="I128" s="42"/>
-      <c r="J128" s="42"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="41"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="70">
+      <c r="A129" s="73"/>
+      <c r="B129" s="28">
+        <v>41740</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="63"/>
+      <c r="F129" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="41"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="68">
         <v>24</v>
       </c>
-      <c r="B129" s="29">
+      <c r="B130" s="29">
         <v>41743</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="124"/>
-      <c r="F129" s="123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G129" s="43"/>
-      <c r="H129" s="43"/>
-      <c r="I129" s="43"/>
-      <c r="J129" s="43"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="71"/>
-      <c r="B130" s="29">
-        <v>41744</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="124"/>
-      <c r="F130" s="123">
+      <c r="E130" s="62"/>
+      <c r="F130" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G130" s="43"/>
-      <c r="H130" s="43"/>
-      <c r="I130" s="43"/>
-      <c r="J130" s="43"/>
+      <c r="G130" s="42"/>
+      <c r="H130" s="42"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="71"/>
+      <c r="A131" s="69"/>
       <c r="B131" s="29">
-        <v>41745</v>
+        <v>41744</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
-      <c r="E131" s="124"/>
-      <c r="F131" s="123">
+      <c r="E131" s="62"/>
+      <c r="F131" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G131" s="43"/>
-      <c r="H131" s="43"/>
-      <c r="I131" s="43"/>
-      <c r="J131" s="43"/>
+      <c r="G131" s="42"/>
+      <c r="H131" s="42"/>
+      <c r="I131" s="42"/>
+      <c r="J131" s="42"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="71"/>
+      <c r="A132" s="69"/>
       <c r="B132" s="29">
-        <v>41746</v>
+        <v>41745</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
-      <c r="E132" s="124"/>
-      <c r="F132" s="123">
+      <c r="E132" s="62"/>
+      <c r="F132" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G132" s="43"/>
-      <c r="H132" s="43"/>
-      <c r="I132" s="43"/>
-      <c r="J132" s="43"/>
+      <c r="G132" s="42"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="42"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="72"/>
+      <c r="A133" s="69"/>
       <c r="B133" s="29">
-        <v>41747</v>
+        <v>41746</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
-      <c r="E133" s="124"/>
-      <c r="F133" s="123">
+      <c r="E133" s="62"/>
+      <c r="F133" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G133" s="43"/>
-      <c r="H133" s="43"/>
-      <c r="I133" s="43"/>
-      <c r="J133" s="43"/>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="96">
-        <v>25</v>
-      </c>
-      <c r="B134" s="28">
-        <v>41750</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="125"/>
-      <c r="F134" s="53">
+      <c r="A134" s="70"/>
+      <c r="B134" s="29">
+        <v>41747</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="62"/>
+      <c r="F134" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4406,171 +4401,171 @@
       <c r="J134" s="42"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="97"/>
+      <c r="A135" s="71">
+        <v>25</v>
+      </c>
       <c r="B135" s="28">
-        <v>41751</v>
+        <v>41750</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
-      <c r="E135" s="125"/>
-      <c r="F135" s="53">
+      <c r="E135" s="63"/>
+      <c r="F135" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G135" s="42"/>
-      <c r="H135" s="42"/>
-      <c r="I135" s="42"/>
-      <c r="J135" s="42"/>
+      <c r="G135" s="41"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="97"/>
+      <c r="A136" s="72"/>
       <c r="B136" s="28">
-        <v>41752</v>
+        <v>41751</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
-      <c r="E136" s="125"/>
-      <c r="F136" s="53">
+      <c r="E136" s="63"/>
+      <c r="F136" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G136" s="42"/>
-      <c r="H136" s="42"/>
-      <c r="I136" s="42"/>
-      <c r="J136" s="42"/>
+      <c r="G136" s="41"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="41"/>
+      <c r="J136" s="41"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="97"/>
+      <c r="A137" s="72"/>
       <c r="B137" s="28">
-        <v>41753</v>
+        <v>41752</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
-      <c r="E137" s="125"/>
-      <c r="F137" s="53">
+      <c r="E137" s="63"/>
+      <c r="F137" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G137" s="42"/>
-      <c r="H137" s="42"/>
-      <c r="I137" s="42"/>
-      <c r="J137" s="42"/>
+      <c r="G137" s="41"/>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+      <c r="J137" s="41"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="98"/>
+      <c r="A138" s="72"/>
       <c r="B138" s="28">
-        <v>41754</v>
+        <v>41753</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
-      <c r="E138" s="125"/>
-      <c r="F138" s="53">
+      <c r="E138" s="63"/>
+      <c r="F138" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G138" s="42"/>
-      <c r="H138" s="42"/>
-      <c r="I138" s="42"/>
-      <c r="J138" s="42"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="41"/>
+      <c r="I138" s="41"/>
+      <c r="J138" s="41"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="70">
+      <c r="A139" s="73"/>
+      <c r="B139" s="28">
+        <v>41754</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="63"/>
+      <c r="F139" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G139" s="41"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="41"/>
+      <c r="J139" s="41"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="68">
         <v>26</v>
       </c>
-      <c r="B139" s="29">
+      <c r="B140" s="29">
         <v>41757</v>
-      </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="124"/>
-      <c r="F139" s="123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G139" s="43"/>
-      <c r="H139" s="43"/>
-      <c r="I139" s="43"/>
-      <c r="J139" s="43"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="71"/>
-      <c r="B140" s="29">
-        <v>41758</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
-      <c r="E140" s="124"/>
-      <c r="F140" s="123">
+      <c r="E140" s="62"/>
+      <c r="F140" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G140" s="43"/>
-      <c r="H140" s="43"/>
-      <c r="I140" s="43"/>
-      <c r="J140" s="43"/>
+      <c r="G140" s="42"/>
+      <c r="H140" s="42"/>
+      <c r="I140" s="42"/>
+      <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="71"/>
+      <c r="A141" s="69"/>
       <c r="B141" s="29">
-        <v>41759</v>
+        <v>41758</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="124"/>
-      <c r="F141" s="123">
+      <c r="E141" s="62"/>
+      <c r="F141" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G141" s="43"/>
-      <c r="H141" s="43"/>
-      <c r="I141" s="43"/>
-      <c r="J141" s="43"/>
+      <c r="G141" s="42"/>
+      <c r="H141" s="42"/>
+      <c r="I141" s="42"/>
+      <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="71"/>
+      <c r="A142" s="69"/>
       <c r="B142" s="29">
-        <v>41760</v>
+        <v>41759</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="124"/>
-      <c r="F142" s="123">
+      <c r="E142" s="62"/>
+      <c r="F142" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G142" s="43"/>
-      <c r="H142" s="43"/>
-      <c r="I142" s="43"/>
-      <c r="J142" s="43"/>
+      <c r="G142" s="42"/>
+      <c r="H142" s="42"/>
+      <c r="I142" s="42"/>
+      <c r="J142" s="42"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="72"/>
+      <c r="A143" s="69"/>
       <c r="B143" s="29">
-        <v>41761</v>
+        <v>41760</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="124"/>
-      <c r="F143" s="123">
+      <c r="E143" s="62"/>
+      <c r="F143" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G143" s="43"/>
-      <c r="H143" s="43"/>
-      <c r="I143" s="43"/>
-      <c r="J143" s="43"/>
+      <c r="G143" s="42"/>
+      <c r="H143" s="42"/>
+      <c r="I143" s="42"/>
+      <c r="J143" s="42"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="96">
-        <v>27</v>
-      </c>
-      <c r="B144" s="28">
-        <v>41764</v>
-      </c>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="125"/>
-      <c r="F144" s="53">
+      <c r="A144" s="70"/>
+      <c r="B144" s="29">
+        <v>41761</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="62"/>
+      <c r="F144" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4580,171 +4575,171 @@
       <c r="J144" s="42"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="97"/>
+      <c r="A145" s="71">
+        <v>27</v>
+      </c>
       <c r="B145" s="28">
-        <v>41765</v>
+        <v>41764</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
-      <c r="E145" s="125"/>
-      <c r="F145" s="53">
+      <c r="E145" s="63"/>
+      <c r="F145" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G145" s="42"/>
-      <c r="H145" s="42"/>
-      <c r="I145" s="42"/>
-      <c r="J145" s="42"/>
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="41"/>
+      <c r="J145" s="41"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="97"/>
+      <c r="A146" s="72"/>
       <c r="B146" s="28">
-        <v>41766</v>
+        <v>41765</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
-      <c r="E146" s="125"/>
-      <c r="F146" s="53">
+      <c r="E146" s="63"/>
+      <c r="F146" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G146" s="42"/>
-      <c r="H146" s="42"/>
-      <c r="I146" s="42"/>
-      <c r="J146" s="42"/>
+      <c r="G146" s="41"/>
+      <c r="H146" s="41"/>
+      <c r="I146" s="41"/>
+      <c r="J146" s="41"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="97"/>
+      <c r="A147" s="72"/>
       <c r="B147" s="28">
-        <v>41767</v>
+        <v>41766</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
-      <c r="E147" s="125"/>
-      <c r="F147" s="53">
+      <c r="E147" s="63"/>
+      <c r="F147" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G147" s="42"/>
-      <c r="H147" s="42"/>
-      <c r="I147" s="42"/>
-      <c r="J147" s="42"/>
+      <c r="G147" s="41"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="41"/>
+      <c r="J147" s="41"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="98"/>
+      <c r="A148" s="72"/>
       <c r="B148" s="28">
-        <v>41768</v>
+        <v>41767</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
-      <c r="E148" s="125"/>
-      <c r="F148" s="53">
+      <c r="E148" s="63"/>
+      <c r="F148" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G148" s="42"/>
-      <c r="H148" s="42"/>
-      <c r="I148" s="42"/>
-      <c r="J148" s="42"/>
+      <c r="G148" s="41"/>
+      <c r="H148" s="41"/>
+      <c r="I148" s="41"/>
+      <c r="J148" s="41"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="70">
+      <c r="A149" s="73"/>
+      <c r="B149" s="28">
+        <v>41768</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="63"/>
+      <c r="F149" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="41"/>
+      <c r="H149" s="41"/>
+      <c r="I149" s="41"/>
+      <c r="J149" s="41"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="68">
         <v>28</v>
       </c>
-      <c r="B149" s="29">
+      <c r="B150" s="29">
         <v>41771</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="124"/>
-      <c r="F149" s="123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G149" s="43"/>
-      <c r="H149" s="43"/>
-      <c r="I149" s="43"/>
-      <c r="J149" s="43"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="71"/>
-      <c r="B150" s="29">
-        <v>41772</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
-      <c r="E150" s="124"/>
-      <c r="F150" s="123">
+      <c r="E150" s="62"/>
+      <c r="F150" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G150" s="43"/>
-      <c r="H150" s="43"/>
-      <c r="I150" s="43"/>
-      <c r="J150" s="43"/>
+      <c r="G150" s="42"/>
+      <c r="H150" s="42"/>
+      <c r="I150" s="42"/>
+      <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="71"/>
+      <c r="A151" s="69"/>
       <c r="B151" s="29">
-        <v>41773</v>
+        <v>41772</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
-      <c r="E151" s="124"/>
-      <c r="F151" s="123">
+      <c r="E151" s="62"/>
+      <c r="F151" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G151" s="43"/>
-      <c r="H151" s="43"/>
-      <c r="I151" s="43"/>
-      <c r="J151" s="43"/>
+      <c r="G151" s="42"/>
+      <c r="H151" s="42"/>
+      <c r="I151" s="42"/>
+      <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="71"/>
+      <c r="A152" s="69"/>
       <c r="B152" s="29">
-        <v>41774</v>
+        <v>41773</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="124"/>
-      <c r="F152" s="123">
-        <f t="shared" ref="F152:F163" si="4">E152</f>
-        <v>0</v>
-      </c>
-      <c r="G152" s="43"/>
-      <c r="H152" s="43"/>
-      <c r="I152" s="43"/>
-      <c r="J152" s="43"/>
+      <c r="E152" s="62"/>
+      <c r="F152" s="61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G152" s="42"/>
+      <c r="H152" s="42"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="42"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="72"/>
+      <c r="A153" s="69"/>
       <c r="B153" s="29">
-        <v>41775</v>
+        <v>41774</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="124"/>
-      <c r="F153" s="123">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G153" s="43"/>
-      <c r="H153" s="43"/>
-      <c r="I153" s="43"/>
-      <c r="J153" s="43"/>
+      <c r="E153" s="62"/>
+      <c r="F153" s="61">
+        <f t="shared" ref="F153:F164" si="4">E153</f>
+        <v>0</v>
+      </c>
+      <c r="G153" s="42"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="42"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="96">
-        <v>29</v>
-      </c>
-      <c r="B154" s="28">
-        <v>41778</v>
-      </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="125"/>
-      <c r="F154" s="53">
+      <c r="A154" s="70"/>
+      <c r="B154" s="29">
+        <v>41775</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="62"/>
+      <c r="F154" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4754,201 +4749,185 @@
       <c r="J154" s="42"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="97"/>
+      <c r="A155" s="71">
+        <v>29</v>
+      </c>
       <c r="B155" s="28">
-        <v>41779</v>
+        <v>41778</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
-      <c r="E155" s="125"/>
-      <c r="F155" s="53">
+      <c r="E155" s="63"/>
+      <c r="F155" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G155" s="42"/>
-      <c r="H155" s="42"/>
-      <c r="I155" s="42"/>
-      <c r="J155" s="42"/>
+      <c r="G155" s="41"/>
+      <c r="H155" s="41"/>
+      <c r="I155" s="41"/>
+      <c r="J155" s="41"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="97"/>
+      <c r="A156" s="72"/>
       <c r="B156" s="28">
-        <v>41780</v>
+        <v>41779</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
-      <c r="E156" s="125"/>
-      <c r="F156" s="53">
+      <c r="E156" s="63"/>
+      <c r="F156" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G156" s="42"/>
-      <c r="H156" s="42"/>
-      <c r="I156" s="42"/>
-      <c r="J156" s="42"/>
+      <c r="G156" s="41"/>
+      <c r="H156" s="41"/>
+      <c r="I156" s="41"/>
+      <c r="J156" s="41"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="97"/>
+      <c r="A157" s="72"/>
       <c r="B157" s="28">
-        <v>41781</v>
+        <v>41780</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
-      <c r="E157" s="125"/>
-      <c r="F157" s="53">
+      <c r="E157" s="63"/>
+      <c r="F157" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G157" s="42"/>
-      <c r="H157" s="42"/>
-      <c r="I157" s="42"/>
-      <c r="J157" s="42"/>
+      <c r="G157" s="41"/>
+      <c r="H157" s="41"/>
+      <c r="I157" s="41"/>
+      <c r="J157" s="41"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="98"/>
+      <c r="A158" s="72"/>
       <c r="B158" s="28">
-        <v>41782</v>
+        <v>41781</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
-      <c r="E158" s="125"/>
-      <c r="F158" s="53">
+      <c r="E158" s="63"/>
+      <c r="F158" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G158" s="42"/>
-      <c r="H158" s="42"/>
-      <c r="I158" s="42"/>
-      <c r="J158" s="42"/>
+      <c r="G158" s="41"/>
+      <c r="H158" s="41"/>
+      <c r="I158" s="41"/>
+      <c r="J158" s="41"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="103">
+      <c r="A159" s="73"/>
+      <c r="B159" s="28">
+        <v>41782</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="63"/>
+      <c r="F159" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="41"/>
+      <c r="H159" s="41"/>
+      <c r="I159" s="41"/>
+      <c r="J159" s="41"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="65">
         <v>30</v>
       </c>
-      <c r="B159" s="29">
+      <c r="B160" s="29">
         <v>41785</v>
-      </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="126"/>
-      <c r="F159" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G159" s="44"/>
-      <c r="H159" s="44"/>
-      <c r="I159" s="44"/>
-      <c r="J159" s="44"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="104"/>
-      <c r="B160" s="29">
-        <v>41786</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
-      <c r="E160" s="126"/>
+      <c r="E160" s="64"/>
       <c r="F160" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G160" s="44"/>
-      <c r="H160" s="44"/>
-      <c r="I160" s="44"/>
-      <c r="J160" s="44"/>
+      <c r="G160" s="43"/>
+      <c r="H160" s="43"/>
+      <c r="I160" s="43"/>
+      <c r="J160" s="43"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="104"/>
+      <c r="A161" s="66"/>
       <c r="B161" s="29">
-        <v>41787</v>
+        <v>41786</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
-      <c r="E161" s="126"/>
+      <c r="E161" s="64"/>
       <c r="F161" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G161" s="44"/>
-      <c r="H161" s="44"/>
-      <c r="I161" s="44"/>
-      <c r="J161" s="44"/>
+      <c r="G161" s="43"/>
+      <c r="H161" s="43"/>
+      <c r="I161" s="43"/>
+      <c r="J161" s="43"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="104"/>
+      <c r="A162" s="66"/>
       <c r="B162" s="29">
-        <v>41788</v>
+        <v>41787</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
-      <c r="E162" s="126"/>
+      <c r="E162" s="64"/>
       <c r="F162" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G162" s="44"/>
-      <c r="H162" s="44"/>
-      <c r="I162" s="44"/>
-      <c r="J162" s="44"/>
+      <c r="G162" s="43"/>
+      <c r="H162" s="43"/>
+      <c r="I162" s="43"/>
+      <c r="J162" s="43"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="105"/>
+      <c r="A163" s="66"/>
       <c r="B163" s="29">
-        <v>41789</v>
+        <v>41788</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
-      <c r="E163" s="126"/>
+      <c r="E163" s="64"/>
       <c r="F163" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G163" s="44"/>
-      <c r="H163" s="44"/>
-      <c r="I163" s="44"/>
-      <c r="J163" s="44"/>
+      <c r="G163" s="43"/>
+      <c r="H163" s="43"/>
+      <c r="I163" s="43"/>
+      <c r="J163" s="43"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="67"/>
+      <c r="B164" s="29">
+        <v>41789</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="64"/>
+      <c r="F164" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G164" s="43"/>
+      <c r="H164" s="43"/>
+      <c r="I164" s="43"/>
+      <c r="J164" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="F19:F20"/>
+  <mergeCells count="53">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A60:A64"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
@@ -4958,18 +4937,55 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A49"/>
     <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A140:A144"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>700</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>4704</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
       <formula>700</formula>
       <formula>4704</formula>
     </cfRule>
@@ -4977,7 +4993,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M10:M12 M8 F8 F11 F13 F17 F19 F22" formulaRange="1"/>
+    <ignoredError sqref="M10:M12 M8 F8 F11 F13 F17 F19 F22 F28 M13" formulaRange="1"/>
     <ignoredError sqref="F15" formula="1" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
@@ -5171,29 +5187,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M28</xm:sqref>
+          <xm:sqref>M28:M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="27" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5212,7 +5209,7 @@
           <xm:sqref>M30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
+          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5231,7 +5228,7 @@
           <xm:sqref>M31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
+          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5250,7 +5247,7 @@
           <xm:sqref>M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5269,7 +5266,7 @@
           <xm:sqref>M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5288,7 +5285,7 @@
           <xm:sqref>M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5307,7 +5304,7 @@
           <xm:sqref>M35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5326,7 +5323,7 @@
           <xm:sqref>M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5345,7 +5342,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5364,7 +5361,7 @@
           <xm:sqref>M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5383,7 +5380,7 @@
           <xm:sqref>M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5402,7 +5399,7 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5421,7 +5418,7 @@
           <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5440,7 +5437,7 @@
           <xm:sqref>M42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5459,7 +5456,7 @@
           <xm:sqref>M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5478,7 +5475,7 @@
           <xm:sqref>M44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5497,7 +5494,7 @@
           <xm:sqref>M45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5514,6 +5511,25 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5570,7 +5586,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F7:F8 F10:F11 F13 F15 F19 F21:F22 F28:F163</xm:sqref>
+          <xm:sqref>F7:F8 F10:F11 F13 F15 F19 F21:F22 F28 F30:F164</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
   <si>
     <t>Week</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - Review Maven, Spring, Hibernate, Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Create weekly report powerpoint</t>
   </si>
   <si>
     <t xml:space="preserve"> - Repair for kick off meeting
@@ -267,9 +264,6 @@
     +AS_PM_WeeklReport_individualtemplate.xls</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Update template for goal - question - metrics of Measurement plan</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Team charter version 1.2
  - Configuration management plan version 1.1
  - Measurement plan version 1.1</t>
@@ -348,9 +342,6 @@
     <t>Stage 6 + Sup.docx</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Read ACDM book</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Review Scrum model
  - Review Scrum role and responsibility
  - Review how to map ACDM into Scrum
@@ -372,6 +363,74 @@
     <t xml:space="preserve"> - Update devide team work for team member
  - Review test process
  - Update team evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Review process, document, template</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Update process document, description stage 6 in ACDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - AS_PM_DailyScrumGuide.docx
+ - AS_PM_SprintIterationGuide.docx
+ - AS_PM_SprintPlanningMeetingGuide.docx
+ - AS_PM_SprintReviewMeetingGuide.doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Model.vsdx
+ - Stage6.docx
+ - AS_PM_ProjectPlan.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Review process</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Reivew process
+ - Review Communication plan
+ - Review Change management plan
+ - Review Risk management plan
+ - Review Measurement plan
+ - Review timelog template, daily report
+ - Review weekly report 
+ - Review requirement plan
+ - Review Operation Requirement
+ - Review Architecture plan
+ - Architectural drivers template
+ - Architecture design document template
+ - Review test plan, test case template, test report template</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Devide team work that repair for meeting with customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Update process
+ - Update timelog</t>
+  </si>
+  <si>
+    <t>3.40 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Update timelog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Create weekly report powerpoint
+ - Update timelog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Update template for goal - question - metrics of Measurement plan
+ - Update timlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Read ACDM book
+ - Update timelog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Reading about ACDM
+ - Update timelog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Create SRM guide, SPM guide, Daily Meeting guide, Scrum iteration guide
+ - Update timelog</t>
   </si>
 </sst>
 </file>
@@ -675,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -814,7 +873,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -831,6 +889,183 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -840,179 +1075,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1437,13 +1540,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O164"/>
+  <dimension ref="A1:O176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1465,85 +1568,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="93"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="69"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="96"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="109" t="s">
+      <c r="A2" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="99"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="102"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="72"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="78"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="16"/>
       <c r="H5" s="45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1568,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>5</v>
@@ -1582,16 +1685,16 @@
       <c r="J6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="103">
+      <c r="A7" s="79">
         <v>1</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="99">
         <v>41585</v>
       </c>
       <c r="C7" s="18">
@@ -1603,600 +1706,571 @@
       <c r="E7" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F7" s="19">
-        <f>E7</f>
-        <v>1.1599999999999999</v>
+      <c r="F7" s="101">
+        <f>SUM(E7:E8)</f>
+        <v>1.24</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="90" t="s">
+      <c r="K7" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="90"/>
-      <c r="M7" s="125">
-        <f>SUM(M8:M47)</f>
-        <v>36.053000000000004</v>
+      <c r="L7" s="112"/>
+      <c r="M7" s="66">
+        <f>SUM(M9:M59)</f>
+        <v>51.783000000000001</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="84">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="80"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="18">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="F8" s="102"/>
+      <c r="G8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="80"/>
+      <c r="B9" s="99">
         <v>41586</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C9" s="18">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D9" s="18">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E9" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="118">
-        <f>SUM(E8:E9)</f>
-        <v>1.66</v>
-      </c>
-      <c r="G8" s="20" t="s">
+      <c r="F9" s="101">
+        <f>SUM(E9:E11)</f>
+        <v>1.74</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="35">
-        <f>SUM(E7:E9)</f>
-        <v>2.82</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="18">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="32" t="s">
-        <v>25</v>
-      </c>
       <c r="H9" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="32"/>
-    </row>
-    <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="115">
+      <c r="K9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="35">
+        <f>SUM(E7:E11)</f>
+        <v>2.98</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="80"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="18">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="132"/>
+      <c r="G10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="44"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="81"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.65625</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="F11" s="102"/>
+      <c r="G11" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="44"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="96">
         <v>2</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B12" s="85">
         <v>41590</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C12" s="24">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D12" s="24">
         <v>0.625</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E12" s="25">
         <v>2.25</v>
       </c>
-      <c r="F10" s="25">
-        <f>E10</f>
-        <v>2.25</v>
-      </c>
-      <c r="G10" s="33" t="s">
+      <c r="F12" s="134">
+        <f>SUM(E12:E13)</f>
+        <v>2.33</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="4">
-        <f>SUM(E10:E18)</f>
-        <v>13.133000000000001</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="36"/>
-    </row>
-    <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
-      <c r="B11" s="76">
-        <v>41591</v>
-      </c>
-      <c r="C11" s="27">
-        <v>0.5625</v>
-      </c>
-      <c r="D11" s="27">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E11" s="30">
-        <v>2</v>
-      </c>
-      <c r="F11" s="74">
-        <f>SUM(E11:E12)</f>
-        <v>3</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="27">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D12" s="27">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="E12" s="30">
-        <v>1</v>
-      </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>75</v>
+      <c r="H12" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="10">
-        <f>SUM(E19:E29)</f>
-        <v>20.100000000000001</v>
+        <v>12</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="4">
+        <f>SUM(E12:E22)</f>
+        <v>13.293000000000001</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
-      <c r="B13" s="76">
-        <v>41592</v>
-      </c>
-      <c r="C13" s="27">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D13" s="27">
-        <v>0.86458333333333337</v>
-      </c>
-      <c r="E13" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="F13" s="74">
-        <f>SUM(E13:E14)</f>
+      <c r="O12" s="36"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="97"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="F13" s="135"/>
+      <c r="G13" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="36"/>
+    </row>
+    <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="97"/>
+      <c r="B14" s="85">
+        <v>41591</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0.5625</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E14" s="30">
         <v>2</v>
       </c>
-      <c r="G13" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="10">
-        <f>SUM(E30:E34)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="D14" s="27">
-        <v>0.92708333333333337</v>
-      </c>
-      <c r="E14" s="30">
-        <v>1.25</v>
-      </c>
-      <c r="F14" s="75"/>
-      <c r="G14" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>75</v>
+      <c r="F14" s="103">
+        <f>SUM(E14:E15)</f>
+        <v>3</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>71</v>
       </c>
       <c r="J14" s="39"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="10"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="76">
-        <v>41593</v>
-      </c>
+      <c r="A15" s="97"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="27">
-        <v>0.54166666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D15" s="27">
-        <v>0.58680555555555558</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E15" s="30">
-        <v>1.083</v>
-      </c>
-      <c r="F15" s="74">
-        <f>SUM(E15:E18)</f>
-        <v>5.883</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="F15" s="104"/>
+      <c r="G15" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>74</v>
+        <v>102</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>73</v>
       </c>
       <c r="J15" s="39"/>
       <c r="K15" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="10">
-        <f>SUM(E35:E39)</f>
-        <v>0</v>
+        <f>SUM(E23:E39)</f>
+        <v>28.259999999999998</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
-      <c r="B16" s="77"/>
+    <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="97"/>
+      <c r="B16" s="85">
+        <v>41592</v>
+      </c>
       <c r="C16" s="27">
-        <v>0.91666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D16" s="27">
-        <v>0.51388888888888895</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="E16" s="30">
-        <v>2.33</v>
-      </c>
-      <c r="F16" s="75"/>
+        <v>0.75</v>
+      </c>
+      <c r="F16" s="103">
+        <f>SUM(E16:E18)</f>
+        <v>2.08</v>
+      </c>
       <c r="G16" s="31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>73</v>
       </c>
       <c r="J16" s="39"/>
       <c r="K16" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E40:E44)</f>
-        <v>0</v>
+        <f>SUM(E40:E46)</f>
+        <v>7.25</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="116"/>
-      <c r="B17" s="76">
-        <v>41594</v>
-      </c>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="97"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="27">
-        <v>0.33680555555555558</v>
+        <v>0.375</v>
       </c>
       <c r="D17" s="27">
-        <v>0.375</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="E17" s="30">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F17" s="74">
-        <f>SUM(E17:E18)</f>
-        <v>2.4699999999999998</v>
-      </c>
-      <c r="G17" s="31" t="s">
+        <v>1.25</v>
+      </c>
+      <c r="F17" s="136"/>
+      <c r="G17" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="39"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="97"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="27">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="F18" s="104"/>
+      <c r="G18" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="10">
-        <f>SUM(E45:E49)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="27">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D18" s="27">
-        <v>0.93055555555555547</v>
-      </c>
-      <c r="E18" s="30">
-        <v>1.92</v>
-      </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>71</v>
-      </c>
+      <c r="H18" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="40"/>
       <c r="J18" s="39"/>
       <c r="K18" s="8"/>
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="81">
+    <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="97"/>
+      <c r="B19" s="85">
+        <v>41593</v>
+      </c>
+      <c r="C19" s="27">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="E19" s="30">
+        <v>1.083</v>
+      </c>
+      <c r="F19" s="103">
+        <f>SUM(E19:E22)</f>
+        <v>5.883</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="39"/>
+      <c r="K19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="10">
+        <f>SUM(E47:E51)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="97"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="27">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E20" s="30">
+        <v>2.33</v>
+      </c>
+      <c r="F20" s="104"/>
+      <c r="G20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="39"/>
+      <c r="K20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="10">
+        <f>SUM(E52:E56)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="97"/>
+      <c r="B21" s="85">
+        <v>41594</v>
+      </c>
+      <c r="C21" s="27">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="30">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F21" s="103">
+        <f>SUM(E21:E22)</f>
+        <v>2.4699999999999998</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="39"/>
+      <c r="K21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="10">
+        <f>SUM(E57:E61)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="98"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="27">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="E22" s="30">
+        <v>1.92</v>
+      </c>
+      <c r="F22" s="104"/>
+      <c r="G22" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="39"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="115">
         <v>3</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B23" s="99">
         <v>41597</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C23" s="48">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D23" s="48">
         <v>0.4375</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E23" s="52">
         <v>2</v>
       </c>
-      <c r="F19" s="87">
-        <f>SUM(E19:E20)</f>
-        <v>3</v>
-      </c>
-      <c r="G19" s="32" t="s">
+      <c r="F23" s="113">
+        <f>SUM(E23:E25)</f>
+        <v>3.08</v>
+      </c>
+      <c r="G23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="55">
-        <f>SUM(E55:E59)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="82"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="48">
-        <v>0.5625</v>
-      </c>
-      <c r="D20" s="48">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E20" s="52">
-        <v>1</v>
-      </c>
-      <c r="F20" s="89"/>
-      <c r="G20" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="56"/>
-    </row>
-    <row r="21" spans="1:14" s="57" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="82"/>
-      <c r="B21" s="17">
-        <v>41598</v>
-      </c>
-      <c r="C21" s="48">
-        <v>0.5625</v>
-      </c>
-      <c r="D21" s="48">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="E21" s="52">
-        <v>4</v>
-      </c>
-      <c r="F21" s="52">
-        <f t="shared" ref="F21:F56" si="0">E21</f>
-        <v>4</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="54"/>
-      <c r="M21" s="55">
-        <f>SUM(E60:E64)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="82"/>
-      <c r="B22" s="84">
-        <v>41599</v>
-      </c>
-      <c r="C22" s="48">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D22" s="48">
-        <v>0.375</v>
-      </c>
-      <c r="E22" s="52">
-        <v>1</v>
-      </c>
-      <c r="F22" s="87">
-        <f>SUM(E22:E27)</f>
-        <v>10.850000000000001</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="J22" s="32"/>
-      <c r="K22" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="54"/>
-      <c r="M22" s="55">
-        <f>SUM(E65:E69)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="57" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="82"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="48">
-        <v>0.375</v>
-      </c>
-      <c r="D23" s="48">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="E23" s="52">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="51" t="s">
-        <v>85</v>
+      <c r="H23" s="50" t="s">
+        <v>78</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
-      <c r="K23" s="53"/>
+      <c r="K23" s="53" t="s">
+        <v>18</v>
+      </c>
       <c r="L23" s="54"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="56"/>
-    </row>
-    <row r="24" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="82"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="58">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="D24" s="58">
-        <v>0.47916666666666669</v>
+      <c r="M23" s="55">
+        <f>SUM(E67:E71)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="116"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="48">
+        <v>0.5625</v>
+      </c>
+      <c r="D24" s="48">
+        <v>0.60416666666666663</v>
       </c>
       <c r="E24" s="52">
-        <v>1.03</v>
-      </c>
-      <c r="F24" s="88"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="122"/>
       <c r="G24" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="50" t="s">
-        <v>86</v>
+      <c r="H24" s="51" t="s">
+        <v>79</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
@@ -2206,79 +2280,87 @@
       <c r="N24" s="56"/>
     </row>
     <row r="25" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="82"/>
-      <c r="B25" s="86"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="48">
-        <v>0.5625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D25" s="48">
-        <v>0.625</v>
+        <v>0.60763888888888895</v>
       </c>
       <c r="E25" s="52">
-        <v>1.5</v>
-      </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>88</v>
-      </c>
+        <v>0.08</v>
+      </c>
+      <c r="F25" s="114"/>
+      <c r="G25" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="32"/>
       <c r="J25" s="32"/>
       <c r="K25" s="53"/>
       <c r="L25" s="54"/>
       <c r="M25" s="55"/>
       <c r="N25" s="56"/>
     </row>
-    <row r="26" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="82"/>
-      <c r="B26" s="86"/>
+    <row r="26" spans="1:14" s="57" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="116"/>
+      <c r="B26" s="99">
+        <v>41598</v>
+      </c>
       <c r="C26" s="48">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="D26" s="48">
-        <v>0.71527777777777779</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E26" s="52">
-        <v>2.16</v>
-      </c>
-      <c r="F26" s="88"/>
+        <v>4</v>
+      </c>
+      <c r="F26" s="113">
+        <f>SUM(E26:E27)</f>
+        <v>4.08</v>
+      </c>
       <c r="G26" s="32" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="I26" s="124" t="s">
-        <v>93</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I26" s="32"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="53"/>
+      <c r="K26" s="53" t="s">
+        <v>19</v>
+      </c>
       <c r="L26" s="54"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="56"/>
+      <c r="M26" s="55">
+        <f>SUM(E72:E76)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="56" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="82"/>
-      <c r="B27" s="85"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="48">
-        <v>0.83333333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D27" s="48">
-        <v>0.99930555555555556</v>
+        <v>0.73263888888888884</v>
       </c>
       <c r="E27" s="52">
-        <v>4</v>
-      </c>
-      <c r="F27" s="89"/>
+        <v>0.08</v>
+      </c>
+      <c r="F27" s="114"/>
       <c r="G27" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="50" t="s">
-        <v>89</v>
+        <v>24</v>
+      </c>
+      <c r="H27" s="51" t="s">
+        <v>101</v>
       </c>
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
@@ -2287,68 +2369,66 @@
       <c r="M27" s="55"/>
       <c r="N27" s="56"/>
     </row>
-    <row r="28" spans="1:14" s="57" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="82"/>
-      <c r="B28" s="84">
-        <v>41600</v>
+    <row r="28" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="116"/>
+      <c r="B28" s="99">
+        <v>41599</v>
       </c>
       <c r="C28" s="48">
-        <v>0.5625</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D28" s="48">
-        <v>0.61458333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="E28" s="52">
-        <v>1.25</v>
-      </c>
-      <c r="F28" s="87">
-        <f>SUM(E28:E29)</f>
-        <v>2.25</v>
+        <v>1</v>
+      </c>
+      <c r="F28" s="113">
+        <f>SUM(E28:E33)</f>
+        <v>10.850000000000001</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>91</v>
+        <v>26</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>82</v>
       </c>
       <c r="J28" s="32"/>
       <c r="K28" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L28" s="54"/>
       <c r="M28" s="55">
-        <f>SUM(E70:E74)</f>
+        <f>SUM(E77:E81)</f>
         <v>0</v>
       </c>
       <c r="N28" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="83"/>
-      <c r="B29" s="85"/>
+    <row r="29" spans="1:14" s="57" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="116"/>
+      <c r="B29" s="121"/>
       <c r="C29" s="48">
-        <v>0.64583333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="D29" s="48">
-        <v>0.6875</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="E29" s="52">
-        <v>1</v>
-      </c>
-      <c r="F29" s="89"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F29" s="122"/>
       <c r="G29" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I29" s="32"/>
       <c r="J29" s="32"/>
       <c r="K29" s="53"/>
       <c r="L29" s="54"/>
@@ -2356,596 +2436,656 @@
       <c r="N29" s="56"/>
     </row>
     <row r="30" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="78">
+      <c r="A30" s="116"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="48">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D30" s="48">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E30" s="52">
+        <v>1.03</v>
+      </c>
+      <c r="F30" s="122"/>
+      <c r="G30" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="56"/>
+    </row>
+    <row r="31" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="116"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="48">
+        <v>0.5625</v>
+      </c>
+      <c r="D31" s="48">
+        <v>0.625</v>
+      </c>
+      <c r="E31" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="F31" s="122"/>
+      <c r="G31" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="32"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="56"/>
+    </row>
+    <row r="32" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="116"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="48">
+        <v>0.625</v>
+      </c>
+      <c r="D32" s="48">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E32" s="52">
+        <v>2.16</v>
+      </c>
+      <c r="F32" s="122"/>
+      <c r="G32" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" s="32"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="56"/>
+    </row>
+    <row r="33" spans="1:14" s="57" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="116"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="48">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D33" s="48">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="E33" s="52">
         <v>4</v>
       </c>
-      <c r="B30" s="23">
-        <v>41603</v>
-      </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L30" s="54"/>
-      <c r="M30" s="55">
-        <f>SUM(E75:E79)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="79"/>
-      <c r="B31" s="23">
-        <v>41604</v>
-      </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="54"/>
-      <c r="M31" s="55">
-        <f>SUM(E80:E84)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="79"/>
-      <c r="B32" s="23">
-        <v>41605</v>
-      </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" s="54"/>
-      <c r="M32" s="55">
-        <f>SUM(E85:E89)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="79"/>
-      <c r="B33" s="23">
-        <v>41606</v>
-      </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="53" t="s">
-        <v>41</v>
-      </c>
+      <c r="F33" s="114"/>
+      <c r="G33" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="53"/>
       <c r="L33" s="54"/>
-      <c r="M33" s="55">
-        <f>SUM(E90:E94)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="80"/>
-      <c r="B34" s="23">
-        <v>41607</v>
-      </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="56"/>
+    </row>
+    <row r="34" spans="1:14" s="57" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="116"/>
+      <c r="B34" s="99">
+        <v>41600</v>
+      </c>
+      <c r="C34" s="48">
+        <v>0.5625</v>
+      </c>
+      <c r="D34" s="48">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E34" s="52">
+        <v>1.25</v>
+      </c>
+      <c r="F34" s="113">
+        <f>SUM(E34:E36)</f>
+        <v>5</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="J34" s="32"/>
       <c r="K34" s="53" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L34" s="54"/>
       <c r="M34" s="55">
-        <f>SUM(E95:E99)</f>
+        <f>SUM(E82:E86)</f>
         <v>0</v>
       </c>
       <c r="N34" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="81">
-        <v>5</v>
-      </c>
-      <c r="B35" s="17">
-        <v>41610</v>
-      </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
+    <row r="35" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="116"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="48">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D35" s="48">
+        <v>0.6875</v>
+      </c>
+      <c r="E35" s="52">
+        <v>1</v>
+      </c>
+      <c r="F35" s="122"/>
+      <c r="G35" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>88</v>
+      </c>
       <c r="J35" s="32"/>
-      <c r="K35" s="53" t="s">
-        <v>43</v>
-      </c>
+      <c r="K35" s="53"/>
       <c r="L35" s="54"/>
-      <c r="M35" s="55">
-        <f>SUM(E100:E104)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="82"/>
-      <c r="B36" s="17">
-        <v>41611</v>
-      </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="56"/>
+    </row>
+    <row r="36" spans="1:14" s="57" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="116"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="48">
+        <v>0.90625</v>
+      </c>
+      <c r="D36" s="48">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E36" s="52">
+        <v>2.75</v>
+      </c>
+      <c r="F36" s="114"/>
+      <c r="G36" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="51" t="s">
+        <v>105</v>
+      </c>
       <c r="I36" s="32"/>
       <c r="J36" s="32"/>
-      <c r="K36" s="53" t="s">
-        <v>44</v>
-      </c>
+      <c r="K36" s="53"/>
       <c r="L36" s="54"/>
-      <c r="M36" s="55">
-        <f>SUM(E105:E109)</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="56" t="s">
-        <v>9</v>
-      </c>
+      <c r="M36" s="55"/>
+      <c r="N36" s="56"/>
     </row>
     <row r="37" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="17">
-        <v>41612</v>
-      </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="99">
+        <v>41601</v>
+      </c>
+      <c r="C37" s="48">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D37" s="48">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E37" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="F37" s="113">
+        <f>SUM(E37:E39)</f>
+        <v>5.25</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="51" t="s">
+        <v>92</v>
+      </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
-      <c r="K37" s="53" t="s">
-        <v>45</v>
-      </c>
+      <c r="K37" s="53"/>
       <c r="L37" s="54"/>
-      <c r="M37" s="55">
-        <f>SUM(E110:E114)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="56" t="s">
+      <c r="M37" s="55"/>
+      <c r="N37" s="56"/>
+    </row>
+    <row r="38" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="116"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="48">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D38" s="48">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E38" s="52">
+        <v>1</v>
+      </c>
+      <c r="F38" s="122"/>
+      <c r="G38" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" s="32"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="56"/>
+    </row>
+    <row r="39" spans="1:14" s="57" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="117"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="48">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D39" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="52">
+        <v>4</v>
+      </c>
+      <c r="F39" s="114"/>
+      <c r="G39" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="J39" s="32"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="56"/>
+    </row>
+    <row r="40" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="118">
+        <v>4</v>
+      </c>
+      <c r="B40" s="85">
+        <v>41604</v>
+      </c>
+      <c r="C40" s="138">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D40" s="138">
+        <v>0.875</v>
+      </c>
+      <c r="E40" s="60">
+        <v>2.25</v>
+      </c>
+      <c r="F40" s="128">
+        <f>SUM(E40:E43)</f>
+        <v>7.25</v>
+      </c>
+      <c r="G40" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" s="54"/>
+      <c r="M40" s="55">
+        <f>SUM(E87:E91)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="82"/>
-      <c r="B38" s="17">
-        <v>41613</v>
-      </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52">
+    <row r="41" spans="1:14" s="57" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="119"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="138">
+        <v>0.875</v>
+      </c>
+      <c r="D41" s="138">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E41" s="60">
+        <v>2.5</v>
+      </c>
+      <c r="F41" s="131"/>
+      <c r="G41" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="L41" s="54"/>
+      <c r="M41" s="55">
+        <f>SUM(E92:E96)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="119"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="138">
+        <v>0.5625</v>
+      </c>
+      <c r="D42" s="138">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E42" s="60">
+        <v>1.25</v>
+      </c>
+      <c r="F42" s="131"/>
+      <c r="G42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="127" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="56"/>
+    </row>
+    <row r="43" spans="1:14" s="57" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="119"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="138">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D43" s="138">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E43" s="60">
+        <v>1.25</v>
+      </c>
+      <c r="F43" s="129"/>
+      <c r="G43" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="127" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="56"/>
+    </row>
+    <row r="44" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="119"/>
+      <c r="B44" s="23">
+        <v>41605</v>
+      </c>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60">
+        <f t="shared" ref="F44:F68" si="0">E44</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" s="54"/>
+      <c r="M44" s="55">
+        <f>SUM(E97:E101)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="119"/>
+      <c r="B45" s="23">
+        <v>41606</v>
+      </c>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="L38" s="54"/>
-      <c r="M38" s="55">
-        <f>SUM(E115:E119)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="56" t="s">
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="54"/>
+      <c r="M45" s="55">
+        <f>SUM(E102:E106)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="83"/>
-      <c r="B39" s="17">
-        <v>41614</v>
-      </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52">
+    <row r="46" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="120"/>
+      <c r="B46" s="23">
+        <v>41607</v>
+      </c>
+      <c r="C46" s="139"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="L39" s="54"/>
-      <c r="M39" s="55">
-        <f>SUM(E120:E124)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="56" t="s">
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46" s="54"/>
+      <c r="M46" s="55">
+        <f>SUM(E107:E111)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="68">
-        <v>6</v>
-      </c>
-      <c r="B40" s="29">
-        <v>41617</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="10">
-        <f>SUM(E125:E129)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
-      <c r="B41" s="29">
-        <v>41618</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="10">
-        <f>SUM(E130:E134)</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
-      <c r="B42" s="29">
-        <v>41619</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="10">
-        <f>SUM(E135:E139)</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
-      <c r="B43" s="29">
-        <v>41620</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="10">
-        <f>SUM(E140:E144)</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
-      <c r="B44" s="29">
-        <v>41621</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="10">
-        <f>SUM(E145:E149)</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="71">
-        <v>7</v>
-      </c>
-      <c r="B45" s="28">
-        <v>41624</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="10">
-        <f>SUM(E150:E154)</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="72"/>
-      <c r="B46" s="28">
-        <v>41625</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="10">
-        <f>SUM(E155:E159)</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
-      <c r="B47" s="28">
-        <v>41626</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="63"/>
+    <row r="47" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="115">
+        <v>5</v>
+      </c>
+      <c r="B47" s="17">
+        <v>41610</v>
+      </c>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="10">
-        <f>SUM(E160:E164)</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="3" t="s">
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" s="54"/>
+      <c r="M47" s="55">
+        <f>SUM(E112:E116)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="72"/>
-      <c r="B48" s="28">
-        <v>41627</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="63"/>
+    <row r="48" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="116"/>
+      <c r="B48" s="17">
+        <v>41611</v>
+      </c>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="52"/>
       <c r="F48" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="73"/>
-      <c r="B49" s="28">
-        <v>41628</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="63"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48" s="54"/>
+      <c r="M48" s="55">
+        <f>SUM(E117:E121)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="116"/>
+      <c r="B49" s="17">
+        <v>41612</v>
+      </c>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="52"/>
       <c r="F49" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="68">
-        <v>8</v>
-      </c>
-      <c r="B50" s="29">
-        <v>41631</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="61">
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49" s="54"/>
+      <c r="M49" s="55">
+        <f>SUM(E122:E126)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="116"/>
+      <c r="B50" s="17">
+        <v>41613</v>
+      </c>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="69"/>
-      <c r="B51" s="29">
-        <v>41632</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="61">
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="L50" s="54"/>
+      <c r="M50" s="55">
+        <f>SUM(E127:E131)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="117"/>
+      <c r="B51" s="17">
+        <v>41614</v>
+      </c>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51" s="54"/>
+      <c r="M51" s="55">
+        <f>SUM(E132:E136)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="82">
+        <v>6</v>
+      </c>
       <c r="B52" s="29">
-        <v>41633</v>
+        <v>41617</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="61">
+      <c r="E52" s="61"/>
+      <c r="F52" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2953,16 +3093,27 @@
       <c r="H52" s="42"/>
       <c r="I52" s="42"/>
       <c r="J52" s="42"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
+      <c r="K52" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="10">
+        <f>SUM(E137:E141)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="83"/>
       <c r="B53" s="29">
-        <v>41634</v>
+        <v>41618</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="61">
+      <c r="E53" s="61"/>
+      <c r="F53" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2970,16 +3121,27 @@
       <c r="H53" s="42"/>
       <c r="I53" s="42"/>
       <c r="J53" s="42"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="70"/>
+      <c r="K53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L53" s="6"/>
+      <c r="M53" s="10">
+        <f>SUM(E142:E146)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="83"/>
       <c r="B54" s="29">
-        <v>41635</v>
+        <v>41619</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="61">
+      <c r="E54" s="61"/>
+      <c r="F54" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2987,140 +3149,206 @@
       <c r="H54" s="42"/>
       <c r="I54" s="42"/>
       <c r="J54" s="42"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="71">
+      <c r="K54" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L54" s="6"/>
+      <c r="M54" s="10">
+        <f>SUM(E147:E151)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="28">
-        <v>41638</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="52">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="83"/>
+      <c r="B55" s="29">
+        <v>41620</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="72"/>
-      <c r="B56" s="28">
-        <v>41639</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="52">
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" s="6"/>
+      <c r="M55" s="10">
+        <f>SUM(E152:E156)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="84"/>
+      <c r="B56" s="29">
+        <v>41621</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="72"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="6"/>
+      <c r="M56" s="10">
+        <f>SUM(E157:E161)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="108">
+        <v>7</v>
+      </c>
       <c r="B57" s="28">
-        <v>41640</v>
+        <v>41624</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="63"/>
+      <c r="E57" s="62"/>
       <c r="F57" s="52">
-        <f t="shared" ref="F57:F88" si="1">E57</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
       <c r="I57" s="41"/>
       <c r="J57" s="41"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="72"/>
+      <c r="K57" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L57" s="6"/>
+      <c r="M57" s="10">
+        <f>SUM(E162:E166)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="109"/>
       <c r="B58" s="28">
-        <v>41641</v>
+        <v>41625</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="63"/>
+      <c r="E58" s="62"/>
       <c r="F58" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
       <c r="I58" s="41"/>
       <c r="J58" s="41"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="73"/>
+      <c r="K58" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L58" s="6"/>
+      <c r="M58" s="10">
+        <f>SUM(E167:E171)</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="109"/>
       <c r="B59" s="28">
-        <v>41642</v>
+        <v>41626</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="63"/>
+      <c r="E59" s="62"/>
       <c r="F59" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="41"/>
       <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="68">
-        <v>10</v>
-      </c>
-      <c r="B60" s="29">
-        <v>41645</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="K59" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L59" s="6"/>
+      <c r="M59" s="10">
+        <f>SUM(E172:E176)</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="109"/>
+      <c r="B60" s="28">
+        <v>41627</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
       <c r="E60" s="62"/>
-      <c r="F60" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="69"/>
-      <c r="B61" s="29">
-        <v>41646</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="F60" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="110"/>
+      <c r="B61" s="28">
+        <v>41628</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
       <c r="E61" s="62"/>
-      <c r="F61" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="69"/>
+      <c r="F61" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="82">
+        <v>8</v>
+      </c>
       <c r="B62" s="29">
-        <v>41647</v>
+        <v>41631</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="61">
-        <f t="shared" si="1"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="60">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G62" s="42"/>
@@ -3128,16 +3356,16 @@
       <c r="I62" s="42"/>
       <c r="J62" s="42"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="69"/>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="83"/>
       <c r="B63" s="29">
-        <v>41648</v>
+        <v>41632</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="61">
-        <f t="shared" si="1"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="60">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G63" s="42"/>
@@ -3145,16 +3373,16 @@
       <c r="I63" s="42"/>
       <c r="J63" s="42"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="70"/>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="83"/>
       <c r="B64" s="29">
-        <v>41649</v>
+        <v>41633</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="61">
-        <f t="shared" si="1"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="60">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G64" s="42"/>
@@ -3163,51 +3391,51 @@
       <c r="J64" s="42"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="71">
-        <v>11</v>
-      </c>
-      <c r="B65" s="28">
-        <v>41652</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
+      <c r="A65" s="83"/>
+      <c r="B65" s="29">
+        <v>41634</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="72"/>
-      <c r="B66" s="28">
-        <v>41653</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
+      <c r="A66" s="84"/>
+      <c r="B66" s="29">
+        <v>41635</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="72"/>
+      <c r="A67" s="108">
+        <v>9</v>
+      </c>
       <c r="B67" s="28">
-        <v>41654</v>
+        <v>41638</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="63"/>
+      <c r="E67" s="62"/>
       <c r="F67" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G67" s="41"/>
@@ -3216,15 +3444,15 @@
       <c r="J67" s="41"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="72"/>
+      <c r="A68" s="109"/>
       <c r="B68" s="28">
-        <v>41655</v>
+        <v>41639</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="63"/>
+      <c r="E68" s="62"/>
       <c r="F68" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G68" s="41"/>
@@ -3233,15 +3461,15 @@
       <c r="J68" s="41"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="73"/>
+      <c r="A69" s="109"/>
       <c r="B69" s="28">
-        <v>41656</v>
+        <v>41640</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="63"/>
+      <c r="E69" s="62"/>
       <c r="F69" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F69:F100" si="1">E69</f>
         <v>0</v>
       </c>
       <c r="G69" s="41"/>
@@ -3250,50 +3478,50 @@
       <c r="J69" s="41"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="68">
-        <v>12</v>
-      </c>
-      <c r="B70" s="29">
-        <v>41659</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="A70" s="109"/>
+      <c r="B70" s="28">
+        <v>41641</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
       <c r="E70" s="62"/>
-      <c r="F70" s="61">
+      <c r="F70" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="69"/>
-      <c r="B71" s="29">
-        <v>41660</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
+      <c r="A71" s="110"/>
+      <c r="B71" s="28">
+        <v>41642</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
       <c r="E71" s="62"/>
-      <c r="F71" s="61">
+      <c r="F71" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="69"/>
+      <c r="A72" s="82">
+        <v>10</v>
+      </c>
       <c r="B72" s="29">
-        <v>41661</v>
+        <v>41645</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="61">
+      <c r="E72" s="61"/>
+      <c r="F72" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3303,14 +3531,14 @@
       <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="69"/>
+      <c r="A73" s="83"/>
       <c r="B73" s="29">
-        <v>41662</v>
+        <v>41646</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="61">
+      <c r="E73" s="61"/>
+      <c r="F73" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3320,14 +3548,14 @@
       <c r="J73" s="42"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="70"/>
+      <c r="A74" s="83"/>
       <c r="B74" s="29">
-        <v>41663</v>
+        <v>41647</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="61">
+      <c r="E74" s="61"/>
+      <c r="F74" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3337,419 +3565,419 @@
       <c r="J74" s="42"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="71">
-        <v>13</v>
-      </c>
-      <c r="B75" s="28">
-        <v>41666</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="52">
+      <c r="A75" s="83"/>
+      <c r="B75" s="29">
+        <v>41648</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G75" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="72"/>
-      <c r="B76" s="28">
-        <v>41667</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="52">
+      <c r="A76" s="84"/>
+      <c r="B76" s="29">
+        <v>41649</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G76" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="72"/>
+      <c r="A77" s="108">
+        <v>11</v>
+      </c>
       <c r="B77" s="28">
-        <v>41668</v>
+        <v>41652</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="63"/>
+      <c r="E77" s="62"/>
       <c r="F77" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G77" s="41" t="s">
-        <v>35</v>
-      </c>
+      <c r="G77" s="41"/>
       <c r="H77" s="41"/>
       <c r="I77" s="41"/>
       <c r="J77" s="41"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="72"/>
+      <c r="A78" s="109"/>
       <c r="B78" s="28">
-        <v>41669</v>
+        <v>41653</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="63"/>
+      <c r="E78" s="62"/>
       <c r="F78" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G78" s="41" t="s">
-        <v>35</v>
-      </c>
+      <c r="G78" s="41"/>
       <c r="H78" s="41"/>
       <c r="I78" s="41"/>
       <c r="J78" s="41"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="73"/>
+      <c r="A79" s="109"/>
       <c r="B79" s="28">
-        <v>41670</v>
+        <v>41654</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
-      <c r="E79" s="63"/>
+      <c r="E79" s="62"/>
       <c r="F79" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G79" s="41" t="s">
-        <v>35</v>
-      </c>
+      <c r="G79" s="41"/>
       <c r="H79" s="41"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="68">
-        <v>14</v>
-      </c>
-      <c r="B80" s="29">
-        <v>41673</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+      <c r="A80" s="109"/>
+      <c r="B80" s="28">
+        <v>41655</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
       <c r="E80" s="62"/>
-      <c r="F80" s="61">
+      <c r="F80" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G80" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="69"/>
-      <c r="B81" s="29">
-        <v>41674</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
+      <c r="A81" s="110"/>
+      <c r="B81" s="28">
+        <v>41656</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
       <c r="E81" s="62"/>
-      <c r="F81" s="61">
+      <c r="F81" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G81" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="69"/>
+      <c r="A82" s="82">
+        <v>12</v>
+      </c>
       <c r="B82" s="29">
-        <v>41675</v>
+        <v>41659</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="61">
+      <c r="E82" s="61"/>
+      <c r="F82" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G82" s="43" t="s">
-        <v>35</v>
-      </c>
+      <c r="G82" s="42"/>
       <c r="H82" s="42"/>
       <c r="I82" s="42"/>
       <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="69"/>
+      <c r="A83" s="83"/>
       <c r="B83" s="29">
-        <v>41676</v>
+        <v>41660</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="61">
+      <c r="E83" s="61"/>
+      <c r="F83" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G83" s="43" t="s">
-        <v>35</v>
-      </c>
+      <c r="G83" s="42"/>
       <c r="H83" s="42"/>
       <c r="I83" s="42"/>
       <c r="J83" s="42"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="70"/>
+      <c r="A84" s="83"/>
       <c r="B84" s="29">
-        <v>41677</v>
+        <v>41661</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="61">
+      <c r="E84" s="61"/>
+      <c r="F84" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G84" s="43" t="s">
-        <v>35</v>
-      </c>
+      <c r="G84" s="42"/>
       <c r="H84" s="42"/>
       <c r="I84" s="42"/>
       <c r="J84" s="42"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="71">
-        <v>15</v>
-      </c>
-      <c r="B85" s="28">
-        <v>41680</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="63"/>
-      <c r="F85" s="52">
+      <c r="A85" s="83"/>
+      <c r="B85" s="29">
+        <v>41662</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="72"/>
-      <c r="B86" s="28">
-        <v>41681</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="52">
+      <c r="A86" s="84"/>
+      <c r="B86" s="29">
+        <v>41663</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="41"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="72"/>
+      <c r="A87" s="108">
+        <v>13</v>
+      </c>
       <c r="B87" s="28">
-        <v>41682</v>
+        <v>41666</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="63"/>
+      <c r="E87" s="62"/>
       <c r="F87" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G87" s="41"/>
+      <c r="G87" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="H87" s="41"/>
       <c r="I87" s="41"/>
       <c r="J87" s="41"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="72"/>
+      <c r="A88" s="109"/>
       <c r="B88" s="28">
-        <v>41683</v>
+        <v>41667</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="63"/>
+      <c r="E88" s="62"/>
       <c r="F88" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G88" s="41"/>
+      <c r="G88" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="H88" s="41"/>
       <c r="I88" s="41"/>
       <c r="J88" s="41"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="73"/>
+      <c r="A89" s="109"/>
       <c r="B89" s="28">
-        <v>41684</v>
+        <v>41668</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
-      <c r="E89" s="63"/>
+      <c r="E89" s="62"/>
       <c r="F89" s="52">
-        <f t="shared" ref="F89:F120" si="2">E89</f>
-        <v>0</v>
-      </c>
-      <c r="G89" s="41"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="H89" s="41"/>
       <c r="I89" s="41"/>
       <c r="J89" s="41"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="68">
-        <v>16</v>
-      </c>
-      <c r="B90" s="29">
-        <v>41687</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+      <c r="A90" s="109"/>
+      <c r="B90" s="28">
+        <v>41669</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
       <c r="E90" s="62"/>
-      <c r="F90" s="61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="42"/>
-      <c r="H90" s="42"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="42"/>
+      <c r="F90" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="69"/>
-      <c r="B91" s="29">
-        <v>41688</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
+      <c r="A91" s="110"/>
+      <c r="B91" s="28">
+        <v>41670</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
       <c r="E91" s="62"/>
-      <c r="F91" s="61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="42"/>
-      <c r="H91" s="42"/>
-      <c r="I91" s="42"/>
-      <c r="J91" s="42"/>
+      <c r="F91" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="69"/>
+      <c r="A92" s="82">
+        <v>14</v>
+      </c>
       <c r="B92" s="29">
-        <v>41689</v>
+        <v>41673</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="42"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="H92" s="42"/>
       <c r="I92" s="42"/>
       <c r="J92" s="42"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="69"/>
+      <c r="A93" s="83"/>
       <c r="B93" s="29">
-        <v>41690</v>
+        <v>41674</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="42"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="H93" s="42"/>
       <c r="I93" s="42"/>
       <c r="J93" s="42"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="70"/>
+      <c r="A94" s="83"/>
       <c r="B94" s="29">
-        <v>41691</v>
+        <v>41675</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="62"/>
-      <c r="F94" s="61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="42"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="H94" s="42"/>
       <c r="I94" s="42"/>
       <c r="J94" s="42"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="71">
-        <v>17</v>
-      </c>
-      <c r="B95" s="28">
-        <v>41694</v>
-      </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
+      <c r="A95" s="83"/>
+      <c r="B95" s="29">
+        <v>41676</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="72"/>
-      <c r="B96" s="28">
-        <v>41695</v>
-      </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="63"/>
-      <c r="F96" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="29">
+        <v>41677</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="72"/>
+      <c r="A97" s="108">
+        <v>15</v>
+      </c>
       <c r="B97" s="28">
-        <v>41696</v>
+        <v>41680</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="63"/>
+      <c r="E97" s="62"/>
       <c r="F97" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G97" s="41"/>
@@ -3758,15 +3986,15 @@
       <c r="J97" s="41"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="72"/>
+      <c r="A98" s="109"/>
       <c r="B98" s="28">
-        <v>41697</v>
+        <v>41681</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="63"/>
+      <c r="E98" s="62"/>
       <c r="F98" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G98" s="41"/>
@@ -3775,15 +4003,15 @@
       <c r="J98" s="41"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="73"/>
+      <c r="A99" s="109"/>
       <c r="B99" s="28">
-        <v>41698</v>
+        <v>41682</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
-      <c r="E99" s="63"/>
+      <c r="E99" s="62"/>
       <c r="F99" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G99" s="41"/>
@@ -3792,50 +4020,50 @@
       <c r="J99" s="41"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="68">
-        <v>18</v>
-      </c>
-      <c r="B100" s="29">
-        <v>41701</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
+      <c r="A100" s="109"/>
+      <c r="B100" s="28">
+        <v>41683</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
       <c r="E100" s="62"/>
-      <c r="F100" s="61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
+      <c r="F100" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="69"/>
-      <c r="B101" s="29">
-        <v>41702</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
+      <c r="A101" s="110"/>
+      <c r="B101" s="28">
+        <v>41684</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
       <c r="E101" s="62"/>
-      <c r="F101" s="61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
+      <c r="F101" s="52">
+        <f t="shared" ref="F101:F132" si="2">E101</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="69"/>
+      <c r="A102" s="82">
+        <v>16</v>
+      </c>
       <c r="B102" s="29">
-        <v>41703</v>
+        <v>41687</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="61">
+      <c r="E102" s="61"/>
+      <c r="F102" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3845,14 +4073,14 @@
       <c r="J102" s="42"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="69"/>
+      <c r="A103" s="83"/>
       <c r="B103" s="29">
-        <v>41704</v>
+        <v>41688</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="62"/>
-      <c r="F103" s="61">
+      <c r="E103" s="61"/>
+      <c r="F103" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3862,14 +4090,14 @@
       <c r="J103" s="42"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="70"/>
+      <c r="A104" s="83"/>
       <c r="B104" s="29">
-        <v>41705</v>
+        <v>41689</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="62"/>
-      <c r="F104" s="61">
+      <c r="E104" s="61"/>
+      <c r="F104" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3879,49 +4107,49 @@
       <c r="J104" s="42"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="71">
-        <v>19</v>
-      </c>
-      <c r="B105" s="28">
-        <v>41708</v>
-      </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="52">
+      <c r="A105" s="83"/>
+      <c r="B105" s="29">
+        <v>41690</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="42"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="72"/>
-      <c r="B106" s="28">
-        <v>41709</v>
-      </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="63"/>
-      <c r="F106" s="52">
+      <c r="A106" s="84"/>
+      <c r="B106" s="29">
+        <v>41691</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="72"/>
+      <c r="A107" s="108">
+        <v>17</v>
+      </c>
       <c r="B107" s="28">
-        <v>41710</v>
+        <v>41694</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
-      <c r="E107" s="63"/>
+      <c r="E107" s="62"/>
       <c r="F107" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3932,13 +4160,13 @@
       <c r="J107" s="41"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="72"/>
+      <c r="A108" s="109"/>
       <c r="B108" s="28">
-        <v>41711</v>
+        <v>41695</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
-      <c r="E108" s="63"/>
+      <c r="E108" s="62"/>
       <c r="F108" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3949,13 +4177,13 @@
       <c r="J108" s="41"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="73"/>
+      <c r="A109" s="109"/>
       <c r="B109" s="28">
-        <v>41712</v>
+        <v>41696</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
-      <c r="E109" s="63"/>
+      <c r="E109" s="62"/>
       <c r="F109" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3966,50 +4194,50 @@
       <c r="J109" s="41"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="68">
-        <v>20</v>
-      </c>
-      <c r="B110" s="29">
-        <v>41715</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
+      <c r="A110" s="109"/>
+      <c r="B110" s="28">
+        <v>41697</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
       <c r="E110" s="62"/>
-      <c r="F110" s="61">
+      <c r="F110" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G110" s="42"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="42"/>
-      <c r="J110" s="42"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="41"/>
+      <c r="J110" s="41"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="69"/>
-      <c r="B111" s="29">
-        <v>41716</v>
-      </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
+      <c r="A111" s="110"/>
+      <c r="B111" s="28">
+        <v>41698</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
       <c r="E111" s="62"/>
-      <c r="F111" s="61">
+      <c r="F111" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G111" s="42"/>
-      <c r="H111" s="42"/>
-      <c r="I111" s="42"/>
-      <c r="J111" s="42"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="41"/>
+      <c r="J111" s="41"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="69"/>
+      <c r="A112" s="82">
+        <v>18</v>
+      </c>
       <c r="B112" s="29">
-        <v>41717</v>
+        <v>41701</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="61">
+      <c r="E112" s="61"/>
+      <c r="F112" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4019,14 +4247,14 @@
       <c r="J112" s="42"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="69"/>
+      <c r="A113" s="83"/>
       <c r="B113" s="29">
-        <v>41718</v>
+        <v>41702</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
-      <c r="E113" s="62"/>
-      <c r="F113" s="61">
+      <c r="E113" s="61"/>
+      <c r="F113" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4036,14 +4264,14 @@
       <c r="J113" s="42"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="70"/>
+      <c r="A114" s="83"/>
       <c r="B114" s="29">
-        <v>41719</v>
+        <v>41703</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
-      <c r="E114" s="62"/>
-      <c r="F114" s="61">
+      <c r="E114" s="61"/>
+      <c r="F114" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4053,49 +4281,49 @@
       <c r="J114" s="42"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="71">
-        <v>21</v>
-      </c>
-      <c r="B115" s="28">
-        <v>41722</v>
-      </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="63"/>
-      <c r="F115" s="52">
+      <c r="A115" s="83"/>
+      <c r="B115" s="29">
+        <v>41704</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G115" s="41"/>
-      <c r="H115" s="41"/>
-      <c r="I115" s="41"/>
-      <c r="J115" s="41"/>
+      <c r="G115" s="42"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="42"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="72"/>
-      <c r="B116" s="28">
-        <v>41723</v>
-      </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="63"/>
-      <c r="F116" s="52">
+      <c r="A116" s="84"/>
+      <c r="B116" s="29">
+        <v>41705</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="61"/>
+      <c r="F116" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-      <c r="J116" s="41"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="42"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="72"/>
+      <c r="A117" s="108">
+        <v>19</v>
+      </c>
       <c r="B117" s="28">
-        <v>41724</v>
+        <v>41708</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
-      <c r="E117" s="63"/>
+      <c r="E117" s="62"/>
       <c r="F117" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4106,13 +4334,13 @@
       <c r="J117" s="41"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="72"/>
+      <c r="A118" s="109"/>
       <c r="B118" s="28">
-        <v>41725</v>
+        <v>41709</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
-      <c r="E118" s="63"/>
+      <c r="E118" s="62"/>
       <c r="F118" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4123,13 +4351,13 @@
       <c r="J118" s="41"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="73"/>
+      <c r="A119" s="109"/>
       <c r="B119" s="28">
-        <v>41726</v>
+        <v>41710</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
-      <c r="E119" s="63"/>
+      <c r="E119" s="62"/>
       <c r="F119" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4140,51 +4368,51 @@
       <c r="J119" s="41"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="68">
-        <v>22</v>
-      </c>
-      <c r="B120" s="29">
-        <v>41729</v>
-      </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
+      <c r="A120" s="109"/>
+      <c r="B120" s="28">
+        <v>41711</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
       <c r="E120" s="62"/>
-      <c r="F120" s="61">
+      <c r="F120" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G120" s="42"/>
-      <c r="H120" s="42"/>
-      <c r="I120" s="42"/>
-      <c r="J120" s="42"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="41"/>
+      <c r="J120" s="41"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="69"/>
-      <c r="B121" s="29">
-        <v>41730</v>
-      </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
+      <c r="A121" s="110"/>
+      <c r="B121" s="28">
+        <v>41712</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
       <c r="E121" s="62"/>
-      <c r="F121" s="61">
-        <f t="shared" ref="F121:F152" si="3">E121</f>
-        <v>0</v>
-      </c>
-      <c r="G121" s="42"/>
-      <c r="H121" s="42"/>
-      <c r="I121" s="42"/>
-      <c r="J121" s="42"/>
+      <c r="F121" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="41"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="69"/>
+      <c r="A122" s="82">
+        <v>20</v>
+      </c>
       <c r="B122" s="29">
-        <v>41731</v>
+        <v>41715</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="62"/>
-      <c r="F122" s="61">
-        <f t="shared" si="3"/>
+      <c r="E122" s="61"/>
+      <c r="F122" s="60">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G122" s="42"/>
@@ -4193,15 +4421,15 @@
       <c r="J122" s="42"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="69"/>
+      <c r="A123" s="83"/>
       <c r="B123" s="29">
-        <v>41732</v>
+        <v>41716</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
-      <c r="E123" s="62"/>
-      <c r="F123" s="61">
-        <f t="shared" si="3"/>
+      <c r="E123" s="61"/>
+      <c r="F123" s="60">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G123" s="42"/>
@@ -4210,15 +4438,15 @@
       <c r="J123" s="42"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="70"/>
+      <c r="A124" s="83"/>
       <c r="B124" s="29">
-        <v>41733</v>
+        <v>41717</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
-      <c r="E124" s="62"/>
-      <c r="F124" s="61">
-        <f t="shared" si="3"/>
+      <c r="E124" s="61"/>
+      <c r="F124" s="60">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G124" s="42"/>
@@ -4227,51 +4455,51 @@
       <c r="J124" s="42"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="71">
-        <v>23</v>
-      </c>
-      <c r="B125" s="28">
-        <v>41736</v>
-      </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="63"/>
-      <c r="F125" s="52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="41"/>
-      <c r="H125" s="41"/>
-      <c r="I125" s="41"/>
-      <c r="J125" s="41"/>
+      <c r="A125" s="83"/>
+      <c r="B125" s="29">
+        <v>41718</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="42"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="42"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="72"/>
-      <c r="B126" s="28">
-        <v>41737</v>
-      </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="63"/>
-      <c r="F126" s="52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41"/>
+      <c r="A126" s="84"/>
+      <c r="B126" s="29">
+        <v>41719</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="61"/>
+      <c r="F126" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="42"/>
+      <c r="H126" s="42"/>
+      <c r="I126" s="42"/>
+      <c r="J126" s="42"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="72"/>
+      <c r="A127" s="108">
+        <v>21</v>
+      </c>
       <c r="B127" s="28">
-        <v>41738</v>
+        <v>41722</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
-      <c r="E127" s="63"/>
+      <c r="E127" s="62"/>
       <c r="F127" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G127" s="41"/>
@@ -4280,15 +4508,15 @@
       <c r="J127" s="41"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="72"/>
+      <c r="A128" s="109"/>
       <c r="B128" s="28">
-        <v>41739</v>
+        <v>41723</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
-      <c r="E128" s="63"/>
+      <c r="E128" s="62"/>
       <c r="F128" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G128" s="41"/>
@@ -4297,15 +4525,15 @@
       <c r="J128" s="41"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="73"/>
+      <c r="A129" s="109"/>
       <c r="B129" s="28">
-        <v>41740</v>
+        <v>41724</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
-      <c r="E129" s="63"/>
+      <c r="E129" s="62"/>
       <c r="F129" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G129" s="41"/>
@@ -4314,51 +4542,51 @@
       <c r="J129" s="41"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="68">
-        <v>24</v>
-      </c>
-      <c r="B130" s="29">
-        <v>41743</v>
-      </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
+      <c r="A130" s="109"/>
+      <c r="B130" s="28">
+        <v>41725</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
       <c r="E130" s="62"/>
-      <c r="F130" s="61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G130" s="42"/>
-      <c r="H130" s="42"/>
-      <c r="I130" s="42"/>
-      <c r="J130" s="42"/>
+      <c r="F130" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="41"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="41"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="69"/>
-      <c r="B131" s="29">
-        <v>41744</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
+      <c r="A131" s="110"/>
+      <c r="B131" s="28">
+        <v>41726</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
       <c r="E131" s="62"/>
-      <c r="F131" s="61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G131" s="42"/>
-      <c r="H131" s="42"/>
-      <c r="I131" s="42"/>
-      <c r="J131" s="42"/>
+      <c r="F131" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="41"/>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+      <c r="J131" s="41"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="69"/>
+      <c r="A132" s="82">
+        <v>22</v>
+      </c>
       <c r="B132" s="29">
-        <v>41745</v>
+        <v>41729</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
-      <c r="E132" s="62"/>
-      <c r="F132" s="61">
-        <f t="shared" si="3"/>
+      <c r="E132" s="61"/>
+      <c r="F132" s="60">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G132" s="42"/>
@@ -4367,15 +4595,15 @@
       <c r="J132" s="42"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="69"/>
+      <c r="A133" s="83"/>
       <c r="B133" s="29">
-        <v>41746</v>
+        <v>41730</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
-      <c r="E133" s="62"/>
-      <c r="F133" s="61">
-        <f t="shared" si="3"/>
+      <c r="E133" s="61"/>
+      <c r="F133" s="60">
+        <f t="shared" ref="F133:F164" si="3">E133</f>
         <v>0</v>
       </c>
       <c r="G133" s="42"/>
@@ -4384,14 +4612,14 @@
       <c r="J133" s="42"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="70"/>
+      <c r="A134" s="83"/>
       <c r="B134" s="29">
-        <v>41747</v>
+        <v>41731</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
-      <c r="E134" s="62"/>
-      <c r="F134" s="61">
+      <c r="E134" s="61"/>
+      <c r="F134" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4401,49 +4629,49 @@
       <c r="J134" s="42"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="71">
-        <v>25</v>
-      </c>
-      <c r="B135" s="28">
-        <v>41750</v>
-      </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="63"/>
-      <c r="F135" s="52">
+      <c r="A135" s="83"/>
+      <c r="B135" s="29">
+        <v>41732</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="61"/>
+      <c r="F135" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G135" s="41"/>
-      <c r="H135" s="41"/>
-      <c r="I135" s="41"/>
-      <c r="J135" s="41"/>
+      <c r="G135" s="42"/>
+      <c r="H135" s="42"/>
+      <c r="I135" s="42"/>
+      <c r="J135" s="42"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="72"/>
-      <c r="B136" s="28">
-        <v>41751</v>
-      </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="63"/>
-      <c r="F136" s="52">
+      <c r="A136" s="84"/>
+      <c r="B136" s="29">
+        <v>41733</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="61"/>
+      <c r="F136" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G136" s="41"/>
-      <c r="H136" s="41"/>
-      <c r="I136" s="41"/>
-      <c r="J136" s="41"/>
+      <c r="G136" s="42"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="42"/>
+      <c r="J136" s="42"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="72"/>
+      <c r="A137" s="108">
+        <v>23</v>
+      </c>
       <c r="B137" s="28">
-        <v>41752</v>
+        <v>41736</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
-      <c r="E137" s="63"/>
+      <c r="E137" s="62"/>
       <c r="F137" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4454,13 +4682,13 @@
       <c r="J137" s="41"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="72"/>
+      <c r="A138" s="109"/>
       <c r="B138" s="28">
-        <v>41753</v>
+        <v>41737</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
-      <c r="E138" s="63"/>
+      <c r="E138" s="62"/>
       <c r="F138" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4471,13 +4699,13 @@
       <c r="J138" s="41"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="73"/>
+      <c r="A139" s="109"/>
       <c r="B139" s="28">
-        <v>41754</v>
+        <v>41738</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
-      <c r="E139" s="63"/>
+      <c r="E139" s="62"/>
       <c r="F139" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4488,50 +4716,50 @@
       <c r="J139" s="41"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="68">
-        <v>26</v>
-      </c>
-      <c r="B140" s="29">
-        <v>41757</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
+      <c r="A140" s="109"/>
+      <c r="B140" s="28">
+        <v>41739</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
       <c r="E140" s="62"/>
-      <c r="F140" s="61">
+      <c r="F140" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G140" s="42"/>
-      <c r="H140" s="42"/>
-      <c r="I140" s="42"/>
-      <c r="J140" s="42"/>
+      <c r="G140" s="41"/>
+      <c r="H140" s="41"/>
+      <c r="I140" s="41"/>
+      <c r="J140" s="41"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="69"/>
-      <c r="B141" s="29">
-        <v>41758</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
+      <c r="A141" s="110"/>
+      <c r="B141" s="28">
+        <v>41740</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
       <c r="E141" s="62"/>
-      <c r="F141" s="61">
+      <c r="F141" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G141" s="42"/>
-      <c r="H141" s="42"/>
-      <c r="I141" s="42"/>
-      <c r="J141" s="42"/>
+      <c r="G141" s="41"/>
+      <c r="H141" s="41"/>
+      <c r="I141" s="41"/>
+      <c r="J141" s="41"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="69"/>
+      <c r="A142" s="82">
+        <v>24</v>
+      </c>
       <c r="B142" s="29">
-        <v>41759</v>
+        <v>41743</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="62"/>
-      <c r="F142" s="61">
+      <c r="E142" s="61"/>
+      <c r="F142" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4541,14 +4769,14 @@
       <c r="J142" s="42"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="69"/>
+      <c r="A143" s="83"/>
       <c r="B143" s="29">
-        <v>41760</v>
+        <v>41744</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="62"/>
-      <c r="F143" s="61">
+      <c r="E143" s="61"/>
+      <c r="F143" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4558,14 +4786,14 @@
       <c r="J143" s="42"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="70"/>
+      <c r="A144" s="83"/>
       <c r="B144" s="29">
-        <v>41761</v>
+        <v>41745</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
-      <c r="E144" s="62"/>
-      <c r="F144" s="61">
+      <c r="E144" s="61"/>
+      <c r="F144" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4575,49 +4803,49 @@
       <c r="J144" s="42"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="71">
-        <v>27</v>
-      </c>
-      <c r="B145" s="28">
-        <v>41764</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="63"/>
-      <c r="F145" s="52">
+      <c r="A145" s="83"/>
+      <c r="B145" s="29">
+        <v>41746</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="61"/>
+      <c r="F145" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G145" s="41"/>
-      <c r="H145" s="41"/>
-      <c r="I145" s="41"/>
-      <c r="J145" s="41"/>
+      <c r="G145" s="42"/>
+      <c r="H145" s="42"/>
+      <c r="I145" s="42"/>
+      <c r="J145" s="42"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="72"/>
-      <c r="B146" s="28">
-        <v>41765</v>
-      </c>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="63"/>
-      <c r="F146" s="52">
+      <c r="A146" s="84"/>
+      <c r="B146" s="29">
+        <v>41747</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="61"/>
+      <c r="F146" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G146" s="41"/>
-      <c r="H146" s="41"/>
-      <c r="I146" s="41"/>
-      <c r="J146" s="41"/>
+      <c r="G146" s="42"/>
+      <c r="H146" s="42"/>
+      <c r="I146" s="42"/>
+      <c r="J146" s="42"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="72"/>
+      <c r="A147" s="108">
+        <v>25</v>
+      </c>
       <c r="B147" s="28">
-        <v>41766</v>
+        <v>41750</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
-      <c r="E147" s="63"/>
+      <c r="E147" s="62"/>
       <c r="F147" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4628,13 +4856,13 @@
       <c r="J147" s="41"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="72"/>
+      <c r="A148" s="109"/>
       <c r="B148" s="28">
-        <v>41767</v>
+        <v>41751</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
-      <c r="E148" s="63"/>
+      <c r="E148" s="62"/>
       <c r="F148" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4645,13 +4873,13 @@
       <c r="J148" s="41"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="73"/>
+      <c r="A149" s="109"/>
       <c r="B149" s="28">
-        <v>41768</v>
+        <v>41752</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
-      <c r="E149" s="63"/>
+      <c r="E149" s="62"/>
       <c r="F149" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4662,50 +4890,50 @@
       <c r="J149" s="41"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="68">
-        <v>28</v>
-      </c>
-      <c r="B150" s="29">
-        <v>41771</v>
-      </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
+      <c r="A150" s="109"/>
+      <c r="B150" s="28">
+        <v>41753</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
       <c r="E150" s="62"/>
-      <c r="F150" s="61">
+      <c r="F150" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G150" s="42"/>
-      <c r="H150" s="42"/>
-      <c r="I150" s="42"/>
-      <c r="J150" s="42"/>
+      <c r="G150" s="41"/>
+      <c r="H150" s="41"/>
+      <c r="I150" s="41"/>
+      <c r="J150" s="41"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="69"/>
-      <c r="B151" s="29">
-        <v>41772</v>
-      </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
+      <c r="A151" s="110"/>
+      <c r="B151" s="28">
+        <v>41754</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
       <c r="E151" s="62"/>
-      <c r="F151" s="61">
+      <c r="F151" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G151" s="42"/>
-      <c r="H151" s="42"/>
-      <c r="I151" s="42"/>
-      <c r="J151" s="42"/>
+      <c r="G151" s="41"/>
+      <c r="H151" s="41"/>
+      <c r="I151" s="41"/>
+      <c r="J151" s="41"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="69"/>
+      <c r="A152" s="82">
+        <v>26</v>
+      </c>
       <c r="B152" s="29">
-        <v>41773</v>
+        <v>41757</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="62"/>
-      <c r="F152" s="61">
+      <c r="E152" s="61"/>
+      <c r="F152" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4715,15 +4943,15 @@
       <c r="J152" s="42"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="69"/>
+      <c r="A153" s="83"/>
       <c r="B153" s="29">
-        <v>41774</v>
+        <v>41758</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="62"/>
-      <c r="F153" s="61">
-        <f t="shared" ref="F153:F164" si="4">E153</f>
+      <c r="E153" s="61"/>
+      <c r="F153" s="60">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G153" s="42"/>
@@ -4732,15 +4960,15 @@
       <c r="J153" s="42"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="70"/>
+      <c r="A154" s="83"/>
       <c r="B154" s="29">
-        <v>41775</v>
+        <v>41759</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="62"/>
-      <c r="F154" s="61">
-        <f t="shared" si="4"/>
+      <c r="E154" s="61"/>
+      <c r="F154" s="60">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G154" s="42"/>
@@ -4749,51 +4977,51 @@
       <c r="J154" s="42"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="71">
-        <v>29</v>
-      </c>
-      <c r="B155" s="28">
-        <v>41778</v>
-      </c>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="63"/>
-      <c r="F155" s="52">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G155" s="41"/>
-      <c r="H155" s="41"/>
-      <c r="I155" s="41"/>
-      <c r="J155" s="41"/>
+      <c r="A155" s="83"/>
+      <c r="B155" s="29">
+        <v>41760</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="61"/>
+      <c r="F155" s="60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G155" s="42"/>
+      <c r="H155" s="42"/>
+      <c r="I155" s="42"/>
+      <c r="J155" s="42"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="72"/>
-      <c r="B156" s="28">
-        <v>41779</v>
-      </c>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="63"/>
-      <c r="F156" s="52">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G156" s="41"/>
-      <c r="H156" s="41"/>
-      <c r="I156" s="41"/>
-      <c r="J156" s="41"/>
+      <c r="A156" s="84"/>
+      <c r="B156" s="29">
+        <v>41761</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="61"/>
+      <c r="F156" s="60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="42"/>
+      <c r="H156" s="42"/>
+      <c r="I156" s="42"/>
+      <c r="J156" s="42"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="72"/>
+      <c r="A157" s="108">
+        <v>27</v>
+      </c>
       <c r="B157" s="28">
-        <v>41780</v>
+        <v>41764</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
-      <c r="E157" s="63"/>
+      <c r="E157" s="62"/>
       <c r="F157" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G157" s="41"/>
@@ -4802,15 +5030,15 @@
       <c r="J157" s="41"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="72"/>
+      <c r="A158" s="109"/>
       <c r="B158" s="28">
-        <v>41781</v>
+        <v>41765</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
-      <c r="E158" s="63"/>
+      <c r="E158" s="62"/>
       <c r="F158" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G158" s="41"/>
@@ -4819,15 +5047,15 @@
       <c r="J158" s="41"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="73"/>
+      <c r="A159" s="109"/>
       <c r="B159" s="28">
-        <v>41782</v>
+        <v>41766</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
-      <c r="E159" s="63"/>
+      <c r="E159" s="62"/>
       <c r="F159" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G159" s="41"/>
@@ -4836,149 +5064,367 @@
       <c r="J159" s="41"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="65">
+      <c r="A160" s="109"/>
+      <c r="B160" s="28">
+        <v>41767</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="62"/>
+      <c r="F160" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G160" s="41"/>
+      <c r="H160" s="41"/>
+      <c r="I160" s="41"/>
+      <c r="J160" s="41"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="110"/>
+      <c r="B161" s="28">
+        <v>41768</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="62"/>
+      <c r="F161" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G161" s="41"/>
+      <c r="H161" s="41"/>
+      <c r="I161" s="41"/>
+      <c r="J161" s="41"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="82">
+        <v>28</v>
+      </c>
+      <c r="B162" s="29">
+        <v>41771</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="61"/>
+      <c r="F162" s="60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G162" s="42"/>
+      <c r="H162" s="42"/>
+      <c r="I162" s="42"/>
+      <c r="J162" s="42"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="83"/>
+      <c r="B163" s="29">
+        <v>41772</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="61"/>
+      <c r="F163" s="60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="42"/>
+      <c r="H163" s="42"/>
+      <c r="I163" s="42"/>
+      <c r="J163" s="42"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="83"/>
+      <c r="B164" s="29">
+        <v>41773</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="61"/>
+      <c r="F164" s="60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G164" s="42"/>
+      <c r="H164" s="42"/>
+      <c r="I164" s="42"/>
+      <c r="J164" s="42"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="83"/>
+      <c r="B165" s="29">
+        <v>41774</v>
+      </c>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="61"/>
+      <c r="F165" s="60">
+        <f t="shared" ref="F165:F176" si="4">E165</f>
+        <v>0</v>
+      </c>
+      <c r="G165" s="42"/>
+      <c r="H165" s="42"/>
+      <c r="I165" s="42"/>
+      <c r="J165" s="42"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="84"/>
+      <c r="B166" s="29">
+        <v>41775</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="61"/>
+      <c r="F166" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G166" s="42"/>
+      <c r="H166" s="42"/>
+      <c r="I166" s="42"/>
+      <c r="J166" s="42"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="108">
+        <v>29</v>
+      </c>
+      <c r="B167" s="28">
+        <v>41778</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="62"/>
+      <c r="F167" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G167" s="41"/>
+      <c r="H167" s="41"/>
+      <c r="I167" s="41"/>
+      <c r="J167" s="41"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="109"/>
+      <c r="B168" s="28">
+        <v>41779</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="62"/>
+      <c r="F168" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="41"/>
+      <c r="H168" s="41"/>
+      <c r="I168" s="41"/>
+      <c r="J168" s="41"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="109"/>
+      <c r="B169" s="28">
+        <v>41780</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="62"/>
+      <c r="F169" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G169" s="41"/>
+      <c r="H169" s="41"/>
+      <c r="I169" s="41"/>
+      <c r="J169" s="41"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="109"/>
+      <c r="B170" s="28">
+        <v>41781</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="62"/>
+      <c r="F170" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G170" s="41"/>
+      <c r="H170" s="41"/>
+      <c r="I170" s="41"/>
+      <c r="J170" s="41"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="110"/>
+      <c r="B171" s="28">
+        <v>41782</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="62"/>
+      <c r="F171" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G171" s="41"/>
+      <c r="H171" s="41"/>
+      <c r="I171" s="41"/>
+      <c r="J171" s="41"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="123">
         <v>30</v>
       </c>
-      <c r="B160" s="29">
+      <c r="B172" s="29">
         <v>41785</v>
       </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="64"/>
-      <c r="F160" s="30">
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="63"/>
+      <c r="F172" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G160" s="43"/>
-      <c r="H160" s="43"/>
-      <c r="I160" s="43"/>
-      <c r="J160" s="43"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="66"/>
-      <c r="B161" s="29">
+      <c r="G172" s="43"/>
+      <c r="H172" s="43"/>
+      <c r="I172" s="43"/>
+      <c r="J172" s="43"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="124"/>
+      <c r="B173" s="29">
         <v>41786</v>
       </c>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="64"/>
-      <c r="F161" s="30">
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="63"/>
+      <c r="F173" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G161" s="43"/>
-      <c r="H161" s="43"/>
-      <c r="I161" s="43"/>
-      <c r="J161" s="43"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="66"/>
-      <c r="B162" s="29">
+      <c r="G173" s="43"/>
+      <c r="H173" s="43"/>
+      <c r="I173" s="43"/>
+      <c r="J173" s="43"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="124"/>
+      <c r="B174" s="29">
         <v>41787</v>
       </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="64"/>
-      <c r="F162" s="30">
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="63"/>
+      <c r="F174" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G162" s="43"/>
-      <c r="H162" s="43"/>
-      <c r="I162" s="43"/>
-      <c r="J162" s="43"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="66"/>
-      <c r="B163" s="29">
+      <c r="G174" s="43"/>
+      <c r="H174" s="43"/>
+      <c r="I174" s="43"/>
+      <c r="J174" s="43"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="124"/>
+      <c r="B175" s="29">
         <v>41788</v>
       </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="64"/>
-      <c r="F163" s="30">
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="63"/>
+      <c r="F175" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G163" s="43"/>
-      <c r="H163" s="43"/>
-      <c r="I163" s="43"/>
-      <c r="J163" s="43"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="67"/>
-      <c r="B164" s="29">
+      <c r="G175" s="43"/>
+      <c r="H175" s="43"/>
+      <c r="I175" s="43"/>
+      <c r="J175" s="43"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="125"/>
+      <c r="B176" s="29">
         <v>41789</v>
       </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="64"/>
-      <c r="F164" s="30">
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="63"/>
+      <c r="F176" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G164" s="43"/>
-      <c r="H164" s="43"/>
-      <c r="I164" s="43"/>
-      <c r="J164" s="43"/>
+      <c r="G176" s="43"/>
+      <c r="H176" s="43"/>
+      <c r="I176" s="43"/>
+      <c r="J176" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="63">
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A23:A39"/>
+    <mergeCell ref="F37:F39"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A19:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="A110:A114"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="A140:A144"/>
   </mergeCells>
-  <conditionalFormatting sqref="M7">
+  <conditionalFormatting sqref="M7:M8">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>700</formula>
     </cfRule>
@@ -4993,8 +5439,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M10:M12 M8 F8 F11 F13 F17 F19 F22 F28 M13" formulaRange="1"/>
-    <ignoredError sqref="F15" formula="1" formulaRange="1"/>
+    <ignoredError sqref="F14 F21 F28 M14:M16 F40 F9 F7 F12 F16 F23 F26 F34 F37 M9 M12" formulaRange="1"/>
+    <ignoredError sqref="F19" formula="1" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5016,49 +5462,11 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M10</xm:sqref>
+          <xm:sqref>M12:M13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="37" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
             <x14:iconSet iconSet="3Symbols" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M13:M14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="35" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
-            <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
@@ -5076,7 +5484,7 @@
           <xm:sqref>M15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="34" id="{D55CCFD4-ED16-4942-B8E7-E8596BA63DE9}">
+          <x14:cfRule type="iconSet" priority="36" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5092,7 +5500,45 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M16</xm:sqref>
+          <xm:sqref>M16:M18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="35" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="34" id="{D55CCFD4-ED16-4942-B8E7-E8596BA63DE9}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="33" id="{8DF54BCB-92DC-49D8-B5B7-C930B758DAC9}">
@@ -5111,7 +5557,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M17:M18</xm:sqref>
+          <xm:sqref>M21:M22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="31" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
@@ -5130,7 +5576,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M19:M20</xm:sqref>
+          <xm:sqref>M23:M25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="30" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
@@ -5149,7 +5595,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M21</xm:sqref>
+          <xm:sqref>M26:M27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="29" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
@@ -5168,219 +5614,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M22:M27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M28:M29</xm:sqref>
+          <xm:sqref>M28:M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="27" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5399,7 +5636,7 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5415,48 +5652,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M41</xm:sqref>
+          <xm:sqref>M41:M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5475,7 +5674,7 @@
           <xm:sqref>M44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5494,7 +5693,7 @@
           <xm:sqref>M45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5513,7 +5712,7 @@
           <xm:sqref>M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5532,7 +5731,7 @@
           <xm:sqref>M47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
+          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5548,7 +5747,235 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M8</xm:sqref>
+          <xm:sqref>M48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{3E29B8AA-8D68-43AF-9EB7-101178C89B70}">
@@ -5567,7 +5994,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F17</xm:sqref>
+          <xm:sqref>F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="39" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
@@ -5586,7 +6013,26 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F7:F8 F10:F11 F13 F15 F19 F21:F22 F28 F30:F164</xm:sqref>
+          <xm:sqref>F40 F7 F12 F16 F19 F23 F26 F34 F37 F44:F176 F9 F14 F28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="40" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M34:M39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="108">
   <si>
     <t>Week</t>
   </si>
@@ -431,6 +431,9 @@
   <si>
     <t xml:space="preserve"> - Create SRM guide, SPM guide, Daily Meeting guide, Scrum iteration guide
  - Update timelog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Repair question for meeting with customer</t>
   </si>
 </sst>
 </file>
@@ -898,6 +901,141 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,30 +1072,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -994,24 +1108,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1021,101 +1117,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1543,10 +1546,10 @@
   <dimension ref="A1:O176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1568,79 +1571,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="69"/>
+      <c r="A1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="114"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="72"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="117"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="78"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="123"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="107"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="138"/>
       <c r="F5" s="16"/>
       <c r="H5" s="45" t="s">
         <v>75</v>
@@ -1685,16 +1688,16 @@
       <c r="J6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="79">
+      <c r="A7" s="82">
         <v>1</v>
       </c>
-      <c r="B7" s="99">
+      <c r="B7" s="79">
         <v>41585</v>
       </c>
       <c r="C7" s="18">
@@ -1706,7 +1709,7 @@
       <c r="E7" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F7" s="101">
+      <c r="F7" s="85">
         <f>SUM(E7:E8)</f>
         <v>1.24</v>
       </c>
@@ -1718,21 +1721,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="112" t="s">
+      <c r="K7" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="112"/>
+      <c r="L7" s="111"/>
       <c r="M7" s="66">
         <f>SUM(M9:M59)</f>
-        <v>51.783000000000001</v>
+        <v>54.113</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="100"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="18">
         <v>0.60416666666666663</v>
       </c>
@@ -1742,7 +1745,7 @@
       <c r="E8" s="19">
         <v>0.08</v>
       </c>
-      <c r="F8" s="102"/>
+      <c r="F8" s="87"/>
       <c r="G8" s="20" t="s">
         <v>24</v>
       </c>
@@ -1751,14 +1754,14 @@
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="32"/>
-      <c r="K8" s="133"/>
+      <c r="K8" s="69"/>
       <c r="L8" s="64"/>
       <c r="M8" s="66"/>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="99">
+      <c r="A9" s="83"/>
+      <c r="B9" s="79">
         <v>41586</v>
       </c>
       <c r="C9" s="18">
@@ -1770,7 +1773,7 @@
       <c r="E9" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F9" s="101">
+      <c r="F9" s="85">
         <f>SUM(E9:E11)</f>
         <v>1.74</v>
       </c>
@@ -1795,8 +1798,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="121"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1806,7 +1809,7 @@
       <c r="E10" s="19">
         <v>0.5</v>
       </c>
-      <c r="F10" s="132"/>
+      <c r="F10" s="86"/>
       <c r="G10" s="32" t="s">
         <v>25</v>
       </c>
@@ -1817,8 +1820,8 @@
       <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="100"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="18" t="s">
         <v>100</v>
       </c>
@@ -1828,7 +1831,7 @@
       <c r="E11" s="19">
         <v>0.08</v>
       </c>
-      <c r="F11" s="102"/>
+      <c r="F11" s="87"/>
       <c r="G11" s="32" t="s">
         <v>24</v>
       </c>
@@ -1839,10 +1842,10 @@
       <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="96">
+      <c r="A12" s="133">
         <v>2</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="73">
         <v>41590</v>
       </c>
       <c r="C12" s="24">
@@ -1854,7 +1857,7 @@
       <c r="E12" s="25">
         <v>2.25</v>
       </c>
-      <c r="F12" s="134">
+      <c r="F12" s="88">
         <f>SUM(E12:E13)</f>
         <v>2.33</v>
       </c>
@@ -1882,8 +1885,8 @@
       <c r="O12" s="36"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="86"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="24">
         <v>0.625</v>
       </c>
@@ -1893,7 +1896,7 @@
       <c r="E13" s="25">
         <v>0.08</v>
       </c>
-      <c r="F13" s="135"/>
+      <c r="F13" s="89"/>
       <c r="G13" s="33" t="s">
         <v>24</v>
       </c>
@@ -1909,8 +1912,8 @@
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="85">
+      <c r="A14" s="134"/>
+      <c r="B14" s="73">
         <v>41591</v>
       </c>
       <c r="C14" s="27">
@@ -1922,7 +1925,7 @@
       <c r="E14" s="30">
         <v>2</v>
       </c>
-      <c r="F14" s="103">
+      <c r="F14" s="90">
         <f>SUM(E14:E15)</f>
         <v>3</v>
       </c>
@@ -1942,8 +1945,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="86"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1953,7 +1956,7 @@
       <c r="E15" s="30">
         <v>1</v>
       </c>
-      <c r="F15" s="104"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="31" t="s">
         <v>24</v>
       </c>
@@ -1977,8 +1980,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="85">
+      <c r="A16" s="134"/>
+      <c r="B16" s="73">
         <v>41592</v>
       </c>
       <c r="C16" s="27">
@@ -1990,7 +1993,7 @@
       <c r="E16" s="30">
         <v>0.75</v>
       </c>
-      <c r="F16" s="103">
+      <c r="F16" s="90">
         <f>SUM(E16:E18)</f>
         <v>2.08</v>
       </c>
@@ -2010,15 +2013,15 @@
       <c r="L16" s="6"/>
       <c r="M16" s="10">
         <f>SUM(E40:E46)</f>
-        <v>7.25</v>
+        <v>9.58</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="130"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="27">
         <v>0.375</v>
       </c>
@@ -2028,7 +2031,7 @@
       <c r="E17" s="30">
         <v>1.25</v>
       </c>
-      <c r="F17" s="136"/>
+      <c r="F17" s="91"/>
       <c r="G17" s="46" t="s">
         <v>25</v>
       </c>
@@ -2045,8 +2048,8 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="86"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="27">
         <v>0.42708333333333331</v>
       </c>
@@ -2056,11 +2059,11 @@
       <c r="E18" s="30">
         <v>0.08</v>
       </c>
-      <c r="F18" s="104"/>
+      <c r="F18" s="92"/>
       <c r="G18" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="137" t="s">
+      <c r="H18" s="70" t="s">
         <v>101</v>
       </c>
       <c r="I18" s="40"/>
@@ -2071,8 +2074,8 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="85">
+      <c r="A19" s="134"/>
+      <c r="B19" s="73">
         <v>41593</v>
       </c>
       <c r="C19" s="27">
@@ -2084,7 +2087,7 @@
       <c r="E19" s="30">
         <v>1.083</v>
       </c>
-      <c r="F19" s="103">
+      <c r="F19" s="90">
         <f>SUM(E19:E22)</f>
         <v>5.883</v>
       </c>
@@ -2111,8 +2114,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
-      <c r="B20" s="86"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -2122,7 +2125,7 @@
       <c r="E20" s="30">
         <v>2.33</v>
       </c>
-      <c r="F20" s="104"/>
+      <c r="F20" s="92"/>
       <c r="G20" s="31" t="s">
         <v>24</v>
       </c>
@@ -2146,8 +2149,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="85">
+      <c r="A21" s="134"/>
+      <c r="B21" s="73">
         <v>41594</v>
       </c>
       <c r="C21" s="27">
@@ -2159,7 +2162,7 @@
       <c r="E21" s="30">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F21" s="103">
+      <c r="F21" s="90">
         <f>SUM(E21:E22)</f>
         <v>2.4699999999999998</v>
       </c>
@@ -2186,8 +2189,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
-      <c r="B22" s="86"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="75"/>
       <c r="C22" s="27">
         <v>0.83333333333333337</v>
       </c>
@@ -2197,7 +2200,7 @@
       <c r="E22" s="30">
         <v>1.92</v>
       </c>
-      <c r="F22" s="104"/>
+      <c r="F22" s="92"/>
       <c r="G22" s="31" t="s">
         <v>24</v>
       </c>
@@ -2214,10 +2217,10 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="115">
+      <c r="A23" s="108">
         <v>3</v>
       </c>
-      <c r="B23" s="99">
+      <c r="B23" s="79">
         <v>41597</v>
       </c>
       <c r="C23" s="48">
@@ -2229,7 +2232,7 @@
       <c r="E23" s="52">
         <v>2</v>
       </c>
-      <c r="F23" s="113">
+      <c r="F23" s="93">
         <f>SUM(E23:E25)</f>
         <v>3.08</v>
       </c>
@@ -2254,8 +2257,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="116"/>
-      <c r="B24" s="121"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="48">
         <v>0.5625</v>
       </c>
@@ -2265,7 +2268,7 @@
       <c r="E24" s="52">
         <v>1</v>
       </c>
-      <c r="F24" s="122"/>
+      <c r="F24" s="94"/>
       <c r="G24" s="49" t="s">
         <v>21</v>
       </c>
@@ -2280,8 +2283,8 @@
       <c r="N24" s="56"/>
     </row>
     <row r="25" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="116"/>
-      <c r="B25" s="100"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="48">
         <v>0.60416666666666663</v>
       </c>
@@ -2291,7 +2294,7 @@
       <c r="E25" s="52">
         <v>0.08</v>
       </c>
-      <c r="F25" s="114"/>
+      <c r="F25" s="95"/>
       <c r="G25" s="49" t="s">
         <v>24</v>
       </c>
@@ -2306,8 +2309,8 @@
       <c r="N25" s="56"/>
     </row>
     <row r="26" spans="1:14" s="57" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="116"/>
-      <c r="B26" s="99">
+      <c r="A26" s="109"/>
+      <c r="B26" s="79">
         <v>41598</v>
       </c>
       <c r="C26" s="48">
@@ -2319,7 +2322,7 @@
       <c r="E26" s="52">
         <v>4</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="93">
         <f>SUM(E26:E27)</f>
         <v>4.08</v>
       </c>
@@ -2344,8 +2347,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="116"/>
-      <c r="B27" s="100"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="48">
         <v>0.72916666666666663</v>
       </c>
@@ -2355,7 +2358,7 @@
       <c r="E27" s="52">
         <v>0.08</v>
       </c>
-      <c r="F27" s="114"/>
+      <c r="F27" s="95"/>
       <c r="G27" s="32" t="s">
         <v>24</v>
       </c>
@@ -2370,8 +2373,8 @@
       <c r="N27" s="56"/>
     </row>
     <row r="28" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="116"/>
-      <c r="B28" s="99">
+      <c r="A28" s="109"/>
+      <c r="B28" s="79">
         <v>41599</v>
       </c>
       <c r="C28" s="48">
@@ -2383,7 +2386,7 @@
       <c r="E28" s="52">
         <v>1</v>
       </c>
-      <c r="F28" s="113">
+      <c r="F28" s="93">
         <f>SUM(E28:E33)</f>
         <v>10.850000000000001</v>
       </c>
@@ -2410,8 +2413,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" s="57" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="116"/>
-      <c r="B29" s="121"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="48">
         <v>0.375</v>
       </c>
@@ -2421,7 +2424,7 @@
       <c r="E29" s="52">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F29" s="122"/>
+      <c r="F29" s="94"/>
       <c r="G29" s="32" t="s">
         <v>25</v>
       </c>
@@ -2436,8 +2439,8 @@
       <c r="N29" s="56"/>
     </row>
     <row r="30" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="116"/>
-      <c r="B30" s="121"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="48">
         <v>0.4236111111111111</v>
       </c>
@@ -2447,7 +2450,7 @@
       <c r="E30" s="52">
         <v>1.03</v>
       </c>
-      <c r="F30" s="122"/>
+      <c r="F30" s="94"/>
       <c r="G30" s="49" t="s">
         <v>21</v>
       </c>
@@ -2462,8 +2465,8 @@
       <c r="N30" s="56"/>
     </row>
     <row r="31" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="116"/>
-      <c r="B31" s="121"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="48">
         <v>0.5625</v>
       </c>
@@ -2473,7 +2476,7 @@
       <c r="E31" s="52">
         <v>1.5</v>
       </c>
-      <c r="F31" s="122"/>
+      <c r="F31" s="94"/>
       <c r="G31" s="32" t="s">
         <v>30</v>
       </c>
@@ -2490,8 +2493,8 @@
       <c r="N31" s="56"/>
     </row>
     <row r="32" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="116"/>
-      <c r="B32" s="121"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="48">
         <v>0.625</v>
       </c>
@@ -2501,7 +2504,7 @@
       <c r="E32" s="52">
         <v>2.16</v>
       </c>
-      <c r="F32" s="122"/>
+      <c r="F32" s="94"/>
       <c r="G32" s="32" t="s">
         <v>21</v>
       </c>
@@ -2518,8 +2521,8 @@
       <c r="N32" s="56"/>
     </row>
     <row r="33" spans="1:14" s="57" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="116"/>
-      <c r="B33" s="100"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="81"/>
       <c r="C33" s="48">
         <v>0.83333333333333337</v>
       </c>
@@ -2529,7 +2532,7 @@
       <c r="E33" s="52">
         <v>4</v>
       </c>
-      <c r="F33" s="114"/>
+      <c r="F33" s="95"/>
       <c r="G33" s="32" t="s">
         <v>22</v>
       </c>
@@ -2544,8 +2547,8 @@
       <c r="N33" s="56"/>
     </row>
     <row r="34" spans="1:14" s="57" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="116"/>
-      <c r="B34" s="99">
+      <c r="A34" s="109"/>
+      <c r="B34" s="79">
         <v>41600</v>
       </c>
       <c r="C34" s="48">
@@ -2557,7 +2560,7 @@
       <c r="E34" s="52">
         <v>1.25</v>
       </c>
-      <c r="F34" s="113">
+      <c r="F34" s="93">
         <f>SUM(E34:E36)</f>
         <v>5</v>
       </c>
@@ -2584,8 +2587,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="116"/>
-      <c r="B35" s="121"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="48">
         <v>0.64583333333333337</v>
       </c>
@@ -2595,7 +2598,7 @@
       <c r="E35" s="52">
         <v>1</v>
       </c>
-      <c r="F35" s="122"/>
+      <c r="F35" s="94"/>
       <c r="G35" s="32" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2615,8 @@
       <c r="N35" s="56"/>
     </row>
     <row r="36" spans="1:14" s="57" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="116"/>
-      <c r="B36" s="100"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="48">
         <v>0.90625</v>
       </c>
@@ -2623,7 +2626,7 @@
       <c r="E36" s="52">
         <v>2.75</v>
       </c>
-      <c r="F36" s="114"/>
+      <c r="F36" s="95"/>
       <c r="G36" s="32" t="s">
         <v>22</v>
       </c>
@@ -2638,8 +2641,8 @@
       <c r="N36" s="56"/>
     </row>
     <row r="37" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="116"/>
-      <c r="B37" s="99">
+      <c r="A37" s="109"/>
+      <c r="B37" s="79">
         <v>41601</v>
       </c>
       <c r="C37" s="48">
@@ -2651,7 +2654,7 @@
       <c r="E37" s="52">
         <v>0.25</v>
       </c>
-      <c r="F37" s="113">
+      <c r="F37" s="93">
         <f>SUM(E37:E39)</f>
         <v>5.25</v>
       </c>
@@ -2669,8 +2672,8 @@
       <c r="N37" s="56"/>
     </row>
     <row r="38" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="116"/>
-      <c r="B38" s="121"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="48">
         <v>0.57291666666666663</v>
       </c>
@@ -2680,7 +2683,7 @@
       <c r="E38" s="52">
         <v>1</v>
       </c>
-      <c r="F38" s="122"/>
+      <c r="F38" s="94"/>
       <c r="G38" s="32" t="s">
         <v>26</v>
       </c>
@@ -2697,8 +2700,8 @@
       <c r="N38" s="56"/>
     </row>
     <row r="39" spans="1:14" s="57" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="117"/>
-      <c r="B39" s="100"/>
+      <c r="A39" s="110"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="48">
         <v>0.83333333333333337</v>
       </c>
@@ -2708,7 +2711,7 @@
       <c r="E39" s="52">
         <v>4</v>
       </c>
-      <c r="F39" s="114"/>
+      <c r="F39" s="95"/>
       <c r="G39" s="32" t="s">
         <v>24</v>
       </c>
@@ -2725,29 +2728,29 @@
       <c r="N39" s="56"/>
     </row>
     <row r="40" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="118">
+      <c r="A40" s="105">
         <v>4</v>
       </c>
-      <c r="B40" s="85">
+      <c r="B40" s="73">
         <v>41604</v>
       </c>
-      <c r="C40" s="138">
+      <c r="C40" s="71">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D40" s="138">
+      <c r="D40" s="71">
         <v>0.875</v>
       </c>
       <c r="E40" s="60">
         <v>2.25</v>
       </c>
-      <c r="F40" s="128">
+      <c r="F40" s="76">
         <f>SUM(E40:E43)</f>
         <v>7.25</v>
       </c>
       <c r="G40" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="126" t="s">
+      <c r="H40" s="67" t="s">
         <v>96</v>
       </c>
       <c r="I40" s="59"/>
@@ -2765,22 +2768,22 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="57" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="119"/>
-      <c r="B41" s="130"/>
-      <c r="C41" s="138">
+      <c r="A41" s="106"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="71">
         <v>0.875</v>
       </c>
-      <c r="D41" s="138">
+      <c r="D41" s="71">
         <v>0.97916666666666663</v>
       </c>
       <c r="E41" s="60">
         <v>2.5</v>
       </c>
-      <c r="F41" s="131"/>
+      <c r="F41" s="77"/>
       <c r="G41" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="127" t="s">
+      <c r="H41" s="68" t="s">
         <v>97</v>
       </c>
       <c r="I41" s="59"/>
@@ -2798,22 +2801,22 @@
       </c>
     </row>
     <row r="42" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="119"/>
-      <c r="B42" s="130"/>
-      <c r="C42" s="138">
+      <c r="A42" s="106"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="71">
         <v>0.5625</v>
       </c>
-      <c r="D42" s="138">
+      <c r="D42" s="71">
         <v>0.61458333333333337</v>
       </c>
       <c r="E42" s="60">
         <v>1.25</v>
       </c>
-      <c r="F42" s="131"/>
+      <c r="F42" s="77"/>
       <c r="G42" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="127" t="s">
+      <c r="H42" s="68" t="s">
         <v>98</v>
       </c>
       <c r="I42" s="59"/>
@@ -2824,22 +2827,22 @@
       <c r="N42" s="56"/>
     </row>
     <row r="43" spans="1:14" s="57" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="119"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="138">
+      <c r="A43" s="106"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="71">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D43" s="138">
+      <c r="D43" s="71">
         <v>0.66666666666666663</v>
       </c>
       <c r="E43" s="60">
         <v>1.25</v>
       </c>
-      <c r="F43" s="129"/>
+      <c r="F43" s="78"/>
       <c r="G43" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="127" t="s">
+      <c r="H43" s="68" t="s">
         <v>99</v>
       </c>
       <c r="I43" s="59"/>
@@ -2850,19 +2853,29 @@
       <c r="N43" s="56"/>
     </row>
     <row r="44" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="119"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="23">
         <v>41605</v>
       </c>
-      <c r="C44" s="139"/>
-      <c r="D44" s="139"/>
-      <c r="E44" s="60"/>
+      <c r="C44" s="71">
+        <v>0.5625</v>
+      </c>
+      <c r="D44" s="71">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E44" s="60">
+        <v>2.33</v>
+      </c>
       <c r="F44" s="60">
         <f t="shared" ref="F44:F68" si="0">E44</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
+        <v>2.33</v>
+      </c>
+      <c r="G44" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="67" t="s">
+        <v>107</v>
+      </c>
       <c r="I44" s="59"/>
       <c r="J44" s="59"/>
       <c r="K44" s="53" t="s">
@@ -2878,12 +2891,12 @@
       </c>
     </row>
     <row r="45" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="119"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="23">
         <v>41606</v>
       </c>
-      <c r="C45" s="139"/>
-      <c r="D45" s="139"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
       <c r="E45" s="60"/>
       <c r="F45" s="60">
         <f t="shared" si="0"/>
@@ -2906,12 +2919,12 @@
       </c>
     </row>
     <row r="46" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="120"/>
+      <c r="A46" s="107"/>
       <c r="B46" s="23">
         <v>41607</v>
       </c>
-      <c r="C46" s="139"/>
-      <c r="D46" s="139"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="60"/>
       <c r="F46" s="60">
         <f t="shared" si="0"/>
@@ -2934,7 +2947,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="115">
+      <c r="A47" s="108">
         <v>5</v>
       </c>
       <c r="B47" s="17">
@@ -2964,7 +2977,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="116"/>
+      <c r="A48" s="109"/>
       <c r="B48" s="17">
         <v>41611</v>
       </c>
@@ -2992,7 +3005,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="116"/>
+      <c r="A49" s="109"/>
       <c r="B49" s="17">
         <v>41612</v>
       </c>
@@ -3020,7 +3033,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="116"/>
+      <c r="A50" s="109"/>
       <c r="B50" s="17">
         <v>41613</v>
       </c>
@@ -3048,7 +3061,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="117"/>
+      <c r="A51" s="110"/>
       <c r="B51" s="17">
         <v>41614</v>
       </c>
@@ -3076,7 +3089,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="82">
+      <c r="A52" s="99">
         <v>6</v>
       </c>
       <c r="B52" s="29">
@@ -3106,7 +3119,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="29">
         <v>41618</v>
       </c>
@@ -3134,7 +3147,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="83"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="29">
         <v>41619</v>
       </c>
@@ -3162,7 +3175,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="83"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="29">
         <v>41620</v>
       </c>
@@ -3190,7 +3203,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="84"/>
+      <c r="A56" s="101"/>
       <c r="B56" s="29">
         <v>41621</v>
       </c>
@@ -3218,7 +3231,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="108">
+      <c r="A57" s="102">
         <v>7</v>
       </c>
       <c r="B57" s="28">
@@ -3248,7 +3261,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="109"/>
+      <c r="A58" s="103"/>
       <c r="B58" s="28">
         <v>41625</v>
       </c>
@@ -3276,7 +3289,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="109"/>
+      <c r="A59" s="103"/>
       <c r="B59" s="28">
         <v>41626</v>
       </c>
@@ -3304,7 +3317,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
+      <c r="A60" s="103"/>
       <c r="B60" s="28">
         <v>41627</v>
       </c>
@@ -3321,7 +3334,7 @@
       <c r="J60" s="41"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="110"/>
+      <c r="A61" s="104"/>
       <c r="B61" s="28">
         <v>41628</v>
       </c>
@@ -3338,7 +3351,7 @@
       <c r="J61" s="41"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="82">
+      <c r="A62" s="99">
         <v>8</v>
       </c>
       <c r="B62" s="29">
@@ -3357,7 +3370,7 @@
       <c r="J62" s="42"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="83"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="29">
         <v>41632</v>
       </c>
@@ -3374,7 +3387,7 @@
       <c r="J63" s="42"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="83"/>
+      <c r="A64" s="100"/>
       <c r="B64" s="29">
         <v>41633</v>
       </c>
@@ -3391,7 +3404,7 @@
       <c r="J64" s="42"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="83"/>
+      <c r="A65" s="100"/>
       <c r="B65" s="29">
         <v>41634</v>
       </c>
@@ -3408,7 +3421,7 @@
       <c r="J65" s="42"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="84"/>
+      <c r="A66" s="101"/>
       <c r="B66" s="29">
         <v>41635</v>
       </c>
@@ -3425,7 +3438,7 @@
       <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="108">
+      <c r="A67" s="102">
         <v>9</v>
       </c>
       <c r="B67" s="28">
@@ -3444,7 +3457,7 @@
       <c r="J67" s="41"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="109"/>
+      <c r="A68" s="103"/>
       <c r="B68" s="28">
         <v>41639</v>
       </c>
@@ -3461,7 +3474,7 @@
       <c r="J68" s="41"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="109"/>
+      <c r="A69" s="103"/>
       <c r="B69" s="28">
         <v>41640</v>
       </c>
@@ -3478,7 +3491,7 @@
       <c r="J69" s="41"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="109"/>
+      <c r="A70" s="103"/>
       <c r="B70" s="28">
         <v>41641</v>
       </c>
@@ -3495,7 +3508,7 @@
       <c r="J70" s="41"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="110"/>
+      <c r="A71" s="104"/>
       <c r="B71" s="28">
         <v>41642</v>
       </c>
@@ -3512,7 +3525,7 @@
       <c r="J71" s="41"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="82">
+      <c r="A72" s="99">
         <v>10</v>
       </c>
       <c r="B72" s="29">
@@ -3531,7 +3544,7 @@
       <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="83"/>
+      <c r="A73" s="100"/>
       <c r="B73" s="29">
         <v>41646</v>
       </c>
@@ -3548,7 +3561,7 @@
       <c r="J73" s="42"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="83"/>
+      <c r="A74" s="100"/>
       <c r="B74" s="29">
         <v>41647</v>
       </c>
@@ -3565,7 +3578,7 @@
       <c r="J74" s="42"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="83"/>
+      <c r="A75" s="100"/>
       <c r="B75" s="29">
         <v>41648</v>
       </c>
@@ -3582,7 +3595,7 @@
       <c r="J75" s="42"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="84"/>
+      <c r="A76" s="101"/>
       <c r="B76" s="29">
         <v>41649</v>
       </c>
@@ -3599,7 +3612,7 @@
       <c r="J76" s="42"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="108">
+      <c r="A77" s="102">
         <v>11</v>
       </c>
       <c r="B77" s="28">
@@ -3618,7 +3631,7 @@
       <c r="J77" s="41"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="109"/>
+      <c r="A78" s="103"/>
       <c r="B78" s="28">
         <v>41653</v>
       </c>
@@ -3635,7 +3648,7 @@
       <c r="J78" s="41"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="109"/>
+      <c r="A79" s="103"/>
       <c r="B79" s="28">
         <v>41654</v>
       </c>
@@ -3652,7 +3665,7 @@
       <c r="J79" s="41"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="109"/>
+      <c r="A80" s="103"/>
       <c r="B80" s="28">
         <v>41655</v>
       </c>
@@ -3669,7 +3682,7 @@
       <c r="J80" s="41"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="110"/>
+      <c r="A81" s="104"/>
       <c r="B81" s="28">
         <v>41656</v>
       </c>
@@ -3686,7 +3699,7 @@
       <c r="J81" s="41"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="82">
+      <c r="A82" s="99">
         <v>12</v>
       </c>
       <c r="B82" s="29">
@@ -3705,7 +3718,7 @@
       <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="83"/>
+      <c r="A83" s="100"/>
       <c r="B83" s="29">
         <v>41660</v>
       </c>
@@ -3722,7 +3735,7 @@
       <c r="J83" s="42"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="83"/>
+      <c r="A84" s="100"/>
       <c r="B84" s="29">
         <v>41661</v>
       </c>
@@ -3739,7 +3752,7 @@
       <c r="J84" s="42"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="83"/>
+      <c r="A85" s="100"/>
       <c r="B85" s="29">
         <v>41662</v>
       </c>
@@ -3756,7 +3769,7 @@
       <c r="J85" s="42"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="84"/>
+      <c r="A86" s="101"/>
       <c r="B86" s="29">
         <v>41663</v>
       </c>
@@ -3773,7 +3786,7 @@
       <c r="J86" s="42"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="108">
+      <c r="A87" s="102">
         <v>13</v>
       </c>
       <c r="B87" s="28">
@@ -3794,7 +3807,7 @@
       <c r="J87" s="41"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="109"/>
+      <c r="A88" s="103"/>
       <c r="B88" s="28">
         <v>41667</v>
       </c>
@@ -3813,7 +3826,7 @@
       <c r="J88" s="41"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="109"/>
+      <c r="A89" s="103"/>
       <c r="B89" s="28">
         <v>41668</v>
       </c>
@@ -3832,7 +3845,7 @@
       <c r="J89" s="41"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="109"/>
+      <c r="A90" s="103"/>
       <c r="B90" s="28">
         <v>41669</v>
       </c>
@@ -3851,7 +3864,7 @@
       <c r="J90" s="41"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="110"/>
+      <c r="A91" s="104"/>
       <c r="B91" s="28">
         <v>41670</v>
       </c>
@@ -3870,7 +3883,7 @@
       <c r="J91" s="41"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="82">
+      <c r="A92" s="99">
         <v>14</v>
       </c>
       <c r="B92" s="29">
@@ -3891,7 +3904,7 @@
       <c r="J92" s="42"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="83"/>
+      <c r="A93" s="100"/>
       <c r="B93" s="29">
         <v>41674</v>
       </c>
@@ -3910,7 +3923,7 @@
       <c r="J93" s="42"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="83"/>
+      <c r="A94" s="100"/>
       <c r="B94" s="29">
         <v>41675</v>
       </c>
@@ -3929,7 +3942,7 @@
       <c r="J94" s="42"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="83"/>
+      <c r="A95" s="100"/>
       <c r="B95" s="29">
         <v>41676</v>
       </c>
@@ -3948,7 +3961,7 @@
       <c r="J95" s="42"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="84"/>
+      <c r="A96" s="101"/>
       <c r="B96" s="29">
         <v>41677</v>
       </c>
@@ -3967,7 +3980,7 @@
       <c r="J96" s="42"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="108">
+      <c r="A97" s="102">
         <v>15</v>
       </c>
       <c r="B97" s="28">
@@ -3986,7 +3999,7 @@
       <c r="J97" s="41"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="109"/>
+      <c r="A98" s="103"/>
       <c r="B98" s="28">
         <v>41681</v>
       </c>
@@ -4003,7 +4016,7 @@
       <c r="J98" s="41"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="109"/>
+      <c r="A99" s="103"/>
       <c r="B99" s="28">
         <v>41682</v>
       </c>
@@ -4020,7 +4033,7 @@
       <c r="J99" s="41"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="109"/>
+      <c r="A100" s="103"/>
       <c r="B100" s="28">
         <v>41683</v>
       </c>
@@ -4037,7 +4050,7 @@
       <c r="J100" s="41"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="110"/>
+      <c r="A101" s="104"/>
       <c r="B101" s="28">
         <v>41684</v>
       </c>
@@ -4054,7 +4067,7 @@
       <c r="J101" s="41"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="82">
+      <c r="A102" s="99">
         <v>16</v>
       </c>
       <c r="B102" s="29">
@@ -4073,7 +4086,7 @@
       <c r="J102" s="42"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="83"/>
+      <c r="A103" s="100"/>
       <c r="B103" s="29">
         <v>41688</v>
       </c>
@@ -4090,7 +4103,7 @@
       <c r="J103" s="42"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="83"/>
+      <c r="A104" s="100"/>
       <c r="B104" s="29">
         <v>41689</v>
       </c>
@@ -4107,7 +4120,7 @@
       <c r="J104" s="42"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="83"/>
+      <c r="A105" s="100"/>
       <c r="B105" s="29">
         <v>41690</v>
       </c>
@@ -4124,7 +4137,7 @@
       <c r="J105" s="42"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="84"/>
+      <c r="A106" s="101"/>
       <c r="B106" s="29">
         <v>41691</v>
       </c>
@@ -4141,7 +4154,7 @@
       <c r="J106" s="42"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="108">
+      <c r="A107" s="102">
         <v>17</v>
       </c>
       <c r="B107" s="28">
@@ -4160,7 +4173,7 @@
       <c r="J107" s="41"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="109"/>
+      <c r="A108" s="103"/>
       <c r="B108" s="28">
         <v>41695</v>
       </c>
@@ -4177,7 +4190,7 @@
       <c r="J108" s="41"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="109"/>
+      <c r="A109" s="103"/>
       <c r="B109" s="28">
         <v>41696</v>
       </c>
@@ -4194,7 +4207,7 @@
       <c r="J109" s="41"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="109"/>
+      <c r="A110" s="103"/>
       <c r="B110" s="28">
         <v>41697</v>
       </c>
@@ -4211,7 +4224,7 @@
       <c r="J110" s="41"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="110"/>
+      <c r="A111" s="104"/>
       <c r="B111" s="28">
         <v>41698</v>
       </c>
@@ -4228,7 +4241,7 @@
       <c r="J111" s="41"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="82">
+      <c r="A112" s="99">
         <v>18</v>
       </c>
       <c r="B112" s="29">
@@ -4247,7 +4260,7 @@
       <c r="J112" s="42"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="83"/>
+      <c r="A113" s="100"/>
       <c r="B113" s="29">
         <v>41702</v>
       </c>
@@ -4264,7 +4277,7 @@
       <c r="J113" s="42"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="83"/>
+      <c r="A114" s="100"/>
       <c r="B114" s="29">
         <v>41703</v>
       </c>
@@ -4281,7 +4294,7 @@
       <c r="J114" s="42"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="83"/>
+      <c r="A115" s="100"/>
       <c r="B115" s="29">
         <v>41704</v>
       </c>
@@ -4298,7 +4311,7 @@
       <c r="J115" s="42"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="84"/>
+      <c r="A116" s="101"/>
       <c r="B116" s="29">
         <v>41705</v>
       </c>
@@ -4315,7 +4328,7 @@
       <c r="J116" s="42"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="108">
+      <c r="A117" s="102">
         <v>19</v>
       </c>
       <c r="B117" s="28">
@@ -4334,7 +4347,7 @@
       <c r="J117" s="41"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="109"/>
+      <c r="A118" s="103"/>
       <c r="B118" s="28">
         <v>41709</v>
       </c>
@@ -4351,7 +4364,7 @@
       <c r="J118" s="41"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="109"/>
+      <c r="A119" s="103"/>
       <c r="B119" s="28">
         <v>41710</v>
       </c>
@@ -4368,7 +4381,7 @@
       <c r="J119" s="41"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="109"/>
+      <c r="A120" s="103"/>
       <c r="B120" s="28">
         <v>41711</v>
       </c>
@@ -4385,7 +4398,7 @@
       <c r="J120" s="41"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="110"/>
+      <c r="A121" s="104"/>
       <c r="B121" s="28">
         <v>41712</v>
       </c>
@@ -4402,7 +4415,7 @@
       <c r="J121" s="41"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="82">
+      <c r="A122" s="99">
         <v>20</v>
       </c>
       <c r="B122" s="29">
@@ -4421,7 +4434,7 @@
       <c r="J122" s="42"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="83"/>
+      <c r="A123" s="100"/>
       <c r="B123" s="29">
         <v>41716</v>
       </c>
@@ -4438,7 +4451,7 @@
       <c r="J123" s="42"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="83"/>
+      <c r="A124" s="100"/>
       <c r="B124" s="29">
         <v>41717</v>
       </c>
@@ -4455,7 +4468,7 @@
       <c r="J124" s="42"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="83"/>
+      <c r="A125" s="100"/>
       <c r="B125" s="29">
         <v>41718</v>
       </c>
@@ -4472,7 +4485,7 @@
       <c r="J125" s="42"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="84"/>
+      <c r="A126" s="101"/>
       <c r="B126" s="29">
         <v>41719</v>
       </c>
@@ -4489,7 +4502,7 @@
       <c r="J126" s="42"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="108">
+      <c r="A127" s="102">
         <v>21</v>
       </c>
       <c r="B127" s="28">
@@ -4508,7 +4521,7 @@
       <c r="J127" s="41"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="109"/>
+      <c r="A128" s="103"/>
       <c r="B128" s="28">
         <v>41723</v>
       </c>
@@ -4525,7 +4538,7 @@
       <c r="J128" s="41"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="109"/>
+      <c r="A129" s="103"/>
       <c r="B129" s="28">
         <v>41724</v>
       </c>
@@ -4542,7 +4555,7 @@
       <c r="J129" s="41"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="109"/>
+      <c r="A130" s="103"/>
       <c r="B130" s="28">
         <v>41725</v>
       </c>
@@ -4559,7 +4572,7 @@
       <c r="J130" s="41"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="110"/>
+      <c r="A131" s="104"/>
       <c r="B131" s="28">
         <v>41726</v>
       </c>
@@ -4576,7 +4589,7 @@
       <c r="J131" s="41"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="82">
+      <c r="A132" s="99">
         <v>22</v>
       </c>
       <c r="B132" s="29">
@@ -4595,7 +4608,7 @@
       <c r="J132" s="42"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="83"/>
+      <c r="A133" s="100"/>
       <c r="B133" s="29">
         <v>41730</v>
       </c>
@@ -4612,7 +4625,7 @@
       <c r="J133" s="42"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="83"/>
+      <c r="A134" s="100"/>
       <c r="B134" s="29">
         <v>41731</v>
       </c>
@@ -4629,7 +4642,7 @@
       <c r="J134" s="42"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="83"/>
+      <c r="A135" s="100"/>
       <c r="B135" s="29">
         <v>41732</v>
       </c>
@@ -4646,7 +4659,7 @@
       <c r="J135" s="42"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="84"/>
+      <c r="A136" s="101"/>
       <c r="B136" s="29">
         <v>41733</v>
       </c>
@@ -4663,7 +4676,7 @@
       <c r="J136" s="42"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="108">
+      <c r="A137" s="102">
         <v>23</v>
       </c>
       <c r="B137" s="28">
@@ -4682,7 +4695,7 @@
       <c r="J137" s="41"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="109"/>
+      <c r="A138" s="103"/>
       <c r="B138" s="28">
         <v>41737</v>
       </c>
@@ -4699,7 +4712,7 @@
       <c r="J138" s="41"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="109"/>
+      <c r="A139" s="103"/>
       <c r="B139" s="28">
         <v>41738</v>
       </c>
@@ -4716,7 +4729,7 @@
       <c r="J139" s="41"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="109"/>
+      <c r="A140" s="103"/>
       <c r="B140" s="28">
         <v>41739</v>
       </c>
@@ -4733,7 +4746,7 @@
       <c r="J140" s="41"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="110"/>
+      <c r="A141" s="104"/>
       <c r="B141" s="28">
         <v>41740</v>
       </c>
@@ -4750,7 +4763,7 @@
       <c r="J141" s="41"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="82">
+      <c r="A142" s="99">
         <v>24</v>
       </c>
       <c r="B142" s="29">
@@ -4769,7 +4782,7 @@
       <c r="J142" s="42"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="83"/>
+      <c r="A143" s="100"/>
       <c r="B143" s="29">
         <v>41744</v>
       </c>
@@ -4786,7 +4799,7 @@
       <c r="J143" s="42"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="83"/>
+      <c r="A144" s="100"/>
       <c r="B144" s="29">
         <v>41745</v>
       </c>
@@ -4803,7 +4816,7 @@
       <c r="J144" s="42"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="83"/>
+      <c r="A145" s="100"/>
       <c r="B145" s="29">
         <v>41746</v>
       </c>
@@ -4820,7 +4833,7 @@
       <c r="J145" s="42"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="84"/>
+      <c r="A146" s="101"/>
       <c r="B146" s="29">
         <v>41747</v>
       </c>
@@ -4837,7 +4850,7 @@
       <c r="J146" s="42"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="108">
+      <c r="A147" s="102">
         <v>25</v>
       </c>
       <c r="B147" s="28">
@@ -4856,7 +4869,7 @@
       <c r="J147" s="41"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="109"/>
+      <c r="A148" s="103"/>
       <c r="B148" s="28">
         <v>41751</v>
       </c>
@@ -4873,7 +4886,7 @@
       <c r="J148" s="41"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="109"/>
+      <c r="A149" s="103"/>
       <c r="B149" s="28">
         <v>41752</v>
       </c>
@@ -4890,7 +4903,7 @@
       <c r="J149" s="41"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="109"/>
+      <c r="A150" s="103"/>
       <c r="B150" s="28">
         <v>41753</v>
       </c>
@@ -4907,7 +4920,7 @@
       <c r="J150" s="41"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="110"/>
+      <c r="A151" s="104"/>
       <c r="B151" s="28">
         <v>41754</v>
       </c>
@@ -4924,7 +4937,7 @@
       <c r="J151" s="41"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="82">
+      <c r="A152" s="99">
         <v>26</v>
       </c>
       <c r="B152" s="29">
@@ -4943,7 +4956,7 @@
       <c r="J152" s="42"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="83"/>
+      <c r="A153" s="100"/>
       <c r="B153" s="29">
         <v>41758</v>
       </c>
@@ -4960,7 +4973,7 @@
       <c r="J153" s="42"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="83"/>
+      <c r="A154" s="100"/>
       <c r="B154" s="29">
         <v>41759</v>
       </c>
@@ -4977,7 +4990,7 @@
       <c r="J154" s="42"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="83"/>
+      <c r="A155" s="100"/>
       <c r="B155" s="29">
         <v>41760</v>
       </c>
@@ -4994,7 +5007,7 @@
       <c r="J155" s="42"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="84"/>
+      <c r="A156" s="101"/>
       <c r="B156" s="29">
         <v>41761</v>
       </c>
@@ -5011,7 +5024,7 @@
       <c r="J156" s="42"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="108">
+      <c r="A157" s="102">
         <v>27</v>
       </c>
       <c r="B157" s="28">
@@ -5030,7 +5043,7 @@
       <c r="J157" s="41"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="109"/>
+      <c r="A158" s="103"/>
       <c r="B158" s="28">
         <v>41765</v>
       </c>
@@ -5047,7 +5060,7 @@
       <c r="J158" s="41"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="109"/>
+      <c r="A159" s="103"/>
       <c r="B159" s="28">
         <v>41766</v>
       </c>
@@ -5064,7 +5077,7 @@
       <c r="J159" s="41"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="109"/>
+      <c r="A160" s="103"/>
       <c r="B160" s="28">
         <v>41767</v>
       </c>
@@ -5081,7 +5094,7 @@
       <c r="J160" s="41"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="110"/>
+      <c r="A161" s="104"/>
       <c r="B161" s="28">
         <v>41768</v>
       </c>
@@ -5098,7 +5111,7 @@
       <c r="J161" s="41"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="82">
+      <c r="A162" s="99">
         <v>28</v>
       </c>
       <c r="B162" s="29">
@@ -5117,7 +5130,7 @@
       <c r="J162" s="42"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="83"/>
+      <c r="A163" s="100"/>
       <c r="B163" s="29">
         <v>41772</v>
       </c>
@@ -5134,7 +5147,7 @@
       <c r="J163" s="42"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="83"/>
+      <c r="A164" s="100"/>
       <c r="B164" s="29">
         <v>41773</v>
       </c>
@@ -5151,7 +5164,7 @@
       <c r="J164" s="42"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="83"/>
+      <c r="A165" s="100"/>
       <c r="B165" s="29">
         <v>41774</v>
       </c>
@@ -5168,7 +5181,7 @@
       <c r="J165" s="42"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="84"/>
+      <c r="A166" s="101"/>
       <c r="B166" s="29">
         <v>41775</v>
       </c>
@@ -5185,7 +5198,7 @@
       <c r="J166" s="42"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="108">
+      <c r="A167" s="102">
         <v>29</v>
       </c>
       <c r="B167" s="28">
@@ -5204,7 +5217,7 @@
       <c r="J167" s="41"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="109"/>
+      <c r="A168" s="103"/>
       <c r="B168" s="28">
         <v>41779</v>
       </c>
@@ -5221,7 +5234,7 @@
       <c r="J168" s="41"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="109"/>
+      <c r="A169" s="103"/>
       <c r="B169" s="28">
         <v>41780</v>
       </c>
@@ -5238,7 +5251,7 @@
       <c r="J169" s="41"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="109"/>
+      <c r="A170" s="103"/>
       <c r="B170" s="28">
         <v>41781</v>
       </c>
@@ -5255,7 +5268,7 @@
       <c r="J170" s="41"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="110"/>
+      <c r="A171" s="104"/>
       <c r="B171" s="28">
         <v>41782</v>
       </c>
@@ -5272,7 +5285,7 @@
       <c r="J171" s="41"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="123">
+      <c r="A172" s="96">
         <v>30</v>
       </c>
       <c r="B172" s="29">
@@ -5291,7 +5304,7 @@
       <c r="J172" s="43"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="124"/>
+      <c r="A173" s="97"/>
       <c r="B173" s="29">
         <v>41786</v>
       </c>
@@ -5308,7 +5321,7 @@
       <c r="J173" s="43"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="124"/>
+      <c r="A174" s="97"/>
       <c r="B174" s="29">
         <v>41787</v>
       </c>
@@ -5325,7 +5338,7 @@
       <c r="J174" s="43"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="124"/>
+      <c r="A175" s="97"/>
       <c r="B175" s="29">
         <v>41788</v>
       </c>
@@ -5342,7 +5355,7 @@
       <c r="J175" s="43"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="125"/>
+      <c r="A176" s="98"/>
       <c r="B176" s="29">
         <v>41789</v>
       </c>
@@ -5360,6 +5373,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A23:A39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="F40:F43"/>
     <mergeCell ref="B9:B11"/>
@@ -5375,54 +5435,7 @@
     <mergeCell ref="F23:F25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B28:B33"/>
     <mergeCell ref="F28:F33"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A23:A39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="K6:N6"/>
   </mergeCells>
   <conditionalFormatting sqref="M7:M8">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="114">
   <si>
     <t>Week</t>
   </si>
@@ -434,6 +434,26 @@
   </si>
   <si>
     <t xml:space="preserve"> - Repair question for meeting with customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Review admission system development process
+ - Review question that repaired for meeting with customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Discuss about functions that supported by prouct owners</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Review meeting minutes and review admission system development process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Get requirement about admission system</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Update meeting minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Update meeting minutes
+ - Update timelog</t>
   </si>
 </sst>
 </file>
@@ -783,9 +803,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -916,18 +933,171 @@
     <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,15 +1107,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -970,156 +1131,13 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1431,7 +1449,7 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1543,13 +1561,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O176"/>
+  <dimension ref="A1:O182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1571,84 +1589,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="112"/>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="114"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="117"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="76"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="130"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="123"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="82"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="138"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="16"/>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="1">
+        <f>4.5/6</f>
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="44" t="s">
         <v>76</v>
       </c>
       <c r="J5" s="6"/>
@@ -1658,46 +1680,46 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="82">
+      <c r="A7" s="129">
         <v>1</v>
       </c>
-      <c r="B7" s="79">
+      <c r="B7" s="110">
         <v>41585</v>
       </c>
       <c r="C7" s="18">
@@ -1709,7 +1731,7 @@
       <c r="E7" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F7" s="132">
         <f>SUM(E7:E8)</f>
         <v>1.24</v>
       </c>
@@ -1720,22 +1742,22 @@
         <v>57</v>
       </c>
       <c r="I7" s="22"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="111" t="s">
+      <c r="J7" s="31"/>
+      <c r="K7" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="111"/>
-      <c r="M7" s="66">
-        <f>SUM(M9:M59)</f>
-        <v>54.113</v>
+      <c r="L7" s="109"/>
+      <c r="M7" s="65">
+        <f>SUM(M9:M65)</f>
+        <v>73.113</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="18">
         <v>0.60416666666666663</v>
       </c>
@@ -1745,7 +1767,7 @@
       <c r="E8" s="19">
         <v>0.08</v>
       </c>
-      <c r="F8" s="87"/>
+      <c r="F8" s="134"/>
       <c r="G8" s="20" t="s">
         <v>24</v>
       </c>
@@ -1753,15 +1775,15 @@
         <v>101</v>
       </c>
       <c r="I8" s="22"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="66"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="65"/>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="79">
+      <c r="A9" s="130"/>
+      <c r="B9" s="110">
         <v>41586</v>
       </c>
       <c r="C9" s="18">
@@ -1773,7 +1795,7 @@
       <c r="E9" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="132">
         <f>SUM(E9:E11)</f>
         <v>1.74</v>
       </c>
@@ -1783,13 +1805,13 @@
       <c r="H9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="32"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="31"/>
       <c r="K9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="9"/>
-      <c r="M9" s="35">
+      <c r="M9" s="34">
         <f>SUM(E7:E11)</f>
         <v>2.98</v>
       </c>
@@ -1798,8 +1820,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1809,19 +1831,19 @@
       <c r="E10" s="19">
         <v>0.5</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="32" t="s">
+      <c r="F10" s="133"/>
+      <c r="G10" s="31" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="32"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="18" t="s">
         <v>100</v>
       </c>
@@ -1831,46 +1853,46 @@
       <c r="E11" s="19">
         <v>0.08</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="32" t="s">
+      <c r="F11" s="134"/>
+      <c r="G11" s="31" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="32"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="133">
+      <c r="A12" s="97">
         <v>2</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="86">
         <v>41590</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>0.625</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>2.25</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="135">
         <f>SUM(E12:E13)</f>
         <v>2.33</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="39"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="8" t="s">
         <v>12</v>
       </c>
@@ -1882,91 +1904,91 @@
       <c r="N12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="36"/>
+      <c r="O12" s="35"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="24">
+      <c r="A13" s="98"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="23">
         <v>0.625</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>0.62847222222222221</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="24">
         <v>0.08</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="33" t="s">
+      <c r="F13" s="136"/>
+      <c r="G13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
       <c r="K13" s="8"/>
       <c r="L13" s="2"/>
       <c r="M13" s="4"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="36"/>
+      <c r="O13" s="35"/>
     </row>
     <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="134"/>
-      <c r="B14" s="73">
+      <c r="A14" s="98"/>
+      <c r="B14" s="86">
         <v>41591</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>0.5625</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <v>2</v>
       </c>
-      <c r="F14" s="90">
+      <c r="F14" s="100">
         <f>SUM(E14:E15)</f>
         <v>3</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="39"/>
+      <c r="J14" s="38"/>
       <c r="K14" s="8"/>
       <c r="L14" s="2"/>
       <c r="M14" s="4"/>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="134"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="27">
+      <c r="A15" s="98"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="26">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="29">
         <v>1</v>
       </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="31" t="s">
+      <c r="F15" s="101"/>
+      <c r="G15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="39"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1980,133 +2002,133 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="134"/>
-      <c r="B16" s="73">
+      <c r="A16" s="98"/>
+      <c r="B16" s="86">
         <v>41592</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <v>0.86458333333333337</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <v>0.75</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="100">
         <f>SUM(E16:E18)</f>
         <v>2.08</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="39"/>
+      <c r="J16" s="38"/>
       <c r="K16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E40:E46)</f>
-        <v>9.58</v>
+        <f>SUM(E40:E52)</f>
+        <v>28.58</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="27">
+      <c r="A17" s="98"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="26">
         <v>0.375</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="26">
         <v>0.42708333333333331</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <v>1.25</v>
       </c>
-      <c r="F17" s="91"/>
-      <c r="G17" s="46" t="s">
+      <c r="F17" s="137"/>
+      <c r="G17" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="39"/>
+      <c r="J17" s="38"/>
       <c r="K17" s="8"/>
       <c r="L17" s="6"/>
       <c r="M17" s="10"/>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="27">
+      <c r="A18" s="98"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="26">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="26">
         <v>0.43055555555555558</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <v>0.08</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="46" t="s">
+      <c r="F18" s="101"/>
+      <c r="G18" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="70" t="s">
+      <c r="H18" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="38"/>
       <c r="K18" s="8"/>
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="134"/>
-      <c r="B19" s="73">
+      <c r="A19" s="98"/>
+      <c r="B19" s="86">
         <v>41593</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="26">
         <v>0.58680555555555558</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="29">
         <v>1.083</v>
       </c>
-      <c r="F19" s="90">
+      <c r="F19" s="100">
         <f>SUM(E19:E22)</f>
         <v>5.883</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="39"/>
+      <c r="J19" s="38"/>
       <c r="K19" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E47:E51)</f>
+        <f>SUM(E53:E57)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -2114,34 +2136,34 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="134"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="27">
+      <c r="A20" s="98"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="26">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <v>0.51388888888888895</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <v>2.33</v>
       </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="31" t="s">
+      <c r="F20" s="101"/>
+      <c r="G20" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="39"/>
+      <c r="J20" s="38"/>
       <c r="K20" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="10">
-        <f>SUM(E52:E56)</f>
+        <f>SUM(E58:E62)</f>
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
@@ -2149,39 +2171,39 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="134"/>
-      <c r="B21" s="73">
+      <c r="A21" s="98"/>
+      <c r="B21" s="86">
         <v>41594</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <v>0.33680555555555558</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="26">
         <v>0.375</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F21" s="90">
+      <c r="F21" s="100">
         <f>SUM(E21:E22)</f>
         <v>2.4699999999999998</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="39"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E57:E61)</f>
+        <f>SUM(E63:E67)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -2189,1086 +2211,1093 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="135"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="27">
+      <c r="A22" s="99"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="26">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="26">
         <v>0.93055555555555547</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="29">
         <v>1.92</v>
       </c>
-      <c r="F22" s="92"/>
-      <c r="G22" s="31" t="s">
+      <c r="F22" s="101"/>
+      <c r="G22" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="39"/>
+      <c r="J22" s="38"/>
       <c r="K22" s="8"/>
       <c r="L22" s="6"/>
       <c r="M22" s="10"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="108">
+    <row r="23" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="116">
         <v>3</v>
       </c>
-      <c r="B23" s="79">
+      <c r="B23" s="110">
         <v>41597</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="47">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="47">
         <v>0.4375</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="51">
         <v>2</v>
       </c>
-      <c r="F23" s="93">
+      <c r="F23" s="113">
         <f>SUM(E23:E25)</f>
         <v>3.08</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="53" t="s">
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="54"/>
-      <c r="M23" s="55">
-        <f>SUM(E67:E71)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="56" t="s">
+      <c r="L23" s="53"/>
+      <c r="M23" s="54">
+        <f>SUM(E73:E77)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="109"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="48">
+    <row r="24" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="117"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="47">
         <v>0.5625</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="47">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="51">
         <v>1</v>
       </c>
-      <c r="F24" s="94"/>
-      <c r="G24" s="49" t="s">
+      <c r="F24" s="114"/>
+      <c r="G24" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="56"/>
-    </row>
-    <row r="25" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="109"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="48">
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="55"/>
+    </row>
+    <row r="25" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="117"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="47">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="47">
         <v>0.60763888888888895</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="51">
         <v>0.08</v>
       </c>
-      <c r="F25" s="95"/>
-      <c r="G25" s="49" t="s">
+      <c r="F25" s="115"/>
+      <c r="G25" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="H25" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="56"/>
-    </row>
-    <row r="26" spans="1:14" s="57" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="109"/>
-      <c r="B26" s="79">
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="55"/>
+    </row>
+    <row r="26" spans="1:14" s="56" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="117"/>
+      <c r="B26" s="110">
         <v>41598</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="47">
         <v>0.5625</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="47">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="51">
         <v>4</v>
       </c>
-      <c r="F26" s="93">
+      <c r="F26" s="113">
         <f>SUM(E26:E27)</f>
         <v>4.08</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="53" t="s">
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="54"/>
-      <c r="M26" s="55">
-        <f>SUM(E72:E76)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="56" t="s">
+      <c r="L26" s="53"/>
+      <c r="M26" s="54">
+        <f>SUM(E78:E82)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="109"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="48">
+    <row r="27" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="117"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="47">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="47">
         <v>0.73263888888888884</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="51">
         <v>0.08</v>
       </c>
-      <c r="F27" s="95"/>
-      <c r="G27" s="32" t="s">
+      <c r="F27" s="115"/>
+      <c r="G27" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="56"/>
-    </row>
-    <row r="28" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="109"/>
-      <c r="B28" s="79">
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="55"/>
+    </row>
+    <row r="28" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="117"/>
+      <c r="B28" s="110">
         <v>41599</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="47">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="47">
         <v>0.375</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="51">
         <v>1</v>
       </c>
-      <c r="F28" s="93">
+      <c r="F28" s="113">
         <f>SUM(E28:E33)</f>
         <v>10.850000000000001</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="J28" s="32"/>
-      <c r="K28" s="53" t="s">
+      <c r="J28" s="31"/>
+      <c r="K28" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="L28" s="54"/>
-      <c r="M28" s="55">
-        <f>SUM(E77:E81)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="56" t="s">
+      <c r="L28" s="53"/>
+      <c r="M28" s="54">
+        <f>SUM(E83:E87)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="57" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="109"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="48">
+    <row r="29" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="117"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="47">
         <v>0.375</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="47">
         <v>0.4236111111111111</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="51">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F29" s="94"/>
-      <c r="G29" s="32" t="s">
+      <c r="F29" s="114"/>
+      <c r="G29" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="51" t="s">
+      <c r="H29" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="56"/>
-    </row>
-    <row r="30" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="109"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="48">
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="55"/>
+    </row>
+    <row r="30" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="117"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="47">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="47">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="51">
         <v>1.03</v>
       </c>
-      <c r="F30" s="94"/>
-      <c r="G30" s="49" t="s">
+      <c r="F30" s="114"/>
+      <c r="G30" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="50" t="s">
+      <c r="H30" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="56"/>
-    </row>
-    <row r="31" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="109"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="48">
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="55"/>
+    </row>
+    <row r="31" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="117"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="47">
         <v>0.5625</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="47">
         <v>0.625</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="51">
         <v>1.5</v>
       </c>
-      <c r="F31" s="94"/>
-      <c r="G31" s="32" t="s">
+      <c r="F31" s="114"/>
+      <c r="G31" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="I31" s="32" t="s">
+      <c r="I31" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="J31" s="32"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="56"/>
-    </row>
-    <row r="32" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="109"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="48">
+      <c r="J31" s="31"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="55"/>
+    </row>
+    <row r="32" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="117"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="47">
         <v>0.625</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="47">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="51">
         <v>2.16</v>
       </c>
-      <c r="F32" s="94"/>
-      <c r="G32" s="32" t="s">
+      <c r="F32" s="114"/>
+      <c r="G32" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="51" t="s">
+      <c r="H32" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="J32" s="32"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="56"/>
-    </row>
-    <row r="33" spans="1:14" s="57" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="109"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="48">
+      <c r="J32" s="31"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="55"/>
+    </row>
+    <row r="33" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="117"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="47">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="47">
         <v>0.99930555555555556</v>
       </c>
-      <c r="E33" s="52">
+      <c r="E33" s="51">
         <v>4</v>
       </c>
-      <c r="F33" s="95"/>
-      <c r="G33" s="32" t="s">
+      <c r="F33" s="115"/>
+      <c r="G33" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="51" t="s">
+      <c r="H33" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="56"/>
-    </row>
-    <row r="34" spans="1:14" s="57" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="109"/>
-      <c r="B34" s="79">
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="55"/>
+    </row>
+    <row r="34" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="117"/>
+      <c r="B34" s="110">
         <v>41600</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="47">
         <v>0.5625</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="47">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E34" s="52">
+      <c r="E34" s="51">
         <v>1.25</v>
       </c>
-      <c r="F34" s="93">
+      <c r="F34" s="113">
         <f>SUM(E34:E36)</f>
         <v>5</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="51" t="s">
+      <c r="H34" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="32"/>
-      <c r="K34" s="53" t="s">
+      <c r="J34" s="31"/>
+      <c r="K34" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="L34" s="54"/>
-      <c r="M34" s="55">
-        <f>SUM(E82:E86)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="56" t="s">
+      <c r="L34" s="53"/>
+      <c r="M34" s="54">
+        <f>SUM(E88:E92)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="109"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="48">
+    <row r="35" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="117"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="47">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="47">
         <v>0.6875</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="51">
         <v>1</v>
       </c>
-      <c r="F35" s="94"/>
-      <c r="G35" s="32" t="s">
+      <c r="F35" s="114"/>
+      <c r="G35" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="51" t="s">
+      <c r="H35" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="I35" s="32" t="s">
+      <c r="I35" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="J35" s="32"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="56"/>
-    </row>
-    <row r="36" spans="1:14" s="57" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="109"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="48">
+      <c r="J35" s="31"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="55"/>
+    </row>
+    <row r="36" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="117"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="47">
         <v>0.90625</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="47">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E36" s="52">
+      <c r="E36" s="51">
         <v>2.75</v>
       </c>
-      <c r="F36" s="95"/>
-      <c r="G36" s="32" t="s">
+      <c r="F36" s="115"/>
+      <c r="G36" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="51" t="s">
+      <c r="H36" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="56"/>
-    </row>
-    <row r="37" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="109"/>
-      <c r="B37" s="79">
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="55"/>
+    </row>
+    <row r="37" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="117"/>
+      <c r="B37" s="110">
         <v>41601</v>
       </c>
-      <c r="C37" s="48">
+      <c r="C37" s="47">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="47">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E37" s="52">
+      <c r="E37" s="51">
         <v>0.25</v>
       </c>
-      <c r="F37" s="93">
+      <c r="F37" s="113">
         <f>SUM(E37:E39)</f>
         <v>5.25</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="51" t="s">
+      <c r="H37" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="56"/>
-    </row>
-    <row r="38" spans="1:14" s="57" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="109"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="48">
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="55"/>
+    </row>
+    <row r="38" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="117"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="47">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D38" s="48">
+      <c r="D38" s="47">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E38" s="52">
+      <c r="E38" s="51">
         <v>1</v>
       </c>
-      <c r="F38" s="94"/>
-      <c r="G38" s="32" t="s">
+      <c r="F38" s="114"/>
+      <c r="G38" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="51" t="s">
+      <c r="H38" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="51" t="s">
+      <c r="I38" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="J38" s="32"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="56"/>
-    </row>
-    <row r="39" spans="1:14" s="57" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="110"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="48">
+      <c r="J38" s="31"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="55"/>
+    </row>
+    <row r="39" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="118"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="47">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D39" s="48">
+      <c r="D39" s="47">
         <v>0.5</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E39" s="51">
         <v>4</v>
       </c>
-      <c r="F39" s="95"/>
-      <c r="G39" s="32" t="s">
+      <c r="F39" s="115"/>
+      <c r="G39" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="51" t="s">
+      <c r="H39" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="I39" s="51" t="s">
+      <c r="I39" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="J39" s="32"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="56"/>
-    </row>
-    <row r="40" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="105">
+      <c r="J39" s="31"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="55"/>
+    </row>
+    <row r="40" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="119">
         <v>4</v>
       </c>
-      <c r="B40" s="73">
+      <c r="B40" s="86">
         <v>41604</v>
       </c>
-      <c r="C40" s="71">
+      <c r="C40" s="70">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D40" s="71">
+      <c r="D40" s="70">
         <v>0.875</v>
       </c>
-      <c r="E40" s="60">
+      <c r="E40" s="59">
         <v>2.25</v>
       </c>
-      <c r="F40" s="76">
+      <c r="F40" s="126">
         <f>SUM(E40:E43)</f>
         <v>7.25</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="67" t="s">
+      <c r="H40" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="53" t="s">
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="L40" s="54"/>
-      <c r="M40" s="55">
-        <f>SUM(E87:E91)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="56" t="s">
+      <c r="L40" s="53"/>
+      <c r="M40" s="54">
+        <f>SUM(E93:E97)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="57" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="106"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="71">
+    <row r="41" spans="1:14" s="56" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="120"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="70">
         <v>0.875</v>
       </c>
-      <c r="D41" s="71">
+      <c r="D41" s="70">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E41" s="60">
+      <c r="E41" s="59">
         <v>2.5</v>
       </c>
-      <c r="F41" s="77"/>
-      <c r="G41" s="59" t="s">
+      <c r="F41" s="127"/>
+      <c r="G41" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="68" t="s">
+      <c r="H41" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="53" t="s">
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="L41" s="54"/>
-      <c r="M41" s="55">
-        <f>SUM(E92:E96)</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="56" t="s">
+      <c r="L41" s="53"/>
+      <c r="M41" s="54">
+        <f>SUM(E98:E102)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="106"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="71">
+    <row r="42" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="120"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="70">
         <v>0.5625</v>
       </c>
-      <c r="D42" s="71">
+      <c r="D42" s="70">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E42" s="60">
+      <c r="E42" s="59">
         <v>1.25</v>
       </c>
-      <c r="F42" s="77"/>
-      <c r="G42" s="39" t="s">
+      <c r="F42" s="127"/>
+      <c r="G42" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="68" t="s">
+      <c r="H42" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="56"/>
-    </row>
-    <row r="43" spans="1:14" s="57" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="106"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="71">
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="55"/>
+    </row>
+    <row r="43" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="120"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="70">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D43" s="71">
+      <c r="D43" s="70">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="59">
         <v>1.25</v>
       </c>
-      <c r="F43" s="78"/>
-      <c r="G43" s="59" t="s">
+      <c r="F43" s="128"/>
+      <c r="G43" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="68" t="s">
+      <c r="H43" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="56"/>
-    </row>
-    <row r="44" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="106"/>
-      <c r="B44" s="23">
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="55"/>
+    </row>
+    <row r="44" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="120"/>
+      <c r="B44" s="86">
         <v>41605</v>
       </c>
-      <c r="C44" s="71">
+      <c r="C44" s="70">
         <v>0.5625</v>
       </c>
-      <c r="D44" s="71">
+      <c r="D44" s="70">
         <v>0.65972222222222221</v>
       </c>
-      <c r="E44" s="60">
+      <c r="E44" s="59">
         <v>2.33</v>
       </c>
-      <c r="F44" s="60">
-        <f t="shared" ref="F44:F68" si="0">E44</f>
-        <v>2.33</v>
-      </c>
-      <c r="G44" s="59" t="s">
+      <c r="F44" s="126">
+        <f>SUM(E44:E45)</f>
+        <v>5.08</v>
+      </c>
+      <c r="G44" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="67" t="s">
+      <c r="H44" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="53" t="s">
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="54"/>
-      <c r="M44" s="55">
-        <f>SUM(E97:E101)</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="56" t="s">
+      <c r="L44" s="53"/>
+      <c r="M44" s="54">
+        <f>SUM(E103:E107)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="106"/>
-      <c r="B45" s="23">
+    <row r="45" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="120"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="70">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D45" s="70">
+        <v>0.53125</v>
+      </c>
+      <c r="E45" s="59">
+        <v>2.75</v>
+      </c>
+      <c r="F45" s="128"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="55"/>
+    </row>
+    <row r="46" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="120"/>
+      <c r="B46" s="86">
         <v>41606</v>
       </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60">
+      <c r="C46" s="70">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D46" s="70">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E46" s="59">
+        <v>1.25</v>
+      </c>
+      <c r="F46" s="126">
+        <f>SUM(E46:E48)</f>
+        <v>5.75</v>
+      </c>
+      <c r="G46" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="138" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="L46" s="53"/>
+      <c r="M46" s="54">
+        <f>SUM(E108:E112)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="120"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="70">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D47" s="70">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E47" s="59">
+        <v>1.75</v>
+      </c>
+      <c r="F47" s="127"/>
+      <c r="G47" s="139" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="55"/>
+    </row>
+    <row r="48" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="120"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="70">
+        <v>0.5625</v>
+      </c>
+      <c r="D48" s="70">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E48" s="59">
+        <v>2.75</v>
+      </c>
+      <c r="F48" s="128"/>
+      <c r="G48" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="55"/>
+    </row>
+    <row r="49" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="120"/>
+      <c r="B49" s="86">
+        <v>41607</v>
+      </c>
+      <c r="C49" s="70">
+        <v>0.5625</v>
+      </c>
+      <c r="D49" s="70">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E49" s="59">
+        <v>3.5</v>
+      </c>
+      <c r="F49" s="126">
+        <f>SUM(E49:E50)</f>
+        <v>6.25</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="L49" s="53"/>
+      <c r="M49" s="54">
+        <f>SUM(E113:E117)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="120"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="70">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D50" s="70">
+        <v>0.53125</v>
+      </c>
+      <c r="E50" s="59">
+        <v>2.75</v>
+      </c>
+      <c r="F50" s="128"/>
+      <c r="G50" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="55"/>
+    </row>
+    <row r="51" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="120"/>
+      <c r="B51" s="86">
+        <v>41608</v>
+      </c>
+      <c r="C51" s="70">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D51" s="70">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E51" s="59">
+        <v>1.25</v>
+      </c>
+      <c r="F51" s="100">
+        <f>SUM(E51:E52)</f>
+        <v>4.25</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="55"/>
+    </row>
+    <row r="52" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="121"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="70">
+        <v>0.375</v>
+      </c>
+      <c r="D52" s="70">
+        <v>0</v>
+      </c>
+      <c r="E52" s="59">
+        <v>3</v>
+      </c>
+      <c r="F52" s="101"/>
+      <c r="G52" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="55"/>
+    </row>
+    <row r="53" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="116">
+        <v>5</v>
+      </c>
+      <c r="B53" s="17">
+        <v>41610</v>
+      </c>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51">
+        <f t="shared" ref="F51:F74" si="0">E53</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="L53" s="53"/>
+      <c r="M53" s="54">
+        <f>SUM(E118:E122)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="117"/>
+      <c r="B54" s="17">
+        <v>41611</v>
+      </c>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="L45" s="54"/>
-      <c r="M45" s="55">
-        <f>SUM(E102:E106)</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="56" t="s">
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="L54" s="53"/>
+      <c r="M54" s="54">
+        <f>SUM(E123:E127)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="107"/>
-      <c r="B46" s="23">
-        <v>41607</v>
-      </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60">
+    <row r="55" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="117"/>
+      <c r="B55" s="17">
+        <v>41612</v>
+      </c>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="L46" s="54"/>
-      <c r="M46" s="55">
-        <f>SUM(E107:E111)</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="56" t="s">
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="L55" s="53"/>
+      <c r="M55" s="54">
+        <f>SUM(E128:E132)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="108">
-        <v>5</v>
-      </c>
-      <c r="B47" s="17">
-        <v>41610</v>
-      </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52">
+    <row r="56" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="117"/>
+      <c r="B56" s="17">
+        <v>41613</v>
+      </c>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="L47" s="54"/>
-      <c r="M47" s="55">
-        <f>SUM(E112:E116)</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="56" t="s">
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="L56" s="53"/>
+      <c r="M56" s="54">
+        <f>SUM(E133:E137)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="109"/>
-      <c r="B48" s="17">
-        <v>41611</v>
-      </c>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52">
+    <row r="57" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="118"/>
+      <c r="B57" s="17">
+        <v>41614</v>
+      </c>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L48" s="54"/>
-      <c r="M48" s="55">
-        <f>SUM(E117:E121)</f>
-        <v>0</v>
-      </c>
-      <c r="N48" s="56" t="s">
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="L57" s="53"/>
+      <c r="M57" s="54">
+        <f>SUM(E138:E142)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="109"/>
-      <c r="B49" s="17">
-        <v>41612</v>
-      </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="L49" s="54"/>
-      <c r="M49" s="55">
-        <f>SUM(E122:E126)</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="109"/>
-      <c r="B50" s="17">
-        <v>41613</v>
-      </c>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="L50" s="54"/>
-      <c r="M50" s="55">
-        <f>SUM(E127:E131)</f>
-        <v>0</v>
-      </c>
-      <c r="N50" s="56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="110"/>
-      <c r="B51" s="17">
-        <v>41614</v>
-      </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="L51" s="54"/>
-      <c r="M51" s="55">
-        <f>SUM(E132:E136)</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="99">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="83">
         <v>6</v>
       </c>
-      <c r="B52" s="29">
+      <c r="B58" s="28">
         <v>41617</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L52" s="6"/>
-      <c r="M52" s="10">
-        <f>SUM(E137:E141)</f>
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="100"/>
-      <c r="B53" s="29">
-        <v>41618</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L53" s="6"/>
-      <c r="M53" s="10">
-        <f>SUM(E142:E146)</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="100"/>
-      <c r="B54" s="29">
-        <v>41619</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L54" s="6"/>
-      <c r="M54" s="10">
-        <f>SUM(E147:E151)</f>
-        <v>0</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="100"/>
-      <c r="B55" s="29">
-        <v>41620</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L55" s="6"/>
-      <c r="M55" s="10">
-        <f>SUM(E152:E156)</f>
-        <v>0</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="101"/>
-      <c r="B56" s="29">
-        <v>41621</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L56" s="6"/>
-      <c r="M56" s="10">
-        <f>SUM(E157:E161)</f>
-        <v>0</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="102">
-        <v>7</v>
-      </c>
-      <c r="B57" s="28">
-        <v>41624</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L57" s="6"/>
-      <c r="M57" s="10">
-        <f>SUM(E162:E166)</f>
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="103"/>
-      <c r="B58" s="28">
-        <v>41625</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="52">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3277,11 +3306,11 @@
       <c r="I58" s="41"/>
       <c r="J58" s="41"/>
       <c r="K58" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="10">
-        <f>SUM(E167:E171)</f>
+        <f>SUM(E143:E147)</f>
         <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
@@ -3289,14 +3318,14 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="103"/>
+      <c r="A59" s="84"/>
       <c r="B59" s="28">
-        <v>41626</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="52">
+        <v>41618</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3305,11 +3334,11 @@
       <c r="I59" s="41"/>
       <c r="J59" s="41"/>
       <c r="K59" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="10">
-        <f>SUM(E172:E176)</f>
+        <f>SUM(E148:E152)</f>
         <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
@@ -3317,14 +3346,14 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="103"/>
+      <c r="A60" s="84"/>
       <c r="B60" s="28">
-        <v>41627</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="52">
+        <v>41619</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3332,16 +3361,27 @@
       <c r="H60" s="41"/>
       <c r="I60" s="41"/>
       <c r="J60" s="41"/>
+      <c r="K60" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L60" s="6"/>
+      <c r="M60" s="10">
+        <f>SUM(E153:E157)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="104"/>
+      <c r="A61" s="84"/>
       <c r="B61" s="28">
-        <v>41628</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="52">
+        <v>41620</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3349,122 +3389,177 @@
       <c r="H61" s="41"/>
       <c r="I61" s="41"/>
       <c r="J61" s="41"/>
+      <c r="K61" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L61" s="6"/>
+      <c r="M61" s="10">
+        <f>SUM(E158:E162)</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="99">
-        <v>8</v>
-      </c>
-      <c r="B62" s="29">
-        <v>41631</v>
+      <c r="A62" s="85"/>
+      <c r="B62" s="28">
+        <v>41621</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="60">
+      <c r="E62" s="60"/>
+      <c r="F62" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L62" s="6"/>
+      <c r="M62" s="10">
+        <f>SUM(E163:E167)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="100"/>
-      <c r="B63" s="29">
-        <v>41632</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="105">
+        <v>7</v>
+      </c>
+      <c r="B63" s="27">
+        <v>41624</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="61"/>
-      <c r="F63" s="60">
+      <c r="F63" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L63" s="6"/>
+      <c r="M63" s="10">
+        <f>SUM(E168:E172)</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="100"/>
-      <c r="B64" s="29">
-        <v>41633</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="106"/>
+      <c r="B64" s="27">
+        <v>41625</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="61"/>
-      <c r="F64" s="60">
+      <c r="F64" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="100"/>
-      <c r="B65" s="29">
-        <v>41634</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L64" s="6"/>
+      <c r="M64" s="10">
+        <f>SUM(E173:E177)</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="106"/>
+      <c r="B65" s="27">
+        <v>41626</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
       <c r="E65" s="61"/>
-      <c r="F65" s="60">
+      <c r="F65" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="101"/>
-      <c r="B66" s="29">
-        <v>41635</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L65" s="6"/>
+      <c r="M65" s="10">
+        <f>SUM(E178:E182)</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="106"/>
+      <c r="B66" s="27">
+        <v>41627</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="60">
+      <c r="F66" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="102">
-        <v>9</v>
-      </c>
-      <c r="B67" s="28">
-        <v>41638</v>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="107"/>
+      <c r="B67" s="27">
+        <v>41628</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="52">
+      <c r="E67" s="61"/>
+      <c r="F67" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="103"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="83">
+        <v>8</v>
+      </c>
       <c r="B68" s="28">
-        <v>41639</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="52">
+        <v>41631</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3473,16 +3568,16 @@
       <c r="I68" s="41"/>
       <c r="J68" s="41"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="103"/>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="84"/>
       <c r="B69" s="28">
-        <v>41640</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="52">
-        <f t="shared" ref="F69:F100" si="1">E69</f>
+        <v>41632</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G69" s="41"/>
@@ -3490,16 +3585,16 @@
       <c r="I69" s="41"/>
       <c r="J69" s="41"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="103"/>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="84"/>
       <c r="B70" s="28">
-        <v>41641</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="52">
-        <f t="shared" si="1"/>
+        <v>41633</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G70" s="41"/>
@@ -3507,16 +3602,16 @@
       <c r="I70" s="41"/>
       <c r="J70" s="41"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="104"/>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="84"/>
       <c r="B71" s="28">
-        <v>41642</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="52">
-        <f t="shared" si="1"/>
+        <v>41634</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G71" s="41"/>
@@ -3524,121 +3619,121 @@
       <c r="I71" s="41"/>
       <c r="J71" s="41"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="99">
-        <v>10</v>
-      </c>
-      <c r="B72" s="29">
-        <v>41645</v>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="85"/>
+      <c r="B72" s="28">
+        <v>41635</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="60">
+      <c r="E72" s="60"/>
+      <c r="F72" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="105">
+        <v>9</v>
+      </c>
+      <c r="B73" s="27">
+        <v>41638</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="106"/>
+      <c r="B74" s="27">
+        <v>41639</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="106"/>
+      <c r="B75" s="27">
+        <v>41640</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="51">
+        <f t="shared" ref="F75:F106" si="1">E75</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="106"/>
+      <c r="B76" s="27">
+        <v>41641</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="100"/>
-      <c r="B73" s="29">
-        <v>41646</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="100"/>
-      <c r="B74" s="29">
-        <v>41647</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="100"/>
-      <c r="B75" s="29">
-        <v>41648</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="101"/>
-      <c r="B76" s="29">
-        <v>41649</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="102">
-        <v>11</v>
-      </c>
-      <c r="B77" s="28">
-        <v>41652</v>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="107"/>
+      <c r="B77" s="27">
+        <v>41642</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="52">
+      <c r="E77" s="61"/>
+      <c r="F77" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="103"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="83">
+        <v>10</v>
+      </c>
       <c r="B78" s="28">
-        <v>41653</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="52">
+        <v>41645</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3647,15 +3742,15 @@
       <c r="I78" s="41"/>
       <c r="J78" s="41"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="103"/>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="84"/>
       <c r="B79" s="28">
-        <v>41654</v>
-      </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="52">
+        <v>41646</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3664,15 +3759,15 @@
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="103"/>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="84"/>
       <c r="B80" s="28">
-        <v>41655</v>
-      </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="52">
+        <v>41647</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3682,14 +3777,14 @@
       <c r="J80" s="41"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="104"/>
+      <c r="A81" s="84"/>
       <c r="B81" s="28">
-        <v>41656</v>
-      </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="52">
+        <v>41648</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3699,488 +3794,488 @@
       <c r="J81" s="41"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="99">
-        <v>12</v>
-      </c>
-      <c r="B82" s="29">
-        <v>41659</v>
+      <c r="A82" s="85"/>
+      <c r="B82" s="28">
+        <v>41649</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="60">
+      <c r="E82" s="60"/>
+      <c r="F82" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="100"/>
-      <c r="B83" s="29">
-        <v>41660</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
+      <c r="A83" s="105">
+        <v>11</v>
+      </c>
+      <c r="B83" s="27">
+        <v>41652</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
       <c r="E83" s="61"/>
-      <c r="F83" s="60">
+      <c r="F83" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="100"/>
-      <c r="B84" s="29">
-        <v>41661</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
+      <c r="A84" s="106"/>
+      <c r="B84" s="27">
+        <v>41653</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
       <c r="E84" s="61"/>
-      <c r="F84" s="60">
+      <c r="F84" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G84" s="42"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="42"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="40"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="100"/>
-      <c r="B85" s="29">
-        <v>41662</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
+      <c r="A85" s="106"/>
+      <c r="B85" s="27">
+        <v>41654</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
       <c r="E85" s="61"/>
-      <c r="F85" s="60">
+      <c r="F85" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="40"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="101"/>
-      <c r="B86" s="29">
-        <v>41663</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
+      <c r="A86" s="106"/>
+      <c r="B86" s="27">
+        <v>41655</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
       <c r="E86" s="61"/>
-      <c r="F86" s="60">
+      <c r="F86" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G86" s="42"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="42"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="102">
-        <v>13</v>
-      </c>
-      <c r="B87" s="28">
-        <v>41666</v>
+      <c r="A87" s="107"/>
+      <c r="B87" s="27">
+        <v>41656</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="52">
+      <c r="E87" s="61"/>
+      <c r="F87" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G87" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="103"/>
+      <c r="A88" s="83">
+        <v>12</v>
+      </c>
       <c r="B88" s="28">
-        <v>41667</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="52">
+        <v>41659</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G88" s="41" t="s">
-        <v>35</v>
-      </c>
+      <c r="G88" s="41"/>
       <c r="H88" s="41"/>
       <c r="I88" s="41"/>
       <c r="J88" s="41"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="103"/>
+      <c r="A89" s="84"/>
       <c r="B89" s="28">
-        <v>41668</v>
-      </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="52">
+        <v>41660</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G89" s="41" t="s">
-        <v>35</v>
-      </c>
+      <c r="G89" s="41"/>
       <c r="H89" s="41"/>
       <c r="I89" s="41"/>
       <c r="J89" s="41"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="103"/>
+      <c r="A90" s="84"/>
       <c r="B90" s="28">
-        <v>41669</v>
-      </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="52">
+        <v>41661</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G90" s="41" t="s">
-        <v>35</v>
-      </c>
+      <c r="G90" s="41"/>
       <c r="H90" s="41"/>
       <c r="I90" s="41"/>
       <c r="J90" s="41"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="104"/>
+      <c r="A91" s="84"/>
       <c r="B91" s="28">
-        <v>41670</v>
-      </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="52">
+        <v>41662</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G91" s="41" t="s">
-        <v>35</v>
-      </c>
+      <c r="G91" s="41"/>
       <c r="H91" s="41"/>
       <c r="I91" s="41"/>
       <c r="J91" s="41"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="99">
-        <v>14</v>
-      </c>
-      <c r="B92" s="29">
-        <v>41673</v>
+      <c r="A92" s="85"/>
+      <c r="B92" s="28">
+        <v>41663</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="60">
+      <c r="E92" s="60"/>
+      <c r="F92" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G92" s="43" t="s">
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="105">
+        <v>13</v>
+      </c>
+      <c r="B93" s="27">
+        <v>41666</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H92" s="42"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="100"/>
-      <c r="B93" s="29">
-        <v>41674</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="60">
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="40"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="106"/>
+      <c r="B94" s="27">
+        <v>41667</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G93" s="43" t="s">
+      <c r="G94" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H93" s="42"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="42"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="100"/>
-      <c r="B94" s="29">
-        <v>41675</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="60">
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="40"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="106"/>
+      <c r="B95" s="27">
+        <v>41668</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G94" s="43" t="s">
+      <c r="G95" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H94" s="42"/>
-      <c r="I94" s="42"/>
-      <c r="J94" s="42"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="100"/>
-      <c r="B95" s="29">
-        <v>41676</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="60">
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="40"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="106"/>
+      <c r="B96" s="27">
+        <v>41669</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G95" s="43" t="s">
+      <c r="G96" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="101"/>
-      <c r="B96" s="29">
-        <v>41677</v>
-      </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="102">
-        <v>15</v>
-      </c>
-      <c r="B97" s="28">
-        <v>41680</v>
+      <c r="A97" s="107"/>
+      <c r="B97" s="27">
+        <v>41670</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="52">
+      <c r="E97" s="61"/>
+      <c r="F97" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
+      <c r="G97" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="40"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="103"/>
+      <c r="A98" s="83">
+        <v>14</v>
+      </c>
       <c r="B98" s="28">
-        <v>41681</v>
-      </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="52">
+        <v>41673</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G98" s="41"/>
+      <c r="G98" s="42" t="s">
+        <v>35</v>
+      </c>
       <c r="H98" s="41"/>
       <c r="I98" s="41"/>
       <c r="J98" s="41"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="103"/>
+      <c r="A99" s="84"/>
       <c r="B99" s="28">
-        <v>41682</v>
-      </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="52">
+        <v>41674</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G99" s="41"/>
+      <c r="G99" s="42" t="s">
+        <v>35</v>
+      </c>
       <c r="H99" s="41"/>
       <c r="I99" s="41"/>
       <c r="J99" s="41"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="103"/>
+      <c r="A100" s="84"/>
       <c r="B100" s="28">
-        <v>41683</v>
-      </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="62"/>
-      <c r="F100" s="52">
+        <v>41675</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G100" s="41"/>
+      <c r="G100" s="42" t="s">
+        <v>35</v>
+      </c>
       <c r="H100" s="41"/>
       <c r="I100" s="41"/>
       <c r="J100" s="41"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="104"/>
+      <c r="A101" s="84"/>
       <c r="B101" s="28">
-        <v>41684</v>
-      </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="52">
-        <f t="shared" ref="F101:F132" si="2">E101</f>
-        <v>0</v>
-      </c>
-      <c r="G101" s="41"/>
+        <v>41676</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="42" t="s">
+        <v>35</v>
+      </c>
       <c r="H101" s="41"/>
       <c r="I101" s="41"/>
       <c r="J101" s="41"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="99">
-        <v>16</v>
-      </c>
-      <c r="B102" s="29">
-        <v>41687</v>
+      <c r="A102" s="85"/>
+      <c r="B102" s="28">
+        <v>41677</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="61"/>
-      <c r="F102" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="100"/>
-      <c r="B103" s="29">
-        <v>41688</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
+      <c r="A103" s="105">
+        <v>15</v>
+      </c>
+      <c r="B103" s="27">
+        <v>41680</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
       <c r="E103" s="61"/>
-      <c r="F103" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="42"/>
+      <c r="F103" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="40"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="100"/>
-      <c r="B104" s="29">
-        <v>41689</v>
-      </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
+      <c r="A104" s="106"/>
+      <c r="B104" s="27">
+        <v>41681</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
       <c r="E104" s="61"/>
-      <c r="F104" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="42"/>
-      <c r="H104" s="42"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="42"/>
+      <c r="F104" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="40"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="100"/>
-      <c r="B105" s="29">
-        <v>41690</v>
-      </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
+      <c r="A105" s="106"/>
+      <c r="B105" s="27">
+        <v>41682</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
       <c r="E105" s="61"/>
-      <c r="F105" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="42"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="42"/>
+      <c r="F105" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="40"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="101"/>
-      <c r="B106" s="29">
-        <v>41691</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
+      <c r="A106" s="106"/>
+      <c r="B106" s="27">
+        <v>41683</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
       <c r="E106" s="61"/>
-      <c r="F106" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="42"/>
-      <c r="J106" s="42"/>
+      <c r="F106" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="40"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="102">
-        <v>17</v>
-      </c>
-      <c r="B107" s="28">
-        <v>41694</v>
+      <c r="A107" s="107"/>
+      <c r="B107" s="27">
+        <v>41684</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
-      <c r="E107" s="62"/>
-      <c r="F107" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="51">
+        <f t="shared" ref="F107:F138" si="2">E107</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="103"/>
+      <c r="A108" s="83">
+        <v>16</v>
+      </c>
       <c r="B108" s="28">
-        <v>41695</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="62"/>
-      <c r="F108" s="52">
+        <v>41687</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4190,14 +4285,14 @@
       <c r="J108" s="41"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="103"/>
+      <c r="A109" s="84"/>
       <c r="B109" s="28">
-        <v>41696</v>
-      </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="62"/>
-      <c r="F109" s="52">
+        <v>41688</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4207,14 +4302,14 @@
       <c r="J109" s="41"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="103"/>
+      <c r="A110" s="84"/>
       <c r="B110" s="28">
-        <v>41697</v>
-      </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="52">
+        <v>41689</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4224,14 +4319,14 @@
       <c r="J110" s="41"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="104"/>
+      <c r="A111" s="84"/>
       <c r="B111" s="28">
-        <v>41698</v>
-      </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="62"/>
-      <c r="F111" s="52">
+        <v>41690</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4241,120 +4336,120 @@
       <c r="J111" s="41"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="99">
-        <v>18</v>
-      </c>
-      <c r="B112" s="29">
-        <v>41701</v>
+      <c r="A112" s="85"/>
+      <c r="B112" s="28">
+        <v>41691</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="60">
+      <c r="E112" s="60"/>
+      <c r="F112" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G112" s="42"/>
-      <c r="H112" s="42"/>
-      <c r="I112" s="42"/>
-      <c r="J112" s="42"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="41"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="100"/>
-      <c r="B113" s="29">
-        <v>41702</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
+      <c r="A113" s="105">
+        <v>17</v>
+      </c>
+      <c r="B113" s="27">
+        <v>41694</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
       <c r="E113" s="61"/>
-      <c r="F113" s="60">
+      <c r="F113" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G113" s="42"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="42"/>
-      <c r="J113" s="42"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="40"/>
+      <c r="I113" s="40"/>
+      <c r="J113" s="40"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="100"/>
-      <c r="B114" s="29">
-        <v>41703</v>
-      </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
+      <c r="A114" s="106"/>
+      <c r="B114" s="27">
+        <v>41695</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
       <c r="E114" s="61"/>
-      <c r="F114" s="60">
+      <c r="F114" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G114" s="42"/>
-      <c r="H114" s="42"/>
-      <c r="I114" s="42"/>
-      <c r="J114" s="42"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="40"/>
+      <c r="I114" s="40"/>
+      <c r="J114" s="40"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="100"/>
-      <c r="B115" s="29">
-        <v>41704</v>
-      </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
+      <c r="A115" s="106"/>
+      <c r="B115" s="27">
+        <v>41696</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
       <c r="E115" s="61"/>
-      <c r="F115" s="60">
+      <c r="F115" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G115" s="42"/>
-      <c r="H115" s="42"/>
-      <c r="I115" s="42"/>
-      <c r="J115" s="42"/>
+      <c r="G115" s="40"/>
+      <c r="H115" s="40"/>
+      <c r="I115" s="40"/>
+      <c r="J115" s="40"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="101"/>
-      <c r="B116" s="29">
-        <v>41705</v>
-      </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
+      <c r="A116" s="106"/>
+      <c r="B116" s="27">
+        <v>41697</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
       <c r="E116" s="61"/>
-      <c r="F116" s="60">
+      <c r="F116" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="42"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="40"/>
+      <c r="I116" s="40"/>
+      <c r="J116" s="40"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="102">
-        <v>19</v>
-      </c>
-      <c r="B117" s="28">
-        <v>41708</v>
+      <c r="A117" s="107"/>
+      <c r="B117" s="27">
+        <v>41698</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
-      <c r="E117" s="62"/>
-      <c r="F117" s="52">
+      <c r="E117" s="61"/>
+      <c r="F117" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41"/>
+      <c r="G117" s="40"/>
+      <c r="H117" s="40"/>
+      <c r="I117" s="40"/>
+      <c r="J117" s="40"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="103"/>
+      <c r="A118" s="83">
+        <v>18</v>
+      </c>
       <c r="B118" s="28">
-        <v>41709</v>
-      </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="62"/>
-      <c r="F118" s="52">
+        <v>41701</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="60"/>
+      <c r="F118" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4364,14 +4459,14 @@
       <c r="J118" s="41"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="103"/>
+      <c r="A119" s="84"/>
       <c r="B119" s="28">
-        <v>41710</v>
-      </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="62"/>
-      <c r="F119" s="52">
+        <v>41702</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="60"/>
+      <c r="F119" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4381,14 +4476,14 @@
       <c r="J119" s="41"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="103"/>
+      <c r="A120" s="84"/>
       <c r="B120" s="28">
-        <v>41711</v>
-      </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="62"/>
-      <c r="F120" s="52">
+        <v>41703</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="60"/>
+      <c r="F120" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4398,14 +4493,14 @@
       <c r="J120" s="41"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="104"/>
+      <c r="A121" s="84"/>
       <c r="B121" s="28">
-        <v>41712</v>
-      </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="62"/>
-      <c r="F121" s="52">
+        <v>41704</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4415,120 +4510,120 @@
       <c r="J121" s="41"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="99">
-        <v>20</v>
-      </c>
-      <c r="B122" s="29">
-        <v>41715</v>
+      <c r="A122" s="85"/>
+      <c r="B122" s="28">
+        <v>41705</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="61"/>
-      <c r="F122" s="60">
+      <c r="E122" s="60"/>
+      <c r="F122" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G122" s="42"/>
-      <c r="H122" s="42"/>
-      <c r="I122" s="42"/>
-      <c r="J122" s="42"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="41"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="100"/>
-      <c r="B123" s="29">
-        <v>41716</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
+      <c r="A123" s="105">
+        <v>19</v>
+      </c>
+      <c r="B123" s="27">
+        <v>41708</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
       <c r="E123" s="61"/>
-      <c r="F123" s="60">
+      <c r="F123" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G123" s="42"/>
-      <c r="H123" s="42"/>
-      <c r="I123" s="42"/>
-      <c r="J123" s="42"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="40"/>
+      <c r="I123" s="40"/>
+      <c r="J123" s="40"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="100"/>
-      <c r="B124" s="29">
-        <v>41717</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
+      <c r="A124" s="106"/>
+      <c r="B124" s="27">
+        <v>41709</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
       <c r="E124" s="61"/>
-      <c r="F124" s="60">
+      <c r="F124" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G124" s="42"/>
-      <c r="H124" s="42"/>
-      <c r="I124" s="42"/>
-      <c r="J124" s="42"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="40"/>
+      <c r="I124" s="40"/>
+      <c r="J124" s="40"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="100"/>
-      <c r="B125" s="29">
-        <v>41718</v>
-      </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
+      <c r="A125" s="106"/>
+      <c r="B125" s="27">
+        <v>41710</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
       <c r="E125" s="61"/>
-      <c r="F125" s="60">
+      <c r="F125" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G125" s="42"/>
-      <c r="H125" s="42"/>
-      <c r="I125" s="42"/>
-      <c r="J125" s="42"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="40"/>
+      <c r="I125" s="40"/>
+      <c r="J125" s="40"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="101"/>
-      <c r="B126" s="29">
-        <v>41719</v>
-      </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
+      <c r="A126" s="106"/>
+      <c r="B126" s="27">
+        <v>41711</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
       <c r="E126" s="61"/>
-      <c r="F126" s="60">
+      <c r="F126" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G126" s="42"/>
-      <c r="H126" s="42"/>
-      <c r="I126" s="42"/>
-      <c r="J126" s="42"/>
+      <c r="G126" s="40"/>
+      <c r="H126" s="40"/>
+      <c r="I126" s="40"/>
+      <c r="J126" s="40"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="102">
-        <v>21</v>
-      </c>
-      <c r="B127" s="28">
-        <v>41722</v>
+      <c r="A127" s="107"/>
+      <c r="B127" s="27">
+        <v>41712</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
-      <c r="E127" s="62"/>
-      <c r="F127" s="52">
+      <c r="E127" s="61"/>
+      <c r="F127" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G127" s="41"/>
-      <c r="H127" s="41"/>
-      <c r="I127" s="41"/>
-      <c r="J127" s="41"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="40"/>
+      <c r="I127" s="40"/>
+      <c r="J127" s="40"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="103"/>
+      <c r="A128" s="83">
+        <v>20</v>
+      </c>
       <c r="B128" s="28">
-        <v>41723</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="62"/>
-      <c r="F128" s="52">
+        <v>41715</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="60"/>
+      <c r="F128" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4538,14 +4633,14 @@
       <c r="J128" s="41"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="103"/>
+      <c r="A129" s="84"/>
       <c r="B129" s="28">
-        <v>41724</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="62"/>
-      <c r="F129" s="52">
+        <v>41716</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4555,14 +4650,14 @@
       <c r="J129" s="41"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="103"/>
+      <c r="A130" s="84"/>
       <c r="B130" s="28">
-        <v>41725</v>
-      </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="62"/>
-      <c r="F130" s="52">
+        <v>41717</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4572,14 +4667,14 @@
       <c r="J130" s="41"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="104"/>
+      <c r="A131" s="84"/>
       <c r="B131" s="28">
-        <v>41726</v>
-      </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="62"/>
-      <c r="F131" s="52">
+        <v>41718</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="60"/>
+      <c r="F131" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4589,121 +4684,121 @@
       <c r="J131" s="41"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="99">
-        <v>22</v>
-      </c>
-      <c r="B132" s="29">
-        <v>41729</v>
+      <c r="A132" s="85"/>
+      <c r="B132" s="28">
+        <v>41719</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
-      <c r="E132" s="61"/>
-      <c r="F132" s="60">
+      <c r="E132" s="60"/>
+      <c r="F132" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G132" s="42"/>
-      <c r="H132" s="42"/>
-      <c r="I132" s="42"/>
-      <c r="J132" s="42"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="41"/>
+      <c r="I132" s="41"/>
+      <c r="J132" s="41"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="100"/>
-      <c r="B133" s="29">
-        <v>41730</v>
-      </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
+      <c r="A133" s="105">
+        <v>21</v>
+      </c>
+      <c r="B133" s="27">
+        <v>41722</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
       <c r="E133" s="61"/>
-      <c r="F133" s="60">
-        <f t="shared" ref="F133:F164" si="3">E133</f>
-        <v>0</v>
-      </c>
-      <c r="G133" s="42"/>
-      <c r="H133" s="42"/>
-      <c r="I133" s="42"/>
-      <c r="J133" s="42"/>
+      <c r="F133" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="40"/>
+      <c r="H133" s="40"/>
+      <c r="I133" s="40"/>
+      <c r="J133" s="40"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="100"/>
-      <c r="B134" s="29">
-        <v>41731</v>
-      </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
+      <c r="A134" s="106"/>
+      <c r="B134" s="27">
+        <v>41723</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
       <c r="E134" s="61"/>
-      <c r="F134" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G134" s="42"/>
-      <c r="H134" s="42"/>
-      <c r="I134" s="42"/>
-      <c r="J134" s="42"/>
+      <c r="F134" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G134" s="40"/>
+      <c r="H134" s="40"/>
+      <c r="I134" s="40"/>
+      <c r="J134" s="40"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="100"/>
-      <c r="B135" s="29">
-        <v>41732</v>
-      </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
+      <c r="A135" s="106"/>
+      <c r="B135" s="27">
+        <v>41724</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
       <c r="E135" s="61"/>
-      <c r="F135" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G135" s="42"/>
-      <c r="H135" s="42"/>
-      <c r="I135" s="42"/>
-      <c r="J135" s="42"/>
+      <c r="F135" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="40"/>
+      <c r="H135" s="40"/>
+      <c r="I135" s="40"/>
+      <c r="J135" s="40"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="101"/>
-      <c r="B136" s="29">
-        <v>41733</v>
-      </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
+      <c r="A136" s="106"/>
+      <c r="B136" s="27">
+        <v>41725</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
       <c r="E136" s="61"/>
-      <c r="F136" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G136" s="42"/>
-      <c r="H136" s="42"/>
-      <c r="I136" s="42"/>
-      <c r="J136" s="42"/>
+      <c r="F136" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="40"/>
+      <c r="H136" s="40"/>
+      <c r="I136" s="40"/>
+      <c r="J136" s="40"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="102">
-        <v>23</v>
-      </c>
-      <c r="B137" s="28">
-        <v>41736</v>
+      <c r="A137" s="107"/>
+      <c r="B137" s="27">
+        <v>41726</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
-      <c r="E137" s="62"/>
-      <c r="F137" s="52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G137" s="41"/>
-      <c r="H137" s="41"/>
-      <c r="I137" s="41"/>
-      <c r="J137" s="41"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="40"/>
+      <c r="H137" s="40"/>
+      <c r="I137" s="40"/>
+      <c r="J137" s="40"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="103"/>
+      <c r="A138" s="83">
+        <v>22</v>
+      </c>
       <c r="B138" s="28">
-        <v>41737</v>
-      </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="62"/>
-      <c r="F138" s="52">
-        <f t="shared" si="3"/>
+        <v>41729</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="60"/>
+      <c r="F138" s="59">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G138" s="41"/>
@@ -4712,15 +4807,15 @@
       <c r="J138" s="41"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="103"/>
+      <c r="A139" s="84"/>
       <c r="B139" s="28">
-        <v>41738</v>
-      </c>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="62"/>
-      <c r="F139" s="52">
-        <f t="shared" si="3"/>
+        <v>41730</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="60"/>
+      <c r="F139" s="59">
+        <f t="shared" ref="F139:F170" si="3">E139</f>
         <v>0</v>
       </c>
       <c r="G139" s="41"/>
@@ -4729,14 +4824,14 @@
       <c r="J139" s="41"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="103"/>
+      <c r="A140" s="84"/>
       <c r="B140" s="28">
-        <v>41739</v>
-      </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="62"/>
-      <c r="F140" s="52">
+        <v>41731</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="60"/>
+      <c r="F140" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4746,14 +4841,14 @@
       <c r="J140" s="41"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="104"/>
+      <c r="A141" s="84"/>
       <c r="B141" s="28">
-        <v>41740</v>
-      </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="62"/>
-      <c r="F141" s="52">
+        <v>41732</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="60"/>
+      <c r="F141" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4763,120 +4858,120 @@
       <c r="J141" s="41"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="99">
-        <v>24</v>
-      </c>
-      <c r="B142" s="29">
-        <v>41743</v>
+      <c r="A142" s="85"/>
+      <c r="B142" s="28">
+        <v>41733</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="61"/>
-      <c r="F142" s="60">
+      <c r="E142" s="60"/>
+      <c r="F142" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G142" s="42"/>
-      <c r="H142" s="42"/>
-      <c r="I142" s="42"/>
-      <c r="J142" s="42"/>
+      <c r="G142" s="41"/>
+      <c r="H142" s="41"/>
+      <c r="I142" s="41"/>
+      <c r="J142" s="41"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="100"/>
-      <c r="B143" s="29">
-        <v>41744</v>
-      </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
+      <c r="A143" s="105">
+        <v>23</v>
+      </c>
+      <c r="B143" s="27">
+        <v>41736</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
       <c r="E143" s="61"/>
-      <c r="F143" s="60">
+      <c r="F143" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G143" s="42"/>
-      <c r="H143" s="42"/>
-      <c r="I143" s="42"/>
-      <c r="J143" s="42"/>
+      <c r="G143" s="40"/>
+      <c r="H143" s="40"/>
+      <c r="I143" s="40"/>
+      <c r="J143" s="40"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="100"/>
-      <c r="B144" s="29">
-        <v>41745</v>
-      </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
+      <c r="A144" s="106"/>
+      <c r="B144" s="27">
+        <v>41737</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
       <c r="E144" s="61"/>
-      <c r="F144" s="60">
+      <c r="F144" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G144" s="42"/>
-      <c r="H144" s="42"/>
-      <c r="I144" s="42"/>
-      <c r="J144" s="42"/>
+      <c r="G144" s="40"/>
+      <c r="H144" s="40"/>
+      <c r="I144" s="40"/>
+      <c r="J144" s="40"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="100"/>
-      <c r="B145" s="29">
-        <v>41746</v>
-      </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
+      <c r="A145" s="106"/>
+      <c r="B145" s="27">
+        <v>41738</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
       <c r="E145" s="61"/>
-      <c r="F145" s="60">
+      <c r="F145" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G145" s="42"/>
-      <c r="H145" s="42"/>
-      <c r="I145" s="42"/>
-      <c r="J145" s="42"/>
+      <c r="G145" s="40"/>
+      <c r="H145" s="40"/>
+      <c r="I145" s="40"/>
+      <c r="J145" s="40"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="101"/>
-      <c r="B146" s="29">
-        <v>41747</v>
-      </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
+      <c r="A146" s="106"/>
+      <c r="B146" s="27">
+        <v>41739</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
       <c r="E146" s="61"/>
-      <c r="F146" s="60">
+      <c r="F146" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G146" s="42"/>
-      <c r="H146" s="42"/>
-      <c r="I146" s="42"/>
-      <c r="J146" s="42"/>
+      <c r="G146" s="40"/>
+      <c r="H146" s="40"/>
+      <c r="I146" s="40"/>
+      <c r="J146" s="40"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="102">
-        <v>25</v>
-      </c>
-      <c r="B147" s="28">
-        <v>41750</v>
+      <c r="A147" s="107"/>
+      <c r="B147" s="27">
+        <v>41740</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
-      <c r="E147" s="62"/>
-      <c r="F147" s="52">
+      <c r="E147" s="61"/>
+      <c r="F147" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G147" s="41"/>
-      <c r="H147" s="41"/>
-      <c r="I147" s="41"/>
-      <c r="J147" s="41"/>
+      <c r="G147" s="40"/>
+      <c r="H147" s="40"/>
+      <c r="I147" s="40"/>
+      <c r="J147" s="40"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="103"/>
+      <c r="A148" s="83">
+        <v>24</v>
+      </c>
       <c r="B148" s="28">
-        <v>41751</v>
-      </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="62"/>
-      <c r="F148" s="52">
+        <v>41743</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="60"/>
+      <c r="F148" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4886,14 +4981,14 @@
       <c r="J148" s="41"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="103"/>
+      <c r="A149" s="84"/>
       <c r="B149" s="28">
-        <v>41752</v>
-      </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="62"/>
-      <c r="F149" s="52">
+        <v>41744</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="60"/>
+      <c r="F149" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4903,14 +4998,14 @@
       <c r="J149" s="41"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="103"/>
+      <c r="A150" s="84"/>
       <c r="B150" s="28">
-        <v>41753</v>
-      </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="62"/>
-      <c r="F150" s="52">
+        <v>41745</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="60"/>
+      <c r="F150" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4920,14 +5015,14 @@
       <c r="J150" s="41"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="104"/>
+      <c r="A151" s="84"/>
       <c r="B151" s="28">
-        <v>41754</v>
-      </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="62"/>
-      <c r="F151" s="52">
+        <v>41746</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="60"/>
+      <c r="F151" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4937,120 +5032,120 @@
       <c r="J151" s="41"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="99">
-        <v>26</v>
-      </c>
-      <c r="B152" s="29">
-        <v>41757</v>
+      <c r="A152" s="85"/>
+      <c r="B152" s="28">
+        <v>41747</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="61"/>
-      <c r="F152" s="60">
+      <c r="E152" s="60"/>
+      <c r="F152" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G152" s="42"/>
-      <c r="H152" s="42"/>
-      <c r="I152" s="42"/>
-      <c r="J152" s="42"/>
+      <c r="G152" s="41"/>
+      <c r="H152" s="41"/>
+      <c r="I152" s="41"/>
+      <c r="J152" s="41"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="100"/>
-      <c r="B153" s="29">
-        <v>41758</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
+      <c r="A153" s="105">
+        <v>25</v>
+      </c>
+      <c r="B153" s="27">
+        <v>41750</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
       <c r="E153" s="61"/>
-      <c r="F153" s="60">
+      <c r="F153" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G153" s="42"/>
-      <c r="H153" s="42"/>
-      <c r="I153" s="42"/>
-      <c r="J153" s="42"/>
+      <c r="G153" s="40"/>
+      <c r="H153" s="40"/>
+      <c r="I153" s="40"/>
+      <c r="J153" s="40"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="100"/>
-      <c r="B154" s="29">
-        <v>41759</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
+      <c r="A154" s="106"/>
+      <c r="B154" s="27">
+        <v>41751</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
       <c r="E154" s="61"/>
-      <c r="F154" s="60">
+      <c r="F154" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G154" s="42"/>
-      <c r="H154" s="42"/>
-      <c r="I154" s="42"/>
-      <c r="J154" s="42"/>
+      <c r="G154" s="40"/>
+      <c r="H154" s="40"/>
+      <c r="I154" s="40"/>
+      <c r="J154" s="40"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="100"/>
-      <c r="B155" s="29">
-        <v>41760</v>
-      </c>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
+      <c r="A155" s="106"/>
+      <c r="B155" s="27">
+        <v>41752</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
       <c r="E155" s="61"/>
-      <c r="F155" s="60">
+      <c r="F155" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G155" s="42"/>
-      <c r="H155" s="42"/>
-      <c r="I155" s="42"/>
-      <c r="J155" s="42"/>
+      <c r="G155" s="40"/>
+      <c r="H155" s="40"/>
+      <c r="I155" s="40"/>
+      <c r="J155" s="40"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="101"/>
-      <c r="B156" s="29">
-        <v>41761</v>
-      </c>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
+      <c r="A156" s="106"/>
+      <c r="B156" s="27">
+        <v>41753</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
       <c r="E156" s="61"/>
-      <c r="F156" s="60">
+      <c r="F156" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G156" s="42"/>
-      <c r="H156" s="42"/>
-      <c r="I156" s="42"/>
-      <c r="J156" s="42"/>
+      <c r="G156" s="40"/>
+      <c r="H156" s="40"/>
+      <c r="I156" s="40"/>
+      <c r="J156" s="40"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="102">
-        <v>27</v>
-      </c>
-      <c r="B157" s="28">
-        <v>41764</v>
+      <c r="A157" s="107"/>
+      <c r="B157" s="27">
+        <v>41754</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
-      <c r="E157" s="62"/>
-      <c r="F157" s="52">
+      <c r="E157" s="61"/>
+      <c r="F157" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G157" s="41"/>
-      <c r="H157" s="41"/>
-      <c r="I157" s="41"/>
-      <c r="J157" s="41"/>
+      <c r="G157" s="40"/>
+      <c r="H157" s="40"/>
+      <c r="I157" s="40"/>
+      <c r="J157" s="40"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="103"/>
+      <c r="A158" s="83">
+        <v>26</v>
+      </c>
       <c r="B158" s="28">
-        <v>41765</v>
-      </c>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="62"/>
-      <c r="F158" s="52">
+        <v>41757</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="60"/>
+      <c r="F158" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5060,14 +5155,14 @@
       <c r="J158" s="41"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="103"/>
+      <c r="A159" s="84"/>
       <c r="B159" s="28">
-        <v>41766</v>
-      </c>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="62"/>
-      <c r="F159" s="52">
+        <v>41758</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="60"/>
+      <c r="F159" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5077,14 +5172,14 @@
       <c r="J159" s="41"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="103"/>
+      <c r="A160" s="84"/>
       <c r="B160" s="28">
-        <v>41767</v>
-      </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="62"/>
-      <c r="F160" s="52">
+        <v>41759</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="60"/>
+      <c r="F160" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5094,14 +5189,14 @@
       <c r="J160" s="41"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="104"/>
+      <c r="A161" s="84"/>
       <c r="B161" s="28">
-        <v>41768</v>
-      </c>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="62"/>
-      <c r="F161" s="52">
+        <v>41760</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="60"/>
+      <c r="F161" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5111,121 +5206,121 @@
       <c r="J161" s="41"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="99">
-        <v>28</v>
-      </c>
-      <c r="B162" s="29">
-        <v>41771</v>
+      <c r="A162" s="85"/>
+      <c r="B162" s="28">
+        <v>41761</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
-      <c r="E162" s="61"/>
-      <c r="F162" s="60">
+      <c r="E162" s="60"/>
+      <c r="F162" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G162" s="42"/>
-      <c r="H162" s="42"/>
-      <c r="I162" s="42"/>
-      <c r="J162" s="42"/>
+      <c r="G162" s="41"/>
+      <c r="H162" s="41"/>
+      <c r="I162" s="41"/>
+      <c r="J162" s="41"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="100"/>
-      <c r="B163" s="29">
-        <v>41772</v>
-      </c>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
+      <c r="A163" s="105">
+        <v>27</v>
+      </c>
+      <c r="B163" s="27">
+        <v>41764</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
       <c r="E163" s="61"/>
-      <c r="F163" s="60">
+      <c r="F163" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G163" s="42"/>
-      <c r="H163" s="42"/>
-      <c r="I163" s="42"/>
-      <c r="J163" s="42"/>
+      <c r="G163" s="40"/>
+      <c r="H163" s="40"/>
+      <c r="I163" s="40"/>
+      <c r="J163" s="40"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="100"/>
-      <c r="B164" s="29">
-        <v>41773</v>
-      </c>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
+      <c r="A164" s="106"/>
+      <c r="B164" s="27">
+        <v>41765</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
       <c r="E164" s="61"/>
-      <c r="F164" s="60">
+      <c r="F164" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G164" s="42"/>
-      <c r="H164" s="42"/>
-      <c r="I164" s="42"/>
-      <c r="J164" s="42"/>
+      <c r="G164" s="40"/>
+      <c r="H164" s="40"/>
+      <c r="I164" s="40"/>
+      <c r="J164" s="40"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="100"/>
-      <c r="B165" s="29">
-        <v>41774</v>
-      </c>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
+      <c r="A165" s="106"/>
+      <c r="B165" s="27">
+        <v>41766</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
       <c r="E165" s="61"/>
-      <c r="F165" s="60">
-        <f t="shared" ref="F165:F176" si="4">E165</f>
-        <v>0</v>
-      </c>
-      <c r="G165" s="42"/>
-      <c r="H165" s="42"/>
-      <c r="I165" s="42"/>
-      <c r="J165" s="42"/>
+      <c r="F165" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G165" s="40"/>
+      <c r="H165" s="40"/>
+      <c r="I165" s="40"/>
+      <c r="J165" s="40"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="101"/>
-      <c r="B166" s="29">
-        <v>41775</v>
-      </c>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
+      <c r="A166" s="106"/>
+      <c r="B166" s="27">
+        <v>41767</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
       <c r="E166" s="61"/>
-      <c r="F166" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G166" s="42"/>
-      <c r="H166" s="42"/>
-      <c r="I166" s="42"/>
-      <c r="J166" s="42"/>
+      <c r="F166" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G166" s="40"/>
+      <c r="H166" s="40"/>
+      <c r="I166" s="40"/>
+      <c r="J166" s="40"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="102">
-        <v>29</v>
-      </c>
-      <c r="B167" s="28">
-        <v>41778</v>
+      <c r="A167" s="107"/>
+      <c r="B167" s="27">
+        <v>41768</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
-      <c r="E167" s="62"/>
-      <c r="F167" s="52">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G167" s="41"/>
-      <c r="H167" s="41"/>
-      <c r="I167" s="41"/>
-      <c r="J167" s="41"/>
+      <c r="E167" s="61"/>
+      <c r="F167" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G167" s="40"/>
+      <c r="H167" s="40"/>
+      <c r="I167" s="40"/>
+      <c r="J167" s="40"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="103"/>
+      <c r="A168" s="83">
+        <v>28</v>
+      </c>
       <c r="B168" s="28">
-        <v>41779</v>
-      </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="62"/>
-      <c r="F168" s="52">
-        <f t="shared" si="4"/>
+        <v>41771</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="60"/>
+      <c r="F168" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G168" s="41"/>
@@ -5234,15 +5329,15 @@
       <c r="J168" s="41"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="103"/>
+      <c r="A169" s="84"/>
       <c r="B169" s="28">
-        <v>41780</v>
-      </c>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="62"/>
-      <c r="F169" s="52">
-        <f t="shared" si="4"/>
+        <v>41772</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="60"/>
+      <c r="F169" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G169" s="41"/>
@@ -5251,15 +5346,15 @@
       <c r="J169" s="41"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="103"/>
+      <c r="A170" s="84"/>
       <c r="B170" s="28">
-        <v>41781</v>
-      </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="62"/>
-      <c r="F170" s="52">
-        <f t="shared" si="4"/>
+        <v>41773</v>
+      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="60"/>
+      <c r="F170" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G170" s="41"/>
@@ -5268,15 +5363,15 @@
       <c r="J170" s="41"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="104"/>
+      <c r="A171" s="84"/>
       <c r="B171" s="28">
-        <v>41782</v>
-      </c>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="62"/>
-      <c r="F171" s="52">
-        <f t="shared" si="4"/>
+        <v>41774</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="60"/>
+      <c r="F171" s="59">
+        <f t="shared" ref="F171:F182" si="4">E171</f>
         <v>0</v>
       </c>
       <c r="G171" s="41"/>
@@ -5285,97 +5380,256 @@
       <c r="J171" s="41"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="96">
+      <c r="A172" s="85"/>
+      <c r="B172" s="28">
+        <v>41775</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="60"/>
+      <c r="F172" s="59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G172" s="41"/>
+      <c r="H172" s="41"/>
+      <c r="I172" s="41"/>
+      <c r="J172" s="41"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="105">
+        <v>29</v>
+      </c>
+      <c r="B173" s="27">
+        <v>41778</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="61"/>
+      <c r="F173" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G173" s="40"/>
+      <c r="H173" s="40"/>
+      <c r="I173" s="40"/>
+      <c r="J173" s="40"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="106"/>
+      <c r="B174" s="27">
+        <v>41779</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="61"/>
+      <c r="F174" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G174" s="40"/>
+      <c r="H174" s="40"/>
+      <c r="I174" s="40"/>
+      <c r="J174" s="40"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="106"/>
+      <c r="B175" s="27">
+        <v>41780</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="61"/>
+      <c r="F175" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G175" s="40"/>
+      <c r="H175" s="40"/>
+      <c r="I175" s="40"/>
+      <c r="J175" s="40"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="106"/>
+      <c r="B176" s="27">
+        <v>41781</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="61"/>
+      <c r="F176" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G176" s="40"/>
+      <c r="H176" s="40"/>
+      <c r="I176" s="40"/>
+      <c r="J176" s="40"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="107"/>
+      <c r="B177" s="27">
+        <v>41782</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="61"/>
+      <c r="F177" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G177" s="40"/>
+      <c r="H177" s="40"/>
+      <c r="I177" s="40"/>
+      <c r="J177" s="40"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="122">
         <v>30</v>
       </c>
-      <c r="B172" s="29">
+      <c r="B178" s="28">
         <v>41785</v>
       </c>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="63"/>
-      <c r="F172" s="30">
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="62"/>
+      <c r="F178" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G172" s="43"/>
-      <c r="H172" s="43"/>
-      <c r="I172" s="43"/>
-      <c r="J172" s="43"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="97"/>
-      <c r="B173" s="29">
+      <c r="G178" s="42"/>
+      <c r="H178" s="42"/>
+      <c r="I178" s="42"/>
+      <c r="J178" s="42"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="123"/>
+      <c r="B179" s="28">
         <v>41786</v>
       </c>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="63"/>
-      <c r="F173" s="30">
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="62"/>
+      <c r="F179" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G173" s="43"/>
-      <c r="H173" s="43"/>
-      <c r="I173" s="43"/>
-      <c r="J173" s="43"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="97"/>
-      <c r="B174" s="29">
+      <c r="G179" s="42"/>
+      <c r="H179" s="42"/>
+      <c r="I179" s="42"/>
+      <c r="J179" s="42"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="123"/>
+      <c r="B180" s="28">
         <v>41787</v>
       </c>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="63"/>
-      <c r="F174" s="30">
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="62"/>
+      <c r="F180" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G174" s="43"/>
-      <c r="H174" s="43"/>
-      <c r="I174" s="43"/>
-      <c r="J174" s="43"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="97"/>
-      <c r="B175" s="29">
+      <c r="G180" s="42"/>
+      <c r="H180" s="42"/>
+      <c r="I180" s="42"/>
+      <c r="J180" s="42"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="123"/>
+      <c r="B181" s="28">
         <v>41788</v>
       </c>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="63"/>
-      <c r="F175" s="30">
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="62"/>
+      <c r="F181" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G175" s="43"/>
-      <c r="H175" s="43"/>
-      <c r="I175" s="43"/>
-      <c r="J175" s="43"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="98"/>
-      <c r="B176" s="29">
+      <c r="G181" s="42"/>
+      <c r="H181" s="42"/>
+      <c r="I181" s="42"/>
+      <c r="J181" s="42"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="124"/>
+      <c r="B182" s="28">
         <v>41789</v>
       </c>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="63"/>
-      <c r="F176" s="30">
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="62"/>
+      <c r="F182" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G176" s="43"/>
-      <c r="H176" s="43"/>
-      <c r="I176" s="43"/>
-      <c r="J176" s="43"/>
+      <c r="G182" s="42"/>
+      <c r="H182" s="42"/>
+      <c r="I182" s="42"/>
+      <c r="J182" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="71">
+    <mergeCell ref="A40:A52"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A178:A182"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="A168:A172"/>
+    <mergeCell ref="A173:A177"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A23:A39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="F51:F52"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A78:A82"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
@@ -5383,68 +5637,21 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A67"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A23:A39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F33"/>
   </mergeCells>
   <conditionalFormatting sqref="M7:M8">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>700</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>4704</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
       <formula>700</formula>
       <formula>4704</formula>
     </cfRule>
@@ -5452,14 +5659,14 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F14 F21 F28 M14:M16 F40 F9 F7 F12 F16 F23 F26 F34 F37 M9 M12" formulaRange="1"/>
+    <ignoredError sqref="F14 F21 F28 M14 F40 F9 F7 F12 F16 F23 F26 F34 F37 M9 M12 F46 F44 F49 F51" formulaRange="1"/>
     <ignoredError sqref="F19" formula="1" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="38" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
+          <x14:cfRule type="iconSet" priority="39" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5478,7 +5685,7 @@
           <xm:sqref>M12:M13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="37" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
+          <x14:cfRule type="iconSet" priority="38" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5497,7 +5704,7 @@
           <xm:sqref>M15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
+          <x14:cfRule type="iconSet" priority="37" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5516,7 +5723,7 @@
           <xm:sqref>M16:M18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="35" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
+          <x14:cfRule type="iconSet" priority="36" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5535,7 +5742,7 @@
           <xm:sqref>M19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="34" id="{D55CCFD4-ED16-4942-B8E7-E8596BA63DE9}">
+          <x14:cfRule type="iconSet" priority="35" id="{D55CCFD4-ED16-4942-B8E7-E8596BA63DE9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5554,7 +5761,7 @@
           <xm:sqref>M20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{8DF54BCB-92DC-49D8-B5B7-C930B758DAC9}">
+          <x14:cfRule type="iconSet" priority="34" id="{8DF54BCB-92DC-49D8-B5B7-C930B758DAC9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5573,7 +5780,7 @@
           <xm:sqref>M21:M22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
+          <x14:cfRule type="iconSet" priority="32" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5592,7 +5799,7 @@
           <xm:sqref>M23:M25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
+          <x14:cfRule type="iconSet" priority="31" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5611,7 +5818,7 @@
           <xm:sqref>M26:M27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
+          <x14:cfRule type="iconSet" priority="30" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5630,7 +5837,7 @@
           <xm:sqref>M28:M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
+          <x14:cfRule type="iconSet" priority="28" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5649,7 +5856,7 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
+          <x14:cfRule type="iconSet" priority="27" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5668,7 +5875,7 @@
           <xm:sqref>M41:M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
+          <x14:cfRule type="iconSet" priority="26" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5684,10 +5891,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M44</xm:sqref>
+          <xm:sqref>M44:M45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
+          <x14:cfRule type="iconSet" priority="25" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5703,10 +5910,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M45</xm:sqref>
+          <xm:sqref>M46:M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="24" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5722,124 +5929,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M46</xm:sqref>
+          <xm:sqref>M49:M52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="23" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5858,7 +5951,7 @@
           <xm:sqref>M53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="22" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5877,7 +5970,7 @@
           <xm:sqref>M54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="21" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5896,7 +5989,7 @@
           <xm:sqref>M55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="20" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5915,7 +6008,7 @@
           <xm:sqref>M56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="19" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5934,7 +6027,7 @@
           <xm:sqref>M57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="18" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5953,7 +6046,7 @@
           <xm:sqref>M58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="17" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5972,7 +6065,121 @@
           <xm:sqref>M59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
+          <x14:cfRule type="iconSet" priority="16" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="15" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5991,7 +6198,7 @@
           <xm:sqref>M9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{3E29B8AA-8D68-43AF-9EB7-101178C89B70}">
+          <x14:cfRule type="iconSet" priority="2" id="{3E29B8AA-8D68-43AF-9EB7-101178C89B70}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6010,7 +6217,7 @@
           <xm:sqref>F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="39" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+          <x14:cfRule type="iconSet" priority="40" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6026,10 +6233,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F40 F7 F12 F16 F19 F23 F26 F34 F37 F44:F176 F9 F14 F28</xm:sqref>
+          <xm:sqref>F40 F7 F12 F16 F19 F23 F26 F34 F37 F9 F14 F28 F44 F49 F46 F53:F182</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="40" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
+          <x14:cfRule type="iconSet" priority="41" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6047,6 +6254,25 @@
           </x14:cfRule>
           <xm:sqref>M34:M39</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{CC575692-538C-4903-A0A0-CF25ADB2B2FC}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F51</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="125">
   <si>
     <t>Week</t>
   </si>
@@ -453,6 +453,50 @@
   </si>
   <si>
     <t xml:space="preserve"> - Update meeting minutes
+ - Update timelog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Functional and QA.docx
+ - Entity.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Review entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Review entities and how to documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Discuss about document</t>
+  </si>
+  <si>
+    <t>12:00AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Update Entities and project plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Entity - C.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Review list risk, measurement plan
+ - Review master plan, master design plan
+ - Reivew project plan
+ - Review entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Define weekly report
+ - Update project plan
+ - Update timelog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Training about Java and Sprint framework
++ Setup nessecsary tools
++ Understand DI and AOP in Spring framework
++ Demo Hello world with Spring
+ - Update timelog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Define entities and documentation
  - Update timelog</t>
   </si>
 </sst>
@@ -757,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -893,7 +937,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -933,6 +976,41 @@
     <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,12 +1056,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,12 +1092,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1050,24 +1116,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1077,6 +1125,36 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1086,17 +1164,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1107,37 +1182,9 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1449,7 +1496,7 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1561,13 +1608,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O182"/>
+  <dimension ref="A1:O186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1589,79 +1636,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73"/>
+      <c r="A1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="82"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="16"/>
       <c r="G5" s="1">
         <f>4.5/6</f>
@@ -1710,16 +1757,16 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="129">
+      <c r="A7" s="125">
         <v>1</v>
       </c>
-      <c r="B7" s="110">
+      <c r="B7" s="75">
         <v>41585</v>
       </c>
       <c r="C7" s="18">
@@ -1731,7 +1778,7 @@
       <c r="E7" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F7" s="132">
+      <c r="F7" s="128">
         <f>SUM(E7:E8)</f>
         <v>1.24</v>
       </c>
@@ -1743,21 +1790,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="109" t="s">
+      <c r="K7" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="109"/>
-      <c r="M7" s="65">
-        <f>SUM(M9:M65)</f>
-        <v>73.113</v>
+      <c r="L7" s="117"/>
+      <c r="M7" s="64">
+        <f>SUM(M9:M69)</f>
+        <v>90.113</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="112"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="18">
         <v>0.60416666666666663</v>
       </c>
@@ -1767,7 +1814,7 @@
       <c r="E8" s="19">
         <v>0.08</v>
       </c>
-      <c r="F8" s="134"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="20" t="s">
         <v>24</v>
       </c>
@@ -1776,14 +1823,14 @@
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="31"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="65"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="64"/>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="110">
+      <c r="A9" s="126"/>
+      <c r="B9" s="75">
         <v>41586</v>
       </c>
       <c r="C9" s="18">
@@ -1795,7 +1842,7 @@
       <c r="E9" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F9" s="132">
+      <c r="F9" s="128">
         <f>SUM(E9:E11)</f>
         <v>1.74</v>
       </c>
@@ -1820,8 +1867,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1831,7 +1878,7 @@
       <c r="E10" s="19">
         <v>0.5</v>
       </c>
-      <c r="F10" s="133"/>
+      <c r="F10" s="129"/>
       <c r="G10" s="31" t="s">
         <v>25</v>
       </c>
@@ -1842,8 +1889,8 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="131"/>
-      <c r="B11" s="112"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="18" t="s">
         <v>100</v>
       </c>
@@ -1853,7 +1900,7 @@
       <c r="E11" s="19">
         <v>0.08</v>
       </c>
-      <c r="F11" s="134"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="31" t="s">
         <v>24</v>
       </c>
@@ -1864,10 +1911,10 @@
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="97">
+      <c r="A12" s="107">
         <v>2</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="81">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1879,7 +1926,7 @@
       <c r="E12" s="24">
         <v>2.25</v>
       </c>
-      <c r="F12" s="135">
+      <c r="F12" s="134">
         <f>SUM(E12:E13)</f>
         <v>2.33</v>
       </c>
@@ -1907,8 +1954,8 @@
       <c r="O12" s="35"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="87"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="23">
         <v>0.625</v>
       </c>
@@ -1918,7 +1965,7 @@
       <c r="E13" s="24">
         <v>0.08</v>
       </c>
-      <c r="F13" s="136"/>
+      <c r="F13" s="135"/>
       <c r="G13" s="32" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1981,8 @@
       <c r="O13" s="35"/>
     </row>
     <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="86">
+      <c r="A14" s="108"/>
+      <c r="B14" s="81">
         <v>41591</v>
       </c>
       <c r="C14" s="26">
@@ -1947,7 +1994,7 @@
       <c r="E14" s="29">
         <v>2</v>
       </c>
-      <c r="F14" s="100">
+      <c r="F14" s="73">
         <f>SUM(E14:E15)</f>
         <v>3</v>
       </c>
@@ -1967,8 +2014,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="87"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="26">
         <v>0.91666666666666663</v>
       </c>
@@ -1978,7 +2025,7 @@
       <c r="E15" s="29">
         <v>1</v>
       </c>
-      <c r="F15" s="101"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="30" t="s">
         <v>24</v>
       </c>
@@ -2002,8 +2049,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="86">
+      <c r="A16" s="108"/>
+      <c r="B16" s="81">
         <v>41592</v>
       </c>
       <c r="C16" s="26">
@@ -2015,7 +2062,7 @@
       <c r="E16" s="29">
         <v>0.75</v>
       </c>
-      <c r="F16" s="100">
+      <c r="F16" s="73">
         <f>SUM(E16:E18)</f>
         <v>2.08</v>
       </c>
@@ -2042,8 +2089,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="125"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="26">
         <v>0.375</v>
       </c>
@@ -2053,7 +2100,7 @@
       <c r="E17" s="29">
         <v>1.25</v>
       </c>
-      <c r="F17" s="137"/>
+      <c r="F17" s="136"/>
       <c r="G17" s="45" t="s">
         <v>25</v>
       </c>
@@ -2070,8 +2117,8 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="87"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -2081,11 +2128,11 @@
       <c r="E18" s="29">
         <v>0.08</v>
       </c>
-      <c r="F18" s="101"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="69" t="s">
+      <c r="H18" s="68" t="s">
         <v>101</v>
       </c>
       <c r="I18" s="39"/>
@@ -2096,8 +2143,8 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
-      <c r="B19" s="86">
+      <c r="A19" s="108"/>
+      <c r="B19" s="81">
         <v>41593</v>
       </c>
       <c r="C19" s="26">
@@ -2109,7 +2156,7 @@
       <c r="E19" s="29">
         <v>1.083</v>
       </c>
-      <c r="F19" s="100">
+      <c r="F19" s="73">
         <f>SUM(E19:E22)</f>
         <v>5.883</v>
       </c>
@@ -2128,16 +2175,16 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E53:E57)</f>
-        <v>0</v>
+        <f>SUM(E53:E61)</f>
+        <v>17</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
-      <c r="B20" s="87"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="26">
         <v>0.91666666666666663</v>
       </c>
@@ -2147,7 +2194,7 @@
       <c r="E20" s="29">
         <v>2.33</v>
       </c>
-      <c r="F20" s="101"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="30" t="s">
         <v>24</v>
       </c>
@@ -2163,7 +2210,7 @@
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="10">
-        <f>SUM(E58:E62)</f>
+        <f>SUM(E62:E66)</f>
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
@@ -2171,8 +2218,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
-      <c r="B21" s="86">
+      <c r="A21" s="108"/>
+      <c r="B21" s="81">
         <v>41594</v>
       </c>
       <c r="C21" s="26">
@@ -2184,7 +2231,7 @@
       <c r="E21" s="29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F21" s="100">
+      <c r="F21" s="73">
         <f>SUM(E21:E22)</f>
         <v>2.4699999999999998</v>
       </c>
@@ -2203,7 +2250,7 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E63:E67)</f>
+        <f>SUM(E67:E71)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -2211,8 +2258,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="99"/>
-      <c r="B22" s="87"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -2222,7 +2269,7 @@
       <c r="E22" s="29">
         <v>1.92</v>
       </c>
-      <c r="F22" s="101"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="30" t="s">
         <v>24</v>
       </c>
@@ -2239,10 +2286,10 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="116">
+      <c r="A23" s="118">
         <v>3</v>
       </c>
-      <c r="B23" s="110">
+      <c r="B23" s="75">
         <v>41597</v>
       </c>
       <c r="C23" s="47">
@@ -2254,7 +2301,7 @@
       <c r="E23" s="51">
         <v>2</v>
       </c>
-      <c r="F23" s="113">
+      <c r="F23" s="77">
         <f>SUM(E23:E25)</f>
         <v>3.08</v>
       </c>
@@ -2271,7 +2318,7 @@
       </c>
       <c r="L23" s="53"/>
       <c r="M23" s="54">
-        <f>SUM(E73:E77)</f>
+        <f>SUM(E77:E81)</f>
         <v>0</v>
       </c>
       <c r="N23" s="55" t="s">
@@ -2279,8 +2326,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="117"/>
-      <c r="B24" s="111"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="47">
         <v>0.5625</v>
       </c>
@@ -2290,7 +2337,7 @@
       <c r="E24" s="51">
         <v>1</v>
       </c>
-      <c r="F24" s="114"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="48" t="s">
         <v>21</v>
       </c>
@@ -2305,8 +2352,8 @@
       <c r="N24" s="55"/>
     </row>
     <row r="25" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="117"/>
-      <c r="B25" s="112"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="47">
         <v>0.60416666666666663</v>
       </c>
@@ -2316,7 +2363,7 @@
       <c r="E25" s="51">
         <v>0.08</v>
       </c>
-      <c r="F25" s="115"/>
+      <c r="F25" s="78"/>
       <c r="G25" s="48" t="s">
         <v>24</v>
       </c>
@@ -2331,8 +2378,8 @@
       <c r="N25" s="55"/>
     </row>
     <row r="26" spans="1:14" s="56" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="117"/>
-      <c r="B26" s="110">
+      <c r="A26" s="119"/>
+      <c r="B26" s="75">
         <v>41598</v>
       </c>
       <c r="C26" s="47">
@@ -2344,7 +2391,7 @@
       <c r="E26" s="51">
         <v>4</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="77">
         <f>SUM(E26:E27)</f>
         <v>4.08</v>
       </c>
@@ -2361,7 +2408,7 @@
       </c>
       <c r="L26" s="53"/>
       <c r="M26" s="54">
-        <f>SUM(E78:E82)</f>
+        <f>SUM(E82:E86)</f>
         <v>0</v>
       </c>
       <c r="N26" s="55" t="s">
@@ -2369,8 +2416,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="117"/>
-      <c r="B27" s="112"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="47">
         <v>0.72916666666666663</v>
       </c>
@@ -2380,7 +2427,7 @@
       <c r="E27" s="51">
         <v>0.08</v>
       </c>
-      <c r="F27" s="115"/>
+      <c r="F27" s="78"/>
       <c r="G27" s="31" t="s">
         <v>24</v>
       </c>
@@ -2395,8 +2442,8 @@
       <c r="N27" s="55"/>
     </row>
     <row r="28" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="117"/>
-      <c r="B28" s="110">
+      <c r="A28" s="119"/>
+      <c r="B28" s="75">
         <v>41599</v>
       </c>
       <c r="C28" s="47">
@@ -2408,7 +2455,7 @@
       <c r="E28" s="51">
         <v>1</v>
       </c>
-      <c r="F28" s="113">
+      <c r="F28" s="77">
         <f>SUM(E28:E33)</f>
         <v>10.850000000000001</v>
       </c>
@@ -2427,7 +2474,7 @@
       </c>
       <c r="L28" s="53"/>
       <c r="M28" s="54">
-        <f>SUM(E83:E87)</f>
+        <f>SUM(E87:E91)</f>
         <v>0</v>
       </c>
       <c r="N28" s="55" t="s">
@@ -2435,8 +2482,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="117"/>
-      <c r="B29" s="111"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="47">
         <v>0.375</v>
       </c>
@@ -2446,7 +2493,7 @@
       <c r="E29" s="51">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F29" s="114"/>
+      <c r="F29" s="79"/>
       <c r="G29" s="31" t="s">
         <v>25</v>
       </c>
@@ -2461,8 +2508,8 @@
       <c r="N29" s="55"/>
     </row>
     <row r="30" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="117"/>
-      <c r="B30" s="111"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="47">
         <v>0.4236111111111111</v>
       </c>
@@ -2472,7 +2519,7 @@
       <c r="E30" s="51">
         <v>1.03</v>
       </c>
-      <c r="F30" s="114"/>
+      <c r="F30" s="79"/>
       <c r="G30" s="48" t="s">
         <v>21</v>
       </c>
@@ -2487,8 +2534,8 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="117"/>
-      <c r="B31" s="111"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="47">
         <v>0.5625</v>
       </c>
@@ -2498,7 +2545,7 @@
       <c r="E31" s="51">
         <v>1.5</v>
       </c>
-      <c r="F31" s="114"/>
+      <c r="F31" s="79"/>
       <c r="G31" s="31" t="s">
         <v>30</v>
       </c>
@@ -2515,8 +2562,8 @@
       <c r="N31" s="55"/>
     </row>
     <row r="32" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="117"/>
-      <c r="B32" s="111"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="47">
         <v>0.625</v>
       </c>
@@ -2526,14 +2573,14 @@
       <c r="E32" s="51">
         <v>2.16</v>
       </c>
-      <c r="F32" s="114"/>
+      <c r="F32" s="79"/>
       <c r="G32" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H32" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="64" t="s">
+      <c r="I32" s="63" t="s">
         <v>90</v>
       </c>
       <c r="J32" s="31"/>
@@ -2543,8 +2590,8 @@
       <c r="N32" s="55"/>
     </row>
     <row r="33" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="117"/>
-      <c r="B33" s="112"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="47">
         <v>0.83333333333333337</v>
       </c>
@@ -2554,7 +2601,7 @@
       <c r="E33" s="51">
         <v>4</v>
       </c>
-      <c r="F33" s="115"/>
+      <c r="F33" s="78"/>
       <c r="G33" s="31" t="s">
         <v>22</v>
       </c>
@@ -2569,8 +2616,8 @@
       <c r="N33" s="55"/>
     </row>
     <row r="34" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="117"/>
-      <c r="B34" s="110">
+      <c r="A34" s="119"/>
+      <c r="B34" s="75">
         <v>41600</v>
       </c>
       <c r="C34" s="47">
@@ -2582,7 +2629,7 @@
       <c r="E34" s="51">
         <v>1.25</v>
       </c>
-      <c r="F34" s="113">
+      <c r="F34" s="77">
         <f>SUM(E34:E36)</f>
         <v>5</v>
       </c>
@@ -2601,7 +2648,7 @@
       </c>
       <c r="L34" s="53"/>
       <c r="M34" s="54">
-        <f>SUM(E88:E92)</f>
+        <f>SUM(E92:E96)</f>
         <v>0</v>
       </c>
       <c r="N34" s="55" t="s">
@@ -2609,8 +2656,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="117"/>
-      <c r="B35" s="111"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="47">
         <v>0.64583333333333337</v>
       </c>
@@ -2620,7 +2667,7 @@
       <c r="E35" s="51">
         <v>1</v>
       </c>
-      <c r="F35" s="114"/>
+      <c r="F35" s="79"/>
       <c r="G35" s="31" t="s">
         <v>26</v>
       </c>
@@ -2637,8 +2684,8 @@
       <c r="N35" s="55"/>
     </row>
     <row r="36" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="117"/>
-      <c r="B36" s="112"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="76"/>
       <c r="C36" s="47">
         <v>0.90625</v>
       </c>
@@ -2648,7 +2695,7 @@
       <c r="E36" s="51">
         <v>2.75</v>
       </c>
-      <c r="F36" s="115"/>
+      <c r="F36" s="78"/>
       <c r="G36" s="31" t="s">
         <v>22</v>
       </c>
@@ -2663,8 +2710,8 @@
       <c r="N36" s="55"/>
     </row>
     <row r="37" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="117"/>
-      <c r="B37" s="110">
+      <c r="A37" s="119"/>
+      <c r="B37" s="75">
         <v>41601</v>
       </c>
       <c r="C37" s="47">
@@ -2676,7 +2723,7 @@
       <c r="E37" s="51">
         <v>0.25</v>
       </c>
-      <c r="F37" s="113">
+      <c r="F37" s="77">
         <f>SUM(E37:E39)</f>
         <v>5.25</v>
       </c>
@@ -2694,8 +2741,8 @@
       <c r="N37" s="55"/>
     </row>
     <row r="38" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="117"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="47">
         <v>0.57291666666666663</v>
       </c>
@@ -2705,7 +2752,7 @@
       <c r="E38" s="51">
         <v>1</v>
       </c>
-      <c r="F38" s="114"/>
+      <c r="F38" s="79"/>
       <c r="G38" s="31" t="s">
         <v>26</v>
       </c>
@@ -2722,8 +2769,8 @@
       <c r="N38" s="55"/>
     </row>
     <row r="39" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="118"/>
-      <c r="B39" s="112"/>
+      <c r="A39" s="120"/>
+      <c r="B39" s="76"/>
       <c r="C39" s="47">
         <v>0.83333333333333337</v>
       </c>
@@ -2733,7 +2780,7 @@
       <c r="E39" s="51">
         <v>4</v>
       </c>
-      <c r="F39" s="115"/>
+      <c r="F39" s="78"/>
       <c r="G39" s="31" t="s">
         <v>24</v>
       </c>
@@ -2750,39 +2797,39 @@
       <c r="N39" s="55"/>
     </row>
     <row r="40" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="119">
+      <c r="A40" s="131">
         <v>4</v>
       </c>
-      <c r="B40" s="86">
+      <c r="B40" s="81">
         <v>41604</v>
       </c>
-      <c r="C40" s="70">
+      <c r="C40" s="69">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D40" s="70">
+      <c r="D40" s="69">
         <v>0.875</v>
       </c>
-      <c r="E40" s="59">
+      <c r="E40" s="58">
         <v>2.25</v>
       </c>
-      <c r="F40" s="126">
+      <c r="F40" s="137">
         <f>SUM(E40:E43)</f>
         <v>7.25</v>
       </c>
-      <c r="G40" s="58" t="s">
+      <c r="G40" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="66" t="s">
+      <c r="H40" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
       <c r="K40" s="52" t="s">
         <v>38</v>
       </c>
       <c r="L40" s="53"/>
       <c r="M40" s="54">
-        <f>SUM(E93:E97)</f>
+        <f>SUM(E97:E101)</f>
         <v>0</v>
       </c>
       <c r="N40" s="55" t="s">
@@ -2790,32 +2837,32 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="56" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="120"/>
-      <c r="B41" s="125"/>
-      <c r="C41" s="70">
+      <c r="A41" s="132"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="69">
         <v>0.875</v>
       </c>
-      <c r="D41" s="70">
+      <c r="D41" s="69">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E41" s="59">
+      <c r="E41" s="58">
         <v>2.5</v>
       </c>
-      <c r="F41" s="127"/>
-      <c r="G41" s="58" t="s">
+      <c r="F41" s="138"/>
+      <c r="G41" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="67" t="s">
+      <c r="H41" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
       <c r="K41" s="52" t="s">
         <v>39</v>
       </c>
       <c r="L41" s="53"/>
       <c r="M41" s="54">
-        <f>SUM(E98:E102)</f>
+        <f>SUM(E102:E106)</f>
         <v>0</v>
       </c>
       <c r="N41" s="55" t="s">
@@ -2823,89 +2870,89 @@
       </c>
     </row>
     <row r="42" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="120"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="70">
+      <c r="A42" s="132"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="69">
         <v>0.5625</v>
       </c>
-      <c r="D42" s="70">
+      <c r="D42" s="69">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E42" s="59">
+      <c r="E42" s="58">
         <v>1.25</v>
       </c>
-      <c r="F42" s="127"/>
+      <c r="F42" s="138"/>
       <c r="G42" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
       <c r="K42" s="52"/>
       <c r="L42" s="53"/>
       <c r="M42" s="54"/>
       <c r="N42" s="55"/>
     </row>
     <row r="43" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="120"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="70">
+      <c r="A43" s="132"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="69">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D43" s="70">
+      <c r="D43" s="69">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E43" s="59">
+      <c r="E43" s="58">
         <v>1.25</v>
       </c>
-      <c r="F43" s="128"/>
-      <c r="G43" s="58" t="s">
+      <c r="F43" s="139"/>
+      <c r="G43" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="67" t="s">
+      <c r="H43" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
       <c r="K43" s="52"/>
       <c r="L43" s="53"/>
       <c r="M43" s="54"/>
       <c r="N43" s="55"/>
     </row>
     <row r="44" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="120"/>
-      <c r="B44" s="86">
+      <c r="A44" s="132"/>
+      <c r="B44" s="81">
         <v>41605</v>
       </c>
-      <c r="C44" s="70">
+      <c r="C44" s="69">
         <v>0.5625</v>
       </c>
-      <c r="D44" s="70">
+      <c r="D44" s="69">
         <v>0.65972222222222221</v>
       </c>
-      <c r="E44" s="59">
+      <c r="E44" s="58">
         <v>2.33</v>
       </c>
-      <c r="F44" s="126">
+      <c r="F44" s="137">
         <f>SUM(E44:E45)</f>
         <v>5.08</v>
       </c>
-      <c r="G44" s="58" t="s">
+      <c r="G44" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="66" t="s">
+      <c r="H44" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
       <c r="K44" s="52" t="s">
         <v>40</v>
       </c>
       <c r="L44" s="53"/>
       <c r="M44" s="54">
-        <f>SUM(E103:E107)</f>
+        <f>SUM(E107:E111)</f>
         <v>0</v>
       </c>
       <c r="N44" s="55" t="s">
@@ -2913,59 +2960,59 @@
       </c>
     </row>
     <row r="45" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="120"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="70">
+      <c r="A45" s="132"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="69">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D45" s="70">
+      <c r="D45" s="69">
         <v>0.53125</v>
       </c>
-      <c r="E45" s="59">
+      <c r="E45" s="58">
         <v>2.75</v>
       </c>
-      <c r="F45" s="128"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
       <c r="K45" s="52"/>
       <c r="L45" s="53"/>
       <c r="M45" s="54"/>
       <c r="N45" s="55"/>
     </row>
     <row r="46" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="120"/>
-      <c r="B46" s="86">
+      <c r="A46" s="132"/>
+      <c r="B46" s="81">
         <v>41606</v>
       </c>
-      <c r="C46" s="70">
+      <c r="C46" s="69">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D46" s="70">
+      <c r="D46" s="69">
         <v>0.38541666666666669</v>
       </c>
-      <c r="E46" s="59">
+      <c r="E46" s="58">
         <v>1.25</v>
       </c>
-      <c r="F46" s="126">
+      <c r="F46" s="137">
         <f>SUM(E46:E48)</f>
         <v>5.75</v>
       </c>
-      <c r="G46" s="58" t="s">
+      <c r="G46" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="138" t="s">
+      <c r="H46" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
       <c r="K46" s="52" t="s">
         <v>41</v>
       </c>
       <c r="L46" s="53"/>
       <c r="M46" s="54">
-        <f>SUM(E108:E112)</f>
+        <f>SUM(E112:E116)</f>
         <v>0</v>
       </c>
       <c r="N46" s="55" t="s">
@@ -2973,89 +3020,89 @@
       </c>
     </row>
     <row r="47" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="120"/>
-      <c r="B47" s="125"/>
-      <c r="C47" s="70">
+      <c r="A47" s="132"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="69">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D47" s="70">
+      <c r="D47" s="69">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E47" s="59">
+      <c r="E47" s="58">
         <v>1.75</v>
       </c>
-      <c r="F47" s="127"/>
-      <c r="G47" s="139" t="s">
+      <c r="F47" s="138"/>
+      <c r="G47" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="H47" s="67" t="s">
+      <c r="H47" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
       <c r="K47" s="52"/>
       <c r="L47" s="53"/>
       <c r="M47" s="54"/>
       <c r="N47" s="55"/>
     </row>
     <row r="48" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="120"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="70">
+      <c r="A48" s="132"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="69">
         <v>0.5625</v>
       </c>
-      <c r="D48" s="70">
+      <c r="D48" s="69">
         <v>0.67708333333333337</v>
       </c>
-      <c r="E48" s="59">
+      <c r="E48" s="58">
         <v>2.75</v>
       </c>
-      <c r="F48" s="128"/>
+      <c r="F48" s="139"/>
       <c r="G48" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="138" t="s">
+      <c r="H48" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
       <c r="K48" s="52"/>
       <c r="L48" s="53"/>
       <c r="M48" s="54"/>
       <c r="N48" s="55"/>
     </row>
     <row r="49" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="120"/>
-      <c r="B49" s="86">
+      <c r="A49" s="132"/>
+      <c r="B49" s="81">
         <v>41607</v>
       </c>
-      <c r="C49" s="70">
+      <c r="C49" s="69">
         <v>0.5625</v>
       </c>
-      <c r="D49" s="70">
+      <c r="D49" s="69">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E49" s="59">
+      <c r="E49" s="58">
         <v>3.5</v>
       </c>
-      <c r="F49" s="126">
+      <c r="F49" s="137">
         <f>SUM(E49:E50)</f>
         <v>6.25</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="138" t="s">
+      <c r="H49" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
       <c r="K49" s="52" t="s">
         <v>42</v>
       </c>
       <c r="L49" s="53"/>
       <c r="M49" s="54">
-        <f>SUM(E113:E117)</f>
+        <f>SUM(E117:E121)</f>
         <v>0</v>
       </c>
       <c r="N49" s="55" t="s">
@@ -3063,112 +3110,124 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="120"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="70">
+      <c r="A50" s="132"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="69">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D50" s="70">
+      <c r="D50" s="69">
         <v>0.53125</v>
       </c>
-      <c r="E50" s="59">
+      <c r="E50" s="58">
         <v>2.75</v>
       </c>
-      <c r="F50" s="128"/>
+      <c r="F50" s="139"/>
       <c r="G50" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="138" t="s">
+      <c r="H50" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
       <c r="K50" s="52"/>
       <c r="L50" s="53"/>
       <c r="M50" s="54"/>
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="120"/>
-      <c r="B51" s="86">
+      <c r="A51" s="132"/>
+      <c r="B51" s="81">
         <v>41608</v>
       </c>
-      <c r="C51" s="70">
+      <c r="C51" s="69">
         <v>0.30208333333333331</v>
       </c>
-      <c r="D51" s="70">
+      <c r="D51" s="69">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E51" s="59">
+      <c r="E51" s="58">
         <v>1.25</v>
       </c>
-      <c r="F51" s="100">
+      <c r="F51" s="73">
         <f>SUM(E51:E52)</f>
         <v>4.25</v>
       </c>
       <c r="G51" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="67" t="s">
+      <c r="H51" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
       <c r="K51" s="52"/>
       <c r="L51" s="53"/>
       <c r="M51" s="54"/>
       <c r="N51" s="55"/>
     </row>
     <row r="52" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="121"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="70">
+      <c r="A52" s="133"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="69">
         <v>0.375</v>
       </c>
-      <c r="D52" s="70">
-        <v>0</v>
-      </c>
-      <c r="E52" s="59">
+      <c r="D52" s="69">
+        <v>0</v>
+      </c>
+      <c r="E52" s="58">
         <v>3</v>
       </c>
-      <c r="F52" s="101"/>
+      <c r="F52" s="74"/>
       <c r="G52" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="67" t="s">
+      <c r="H52" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
       <c r="K52" s="52"/>
       <c r="L52" s="53"/>
       <c r="M52" s="54"/>
       <c r="N52" s="55"/>
     </row>
-    <row r="53" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="116">
+    <row r="53" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="118">
         <v>5</v>
       </c>
       <c r="B53" s="17">
         <v>41610</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="51"/>
+      <c r="C53" s="47">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D53" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="E53" s="51">
+        <v>1</v>
+      </c>
       <c r="F53" s="51">
-        <f t="shared" ref="F51:F74" si="0">E53</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
+        <f t="shared" ref="F53:F78" si="0">E53</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="I53" s="50" t="s">
+        <v>114</v>
+      </c>
       <c r="J53" s="31"/>
       <c r="K53" s="52" t="s">
         <v>43</v>
       </c>
       <c r="L53" s="53"/>
       <c r="M53" s="54">
-        <f>SUM(E118:E122)</f>
+        <f>SUM(E122:E126)</f>
         <v>0</v>
       </c>
       <c r="N53" s="55" t="s">
@@ -3176,19 +3235,29 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="117"/>
-      <c r="B54" s="17">
+      <c r="A54" s="119"/>
+      <c r="B54" s="75">
         <v>41611</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
+      <c r="C54" s="47">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D54" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="E54" s="51">
+        <v>1</v>
+      </c>
+      <c r="F54" s="77">
+        <f>SUM(E54:E57)</f>
+        <v>5.5</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="49" t="s">
+        <v>115</v>
+      </c>
       <c r="I54" s="31"/>
       <c r="J54" s="31"/>
       <c r="K54" s="52" t="s">
@@ -3196,7 +3265,7 @@
       </c>
       <c r="L54" s="53"/>
       <c r="M54" s="54">
-        <f>SUM(E123:E127)</f>
+        <f>SUM(E127:E131)</f>
         <v>0</v>
       </c>
       <c r="N54" s="55" t="s">
@@ -3204,212 +3273,226 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="117"/>
-      <c r="B55" s="17">
-        <v>41612</v>
-      </c>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
+      <c r="A55" s="119"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="D55" s="47">
+        <v>0.4375</v>
+      </c>
+      <c r="E55" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="F55" s="79"/>
+      <c r="G55" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="49" t="s">
+        <v>116</v>
+      </c>
       <c r="I55" s="31"/>
       <c r="J55" s="31"/>
-      <c r="K55" s="52" t="s">
-        <v>45</v>
-      </c>
+      <c r="K55" s="52"/>
       <c r="L55" s="53"/>
-      <c r="M55" s="54">
-        <f>SUM(E128:E132)</f>
-        <v>0</v>
-      </c>
-      <c r="N55" s="55" t="s">
-        <v>9</v>
-      </c>
+      <c r="M55" s="54"/>
+      <c r="N55" s="55"/>
     </row>
     <row r="56" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="117"/>
-      <c r="B56" s="17">
-        <v>41613</v>
-      </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
+      <c r="A56" s="119"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="47">
+        <v>0.4375</v>
+      </c>
+      <c r="D56" s="47">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E56" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="79"/>
+      <c r="G56" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="49" t="s">
+        <v>117</v>
+      </c>
       <c r="I56" s="31"/>
       <c r="J56" s="31"/>
-      <c r="K56" s="52" t="s">
-        <v>46</v>
-      </c>
+      <c r="K56" s="52"/>
       <c r="L56" s="53"/>
-      <c r="M56" s="54">
-        <f>SUM(E133:E137)</f>
-        <v>0</v>
-      </c>
-      <c r="N56" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="118"/>
-      <c r="B57" s="17">
-        <v>41614</v>
-      </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="55"/>
+    </row>
+    <row r="57" spans="1:14" s="56" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="119"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="47">
+        <v>0.5625</v>
+      </c>
+      <c r="D57" s="47">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E57" s="51">
+        <v>2.5</v>
+      </c>
+      <c r="F57" s="78"/>
+      <c r="G57" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="50" t="s">
+        <v>123</v>
+      </c>
       <c r="I57" s="31"/>
       <c r="J57" s="31"/>
-      <c r="K57" s="52" t="s">
+      <c r="K57" s="52"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="55"/>
+    </row>
+    <row r="58" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="119"/>
+      <c r="B58" s="75">
+        <v>41612</v>
+      </c>
+      <c r="C58" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="D58" s="140" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="51">
+        <v>3</v>
+      </c>
+      <c r="F58" s="77">
+        <f>SUM(E58:E59)</f>
+        <v>7.5</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="I58" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="J58" s="31"/>
+      <c r="K58" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="L58" s="53"/>
+      <c r="M58" s="54">
+        <f>SUM(E132:E136)</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="119"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="47">
+        <v>0.5625</v>
+      </c>
+      <c r="D59" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="E59" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="F59" s="78"/>
+      <c r="G59" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="I59" s="49"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="55"/>
+    </row>
+    <row r="60" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="119"/>
+      <c r="B60" s="17">
+        <v>41613</v>
+      </c>
+      <c r="C60" s="47">
+        <v>0.125</v>
+      </c>
+      <c r="D60" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="E60" s="51">
+        <v>3</v>
+      </c>
+      <c r="F60" s="51">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="L60" s="53"/>
+      <c r="M60" s="54">
+        <f>SUM(E137:E141)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="120"/>
+      <c r="B61" s="17">
+        <v>41614</v>
+      </c>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="L57" s="53"/>
-      <c r="M57" s="54">
-        <f>SUM(E138:E142)</f>
-        <v>0</v>
-      </c>
-      <c r="N57" s="55" t="s">
+      <c r="L61" s="53"/>
+      <c r="M61" s="54">
+        <f>SUM(E142:E146)</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="83">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="95">
         <v>6</v>
       </c>
-      <c r="B58" s="28">
+      <c r="B62" s="28">
         <v>41617</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L58" s="6"/>
-      <c r="M58" s="10">
-        <f>SUM(E143:E147)</f>
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="84"/>
-      <c r="B59" s="28">
-        <v>41618</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L59" s="6"/>
-      <c r="M59" s="10">
-        <f>SUM(E148:E152)</f>
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="84"/>
-      <c r="B60" s="28">
-        <v>41619</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L60" s="6"/>
-      <c r="M60" s="10">
-        <f>SUM(E153:E157)</f>
-        <v>0</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="84"/>
-      <c r="B61" s="28">
-        <v>41620</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L61" s="6"/>
-      <c r="M61" s="10">
-        <f>SUM(E158:E162)</f>
-        <v>0</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="85"/>
-      <c r="B62" s="28">
-        <v>41621</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="59">
+      <c r="E62" s="59"/>
+      <c r="F62" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3418,11 +3501,11 @@
       <c r="I62" s="41"/>
       <c r="J62" s="41"/>
       <c r="K62" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="10">
-        <f>SUM(E163:E167)</f>
+        <f>SUM(E147:E151)</f>
         <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
@@ -3430,29 +3513,27 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="105">
-        <v>7</v>
-      </c>
-      <c r="B63" s="27">
-        <v>41624</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="51">
+      <c r="A63" s="96"/>
+      <c r="B63" s="28">
+        <v>41618</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
       <c r="K63" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="10">
-        <f>SUM(E168:E172)</f>
+        <f>SUM(E152:E156)</f>
         <v>0</v>
       </c>
       <c r="N63" s="3" t="s">
@@ -3460,27 +3541,27 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="106"/>
-      <c r="B64" s="27">
-        <v>41625</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="51">
+      <c r="A64" s="96"/>
+      <c r="B64" s="28">
+        <v>41619</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
       <c r="K64" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="10">
-        <f>SUM(E173:E177)</f>
+        <f>SUM(E157:E161)</f>
         <v>0</v>
       </c>
       <c r="N64" s="3" t="s">
@@ -3488,27 +3569,27 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="106"/>
-      <c r="B65" s="27">
-        <v>41626</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="51">
+      <c r="A65" s="96"/>
+      <c r="B65" s="28">
+        <v>41620</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
       <c r="K65" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="10">
-        <f>SUM(E178:E182)</f>
+        <f>SUM(E162:E166)</f>
         <v>0</v>
       </c>
       <c r="N65" s="3" t="s">
@@ -3516,30 +3597,43 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="106"/>
-      <c r="B66" s="27">
-        <v>41627</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="51">
+      <c r="A66" s="97"/>
+      <c r="B66" s="28">
+        <v>41621</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L66" s="6"/>
+      <c r="M66" s="10">
+        <f>SUM(E167:E171)</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="107"/>
+      <c r="A67" s="113">
+        <v>7</v>
+      </c>
       <c r="B67" s="27">
-        <v>41628</v>
+        <v>41624</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="61"/>
+      <c r="E67" s="60"/>
       <c r="F67" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3548,86 +3642,119 @@
       <c r="H67" s="40"/>
       <c r="I67" s="40"/>
       <c r="J67" s="40"/>
+      <c r="K67" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L67" s="6"/>
+      <c r="M67" s="10">
+        <f>SUM(E172:E176)</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="83">
+      <c r="A68" s="114"/>
+      <c r="B68" s="27">
+        <v>41625</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L68" s="6"/>
+      <c r="M68" s="10">
+        <f>SUM(E177:E181)</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="114"/>
+      <c r="B69" s="27">
+        <v>41626</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L69" s="6"/>
+      <c r="M69" s="10">
+        <f>SUM(E182:E186)</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="114"/>
+      <c r="B70" s="27">
+        <v>41627</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="115"/>
+      <c r="B71" s="27">
+        <v>41628</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="95">
         <v>8</v>
       </c>
-      <c r="B68" s="28">
+      <c r="B72" s="28">
         <v>41631</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="84"/>
-      <c r="B69" s="28">
-        <v>41632</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="84"/>
-      <c r="B70" s="28">
-        <v>41633</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="84"/>
-      <c r="B71" s="28">
-        <v>41634</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="85"/>
-      <c r="B72" s="28">
-        <v>41635</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="59">
+      <c r="E72" s="59"/>
+      <c r="F72" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3637,85 +3764,85 @@
       <c r="J72" s="41"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="105">
+      <c r="A73" s="96"/>
+      <c r="B73" s="28">
+        <v>41632</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="96"/>
+      <c r="B74" s="28">
+        <v>41633</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="96"/>
+      <c r="B75" s="28">
+        <v>41634</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="97"/>
+      <c r="B76" s="28">
+        <v>41635</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="113">
         <v>9</v>
       </c>
-      <c r="B73" s="27">
+      <c r="B77" s="27">
         <v>41638</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="106"/>
-      <c r="B74" s="27">
-        <v>41639</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="106"/>
-      <c r="B75" s="27">
-        <v>41640</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="51">
-        <f t="shared" ref="F75:F106" si="1">E75</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="106"/>
-      <c r="B76" s="27">
-        <v>41641</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="107"/>
-      <c r="B77" s="27">
-        <v>41642</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="61"/>
+      <c r="E77" s="60"/>
       <c r="F77" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G77" s="40"/>
@@ -3724,84 +3851,84 @@
       <c r="J77" s="40"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="83">
+      <c r="A78" s="114"/>
+      <c r="B78" s="27">
+        <v>41639</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="114"/>
+      <c r="B79" s="27">
+        <v>41640</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="51">
+        <f t="shared" ref="F79:F110" si="1">E79</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="114"/>
+      <c r="B80" s="27">
+        <v>41641</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="115"/>
+      <c r="B81" s="27">
+        <v>41642</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="95">
         <v>10</v>
       </c>
-      <c r="B78" s="28">
+      <c r="B82" s="28">
         <v>41645</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="84"/>
-      <c r="B79" s="28">
-        <v>41646</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="84"/>
-      <c r="B80" s="28">
-        <v>41647</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="84"/>
-      <c r="B81" s="28">
-        <v>41648</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="85"/>
-      <c r="B82" s="28">
-        <v>41649</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="59">
+      <c r="E82" s="59"/>
+      <c r="F82" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3811,83 +3938,83 @@
       <c r="J82" s="41"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="105">
+      <c r="A83" s="96"/>
+      <c r="B83" s="28">
+        <v>41646</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="41"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="96"/>
+      <c r="B84" s="28">
+        <v>41647</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="96"/>
+      <c r="B85" s="28">
+        <v>41648</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="97"/>
+      <c r="B86" s="28">
+        <v>41649</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="113">
         <v>11</v>
       </c>
-      <c r="B83" s="27">
+      <c r="B87" s="27">
         <v>41652</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="40"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="106"/>
-      <c r="B84" s="27">
-        <v>41653</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="40"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="106"/>
-      <c r="B85" s="27">
-        <v>41654</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="40"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="106"/>
-      <c r="B86" s="27">
-        <v>41655</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="40"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="107"/>
-      <c r="B87" s="27">
-        <v>41656</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="61"/>
+      <c r="E87" s="60"/>
       <c r="F87" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3898,84 +4025,84 @@
       <c r="J87" s="40"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="83">
+      <c r="A88" s="114"/>
+      <c r="B88" s="27">
+        <v>41653</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="114"/>
+      <c r="B89" s="27">
+        <v>41654</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="114"/>
+      <c r="B90" s="27">
+        <v>41655</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="115"/>
+      <c r="B91" s="27">
+        <v>41656</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="95">
         <v>12</v>
       </c>
-      <c r="B88" s="28">
+      <c r="B92" s="28">
         <v>41659</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="41"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="84"/>
-      <c r="B89" s="28">
-        <v>41660</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="84"/>
-      <c r="B90" s="28">
-        <v>41661</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="41"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="84"/>
-      <c r="B91" s="28">
-        <v>41662</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="85"/>
-      <c r="B92" s="28">
-        <v>41663</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="59">
+      <c r="E92" s="59"/>
+      <c r="F92" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3985,91 +4112,83 @@
       <c r="J92" s="41"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="105">
+      <c r="A93" s="96"/>
+      <c r="B93" s="28">
+        <v>41660</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="41"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="96"/>
+      <c r="B94" s="28">
+        <v>41661</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="59"/>
+      <c r="F94" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="96"/>
+      <c r="B95" s="28">
+        <v>41662</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="97"/>
+      <c r="B96" s="28">
+        <v>41663</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="113">
         <v>13</v>
       </c>
-      <c r="B93" s="27">
+      <c r="B97" s="27">
         <v>41666</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H93" s="40"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="40"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="106"/>
-      <c r="B94" s="27">
-        <v>41667</v>
-      </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="40"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="106"/>
-      <c r="B95" s="27">
-        <v>41668</v>
-      </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="40"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="106"/>
-      <c r="B96" s="27">
-        <v>41669</v>
-      </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H96" s="40"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="40"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="107"/>
-      <c r="B97" s="27">
-        <v>41670</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="61"/>
+      <c r="E97" s="60"/>
       <c r="F97" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4082,92 +4201,92 @@
       <c r="J97" s="40"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="83">
+      <c r="A98" s="114"/>
+      <c r="B98" s="27">
+        <v>41667</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="40"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="114"/>
+      <c r="B99" s="27">
+        <v>41668</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="40"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="114"/>
+      <c r="B100" s="27">
+        <v>41669</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" s="40"/>
+      <c r="I100" s="40"/>
+      <c r="J100" s="40"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="115"/>
+      <c r="B101" s="27">
+        <v>41670</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101" s="40"/>
+      <c r="I101" s="40"/>
+      <c r="J101" s="40"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="95">
         <v>14</v>
       </c>
-      <c r="B98" s="28">
+      <c r="B102" s="28">
         <v>41673</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="84"/>
-      <c r="B99" s="28">
-        <v>41674</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="84"/>
-      <c r="B100" s="28">
-        <v>41675</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="84"/>
-      <c r="B101" s="28">
-        <v>41676</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="60"/>
-      <c r="F101" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="85"/>
-      <c r="B102" s="28">
-        <v>41677</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="59">
+      <c r="E102" s="59"/>
+      <c r="F102" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4179,85 +4298,93 @@
       <c r="J102" s="41"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="105">
+      <c r="A103" s="96"/>
+      <c r="B103" s="28">
+        <v>41674</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="96"/>
+      <c r="B104" s="28">
+        <v>41675</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="96"/>
+      <c r="B105" s="28">
+        <v>41676</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="97"/>
+      <c r="B106" s="28">
+        <v>41677</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="113">
         <v>15</v>
       </c>
-      <c r="B103" s="27">
+      <c r="B107" s="27">
         <v>41680</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="40"/>
-      <c r="H103" s="40"/>
-      <c r="I103" s="40"/>
-      <c r="J103" s="40"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="106"/>
-      <c r="B104" s="27">
-        <v>41681</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="40"/>
-      <c r="H104" s="40"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="40"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="106"/>
-      <c r="B105" s="27">
-        <v>41682</v>
-      </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="40"/>
-      <c r="H105" s="40"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="40"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="106"/>
-      <c r="B106" s="27">
-        <v>41683</v>
-      </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="61"/>
-      <c r="F106" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="40"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="40"/>
-      <c r="J106" s="40"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="107"/>
-      <c r="B107" s="27">
-        <v>41684</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
-      <c r="E107" s="61"/>
+      <c r="E107" s="60"/>
       <c r="F107" s="51">
-        <f t="shared" ref="F107:F138" si="2">E107</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G107" s="40"/>
@@ -4266,84 +4393,84 @@
       <c r="J107" s="40"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="83">
+      <c r="A108" s="114"/>
+      <c r="B108" s="27">
+        <v>41681</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="40"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="114"/>
+      <c r="B109" s="27">
+        <v>41682</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="40"/>
+      <c r="H109" s="40"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="40"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="114"/>
+      <c r="B110" s="27">
+        <v>41683</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="40"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="115"/>
+      <c r="B111" s="27">
+        <v>41684</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="51">
+        <f t="shared" ref="F111:F142" si="2">E111</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="40"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="95">
         <v>16</v>
       </c>
-      <c r="B108" s="28">
+      <c r="B112" s="28">
         <v>41687</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="84"/>
-      <c r="B109" s="28">
-        <v>41688</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="60"/>
-      <c r="F109" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="84"/>
-      <c r="B110" s="28">
-        <v>41689</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="60"/>
-      <c r="F110" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="84"/>
-      <c r="B111" s="28">
-        <v>41690</v>
-      </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="60"/>
-      <c r="F111" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="85"/>
-      <c r="B112" s="28">
-        <v>41691</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
-      <c r="E112" s="60"/>
-      <c r="F112" s="59">
+      <c r="E112" s="59"/>
+      <c r="F112" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4353,83 +4480,83 @@
       <c r="J112" s="41"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="105">
+      <c r="A113" s="96"/>
+      <c r="B113" s="28">
+        <v>41688</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="59"/>
+      <c r="F113" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="41"/>
+      <c r="H113" s="41"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="96"/>
+      <c r="B114" s="28">
+        <v>41689</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="59"/>
+      <c r="F114" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="96"/>
+      <c r="B115" s="28">
+        <v>41690</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="59"/>
+      <c r="F115" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="41"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="41"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="97"/>
+      <c r="B116" s="28">
+        <v>41691</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="59"/>
+      <c r="F116" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="41"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="41"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="113">
         <v>17</v>
       </c>
-      <c r="B113" s="27">
+      <c r="B117" s="27">
         <v>41694</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="61"/>
-      <c r="F113" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G113" s="40"/>
-      <c r="H113" s="40"/>
-      <c r="I113" s="40"/>
-      <c r="J113" s="40"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="106"/>
-      <c r="B114" s="27">
-        <v>41695</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="61"/>
-      <c r="F114" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G114" s="40"/>
-      <c r="H114" s="40"/>
-      <c r="I114" s="40"/>
-      <c r="J114" s="40"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="106"/>
-      <c r="B115" s="27">
-        <v>41696</v>
-      </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="61"/>
-      <c r="F115" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G115" s="40"/>
-      <c r="H115" s="40"/>
-      <c r="I115" s="40"/>
-      <c r="J115" s="40"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="106"/>
-      <c r="B116" s="27">
-        <v>41697</v>
-      </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="61"/>
-      <c r="F116" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G116" s="40"/>
-      <c r="H116" s="40"/>
-      <c r="I116" s="40"/>
-      <c r="J116" s="40"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="107"/>
-      <c r="B117" s="27">
-        <v>41698</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
-      <c r="E117" s="61"/>
+      <c r="E117" s="60"/>
       <c r="F117" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4440,84 +4567,84 @@
       <c r="J117" s="40"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="83">
+      <c r="A118" s="114"/>
+      <c r="B118" s="27">
+        <v>41695</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="60"/>
+      <c r="F118" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="40"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="40"/>
+      <c r="J118" s="40"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="114"/>
+      <c r="B119" s="27">
+        <v>41696</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="60"/>
+      <c r="F119" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="40"/>
+      <c r="H119" s="40"/>
+      <c r="I119" s="40"/>
+      <c r="J119" s="40"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="114"/>
+      <c r="B120" s="27">
+        <v>41697</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="60"/>
+      <c r="F120" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="40"/>
+      <c r="H120" s="40"/>
+      <c r="I120" s="40"/>
+      <c r="J120" s="40"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="115"/>
+      <c r="B121" s="27">
+        <v>41698</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="40"/>
+      <c r="H121" s="40"/>
+      <c r="I121" s="40"/>
+      <c r="J121" s="40"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="95">
         <v>18</v>
       </c>
-      <c r="B118" s="28">
+      <c r="B122" s="28">
         <v>41701</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="60"/>
-      <c r="F118" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="41"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="84"/>
-      <c r="B119" s="28">
-        <v>41702</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="60"/>
-      <c r="F119" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-      <c r="J119" s="41"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="84"/>
-      <c r="B120" s="28">
-        <v>41703</v>
-      </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="60"/>
-      <c r="F120" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="84"/>
-      <c r="B121" s="28">
-        <v>41704</v>
-      </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="60"/>
-      <c r="F121" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="41"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="85"/>
-      <c r="B122" s="28">
-        <v>41705</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="60"/>
-      <c r="F122" s="59">
+      <c r="E122" s="59"/>
+      <c r="F122" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4527,83 +4654,83 @@
       <c r="J122" s="41"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="105">
+      <c r="A123" s="96"/>
+      <c r="B123" s="28">
+        <v>41702</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="59"/>
+      <c r="F123" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="41"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="96"/>
+      <c r="B124" s="28">
+        <v>41703</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="96"/>
+      <c r="B125" s="28">
+        <v>41704</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="59"/>
+      <c r="F125" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="41"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="97"/>
+      <c r="B126" s="28">
+        <v>41705</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="59"/>
+      <c r="F126" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="41"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="41"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="113">
         <v>19</v>
       </c>
-      <c r="B123" s="27">
+      <c r="B127" s="27">
         <v>41708</v>
-      </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="61"/>
-      <c r="F123" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="40"/>
-      <c r="H123" s="40"/>
-      <c r="I123" s="40"/>
-      <c r="J123" s="40"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="106"/>
-      <c r="B124" s="27">
-        <v>41709</v>
-      </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="61"/>
-      <c r="F124" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="40"/>
-      <c r="H124" s="40"/>
-      <c r="I124" s="40"/>
-      <c r="J124" s="40"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="106"/>
-      <c r="B125" s="27">
-        <v>41710</v>
-      </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="61"/>
-      <c r="F125" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="40"/>
-      <c r="H125" s="40"/>
-      <c r="I125" s="40"/>
-      <c r="J125" s="40"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="106"/>
-      <c r="B126" s="27">
-        <v>41711</v>
-      </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="61"/>
-      <c r="F126" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G126" s="40"/>
-      <c r="H126" s="40"/>
-      <c r="I126" s="40"/>
-      <c r="J126" s="40"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="107"/>
-      <c r="B127" s="27">
-        <v>41712</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
-      <c r="E127" s="61"/>
+      <c r="E127" s="60"/>
       <c r="F127" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4614,84 +4741,84 @@
       <c r="J127" s="40"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="83">
+      <c r="A128" s="114"/>
+      <c r="B128" s="27">
+        <v>41709</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="60"/>
+      <c r="F128" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="40"/>
+      <c r="H128" s="40"/>
+      <c r="I128" s="40"/>
+      <c r="J128" s="40"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="114"/>
+      <c r="B129" s="27">
+        <v>41710</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="40"/>
+      <c r="H129" s="40"/>
+      <c r="I129" s="40"/>
+      <c r="J129" s="40"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="114"/>
+      <c r="B130" s="27">
+        <v>41711</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="40"/>
+      <c r="H130" s="40"/>
+      <c r="I130" s="40"/>
+      <c r="J130" s="40"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="115"/>
+      <c r="B131" s="27">
+        <v>41712</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="60"/>
+      <c r="F131" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="40"/>
+      <c r="H131" s="40"/>
+      <c r="I131" s="40"/>
+      <c r="J131" s="40"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="95">
         <v>20</v>
       </c>
-      <c r="B128" s="28">
+      <c r="B132" s="28">
         <v>41715</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="60"/>
-      <c r="F128" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G128" s="41"/>
-      <c r="H128" s="41"/>
-      <c r="I128" s="41"/>
-      <c r="J128" s="41"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="84"/>
-      <c r="B129" s="28">
-        <v>41716</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="60"/>
-      <c r="F129" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G129" s="41"/>
-      <c r="H129" s="41"/>
-      <c r="I129" s="41"/>
-      <c r="J129" s="41"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="84"/>
-      <c r="B130" s="28">
-        <v>41717</v>
-      </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="60"/>
-      <c r="F130" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G130" s="41"/>
-      <c r="H130" s="41"/>
-      <c r="I130" s="41"/>
-      <c r="J130" s="41"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="84"/>
-      <c r="B131" s="28">
-        <v>41718</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="60"/>
-      <c r="F131" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G131" s="41"/>
-      <c r="H131" s="41"/>
-      <c r="I131" s="41"/>
-      <c r="J131" s="41"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="85"/>
-      <c r="B132" s="28">
-        <v>41719</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
-      <c r="E132" s="60"/>
-      <c r="F132" s="59">
+      <c r="E132" s="59"/>
+      <c r="F132" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4701,83 +4828,83 @@
       <c r="J132" s="41"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="105">
+      <c r="A133" s="96"/>
+      <c r="B133" s="28">
+        <v>41716</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="59"/>
+      <c r="F133" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="41"/>
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="96"/>
+      <c r="B134" s="28">
+        <v>41717</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="59"/>
+      <c r="F134" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="96"/>
+      <c r="B135" s="28">
+        <v>41718</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="59"/>
+      <c r="F135" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="41"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="97"/>
+      <c r="B136" s="28">
+        <v>41719</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="59"/>
+      <c r="F136" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="41"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="41"/>
+      <c r="J136" s="41"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="113">
         <v>21</v>
       </c>
-      <c r="B133" s="27">
+      <c r="B137" s="27">
         <v>41722</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="61"/>
-      <c r="F133" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G133" s="40"/>
-      <c r="H133" s="40"/>
-      <c r="I133" s="40"/>
-      <c r="J133" s="40"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="106"/>
-      <c r="B134" s="27">
-        <v>41723</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="61"/>
-      <c r="F134" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G134" s="40"/>
-      <c r="H134" s="40"/>
-      <c r="I134" s="40"/>
-      <c r="J134" s="40"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="106"/>
-      <c r="B135" s="27">
-        <v>41724</v>
-      </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="61"/>
-      <c r="F135" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G135" s="40"/>
-      <c r="H135" s="40"/>
-      <c r="I135" s="40"/>
-      <c r="J135" s="40"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="106"/>
-      <c r="B136" s="27">
-        <v>41725</v>
-      </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="61"/>
-      <c r="F136" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G136" s="40"/>
-      <c r="H136" s="40"/>
-      <c r="I136" s="40"/>
-      <c r="J136" s="40"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="107"/>
-      <c r="B137" s="27">
-        <v>41726</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
-      <c r="E137" s="61"/>
+      <c r="E137" s="60"/>
       <c r="F137" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4788,85 +4915,85 @@
       <c r="J137" s="40"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="83">
+      <c r="A138" s="114"/>
+      <c r="B138" s="27">
+        <v>41723</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="60"/>
+      <c r="F138" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="40"/>
+      <c r="H138" s="40"/>
+      <c r="I138" s="40"/>
+      <c r="J138" s="40"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="114"/>
+      <c r="B139" s="27">
+        <v>41724</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="60"/>
+      <c r="F139" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G139" s="40"/>
+      <c r="H139" s="40"/>
+      <c r="I139" s="40"/>
+      <c r="J139" s="40"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="114"/>
+      <c r="B140" s="27">
+        <v>41725</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="60"/>
+      <c r="F140" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G140" s="40"/>
+      <c r="H140" s="40"/>
+      <c r="I140" s="40"/>
+      <c r="J140" s="40"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="115"/>
+      <c r="B141" s="27">
+        <v>41726</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="60"/>
+      <c r="F141" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G141" s="40"/>
+      <c r="H141" s="40"/>
+      <c r="I141" s="40"/>
+      <c r="J141" s="40"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="95">
         <v>22</v>
       </c>
-      <c r="B138" s="28">
+      <c r="B142" s="28">
         <v>41729</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="60"/>
-      <c r="F138" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G138" s="41"/>
-      <c r="H138" s="41"/>
-      <c r="I138" s="41"/>
-      <c r="J138" s="41"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="84"/>
-      <c r="B139" s="28">
-        <v>41730</v>
-      </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="60"/>
-      <c r="F139" s="59">
-        <f t="shared" ref="F139:F170" si="3">E139</f>
-        <v>0</v>
-      </c>
-      <c r="G139" s="41"/>
-      <c r="H139" s="41"/>
-      <c r="I139" s="41"/>
-      <c r="J139" s="41"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="84"/>
-      <c r="B140" s="28">
-        <v>41731</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="60"/>
-      <c r="F140" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G140" s="41"/>
-      <c r="H140" s="41"/>
-      <c r="I140" s="41"/>
-      <c r="J140" s="41"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="84"/>
-      <c r="B141" s="28">
-        <v>41732</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="60"/>
-      <c r="F141" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G141" s="41"/>
-      <c r="H141" s="41"/>
-      <c r="I141" s="41"/>
-      <c r="J141" s="41"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="85"/>
-      <c r="B142" s="28">
-        <v>41733</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="60"/>
-      <c r="F142" s="59">
-        <f t="shared" si="3"/>
+      <c r="E142" s="59"/>
+      <c r="F142" s="58">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G142" s="41"/>
@@ -4875,83 +5002,83 @@
       <c r="J142" s="41"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="105">
+      <c r="A143" s="96"/>
+      <c r="B143" s="28">
+        <v>41730</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="59"/>
+      <c r="F143" s="58">
+        <f t="shared" ref="F143:F174" si="3">E143</f>
+        <v>0</v>
+      </c>
+      <c r="G143" s="41"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="41"/>
+      <c r="J143" s="41"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="96"/>
+      <c r="B144" s="28">
+        <v>41731</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="59"/>
+      <c r="F144" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="41"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="41"/>
+      <c r="J144" s="41"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="96"/>
+      <c r="B145" s="28">
+        <v>41732</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="59"/>
+      <c r="F145" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="41"/>
+      <c r="J145" s="41"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="97"/>
+      <c r="B146" s="28">
+        <v>41733</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="59"/>
+      <c r="F146" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G146" s="41"/>
+      <c r="H146" s="41"/>
+      <c r="I146" s="41"/>
+      <c r="J146" s="41"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="113">
         <v>23</v>
       </c>
-      <c r="B143" s="27">
+      <c r="B147" s="27">
         <v>41736</v>
-      </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G143" s="40"/>
-      <c r="H143" s="40"/>
-      <c r="I143" s="40"/>
-      <c r="J143" s="40"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="106"/>
-      <c r="B144" s="27">
-        <v>41737</v>
-      </c>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="61"/>
-      <c r="F144" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G144" s="40"/>
-      <c r="H144" s="40"/>
-      <c r="I144" s="40"/>
-      <c r="J144" s="40"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="106"/>
-      <c r="B145" s="27">
-        <v>41738</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="61"/>
-      <c r="F145" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G145" s="40"/>
-      <c r="H145" s="40"/>
-      <c r="I145" s="40"/>
-      <c r="J145" s="40"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="106"/>
-      <c r="B146" s="27">
-        <v>41739</v>
-      </c>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="61"/>
-      <c r="F146" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G146" s="40"/>
-      <c r="H146" s="40"/>
-      <c r="I146" s="40"/>
-      <c r="J146" s="40"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="107"/>
-      <c r="B147" s="27">
-        <v>41740</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
-      <c r="E147" s="61"/>
+      <c r="E147" s="60"/>
       <c r="F147" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4962,84 +5089,84 @@
       <c r="J147" s="40"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="83">
+      <c r="A148" s="114"/>
+      <c r="B148" s="27">
+        <v>41737</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="60"/>
+      <c r="F148" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="40"/>
+      <c r="H148" s="40"/>
+      <c r="I148" s="40"/>
+      <c r="J148" s="40"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="114"/>
+      <c r="B149" s="27">
+        <v>41738</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="60"/>
+      <c r="F149" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="40"/>
+      <c r="H149" s="40"/>
+      <c r="I149" s="40"/>
+      <c r="J149" s="40"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="114"/>
+      <c r="B150" s="27">
+        <v>41739</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="60"/>
+      <c r="F150" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="40"/>
+      <c r="H150" s="40"/>
+      <c r="I150" s="40"/>
+      <c r="J150" s="40"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="115"/>
+      <c r="B151" s="27">
+        <v>41740</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="60"/>
+      <c r="F151" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G151" s="40"/>
+      <c r="H151" s="40"/>
+      <c r="I151" s="40"/>
+      <c r="J151" s="40"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="95">
         <v>24</v>
       </c>
-      <c r="B148" s="28">
+      <c r="B152" s="28">
         <v>41743</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="60"/>
-      <c r="F148" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G148" s="41"/>
-      <c r="H148" s="41"/>
-      <c r="I148" s="41"/>
-      <c r="J148" s="41"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="84"/>
-      <c r="B149" s="28">
-        <v>41744</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="60"/>
-      <c r="F149" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G149" s="41"/>
-      <c r="H149" s="41"/>
-      <c r="I149" s="41"/>
-      <c r="J149" s="41"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="84"/>
-      <c r="B150" s="28">
-        <v>41745</v>
-      </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="60"/>
-      <c r="F150" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G150" s="41"/>
-      <c r="H150" s="41"/>
-      <c r="I150" s="41"/>
-      <c r="J150" s="41"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="84"/>
-      <c r="B151" s="28">
-        <v>41746</v>
-      </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="60"/>
-      <c r="F151" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G151" s="41"/>
-      <c r="H151" s="41"/>
-      <c r="I151" s="41"/>
-      <c r="J151" s="41"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="85"/>
-      <c r="B152" s="28">
-        <v>41747</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="60"/>
-      <c r="F152" s="59">
+      <c r="E152" s="59"/>
+      <c r="F152" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5049,83 +5176,83 @@
       <c r="J152" s="41"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="105">
+      <c r="A153" s="96"/>
+      <c r="B153" s="28">
+        <v>41744</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="59"/>
+      <c r="F153" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="41"/>
+      <c r="H153" s="41"/>
+      <c r="I153" s="41"/>
+      <c r="J153" s="41"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="96"/>
+      <c r="B154" s="28">
+        <v>41745</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="59"/>
+      <c r="F154" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G154" s="41"/>
+      <c r="H154" s="41"/>
+      <c r="I154" s="41"/>
+      <c r="J154" s="41"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="96"/>
+      <c r="B155" s="28">
+        <v>41746</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="59"/>
+      <c r="F155" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G155" s="41"/>
+      <c r="H155" s="41"/>
+      <c r="I155" s="41"/>
+      <c r="J155" s="41"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="97"/>
+      <c r="B156" s="28">
+        <v>41747</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="59"/>
+      <c r="F156" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="41"/>
+      <c r="H156" s="41"/>
+      <c r="I156" s="41"/>
+      <c r="J156" s="41"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="113">
         <v>25</v>
       </c>
-      <c r="B153" s="27">
+      <c r="B157" s="27">
         <v>41750</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="61"/>
-      <c r="F153" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G153" s="40"/>
-      <c r="H153" s="40"/>
-      <c r="I153" s="40"/>
-      <c r="J153" s="40"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="106"/>
-      <c r="B154" s="27">
-        <v>41751</v>
-      </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="61"/>
-      <c r="F154" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G154" s="40"/>
-      <c r="H154" s="40"/>
-      <c r="I154" s="40"/>
-      <c r="J154" s="40"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="106"/>
-      <c r="B155" s="27">
-        <v>41752</v>
-      </c>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="61"/>
-      <c r="F155" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G155" s="40"/>
-      <c r="H155" s="40"/>
-      <c r="I155" s="40"/>
-      <c r="J155" s="40"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="106"/>
-      <c r="B156" s="27">
-        <v>41753</v>
-      </c>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="61"/>
-      <c r="F156" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G156" s="40"/>
-      <c r="H156" s="40"/>
-      <c r="I156" s="40"/>
-      <c r="J156" s="40"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="107"/>
-      <c r="B157" s="27">
-        <v>41754</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
-      <c r="E157" s="61"/>
+      <c r="E157" s="60"/>
       <c r="F157" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5136,84 +5263,84 @@
       <c r="J157" s="40"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="83">
+      <c r="A158" s="114"/>
+      <c r="B158" s="27">
+        <v>41751</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="60"/>
+      <c r="F158" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="40"/>
+      <c r="H158" s="40"/>
+      <c r="I158" s="40"/>
+      <c r="J158" s="40"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="114"/>
+      <c r="B159" s="27">
+        <v>41752</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="60"/>
+      <c r="F159" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="40"/>
+      <c r="H159" s="40"/>
+      <c r="I159" s="40"/>
+      <c r="J159" s="40"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="114"/>
+      <c r="B160" s="27">
+        <v>41753</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="60"/>
+      <c r="F160" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G160" s="40"/>
+      <c r="H160" s="40"/>
+      <c r="I160" s="40"/>
+      <c r="J160" s="40"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="115"/>
+      <c r="B161" s="27">
+        <v>41754</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="60"/>
+      <c r="F161" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G161" s="40"/>
+      <c r="H161" s="40"/>
+      <c r="I161" s="40"/>
+      <c r="J161" s="40"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="95">
         <v>26</v>
       </c>
-      <c r="B158" s="28">
+      <c r="B162" s="28">
         <v>41757</v>
-      </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="60"/>
-      <c r="F158" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G158" s="41"/>
-      <c r="H158" s="41"/>
-      <c r="I158" s="41"/>
-      <c r="J158" s="41"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="84"/>
-      <c r="B159" s="28">
-        <v>41758</v>
-      </c>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="60"/>
-      <c r="F159" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G159" s="41"/>
-      <c r="H159" s="41"/>
-      <c r="I159" s="41"/>
-      <c r="J159" s="41"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="84"/>
-      <c r="B160" s="28">
-        <v>41759</v>
-      </c>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="60"/>
-      <c r="F160" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G160" s="41"/>
-      <c r="H160" s="41"/>
-      <c r="I160" s="41"/>
-      <c r="J160" s="41"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="84"/>
-      <c r="B161" s="28">
-        <v>41760</v>
-      </c>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="60"/>
-      <c r="F161" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G161" s="41"/>
-      <c r="H161" s="41"/>
-      <c r="I161" s="41"/>
-      <c r="J161" s="41"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="85"/>
-      <c r="B162" s="28">
-        <v>41761</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
-      <c r="E162" s="60"/>
-      <c r="F162" s="59">
+      <c r="E162" s="59"/>
+      <c r="F162" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5223,83 +5350,83 @@
       <c r="J162" s="41"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="105">
+      <c r="A163" s="96"/>
+      <c r="B163" s="28">
+        <v>41758</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="59"/>
+      <c r="F163" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="41"/>
+      <c r="H163" s="41"/>
+      <c r="I163" s="41"/>
+      <c r="J163" s="41"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="96"/>
+      <c r="B164" s="28">
+        <v>41759</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="59"/>
+      <c r="F164" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G164" s="41"/>
+      <c r="H164" s="41"/>
+      <c r="I164" s="41"/>
+      <c r="J164" s="41"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="96"/>
+      <c r="B165" s="28">
+        <v>41760</v>
+      </c>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="59"/>
+      <c r="F165" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G165" s="41"/>
+      <c r="H165" s="41"/>
+      <c r="I165" s="41"/>
+      <c r="J165" s="41"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="97"/>
+      <c r="B166" s="28">
+        <v>41761</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="59"/>
+      <c r="F166" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G166" s="41"/>
+      <c r="H166" s="41"/>
+      <c r="I166" s="41"/>
+      <c r="J166" s="41"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="113">
         <v>27</v>
       </c>
-      <c r="B163" s="27">
+      <c r="B167" s="27">
         <v>41764</v>
-      </c>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="61"/>
-      <c r="F163" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G163" s="40"/>
-      <c r="H163" s="40"/>
-      <c r="I163" s="40"/>
-      <c r="J163" s="40"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="106"/>
-      <c r="B164" s="27">
-        <v>41765</v>
-      </c>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="61"/>
-      <c r="F164" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G164" s="40"/>
-      <c r="H164" s="40"/>
-      <c r="I164" s="40"/>
-      <c r="J164" s="40"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="106"/>
-      <c r="B165" s="27">
-        <v>41766</v>
-      </c>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="61"/>
-      <c r="F165" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G165" s="40"/>
-      <c r="H165" s="40"/>
-      <c r="I165" s="40"/>
-      <c r="J165" s="40"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="106"/>
-      <c r="B166" s="27">
-        <v>41767</v>
-      </c>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="61"/>
-      <c r="F166" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G166" s="40"/>
-      <c r="H166" s="40"/>
-      <c r="I166" s="40"/>
-      <c r="J166" s="40"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="107"/>
-      <c r="B167" s="27">
-        <v>41768</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
-      <c r="E167" s="61"/>
+      <c r="E167" s="60"/>
       <c r="F167" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5310,85 +5437,85 @@
       <c r="J167" s="40"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="83">
+      <c r="A168" s="114"/>
+      <c r="B168" s="27">
+        <v>41765</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="60"/>
+      <c r="F168" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="40"/>
+      <c r="H168" s="40"/>
+      <c r="I168" s="40"/>
+      <c r="J168" s="40"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="114"/>
+      <c r="B169" s="27">
+        <v>41766</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="60"/>
+      <c r="F169" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G169" s="40"/>
+      <c r="H169" s="40"/>
+      <c r="I169" s="40"/>
+      <c r="J169" s="40"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="114"/>
+      <c r="B170" s="27">
+        <v>41767</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="60"/>
+      <c r="F170" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G170" s="40"/>
+      <c r="H170" s="40"/>
+      <c r="I170" s="40"/>
+      <c r="J170" s="40"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="115"/>
+      <c r="B171" s="27">
+        <v>41768</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="60"/>
+      <c r="F171" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G171" s="40"/>
+      <c r="H171" s="40"/>
+      <c r="I171" s="40"/>
+      <c r="J171" s="40"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="95">
         <v>28</v>
       </c>
-      <c r="B168" s="28">
+      <c r="B172" s="28">
         <v>41771</v>
-      </c>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="60"/>
-      <c r="F168" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G168" s="41"/>
-      <c r="H168" s="41"/>
-      <c r="I168" s="41"/>
-      <c r="J168" s="41"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="84"/>
-      <c r="B169" s="28">
-        <v>41772</v>
-      </c>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="60"/>
-      <c r="F169" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G169" s="41"/>
-      <c r="H169" s="41"/>
-      <c r="I169" s="41"/>
-      <c r="J169" s="41"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="84"/>
-      <c r="B170" s="28">
-        <v>41773</v>
-      </c>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="60"/>
-      <c r="F170" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G170" s="41"/>
-      <c r="H170" s="41"/>
-      <c r="I170" s="41"/>
-      <c r="J170" s="41"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="84"/>
-      <c r="B171" s="28">
-        <v>41774</v>
-      </c>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="60"/>
-      <c r="F171" s="59">
-        <f t="shared" ref="F171:F182" si="4">E171</f>
-        <v>0</v>
-      </c>
-      <c r="G171" s="41"/>
-      <c r="H171" s="41"/>
-      <c r="I171" s="41"/>
-      <c r="J171" s="41"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="85"/>
-      <c r="B172" s="28">
-        <v>41775</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
-      <c r="E172" s="60"/>
-      <c r="F172" s="59">
-        <f t="shared" si="4"/>
+      <c r="E172" s="59"/>
+      <c r="F172" s="58">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G172" s="41"/>
@@ -5397,83 +5524,83 @@
       <c r="J172" s="41"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="105">
+      <c r="A173" s="96"/>
+      <c r="B173" s="28">
+        <v>41772</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="59"/>
+      <c r="F173" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G173" s="41"/>
+      <c r="H173" s="41"/>
+      <c r="I173" s="41"/>
+      <c r="J173" s="41"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="96"/>
+      <c r="B174" s="28">
+        <v>41773</v>
+      </c>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="59"/>
+      <c r="F174" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G174" s="41"/>
+      <c r="H174" s="41"/>
+      <c r="I174" s="41"/>
+      <c r="J174" s="41"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="96"/>
+      <c r="B175" s="28">
+        <v>41774</v>
+      </c>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="59"/>
+      <c r="F175" s="58">
+        <f t="shared" ref="F175:F186" si="4">E175</f>
+        <v>0</v>
+      </c>
+      <c r="G175" s="41"/>
+      <c r="H175" s="41"/>
+      <c r="I175" s="41"/>
+      <c r="J175" s="41"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="97"/>
+      <c r="B176" s="28">
+        <v>41775</v>
+      </c>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="59"/>
+      <c r="F176" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G176" s="41"/>
+      <c r="H176" s="41"/>
+      <c r="I176" s="41"/>
+      <c r="J176" s="41"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="113">
         <v>29</v>
       </c>
-      <c r="B173" s="27">
+      <c r="B177" s="27">
         <v>41778</v>
-      </c>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="61"/>
-      <c r="F173" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G173" s="40"/>
-      <c r="H173" s="40"/>
-      <c r="I173" s="40"/>
-      <c r="J173" s="40"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="106"/>
-      <c r="B174" s="27">
-        <v>41779</v>
-      </c>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="61"/>
-      <c r="F174" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G174" s="40"/>
-      <c r="H174" s="40"/>
-      <c r="I174" s="40"/>
-      <c r="J174" s="40"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="106"/>
-      <c r="B175" s="27">
-        <v>41780</v>
-      </c>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="61"/>
-      <c r="F175" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G175" s="40"/>
-      <c r="H175" s="40"/>
-      <c r="I175" s="40"/>
-      <c r="J175" s="40"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="106"/>
-      <c r="B176" s="27">
-        <v>41781</v>
-      </c>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="61"/>
-      <c r="F176" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G176" s="40"/>
-      <c r="H176" s="40"/>
-      <c r="I176" s="40"/>
-      <c r="J176" s="40"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="107"/>
-      <c r="B177" s="27">
-        <v>41782</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
-      <c r="E177" s="61"/>
+      <c r="E177" s="60"/>
       <c r="F177" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5484,83 +5611,83 @@
       <c r="J177" s="40"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="122">
+      <c r="A178" s="114"/>
+      <c r="B178" s="27">
+        <v>41779</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="60"/>
+      <c r="F178" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G178" s="40"/>
+      <c r="H178" s="40"/>
+      <c r="I178" s="40"/>
+      <c r="J178" s="40"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="114"/>
+      <c r="B179" s="27">
+        <v>41780</v>
+      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="60"/>
+      <c r="F179" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G179" s="40"/>
+      <c r="H179" s="40"/>
+      <c r="I179" s="40"/>
+      <c r="J179" s="40"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="114"/>
+      <c r="B180" s="27">
+        <v>41781</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="60"/>
+      <c r="F180" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G180" s="40"/>
+      <c r="H180" s="40"/>
+      <c r="I180" s="40"/>
+      <c r="J180" s="40"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="115"/>
+      <c r="B181" s="27">
+        <v>41782</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="60"/>
+      <c r="F181" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G181" s="40"/>
+      <c r="H181" s="40"/>
+      <c r="I181" s="40"/>
+      <c r="J181" s="40"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="122">
         <v>30</v>
       </c>
-      <c r="B178" s="28">
+      <c r="B182" s="28">
         <v>41785</v>
-      </c>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="62"/>
-      <c r="F178" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G178" s="42"/>
-      <c r="H178" s="42"/>
-      <c r="I178" s="42"/>
-      <c r="J178" s="42"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="123"/>
-      <c r="B179" s="28">
-        <v>41786</v>
-      </c>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="62"/>
-      <c r="F179" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G179" s="42"/>
-      <c r="H179" s="42"/>
-      <c r="I179" s="42"/>
-      <c r="J179" s="42"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="123"/>
-      <c r="B180" s="28">
-        <v>41787</v>
-      </c>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="62"/>
-      <c r="F180" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G180" s="42"/>
-      <c r="H180" s="42"/>
-      <c r="I180" s="42"/>
-      <c r="J180" s="42"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="123"/>
-      <c r="B181" s="28">
-        <v>41788</v>
-      </c>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="62"/>
-      <c r="F181" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G181" s="42"/>
-      <c r="H181" s="42"/>
-      <c r="I181" s="42"/>
-      <c r="J181" s="42"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="124"/>
-      <c r="B182" s="28">
-        <v>41789</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
-      <c r="E182" s="62"/>
+      <c r="E182" s="61"/>
       <c r="F182" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5570,8 +5697,79 @@
       <c r="I182" s="42"/>
       <c r="J182" s="42"/>
     </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="123"/>
+      <c r="B183" s="28">
+        <v>41786</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="61"/>
+      <c r="F183" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G183" s="42"/>
+      <c r="H183" s="42"/>
+      <c r="I183" s="42"/>
+      <c r="J183" s="42"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="123"/>
+      <c r="B184" s="28">
+        <v>41787</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="61"/>
+      <c r="F184" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G184" s="42"/>
+      <c r="H184" s="42"/>
+      <c r="I184" s="42"/>
+      <c r="J184" s="42"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="123"/>
+      <c r="B185" s="28">
+        <v>41788</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="61"/>
+      <c r="F185" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G185" s="42"/>
+      <c r="H185" s="42"/>
+      <c r="I185" s="42"/>
+      <c r="J185" s="42"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="124"/>
+      <c r="B186" s="28">
+        <v>41789</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="61"/>
+      <c r="F186" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G186" s="42"/>
+      <c r="H186" s="42"/>
+      <c r="I186" s="42"/>
+      <c r="J186" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="75">
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A40:A52"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="F12:F13"/>
@@ -5579,57 +5777,47 @@
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="F23:F25"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A178:A182"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="A168:A172"/>
-    <mergeCell ref="A173:A177"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A23:A39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="A182:A186"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A81"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="A92:A96"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A97:A101"/>
     <mergeCell ref="B34:B36"/>
-    <mergeCell ref="F34:F36"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A23:A39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="F51:F52"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A82:A86"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
@@ -5637,12 +5825,23 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A7:A11"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F49:F50"/>
   </mergeCells>
   <conditionalFormatting sqref="M7:M8">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
@@ -5659,7 +5858,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F14 F21 F28 M14 F40 F9 F7 F12 F16 F23 F26 F34 F37 M9 M12 F46 F44 F49 F51" formulaRange="1"/>
+    <ignoredError sqref="F14 F21 F28 M14:M16 F40 F9 F7 F12 F16 F23 F26 F34 F37 M9 M12 F46 F44 F49 F51 F54 F58 M19" formulaRange="1"/>
     <ignoredError sqref="F19" formula="1" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
@@ -5967,7 +6166,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M54</xm:sqref>
+          <xm:sqref>M54:M57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="21" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
@@ -5986,86 +6185,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M55</xm:sqref>
+          <xm:sqref>M58:M59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="20" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6084,7 +6207,7 @@
           <xm:sqref>M60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="19" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6103,7 +6226,7 @@
           <xm:sqref>M61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="18" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6122,7 +6245,7 @@
           <xm:sqref>M62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="17" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6141,7 +6264,7 @@
           <xm:sqref>M63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="16" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6160,7 +6283,7 @@
           <xm:sqref>M64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="15" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6177,6 +6300,82 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M68</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="10" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -6233,7 +6432,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F40 F7 F12 F16 F19 F23 F26 F34 F37 F9 F14 F28 F44 F49 F46 F53:F182</xm:sqref>
+          <xm:sqref>F40 F7 F12 F16 F19 F23 F26 F34 F37 F9 F14 F28 F44 F49 F46 F53:F54 F60:F186 F58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="41" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="125">
   <si>
     <t>Week</t>
   </si>
@@ -981,35 +981,113 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1047,15 +1125,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1101,42 +1170,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1145,45 +1184,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1611,10 +1611,10 @@
   <dimension ref="A1:O186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1636,79 +1636,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="85"/>
+      <c r="A1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="88"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="114"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="117"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="94"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="120"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="135"/>
       <c r="F5" s="16"/>
       <c r="G5" s="1">
         <f>4.5/6</f>
@@ -1757,16 +1757,16 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="125">
+      <c r="A7" s="138">
         <v>1</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="77">
         <v>41585</v>
       </c>
       <c r="C7" s="18">
@@ -1778,7 +1778,7 @@
       <c r="E7" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F7" s="128">
+      <c r="F7" s="74">
         <f>SUM(E7:E8)</f>
         <v>1.24</v>
       </c>
@@ -1790,10 +1790,10 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="117" t="s">
+      <c r="K7" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="117"/>
+      <c r="L7" s="137"/>
       <c r="M7" s="64">
         <f>SUM(M9:M69)</f>
         <v>90.113</v>
@@ -1803,8 +1803,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="126"/>
-      <c r="B8" s="76"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="18">
         <v>0.60416666666666663</v>
       </c>
@@ -1814,7 +1814,7 @@
       <c r="E8" s="19">
         <v>0.08</v>
       </c>
-      <c r="F8" s="130"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="20" t="s">
         <v>24</v>
       </c>
@@ -1829,8 +1829,8 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="126"/>
-      <c r="B9" s="75">
+      <c r="A9" s="139"/>
+      <c r="B9" s="77">
         <v>41586</v>
       </c>
       <c r="C9" s="18">
@@ -1842,7 +1842,7 @@
       <c r="E9" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F9" s="128">
+      <c r="F9" s="74">
         <f>SUM(E9:E11)</f>
         <v>1.74</v>
       </c>
@@ -1867,8 +1867,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="126"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1878,7 +1878,7 @@
       <c r="E10" s="19">
         <v>0.5</v>
       </c>
-      <c r="F10" s="129"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="31" t="s">
         <v>25</v>
       </c>
@@ -1889,8 +1889,8 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="127"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="18" t="s">
         <v>100</v>
       </c>
@@ -1900,7 +1900,7 @@
       <c r="E11" s="19">
         <v>0.08</v>
       </c>
-      <c r="F11" s="130"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="31" t="s">
         <v>24</v>
       </c>
@@ -1911,10 +1911,10 @@
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="107">
+      <c r="A12" s="130">
         <v>2</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="82">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1926,7 +1926,7 @@
       <c r="E12" s="24">
         <v>2.25</v>
       </c>
-      <c r="F12" s="134">
+      <c r="F12" s="84">
         <f>SUM(E12:E13)</f>
         <v>2.33</v>
       </c>
@@ -1954,8 +1954,8 @@
       <c r="O12" s="35"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
-      <c r="B13" s="82"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="23">
         <v>0.625</v>
       </c>
@@ -1965,7 +1965,7 @@
       <c r="E13" s="24">
         <v>0.08</v>
       </c>
-      <c r="F13" s="135"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="32" t="s">
         <v>24</v>
       </c>
@@ -1981,8 +1981,8 @@
       <c r="O13" s="35"/>
     </row>
     <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
-      <c r="B14" s="81">
+      <c r="A14" s="131"/>
+      <c r="B14" s="82">
         <v>41591</v>
       </c>
       <c r="C14" s="26">
@@ -1994,7 +1994,7 @@
       <c r="E14" s="29">
         <v>2</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="87">
         <f>SUM(E14:E15)</f>
         <v>3</v>
       </c>
@@ -2014,8 +2014,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="131"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="26">
         <v>0.91666666666666663</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="E15" s="29">
         <v>1</v>
       </c>
-      <c r="F15" s="74"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="30" t="s">
         <v>24</v>
       </c>
@@ -2049,8 +2049,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
-      <c r="B16" s="81">
+      <c r="A16" s="131"/>
+      <c r="B16" s="82">
         <v>41592</v>
       </c>
       <c r="C16" s="26">
@@ -2062,7 +2062,7 @@
       <c r="E16" s="29">
         <v>0.75</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="87">
         <f>SUM(E16:E18)</f>
         <v>2.08</v>
       </c>
@@ -2089,8 +2089,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
-      <c r="B17" s="121"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="26">
         <v>0.375</v>
       </c>
@@ -2100,7 +2100,7 @@
       <c r="E17" s="29">
         <v>1.25</v>
       </c>
-      <c r="F17" s="136"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="45" t="s">
         <v>25</v>
       </c>
@@ -2117,8 +2117,8 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="108"/>
-      <c r="B18" s="82"/>
+      <c r="A18" s="131"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -2128,7 +2128,7 @@
       <c r="E18" s="29">
         <v>0.08</v>
       </c>
-      <c r="F18" s="74"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="45" t="s">
         <v>24</v>
       </c>
@@ -2143,8 +2143,8 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
-      <c r="B19" s="81">
+      <c r="A19" s="131"/>
+      <c r="B19" s="82">
         <v>41593</v>
       </c>
       <c r="C19" s="26">
@@ -2156,7 +2156,7 @@
       <c r="E19" s="29">
         <v>1.083</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="87">
         <f>SUM(E19:E22)</f>
         <v>5.883</v>
       </c>
@@ -2183,8 +2183,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
-      <c r="B20" s="82"/>
+      <c r="A20" s="131"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="26">
         <v>0.91666666666666663</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="E20" s="29">
         <v>2.33</v>
       </c>
-      <c r="F20" s="74"/>
+      <c r="F20" s="89"/>
       <c r="G20" s="30" t="s">
         <v>24</v>
       </c>
@@ -2218,8 +2218,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
-      <c r="B21" s="81">
+      <c r="A21" s="131"/>
+      <c r="B21" s="82">
         <v>41594</v>
       </c>
       <c r="C21" s="26">
@@ -2231,7 +2231,7 @@
       <c r="E21" s="29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F21" s="73">
+      <c r="F21" s="87">
         <f>SUM(E21:E22)</f>
         <v>2.4699999999999998</v>
       </c>
@@ -2258,8 +2258,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
-      <c r="B22" s="82"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -2269,7 +2269,7 @@
       <c r="E22" s="29">
         <v>1.92</v>
       </c>
-      <c r="F22" s="74"/>
+      <c r="F22" s="89"/>
       <c r="G22" s="30" t="s">
         <v>24</v>
       </c>
@@ -2286,10 +2286,10 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="118">
+      <c r="A23" s="94">
         <v>3</v>
       </c>
-      <c r="B23" s="75">
+      <c r="B23" s="77">
         <v>41597</v>
       </c>
       <c r="C23" s="47">
@@ -2301,7 +2301,7 @@
       <c r="E23" s="51">
         <v>2</v>
       </c>
-      <c r="F23" s="77">
+      <c r="F23" s="91">
         <f>SUM(E23:E25)</f>
         <v>3.08</v>
       </c>
@@ -2326,8 +2326,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="119"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="47">
         <v>0.5625</v>
       </c>
@@ -2337,7 +2337,7 @@
       <c r="E24" s="51">
         <v>1</v>
       </c>
-      <c r="F24" s="79"/>
+      <c r="F24" s="92"/>
       <c r="G24" s="48" t="s">
         <v>21</v>
       </c>
@@ -2352,8 +2352,8 @@
       <c r="N24" s="55"/>
     </row>
     <row r="25" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="119"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="47">
         <v>0.60416666666666663</v>
       </c>
@@ -2363,7 +2363,7 @@
       <c r="E25" s="51">
         <v>0.08</v>
       </c>
-      <c r="F25" s="78"/>
+      <c r="F25" s="93"/>
       <c r="G25" s="48" t="s">
         <v>24</v>
       </c>
@@ -2378,8 +2378,8 @@
       <c r="N25" s="55"/>
     </row>
     <row r="26" spans="1:14" s="56" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="119"/>
-      <c r="B26" s="75">
+      <c r="A26" s="95"/>
+      <c r="B26" s="77">
         <v>41598</v>
       </c>
       <c r="C26" s="47">
@@ -2391,7 +2391,7 @@
       <c r="E26" s="51">
         <v>4</v>
       </c>
-      <c r="F26" s="77">
+      <c r="F26" s="91">
         <f>SUM(E26:E27)</f>
         <v>4.08</v>
       </c>
@@ -2416,8 +2416,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="119"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="47">
         <v>0.72916666666666663</v>
       </c>
@@ -2427,7 +2427,7 @@
       <c r="E27" s="51">
         <v>0.08</v>
       </c>
-      <c r="F27" s="78"/>
+      <c r="F27" s="93"/>
       <c r="G27" s="31" t="s">
         <v>24</v>
       </c>
@@ -2442,8 +2442,8 @@
       <c r="N27" s="55"/>
     </row>
     <row r="28" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="119"/>
-      <c r="B28" s="75">
+      <c r="A28" s="95"/>
+      <c r="B28" s="77">
         <v>41599</v>
       </c>
       <c r="C28" s="47">
@@ -2455,7 +2455,7 @@
       <c r="E28" s="51">
         <v>1</v>
       </c>
-      <c r="F28" s="77">
+      <c r="F28" s="91">
         <f>SUM(E28:E33)</f>
         <v>10.850000000000001</v>
       </c>
@@ -2482,8 +2482,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="119"/>
-      <c r="B29" s="80"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="90"/>
       <c r="C29" s="47">
         <v>0.375</v>
       </c>
@@ -2493,7 +2493,7 @@
       <c r="E29" s="51">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F29" s="79"/>
+      <c r="F29" s="92"/>
       <c r="G29" s="31" t="s">
         <v>25</v>
       </c>
@@ -2508,8 +2508,8 @@
       <c r="N29" s="55"/>
     </row>
     <row r="30" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="119"/>
-      <c r="B30" s="80"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="90"/>
       <c r="C30" s="47">
         <v>0.4236111111111111</v>
       </c>
@@ -2519,7 +2519,7 @@
       <c r="E30" s="51">
         <v>1.03</v>
       </c>
-      <c r="F30" s="79"/>
+      <c r="F30" s="92"/>
       <c r="G30" s="48" t="s">
         <v>21</v>
       </c>
@@ -2534,8 +2534,8 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="119"/>
-      <c r="B31" s="80"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="47">
         <v>0.5625</v>
       </c>
@@ -2545,7 +2545,7 @@
       <c r="E31" s="51">
         <v>1.5</v>
       </c>
-      <c r="F31" s="79"/>
+      <c r="F31" s="92"/>
       <c r="G31" s="31" t="s">
         <v>30</v>
       </c>
@@ -2562,8 +2562,8 @@
       <c r="N31" s="55"/>
     </row>
     <row r="32" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="119"/>
-      <c r="B32" s="80"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="90"/>
       <c r="C32" s="47">
         <v>0.625</v>
       </c>
@@ -2573,7 +2573,7 @@
       <c r="E32" s="51">
         <v>2.16</v>
       </c>
-      <c r="F32" s="79"/>
+      <c r="F32" s="92"/>
       <c r="G32" s="31" t="s">
         <v>21</v>
       </c>
@@ -2590,8 +2590,8 @@
       <c r="N32" s="55"/>
     </row>
     <row r="33" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="119"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="47">
         <v>0.83333333333333337</v>
       </c>
@@ -2601,7 +2601,7 @@
       <c r="E33" s="51">
         <v>4</v>
       </c>
-      <c r="F33" s="78"/>
+      <c r="F33" s="93"/>
       <c r="G33" s="31" t="s">
         <v>22</v>
       </c>
@@ -2616,8 +2616,8 @@
       <c r="N33" s="55"/>
     </row>
     <row r="34" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="119"/>
-      <c r="B34" s="75">
+      <c r="A34" s="95"/>
+      <c r="B34" s="77">
         <v>41600</v>
       </c>
       <c r="C34" s="47">
@@ -2629,7 +2629,7 @@
       <c r="E34" s="51">
         <v>1.25</v>
       </c>
-      <c r="F34" s="77">
+      <c r="F34" s="91">
         <f>SUM(E34:E36)</f>
         <v>5</v>
       </c>
@@ -2656,8 +2656,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="119"/>
-      <c r="B35" s="80"/>
+      <c r="A35" s="95"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="47">
         <v>0.64583333333333337</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="E35" s="51">
         <v>1</v>
       </c>
-      <c r="F35" s="79"/>
+      <c r="F35" s="92"/>
       <c r="G35" s="31" t="s">
         <v>26</v>
       </c>
@@ -2684,8 +2684,8 @@
       <c r="N35" s="55"/>
     </row>
     <row r="36" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="119"/>
-      <c r="B36" s="76"/>
+      <c r="A36" s="95"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="47">
         <v>0.90625</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="E36" s="51">
         <v>2.75</v>
       </c>
-      <c r="F36" s="78"/>
+      <c r="F36" s="93"/>
       <c r="G36" s="31" t="s">
         <v>22</v>
       </c>
@@ -2710,8 +2710,8 @@
       <c r="N36" s="55"/>
     </row>
     <row r="37" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="119"/>
-      <c r="B37" s="75">
+      <c r="A37" s="95"/>
+      <c r="B37" s="77">
         <v>41601</v>
       </c>
       <c r="C37" s="47">
@@ -2723,7 +2723,7 @@
       <c r="E37" s="51">
         <v>0.25</v>
       </c>
-      <c r="F37" s="77">
+      <c r="F37" s="91">
         <f>SUM(E37:E39)</f>
         <v>5.25</v>
       </c>
@@ -2741,8 +2741,8 @@
       <c r="N37" s="55"/>
     </row>
     <row r="38" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="119"/>
-      <c r="B38" s="80"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="90"/>
       <c r="C38" s="47">
         <v>0.57291666666666663</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="E38" s="51">
         <v>1</v>
       </c>
-      <c r="F38" s="79"/>
+      <c r="F38" s="92"/>
       <c r="G38" s="31" t="s">
         <v>26</v>
       </c>
@@ -2769,8 +2769,8 @@
       <c r="N38" s="55"/>
     </row>
     <row r="39" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="120"/>
-      <c r="B39" s="76"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="47">
         <v>0.83333333333333337</v>
       </c>
@@ -2780,7 +2780,7 @@
       <c r="E39" s="51">
         <v>4</v>
       </c>
-      <c r="F39" s="78"/>
+      <c r="F39" s="93"/>
       <c r="G39" s="31" t="s">
         <v>24</v>
       </c>
@@ -2797,10 +2797,10 @@
       <c r="N39" s="55"/>
     </row>
     <row r="40" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="131">
+      <c r="A40" s="79">
         <v>4</v>
       </c>
-      <c r="B40" s="81">
+      <c r="B40" s="82">
         <v>41604</v>
       </c>
       <c r="C40" s="69">
@@ -2812,7 +2812,7 @@
       <c r="E40" s="58">
         <v>2.25</v>
       </c>
-      <c r="F40" s="137">
+      <c r="F40" s="97">
         <f>SUM(E40:E43)</f>
         <v>7.25</v>
       </c>
@@ -2837,8 +2837,8 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="56" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="132"/>
-      <c r="B41" s="121"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="86"/>
       <c r="C41" s="69">
         <v>0.875</v>
       </c>
@@ -2848,7 +2848,7 @@
       <c r="E41" s="58">
         <v>2.5</v>
       </c>
-      <c r="F41" s="138"/>
+      <c r="F41" s="98"/>
       <c r="G41" s="57" t="s">
         <v>25</v>
       </c>
@@ -2870,8 +2870,8 @@
       </c>
     </row>
     <row r="42" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="132"/>
-      <c r="B42" s="121"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="86"/>
       <c r="C42" s="69">
         <v>0.5625</v>
       </c>
@@ -2881,7 +2881,7 @@
       <c r="E42" s="58">
         <v>1.25</v>
       </c>
-      <c r="F42" s="138"/>
+      <c r="F42" s="98"/>
       <c r="G42" s="38" t="s">
         <v>21</v>
       </c>
@@ -2896,8 +2896,8 @@
       <c r="N42" s="55"/>
     </row>
     <row r="43" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="132"/>
-      <c r="B43" s="82"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="69">
         <v>0.61458333333333337</v>
       </c>
@@ -2907,7 +2907,7 @@
       <c r="E43" s="58">
         <v>1.25</v>
       </c>
-      <c r="F43" s="139"/>
+      <c r="F43" s="99"/>
       <c r="G43" s="57" t="s">
         <v>26</v>
       </c>
@@ -2922,8 +2922,8 @@
       <c r="N43" s="55"/>
     </row>
     <row r="44" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="132"/>
-      <c r="B44" s="81">
+      <c r="A44" s="80"/>
+      <c r="B44" s="82">
         <v>41605</v>
       </c>
       <c r="C44" s="69">
@@ -2935,7 +2935,7 @@
       <c r="E44" s="58">
         <v>2.33</v>
       </c>
-      <c r="F44" s="137">
+      <c r="F44" s="97">
         <f>SUM(E44:E45)</f>
         <v>5.08</v>
       </c>
@@ -2960,8 +2960,8 @@
       </c>
     </row>
     <row r="45" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="132"/>
-      <c r="B45" s="82"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="69">
         <v>0.91666666666666663</v>
       </c>
@@ -2971,8 +2971,10 @@
       <c r="E45" s="58">
         <v>2.75</v>
       </c>
-      <c r="F45" s="139"/>
-      <c r="G45" s="57"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="57" t="s">
+        <v>22</v>
+      </c>
       <c r="H45" s="65"/>
       <c r="I45" s="57"/>
       <c r="J45" s="57"/>
@@ -2982,8 +2984,8 @@
       <c r="N45" s="55"/>
     </row>
     <row r="46" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="132"/>
-      <c r="B46" s="81">
+      <c r="A46" s="80"/>
+      <c r="B46" s="82">
         <v>41606</v>
       </c>
       <c r="C46" s="69">
@@ -2995,7 +2997,7 @@
       <c r="E46" s="58">
         <v>1.25</v>
       </c>
-      <c r="F46" s="137">
+      <c r="F46" s="97">
         <f>SUM(E46:E48)</f>
         <v>5.75</v>
       </c>
@@ -3020,8 +3022,8 @@
       </c>
     </row>
     <row r="47" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="132"/>
-      <c r="B47" s="121"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="86"/>
       <c r="C47" s="69">
         <v>0.38541666666666669</v>
       </c>
@@ -3031,7 +3033,7 @@
       <c r="E47" s="58">
         <v>1.75</v>
       </c>
-      <c r="F47" s="138"/>
+      <c r="F47" s="98"/>
       <c r="G47" s="71" t="s">
         <v>27</v>
       </c>
@@ -3046,8 +3048,8 @@
       <c r="N47" s="55"/>
     </row>
     <row r="48" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="132"/>
-      <c r="B48" s="82"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="69">
         <v>0.5625</v>
       </c>
@@ -3057,7 +3059,7 @@
       <c r="E48" s="58">
         <v>2.75</v>
       </c>
-      <c r="F48" s="139"/>
+      <c r="F48" s="99"/>
       <c r="G48" s="32" t="s">
         <v>21</v>
       </c>
@@ -3072,8 +3074,8 @@
       <c r="N48" s="55"/>
     </row>
     <row r="49" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="132"/>
-      <c r="B49" s="81">
+      <c r="A49" s="80"/>
+      <c r="B49" s="82">
         <v>41607</v>
       </c>
       <c r="C49" s="69">
@@ -3085,7 +3087,7 @@
       <c r="E49" s="58">
         <v>3.5</v>
       </c>
-      <c r="F49" s="137">
+      <c r="F49" s="97">
         <f>SUM(E49:E50)</f>
         <v>6.25</v>
       </c>
@@ -3110,8 +3112,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="132"/>
-      <c r="B50" s="82"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="83"/>
       <c r="C50" s="69">
         <v>0.91666666666666663</v>
       </c>
@@ -3121,7 +3123,7 @@
       <c r="E50" s="58">
         <v>2.75</v>
       </c>
-      <c r="F50" s="139"/>
+      <c r="F50" s="99"/>
       <c r="G50" s="32" t="s">
         <v>24</v>
       </c>
@@ -3136,8 +3138,8 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="132"/>
-      <c r="B51" s="81">
+      <c r="A51" s="80"/>
+      <c r="B51" s="82">
         <v>41608</v>
       </c>
       <c r="C51" s="69">
@@ -3149,7 +3151,7 @@
       <c r="E51" s="58">
         <v>1.25</v>
       </c>
-      <c r="F51" s="73">
+      <c r="F51" s="87">
         <f>SUM(E51:E52)</f>
         <v>4.25</v>
       </c>
@@ -3167,8 +3169,8 @@
       <c r="N51" s="55"/>
     </row>
     <row r="52" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="133"/>
-      <c r="B52" s="82"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="83"/>
       <c r="C52" s="69">
         <v>0.375</v>
       </c>
@@ -3178,7 +3180,7 @@
       <c r="E52" s="58">
         <v>3</v>
       </c>
-      <c r="F52" s="74"/>
+      <c r="F52" s="89"/>
       <c r="G52" s="32" t="s">
         <v>24</v>
       </c>
@@ -3193,7 +3195,7 @@
       <c r="N52" s="55"/>
     </row>
     <row r="53" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="118">
+      <c r="A53" s="94">
         <v>5</v>
       </c>
       <c r="B53" s="17">
@@ -3235,8 +3237,8 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="119"/>
-      <c r="B54" s="75">
+      <c r="A54" s="95"/>
+      <c r="B54" s="77">
         <v>41611</v>
       </c>
       <c r="C54" s="47">
@@ -3248,7 +3250,7 @@
       <c r="E54" s="51">
         <v>1</v>
       </c>
-      <c r="F54" s="77">
+      <c r="F54" s="91">
         <f>SUM(E54:E57)</f>
         <v>5.5</v>
       </c>
@@ -3273,8 +3275,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="119"/>
-      <c r="B55" s="80"/>
+      <c r="A55" s="95"/>
+      <c r="B55" s="90"/>
       <c r="C55" s="47">
         <v>0.375</v>
       </c>
@@ -3284,7 +3286,7 @@
       <c r="E55" s="51">
         <v>1.5</v>
       </c>
-      <c r="F55" s="79"/>
+      <c r="F55" s="92"/>
       <c r="G55" s="72" t="s">
         <v>27</v>
       </c>
@@ -3299,8 +3301,8 @@
       <c r="N55" s="55"/>
     </row>
     <row r="56" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="119"/>
-      <c r="B56" s="80"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="47">
         <v>0.4375</v>
       </c>
@@ -3310,7 +3312,7 @@
       <c r="E56" s="51">
         <v>0.5</v>
       </c>
-      <c r="F56" s="79"/>
+      <c r="F56" s="92"/>
       <c r="G56" s="48" t="s">
         <v>21</v>
       </c>
@@ -3325,8 +3327,8 @@
       <c r="N56" s="55"/>
     </row>
     <row r="57" spans="1:14" s="56" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="119"/>
-      <c r="B57" s="76"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="78"/>
       <c r="C57" s="47">
         <v>0.5625</v>
       </c>
@@ -3336,7 +3338,7 @@
       <c r="E57" s="51">
         <v>2.5</v>
       </c>
-      <c r="F57" s="78"/>
+      <c r="F57" s="93"/>
       <c r="G57" s="72" t="s">
         <v>29</v>
       </c>
@@ -3351,20 +3353,20 @@
       <c r="N57" s="55"/>
     </row>
     <row r="58" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="119"/>
-      <c r="B58" s="75">
+      <c r="A58" s="95"/>
+      <c r="B58" s="77">
         <v>41612</v>
       </c>
       <c r="C58" s="47">
         <v>0.375</v>
       </c>
-      <c r="D58" s="140" t="s">
+      <c r="D58" s="73" t="s">
         <v>118</v>
       </c>
       <c r="E58" s="51">
         <v>3</v>
       </c>
-      <c r="F58" s="77">
+      <c r="F58" s="91">
         <f>SUM(E58:E59)</f>
         <v>7.5</v>
       </c>
@@ -3391,8 +3393,8 @@
       </c>
     </row>
     <row r="59" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="119"/>
-      <c r="B59" s="76"/>
+      <c r="A59" s="95"/>
+      <c r="B59" s="78"/>
       <c r="C59" s="47">
         <v>0.5625</v>
       </c>
@@ -3402,7 +3404,7 @@
       <c r="E59" s="51">
         <v>4.5</v>
       </c>
-      <c r="F59" s="78"/>
+      <c r="F59" s="93"/>
       <c r="G59" s="48" t="s">
         <v>21</v>
       </c>
@@ -3417,7 +3419,7 @@
       <c r="N59" s="55"/>
     </row>
     <row r="60" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="119"/>
+      <c r="A60" s="95"/>
       <c r="B60" s="17">
         <v>41613</v>
       </c>
@@ -3455,12 +3457,12 @@
       </c>
     </row>
     <row r="61" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="120"/>
+      <c r="A61" s="96"/>
       <c r="B61" s="17">
         <v>41614</v>
       </c>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="51"/>
       <c r="F61" s="51">
         <f t="shared" si="0"/>
@@ -3483,7 +3485,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="95">
+      <c r="A62" s="103">
         <v>6</v>
       </c>
       <c r="B62" s="28">
@@ -3513,7 +3515,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="96"/>
+      <c r="A63" s="104"/>
       <c r="B63" s="28">
         <v>41618</v>
       </c>
@@ -3541,7 +3543,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="96"/>
+      <c r="A64" s="104"/>
       <c r="B64" s="28">
         <v>41619</v>
       </c>
@@ -3569,7 +3571,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="96"/>
+      <c r="A65" s="104"/>
       <c r="B65" s="28">
         <v>41620</v>
       </c>
@@ -3597,7 +3599,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="97"/>
+      <c r="A66" s="105"/>
       <c r="B66" s="28">
         <v>41621</v>
       </c>
@@ -3625,7 +3627,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="113">
+      <c r="A67" s="106">
         <v>7</v>
       </c>
       <c r="B67" s="27">
@@ -3655,7 +3657,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="114"/>
+      <c r="A68" s="107"/>
       <c r="B68" s="27">
         <v>41625</v>
       </c>
@@ -3683,7 +3685,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="114"/>
+      <c r="A69" s="107"/>
       <c r="B69" s="27">
         <v>41626</v>
       </c>
@@ -3711,7 +3713,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="114"/>
+      <c r="A70" s="107"/>
       <c r="B70" s="27">
         <v>41627</v>
       </c>
@@ -3728,7 +3730,7 @@
       <c r="J70" s="40"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="115"/>
+      <c r="A71" s="108"/>
       <c r="B71" s="27">
         <v>41628</v>
       </c>
@@ -3745,7 +3747,7 @@
       <c r="J71" s="40"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="95">
+      <c r="A72" s="103">
         <v>8</v>
       </c>
       <c r="B72" s="28">
@@ -3764,7 +3766,7 @@
       <c r="J72" s="41"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="96"/>
+      <c r="A73" s="104"/>
       <c r="B73" s="28">
         <v>41632</v>
       </c>
@@ -3781,7 +3783,7 @@
       <c r="J73" s="41"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="96"/>
+      <c r="A74" s="104"/>
       <c r="B74" s="28">
         <v>41633</v>
       </c>
@@ -3798,7 +3800,7 @@
       <c r="J74" s="41"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="96"/>
+      <c r="A75" s="104"/>
       <c r="B75" s="28">
         <v>41634</v>
       </c>
@@ -3815,7 +3817,7 @@
       <c r="J75" s="41"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="97"/>
+      <c r="A76" s="105"/>
       <c r="B76" s="28">
         <v>41635</v>
       </c>
@@ -3832,7 +3834,7 @@
       <c r="J76" s="41"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="113">
+      <c r="A77" s="106">
         <v>9</v>
       </c>
       <c r="B77" s="27">
@@ -3851,7 +3853,7 @@
       <c r="J77" s="40"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="114"/>
+      <c r="A78" s="107"/>
       <c r="B78" s="27">
         <v>41639</v>
       </c>
@@ -3868,7 +3870,7 @@
       <c r="J78" s="40"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="114"/>
+      <c r="A79" s="107"/>
       <c r="B79" s="27">
         <v>41640</v>
       </c>
@@ -3885,7 +3887,7 @@
       <c r="J79" s="40"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="114"/>
+      <c r="A80" s="107"/>
       <c r="B80" s="27">
         <v>41641</v>
       </c>
@@ -3902,7 +3904,7 @@
       <c r="J80" s="40"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="115"/>
+      <c r="A81" s="108"/>
       <c r="B81" s="27">
         <v>41642</v>
       </c>
@@ -3919,7 +3921,7 @@
       <c r="J81" s="40"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="95">
+      <c r="A82" s="103">
         <v>10</v>
       </c>
       <c r="B82" s="28">
@@ -3938,7 +3940,7 @@
       <c r="J82" s="41"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="96"/>
+      <c r="A83" s="104"/>
       <c r="B83" s="28">
         <v>41646</v>
       </c>
@@ -3955,7 +3957,7 @@
       <c r="J83" s="41"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="96"/>
+      <c r="A84" s="104"/>
       <c r="B84" s="28">
         <v>41647</v>
       </c>
@@ -3972,7 +3974,7 @@
       <c r="J84" s="41"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="96"/>
+      <c r="A85" s="104"/>
       <c r="B85" s="28">
         <v>41648</v>
       </c>
@@ -3989,7 +3991,7 @@
       <c r="J85" s="41"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="97"/>
+      <c r="A86" s="105"/>
       <c r="B86" s="28">
         <v>41649</v>
       </c>
@@ -4006,7 +4008,7 @@
       <c r="J86" s="41"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="113">
+      <c r="A87" s="106">
         <v>11</v>
       </c>
       <c r="B87" s="27">
@@ -4025,7 +4027,7 @@
       <c r="J87" s="40"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="114"/>
+      <c r="A88" s="107"/>
       <c r="B88" s="27">
         <v>41653</v>
       </c>
@@ -4042,7 +4044,7 @@
       <c r="J88" s="40"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="114"/>
+      <c r="A89" s="107"/>
       <c r="B89" s="27">
         <v>41654</v>
       </c>
@@ -4059,7 +4061,7 @@
       <c r="J89" s="40"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="114"/>
+      <c r="A90" s="107"/>
       <c r="B90" s="27">
         <v>41655</v>
       </c>
@@ -4076,7 +4078,7 @@
       <c r="J90" s="40"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="115"/>
+      <c r="A91" s="108"/>
       <c r="B91" s="27">
         <v>41656</v>
       </c>
@@ -4093,7 +4095,7 @@
       <c r="J91" s="40"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="95">
+      <c r="A92" s="103">
         <v>12</v>
       </c>
       <c r="B92" s="28">
@@ -4112,7 +4114,7 @@
       <c r="J92" s="41"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="96"/>
+      <c r="A93" s="104"/>
       <c r="B93" s="28">
         <v>41660</v>
       </c>
@@ -4129,7 +4131,7 @@
       <c r="J93" s="41"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="96"/>
+      <c r="A94" s="104"/>
       <c r="B94" s="28">
         <v>41661</v>
       </c>
@@ -4146,7 +4148,7 @@
       <c r="J94" s="41"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="96"/>
+      <c r="A95" s="104"/>
       <c r="B95" s="28">
         <v>41662</v>
       </c>
@@ -4163,7 +4165,7 @@
       <c r="J95" s="41"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="97"/>
+      <c r="A96" s="105"/>
       <c r="B96" s="28">
         <v>41663</v>
       </c>
@@ -4180,7 +4182,7 @@
       <c r="J96" s="41"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="113">
+      <c r="A97" s="106">
         <v>13</v>
       </c>
       <c r="B97" s="27">
@@ -4201,7 +4203,7 @@
       <c r="J97" s="40"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="114"/>
+      <c r="A98" s="107"/>
       <c r="B98" s="27">
         <v>41667</v>
       </c>
@@ -4220,7 +4222,7 @@
       <c r="J98" s="40"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="114"/>
+      <c r="A99" s="107"/>
       <c r="B99" s="27">
         <v>41668</v>
       </c>
@@ -4239,7 +4241,7 @@
       <c r="J99" s="40"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="114"/>
+      <c r="A100" s="107"/>
       <c r="B100" s="27">
         <v>41669</v>
       </c>
@@ -4258,7 +4260,7 @@
       <c r="J100" s="40"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="115"/>
+      <c r="A101" s="108"/>
       <c r="B101" s="27">
         <v>41670</v>
       </c>
@@ -4277,7 +4279,7 @@
       <c r="J101" s="40"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="95">
+      <c r="A102" s="103">
         <v>14</v>
       </c>
       <c r="B102" s="28">
@@ -4298,7 +4300,7 @@
       <c r="J102" s="41"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="96"/>
+      <c r="A103" s="104"/>
       <c r="B103" s="28">
         <v>41674</v>
       </c>
@@ -4317,7 +4319,7 @@
       <c r="J103" s="41"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="96"/>
+      <c r="A104" s="104"/>
       <c r="B104" s="28">
         <v>41675</v>
       </c>
@@ -4336,7 +4338,7 @@
       <c r="J104" s="41"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="96"/>
+      <c r="A105" s="104"/>
       <c r="B105" s="28">
         <v>41676</v>
       </c>
@@ -4355,7 +4357,7 @@
       <c r="J105" s="41"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="97"/>
+      <c r="A106" s="105"/>
       <c r="B106" s="28">
         <v>41677</v>
       </c>
@@ -4374,7 +4376,7 @@
       <c r="J106" s="41"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="113">
+      <c r="A107" s="106">
         <v>15</v>
       </c>
       <c r="B107" s="27">
@@ -4393,7 +4395,7 @@
       <c r="J107" s="40"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="114"/>
+      <c r="A108" s="107"/>
       <c r="B108" s="27">
         <v>41681</v>
       </c>
@@ -4410,7 +4412,7 @@
       <c r="J108" s="40"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="114"/>
+      <c r="A109" s="107"/>
       <c r="B109" s="27">
         <v>41682</v>
       </c>
@@ -4427,7 +4429,7 @@
       <c r="J109" s="40"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="114"/>
+      <c r="A110" s="107"/>
       <c r="B110" s="27">
         <v>41683</v>
       </c>
@@ -4444,7 +4446,7 @@
       <c r="J110" s="40"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="115"/>
+      <c r="A111" s="108"/>
       <c r="B111" s="27">
         <v>41684</v>
       </c>
@@ -4461,7 +4463,7 @@
       <c r="J111" s="40"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="95">
+      <c r="A112" s="103">
         <v>16</v>
       </c>
       <c r="B112" s="28">
@@ -4480,7 +4482,7 @@
       <c r="J112" s="41"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="96"/>
+      <c r="A113" s="104"/>
       <c r="B113" s="28">
         <v>41688</v>
       </c>
@@ -4497,7 +4499,7 @@
       <c r="J113" s="41"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="96"/>
+      <c r="A114" s="104"/>
       <c r="B114" s="28">
         <v>41689</v>
       </c>
@@ -4514,7 +4516,7 @@
       <c r="J114" s="41"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="96"/>
+      <c r="A115" s="104"/>
       <c r="B115" s="28">
         <v>41690</v>
       </c>
@@ -4531,7 +4533,7 @@
       <c r="J115" s="41"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="97"/>
+      <c r="A116" s="105"/>
       <c r="B116" s="28">
         <v>41691</v>
       </c>
@@ -4548,7 +4550,7 @@
       <c r="J116" s="41"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="113">
+      <c r="A117" s="106">
         <v>17</v>
       </c>
       <c r="B117" s="27">
@@ -4567,7 +4569,7 @@
       <c r="J117" s="40"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="114"/>
+      <c r="A118" s="107"/>
       <c r="B118" s="27">
         <v>41695</v>
       </c>
@@ -4584,7 +4586,7 @@
       <c r="J118" s="40"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="114"/>
+      <c r="A119" s="107"/>
       <c r="B119" s="27">
         <v>41696</v>
       </c>
@@ -4601,7 +4603,7 @@
       <c r="J119" s="40"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="114"/>
+      <c r="A120" s="107"/>
       <c r="B120" s="27">
         <v>41697</v>
       </c>
@@ -4618,7 +4620,7 @@
       <c r="J120" s="40"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="115"/>
+      <c r="A121" s="108"/>
       <c r="B121" s="27">
         <v>41698</v>
       </c>
@@ -4635,7 +4637,7 @@
       <c r="J121" s="40"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="95">
+      <c r="A122" s="103">
         <v>18</v>
       </c>
       <c r="B122" s="28">
@@ -4654,7 +4656,7 @@
       <c r="J122" s="41"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="96"/>
+      <c r="A123" s="104"/>
       <c r="B123" s="28">
         <v>41702</v>
       </c>
@@ -4671,7 +4673,7 @@
       <c r="J123" s="41"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="96"/>
+      <c r="A124" s="104"/>
       <c r="B124" s="28">
         <v>41703</v>
       </c>
@@ -4688,7 +4690,7 @@
       <c r="J124" s="41"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="96"/>
+      <c r="A125" s="104"/>
       <c r="B125" s="28">
         <v>41704</v>
       </c>
@@ -4705,7 +4707,7 @@
       <c r="J125" s="41"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="97"/>
+      <c r="A126" s="105"/>
       <c r="B126" s="28">
         <v>41705</v>
       </c>
@@ -4722,7 +4724,7 @@
       <c r="J126" s="41"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="113">
+      <c r="A127" s="106">
         <v>19</v>
       </c>
       <c r="B127" s="27">
@@ -4741,7 +4743,7 @@
       <c r="J127" s="40"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="114"/>
+      <c r="A128" s="107"/>
       <c r="B128" s="27">
         <v>41709</v>
       </c>
@@ -4758,7 +4760,7 @@
       <c r="J128" s="40"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="114"/>
+      <c r="A129" s="107"/>
       <c r="B129" s="27">
         <v>41710</v>
       </c>
@@ -4775,7 +4777,7 @@
       <c r="J129" s="40"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="114"/>
+      <c r="A130" s="107"/>
       <c r="B130" s="27">
         <v>41711</v>
       </c>
@@ -4792,7 +4794,7 @@
       <c r="J130" s="40"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="115"/>
+      <c r="A131" s="108"/>
       <c r="B131" s="27">
         <v>41712</v>
       </c>
@@ -4809,7 +4811,7 @@
       <c r="J131" s="40"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="95">
+      <c r="A132" s="103">
         <v>20</v>
       </c>
       <c r="B132" s="28">
@@ -4828,7 +4830,7 @@
       <c r="J132" s="41"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="96"/>
+      <c r="A133" s="104"/>
       <c r="B133" s="28">
         <v>41716</v>
       </c>
@@ -4845,7 +4847,7 @@
       <c r="J133" s="41"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="96"/>
+      <c r="A134" s="104"/>
       <c r="B134" s="28">
         <v>41717</v>
       </c>
@@ -4862,7 +4864,7 @@
       <c r="J134" s="41"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="96"/>
+      <c r="A135" s="104"/>
       <c r="B135" s="28">
         <v>41718</v>
       </c>
@@ -4879,7 +4881,7 @@
       <c r="J135" s="41"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="97"/>
+      <c r="A136" s="105"/>
       <c r="B136" s="28">
         <v>41719</v>
       </c>
@@ -4896,7 +4898,7 @@
       <c r="J136" s="41"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="113">
+      <c r="A137" s="106">
         <v>21</v>
       </c>
       <c r="B137" s="27">
@@ -4915,7 +4917,7 @@
       <c r="J137" s="40"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="114"/>
+      <c r="A138" s="107"/>
       <c r="B138" s="27">
         <v>41723</v>
       </c>
@@ -4932,7 +4934,7 @@
       <c r="J138" s="40"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="114"/>
+      <c r="A139" s="107"/>
       <c r="B139" s="27">
         <v>41724</v>
       </c>
@@ -4949,7 +4951,7 @@
       <c r="J139" s="40"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="114"/>
+      <c r="A140" s="107"/>
       <c r="B140" s="27">
         <v>41725</v>
       </c>
@@ -4966,7 +4968,7 @@
       <c r="J140" s="40"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="115"/>
+      <c r="A141" s="108"/>
       <c r="B141" s="27">
         <v>41726</v>
       </c>
@@ -4983,7 +4985,7 @@
       <c r="J141" s="40"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="95">
+      <c r="A142" s="103">
         <v>22</v>
       </c>
       <c r="B142" s="28">
@@ -5002,7 +5004,7 @@
       <c r="J142" s="41"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="96"/>
+      <c r="A143" s="104"/>
       <c r="B143" s="28">
         <v>41730</v>
       </c>
@@ -5019,7 +5021,7 @@
       <c r="J143" s="41"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="96"/>
+      <c r="A144" s="104"/>
       <c r="B144" s="28">
         <v>41731</v>
       </c>
@@ -5036,7 +5038,7 @@
       <c r="J144" s="41"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="96"/>
+      <c r="A145" s="104"/>
       <c r="B145" s="28">
         <v>41732</v>
       </c>
@@ -5053,7 +5055,7 @@
       <c r="J145" s="41"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="97"/>
+      <c r="A146" s="105"/>
       <c r="B146" s="28">
         <v>41733</v>
       </c>
@@ -5070,7 +5072,7 @@
       <c r="J146" s="41"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="113">
+      <c r="A147" s="106">
         <v>23</v>
       </c>
       <c r="B147" s="27">
@@ -5089,7 +5091,7 @@
       <c r="J147" s="40"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="114"/>
+      <c r="A148" s="107"/>
       <c r="B148" s="27">
         <v>41737</v>
       </c>
@@ -5106,7 +5108,7 @@
       <c r="J148" s="40"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="114"/>
+      <c r="A149" s="107"/>
       <c r="B149" s="27">
         <v>41738</v>
       </c>
@@ -5123,7 +5125,7 @@
       <c r="J149" s="40"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="114"/>
+      <c r="A150" s="107"/>
       <c r="B150" s="27">
         <v>41739</v>
       </c>
@@ -5140,7 +5142,7 @@
       <c r="J150" s="40"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="115"/>
+      <c r="A151" s="108"/>
       <c r="B151" s="27">
         <v>41740</v>
       </c>
@@ -5157,7 +5159,7 @@
       <c r="J151" s="40"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="95">
+      <c r="A152" s="103">
         <v>24</v>
       </c>
       <c r="B152" s="28">
@@ -5176,7 +5178,7 @@
       <c r="J152" s="41"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="96"/>
+      <c r="A153" s="104"/>
       <c r="B153" s="28">
         <v>41744</v>
       </c>
@@ -5193,7 +5195,7 @@
       <c r="J153" s="41"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="96"/>
+      <c r="A154" s="104"/>
       <c r="B154" s="28">
         <v>41745</v>
       </c>
@@ -5210,7 +5212,7 @@
       <c r="J154" s="41"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="96"/>
+      <c r="A155" s="104"/>
       <c r="B155" s="28">
         <v>41746</v>
       </c>
@@ -5227,7 +5229,7 @@
       <c r="J155" s="41"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="97"/>
+      <c r="A156" s="105"/>
       <c r="B156" s="28">
         <v>41747</v>
       </c>
@@ -5244,7 +5246,7 @@
       <c r="J156" s="41"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="113">
+      <c r="A157" s="106">
         <v>25</v>
       </c>
       <c r="B157" s="27">
@@ -5263,7 +5265,7 @@
       <c r="J157" s="40"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="114"/>
+      <c r="A158" s="107"/>
       <c r="B158" s="27">
         <v>41751</v>
       </c>
@@ -5280,7 +5282,7 @@
       <c r="J158" s="40"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="114"/>
+      <c r="A159" s="107"/>
       <c r="B159" s="27">
         <v>41752</v>
       </c>
@@ -5297,7 +5299,7 @@
       <c r="J159" s="40"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="114"/>
+      <c r="A160" s="107"/>
       <c r="B160" s="27">
         <v>41753</v>
       </c>
@@ -5314,7 +5316,7 @@
       <c r="J160" s="40"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="115"/>
+      <c r="A161" s="108"/>
       <c r="B161" s="27">
         <v>41754</v>
       </c>
@@ -5331,7 +5333,7 @@
       <c r="J161" s="40"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="95">
+      <c r="A162" s="103">
         <v>26</v>
       </c>
       <c r="B162" s="28">
@@ -5350,7 +5352,7 @@
       <c r="J162" s="41"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="96"/>
+      <c r="A163" s="104"/>
       <c r="B163" s="28">
         <v>41758</v>
       </c>
@@ -5367,7 +5369,7 @@
       <c r="J163" s="41"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="96"/>
+      <c r="A164" s="104"/>
       <c r="B164" s="28">
         <v>41759</v>
       </c>
@@ -5384,7 +5386,7 @@
       <c r="J164" s="41"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="96"/>
+      <c r="A165" s="104"/>
       <c r="B165" s="28">
         <v>41760</v>
       </c>
@@ -5401,7 +5403,7 @@
       <c r="J165" s="41"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="97"/>
+      <c r="A166" s="105"/>
       <c r="B166" s="28">
         <v>41761</v>
       </c>
@@ -5418,7 +5420,7 @@
       <c r="J166" s="41"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="113">
+      <c r="A167" s="106">
         <v>27</v>
       </c>
       <c r="B167" s="27">
@@ -5437,7 +5439,7 @@
       <c r="J167" s="40"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="114"/>
+      <c r="A168" s="107"/>
       <c r="B168" s="27">
         <v>41765</v>
       </c>
@@ -5454,7 +5456,7 @@
       <c r="J168" s="40"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="114"/>
+      <c r="A169" s="107"/>
       <c r="B169" s="27">
         <v>41766</v>
       </c>
@@ -5471,7 +5473,7 @@
       <c r="J169" s="40"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="114"/>
+      <c r="A170" s="107"/>
       <c r="B170" s="27">
         <v>41767</v>
       </c>
@@ -5488,7 +5490,7 @@
       <c r="J170" s="40"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="115"/>
+      <c r="A171" s="108"/>
       <c r="B171" s="27">
         <v>41768</v>
       </c>
@@ -5505,7 +5507,7 @@
       <c r="J171" s="40"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="95">
+      <c r="A172" s="103">
         <v>28</v>
       </c>
       <c r="B172" s="28">
@@ -5524,7 +5526,7 @@
       <c r="J172" s="41"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="96"/>
+      <c r="A173" s="104"/>
       <c r="B173" s="28">
         <v>41772</v>
       </c>
@@ -5541,7 +5543,7 @@
       <c r="J173" s="41"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="96"/>
+      <c r="A174" s="104"/>
       <c r="B174" s="28">
         <v>41773</v>
       </c>
@@ -5558,7 +5560,7 @@
       <c r="J174" s="41"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="96"/>
+      <c r="A175" s="104"/>
       <c r="B175" s="28">
         <v>41774</v>
       </c>
@@ -5575,7 +5577,7 @@
       <c r="J175" s="41"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="97"/>
+      <c r="A176" s="105"/>
       <c r="B176" s="28">
         <v>41775</v>
       </c>
@@ -5592,7 +5594,7 @@
       <c r="J176" s="41"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="113">
+      <c r="A177" s="106">
         <v>29</v>
       </c>
       <c r="B177" s="27">
@@ -5611,7 +5613,7 @@
       <c r="J177" s="40"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="114"/>
+      <c r="A178" s="107"/>
       <c r="B178" s="27">
         <v>41779</v>
       </c>
@@ -5628,7 +5630,7 @@
       <c r="J178" s="40"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="114"/>
+      <c r="A179" s="107"/>
       <c r="B179" s="27">
         <v>41780</v>
       </c>
@@ -5645,7 +5647,7 @@
       <c r="J179" s="40"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="114"/>
+      <c r="A180" s="107"/>
       <c r="B180" s="27">
         <v>41781</v>
       </c>
@@ -5662,7 +5664,7 @@
       <c r="J180" s="40"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="115"/>
+      <c r="A181" s="108"/>
       <c r="B181" s="27">
         <v>41782</v>
       </c>
@@ -5679,7 +5681,7 @@
       <c r="J181" s="40"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="122">
+      <c r="A182" s="100">
         <v>30</v>
       </c>
       <c r="B182" s="28">
@@ -5698,7 +5700,7 @@
       <c r="J182" s="42"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="123"/>
+      <c r="A183" s="101"/>
       <c r="B183" s="28">
         <v>41786</v>
       </c>
@@ -5715,7 +5717,7 @@
       <c r="J183" s="42"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="123"/>
+      <c r="A184" s="101"/>
       <c r="B184" s="28">
         <v>41787</v>
       </c>
@@ -5732,7 +5734,7 @@
       <c r="J184" s="42"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="123"/>
+      <c r="A185" s="101"/>
       <c r="B185" s="28">
         <v>41788</v>
       </c>
@@ -5749,7 +5751,7 @@
       <c r="J185" s="42"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="124"/>
+      <c r="A186" s="102"/>
       <c r="B186" s="28">
         <v>41789</v>
       </c>
@@ -5767,6 +5769,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="A182:A186"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A162:A166"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="F7:F8"/>
@@ -5783,65 +5844,6 @@
     <mergeCell ref="F40:F43"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="F28:F33"/>
-    <mergeCell ref="A182:A186"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A177:A181"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A53:A61"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F49:F50"/>
   </mergeCells>
   <conditionalFormatting sqref="M7:M8">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -1611,10 +1611,10 @@
   <dimension ref="A1:O186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1711,8 +1711,8 @@
       <c r="E5" s="135"/>
       <c r="F5" s="16"/>
       <c r="G5" s="1">
-        <f>4.5/6</f>
-        <v>0.75</v>
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>75</v>
@@ -1796,7 +1796,7 @@
       <c r="L7" s="137"/>
       <c r="M7" s="64">
         <f>SUM(M9:M69)</f>
-        <v>90.113</v>
+        <v>90.162999999999997</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
@@ -2042,7 +2042,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="10">
         <f>SUM(E23:E39)</f>
-        <v>28.259999999999998</v>
+        <v>28.560000000000002</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>9</v>
@@ -2082,7 +2082,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="10">
         <f>SUM(E40:E52)</f>
-        <v>28.58</v>
+        <v>28.33</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>9</v>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="F28" s="91">
         <f>SUM(E28:E33)</f>
-        <v>10.850000000000001</v>
+        <v>11.15</v>
       </c>
       <c r="G28" s="31" t="s">
         <v>26</v>
@@ -2517,7 +2517,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="E30" s="51">
-        <v>1.03</v>
+        <v>1.33</v>
       </c>
       <c r="F30" s="92"/>
       <c r="G30" s="48" t="s">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="F40" s="97">
         <f>SUM(E40:E43)</f>
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="G40" s="57" t="s">
         <v>26</v>
@@ -2876,10 +2876,10 @@
         <v>0.5625</v>
       </c>
       <c r="D42" s="69">
-        <v>0.61458333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E42" s="58">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="F42" s="98"/>
       <c r="G42" s="38" t="s">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="133">
   <si>
     <t>Week</t>
   </si>
@@ -497,6 +497,35 @@
   </si>
   <si>
     <t xml:space="preserve"> - Define entities and documentation
+ - Update timelog</t>
+  </si>
+  <si>
+    <t>9:10AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Update timelog for team</t>
+  </si>
+  <si>
+    <t>10:40AM</t>
+  </si>
+  <si>
+    <t>11:30AM</t>
+  </si>
+  <si>
+    <t>6:00PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Review List risk, measurement plan
+ - Review master plan, master design plan
+ - Review project plan
+ - Review sprint backlog template</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Devide team work
+ - Update entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Update timelog for team
  - Update timelog</t>
   </si>
 </sst>
@@ -984,6 +1013,180 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -993,12 +1196,6 @@
     <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,182 +1205,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1608,13 +1637,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O186"/>
+  <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="6" ySplit="6" topLeftCell="G55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1636,83 +1665,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="109"/>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="111"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="114"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="117"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="120"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="133"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="135"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="16"/>
       <c r="G5" s="1">
-        <f>2/6</f>
-        <v>0.33333333333333331</v>
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>75</v>
@@ -1757,16 +1786,16 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="138">
+      <c r="A7" s="122">
         <v>1</v>
       </c>
-      <c r="B7" s="77">
+      <c r="B7" s="76">
         <v>41585</v>
       </c>
       <c r="C7" s="18">
@@ -1778,7 +1807,7 @@
       <c r="E7" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="132">
         <f>SUM(E7:E8)</f>
         <v>1.24</v>
       </c>
@@ -1790,21 +1819,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="137" t="s">
+      <c r="K7" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="137"/>
+      <c r="L7" s="121"/>
       <c r="M7" s="64">
-        <f>SUM(M9:M69)</f>
-        <v>90.162999999999997</v>
+        <f>SUM(M9:M73)</f>
+        <v>94.983000000000004</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="139"/>
-      <c r="B8" s="78"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="18">
         <v>0.60416666666666663</v>
       </c>
@@ -1814,7 +1843,7 @@
       <c r="E8" s="19">
         <v>0.08</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="134"/>
       <c r="G8" s="20" t="s">
         <v>24</v>
       </c>
@@ -1829,8 +1858,8 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
-      <c r="B9" s="77">
+      <c r="A9" s="123"/>
+      <c r="B9" s="76">
         <v>41586</v>
       </c>
       <c r="C9" s="18">
@@ -1842,7 +1871,7 @@
       <c r="E9" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="132">
         <f>SUM(E9:E11)</f>
         <v>1.74</v>
       </c>
@@ -1867,8 +1896,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
-      <c r="B10" s="90"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1878,7 +1907,7 @@
       <c r="E10" s="19">
         <v>0.5</v>
       </c>
-      <c r="F10" s="75"/>
+      <c r="F10" s="133"/>
       <c r="G10" s="31" t="s">
         <v>25</v>
       </c>
@@ -1889,8 +1918,8 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="140"/>
-      <c r="B11" s="78"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="18" t="s">
         <v>100</v>
       </c>
@@ -1900,7 +1929,7 @@
       <c r="E11" s="19">
         <v>0.08</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="134"/>
       <c r="G11" s="31" t="s">
         <v>24</v>
       </c>
@@ -1911,7 +1940,7 @@
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="130">
+      <c r="A12" s="111">
         <v>2</v>
       </c>
       <c r="B12" s="82">
@@ -1926,7 +1955,7 @@
       <c r="E12" s="24">
         <v>2.25</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="138">
         <f>SUM(E12:E13)</f>
         <v>2.33</v>
       </c>
@@ -1954,7 +1983,7 @@
       <c r="O12" s="35"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="131"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="83"/>
       <c r="C13" s="23">
         <v>0.625</v>
@@ -1965,7 +1994,7 @@
       <c r="E13" s="24">
         <v>0.08</v>
       </c>
-      <c r="F13" s="85"/>
+      <c r="F13" s="139"/>
       <c r="G13" s="32" t="s">
         <v>24</v>
       </c>
@@ -1981,7 +2010,7 @@
       <c r="O13" s="35"/>
     </row>
     <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="131"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="82">
         <v>41591</v>
       </c>
@@ -1994,7 +2023,7 @@
       <c r="E14" s="29">
         <v>2</v>
       </c>
-      <c r="F14" s="87">
+      <c r="F14" s="74">
         <f>SUM(E14:E15)</f>
         <v>3</v>
       </c>
@@ -2014,7 +2043,7 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="131"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="83"/>
       <c r="C15" s="26">
         <v>0.91666666666666663</v>
@@ -2025,7 +2054,7 @@
       <c r="E15" s="29">
         <v>1</v>
       </c>
-      <c r="F15" s="89"/>
+      <c r="F15" s="75"/>
       <c r="G15" s="30" t="s">
         <v>24</v>
       </c>
@@ -2049,7 +2078,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="131"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="82">
         <v>41592</v>
       </c>
@@ -2062,7 +2091,7 @@
       <c r="E16" s="29">
         <v>0.75</v>
       </c>
-      <c r="F16" s="87">
+      <c r="F16" s="74">
         <f>SUM(E16:E18)</f>
         <v>2.08</v>
       </c>
@@ -2089,8 +2118,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="131"/>
-      <c r="B17" s="86"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="26">
         <v>0.375</v>
       </c>
@@ -2100,7 +2129,7 @@
       <c r="E17" s="29">
         <v>1.25</v>
       </c>
-      <c r="F17" s="88"/>
+      <c r="F17" s="140"/>
       <c r="G17" s="45" t="s">
         <v>25</v>
       </c>
@@ -2117,7 +2146,7 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="131"/>
+      <c r="A18" s="112"/>
       <c r="B18" s="83"/>
       <c r="C18" s="26">
         <v>0.42708333333333331</v>
@@ -2128,7 +2157,7 @@
       <c r="E18" s="29">
         <v>0.08</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="45" t="s">
         <v>24</v>
       </c>
@@ -2143,7 +2172,7 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="131"/>
+      <c r="A19" s="112"/>
       <c r="B19" s="82">
         <v>41593</v>
       </c>
@@ -2156,7 +2185,7 @@
       <c r="E19" s="29">
         <v>1.083</v>
       </c>
-      <c r="F19" s="87">
+      <c r="F19" s="74">
         <f>SUM(E19:E22)</f>
         <v>5.883</v>
       </c>
@@ -2175,15 +2204,15 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E53:E61)</f>
-        <v>17</v>
+        <f>SUM(E53:E65)</f>
+        <v>21.82</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="131"/>
+      <c r="A20" s="112"/>
       <c r="B20" s="83"/>
       <c r="C20" s="26">
         <v>0.91666666666666663</v>
@@ -2194,7 +2223,7 @@
       <c r="E20" s="29">
         <v>2.33</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="30" t="s">
         <v>24</v>
       </c>
@@ -2210,7 +2239,7 @@
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="10">
-        <f>SUM(E62:E66)</f>
+        <f>SUM(E66:E70)</f>
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
@@ -2218,7 +2247,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
+      <c r="A21" s="112"/>
       <c r="B21" s="82">
         <v>41594</v>
       </c>
@@ -2231,7 +2260,7 @@
       <c r="E21" s="29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F21" s="87">
+      <c r="F21" s="74">
         <f>SUM(E21:E22)</f>
         <v>2.4699999999999998</v>
       </c>
@@ -2250,7 +2279,7 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E67:E71)</f>
+        <f>SUM(E71:E75)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -2258,7 +2287,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="83"/>
       <c r="C22" s="26">
         <v>0.83333333333333337</v>
@@ -2269,7 +2298,7 @@
       <c r="E22" s="29">
         <v>1.92</v>
       </c>
-      <c r="F22" s="89"/>
+      <c r="F22" s="75"/>
       <c r="G22" s="30" t="s">
         <v>24</v>
       </c>
@@ -2286,10 +2315,10 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="94">
+      <c r="A23" s="125">
         <v>3</v>
       </c>
-      <c r="B23" s="77">
+      <c r="B23" s="76">
         <v>41597</v>
       </c>
       <c r="C23" s="47">
@@ -2301,7 +2330,7 @@
       <c r="E23" s="51">
         <v>2</v>
       </c>
-      <c r="F23" s="91">
+      <c r="F23" s="78">
         <f>SUM(E23:E25)</f>
         <v>3.08</v>
       </c>
@@ -2318,7 +2347,7 @@
       </c>
       <c r="L23" s="53"/>
       <c r="M23" s="54">
-        <f>SUM(E77:E81)</f>
+        <f>SUM(E81:E85)</f>
         <v>0</v>
       </c>
       <c r="N23" s="55" t="s">
@@ -2326,8 +2355,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="95"/>
-      <c r="B24" s="90"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="47">
         <v>0.5625</v>
       </c>
@@ -2337,7 +2366,7 @@
       <c r="E24" s="51">
         <v>1</v>
       </c>
-      <c r="F24" s="92"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="48" t="s">
         <v>21</v>
       </c>
@@ -2352,8 +2381,8 @@
       <c r="N24" s="55"/>
     </row>
     <row r="25" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="95"/>
-      <c r="B25" s="78"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="47">
         <v>0.60416666666666663</v>
       </c>
@@ -2363,7 +2392,7 @@
       <c r="E25" s="51">
         <v>0.08</v>
       </c>
-      <c r="F25" s="93"/>
+      <c r="F25" s="79"/>
       <c r="G25" s="48" t="s">
         <v>24</v>
       </c>
@@ -2378,8 +2407,8 @@
       <c r="N25" s="55"/>
     </row>
     <row r="26" spans="1:14" s="56" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="95"/>
-      <c r="B26" s="77">
+      <c r="A26" s="126"/>
+      <c r="B26" s="76">
         <v>41598</v>
       </c>
       <c r="C26" s="47">
@@ -2391,7 +2420,7 @@
       <c r="E26" s="51">
         <v>4</v>
       </c>
-      <c r="F26" s="91">
+      <c r="F26" s="78">
         <f>SUM(E26:E27)</f>
         <v>4.08</v>
       </c>
@@ -2408,7 +2437,7 @@
       </c>
       <c r="L26" s="53"/>
       <c r="M26" s="54">
-        <f>SUM(E82:E86)</f>
+        <f>SUM(E86:E90)</f>
         <v>0</v>
       </c>
       <c r="N26" s="55" t="s">
@@ -2416,8 +2445,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="95"/>
-      <c r="B27" s="78"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="77"/>
       <c r="C27" s="47">
         <v>0.72916666666666663</v>
       </c>
@@ -2427,7 +2456,7 @@
       <c r="E27" s="51">
         <v>0.08</v>
       </c>
-      <c r="F27" s="93"/>
+      <c r="F27" s="79"/>
       <c r="G27" s="31" t="s">
         <v>24</v>
       </c>
@@ -2442,8 +2471,8 @@
       <c r="N27" s="55"/>
     </row>
     <row r="28" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="95"/>
-      <c r="B28" s="77">
+      <c r="A28" s="126"/>
+      <c r="B28" s="76">
         <v>41599</v>
       </c>
       <c r="C28" s="47">
@@ -2455,7 +2484,7 @@
       <c r="E28" s="51">
         <v>1</v>
       </c>
-      <c r="F28" s="91">
+      <c r="F28" s="78">
         <f>SUM(E28:E33)</f>
         <v>11.15</v>
       </c>
@@ -2474,7 +2503,7 @@
       </c>
       <c r="L28" s="53"/>
       <c r="M28" s="54">
-        <f>SUM(E87:E91)</f>
+        <f>SUM(E91:E95)</f>
         <v>0</v>
       </c>
       <c r="N28" s="55" t="s">
@@ -2482,8 +2511,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="95"/>
-      <c r="B29" s="90"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="47">
         <v>0.375</v>
       </c>
@@ -2493,7 +2522,7 @@
       <c r="E29" s="51">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F29" s="92"/>
+      <c r="F29" s="80"/>
       <c r="G29" s="31" t="s">
         <v>25</v>
       </c>
@@ -2508,8 +2537,8 @@
       <c r="N29" s="55"/>
     </row>
     <row r="30" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="95"/>
-      <c r="B30" s="90"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="47">
         <v>0.4236111111111111</v>
       </c>
@@ -2519,7 +2548,7 @@
       <c r="E30" s="51">
         <v>1.33</v>
       </c>
-      <c r="F30" s="92"/>
+      <c r="F30" s="80"/>
       <c r="G30" s="48" t="s">
         <v>21</v>
       </c>
@@ -2534,8 +2563,8 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="95"/>
-      <c r="B31" s="90"/>
+      <c r="A31" s="126"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="47">
         <v>0.5625</v>
       </c>
@@ -2545,7 +2574,7 @@
       <c r="E31" s="51">
         <v>1.5</v>
       </c>
-      <c r="F31" s="92"/>
+      <c r="F31" s="80"/>
       <c r="G31" s="31" t="s">
         <v>30</v>
       </c>
@@ -2562,8 +2591,8 @@
       <c r="N31" s="55"/>
     </row>
     <row r="32" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="95"/>
-      <c r="B32" s="90"/>
+      <c r="A32" s="126"/>
+      <c r="B32" s="81"/>
       <c r="C32" s="47">
         <v>0.625</v>
       </c>
@@ -2573,7 +2602,7 @@
       <c r="E32" s="51">
         <v>2.16</v>
       </c>
-      <c r="F32" s="92"/>
+      <c r="F32" s="80"/>
       <c r="G32" s="31" t="s">
         <v>21</v>
       </c>
@@ -2590,8 +2619,8 @@
       <c r="N32" s="55"/>
     </row>
     <row r="33" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="95"/>
-      <c r="B33" s="78"/>
+      <c r="A33" s="126"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="47">
         <v>0.83333333333333337</v>
       </c>
@@ -2601,7 +2630,7 @@
       <c r="E33" s="51">
         <v>4</v>
       </c>
-      <c r="F33" s="93"/>
+      <c r="F33" s="79"/>
       <c r="G33" s="31" t="s">
         <v>22</v>
       </c>
@@ -2616,8 +2645,8 @@
       <c r="N33" s="55"/>
     </row>
     <row r="34" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="95"/>
-      <c r="B34" s="77">
+      <c r="A34" s="126"/>
+      <c r="B34" s="76">
         <v>41600</v>
       </c>
       <c r="C34" s="47">
@@ -2629,7 +2658,7 @@
       <c r="E34" s="51">
         <v>1.25</v>
       </c>
-      <c r="F34" s="91">
+      <c r="F34" s="78">
         <f>SUM(E34:E36)</f>
         <v>5</v>
       </c>
@@ -2648,7 +2677,7 @@
       </c>
       <c r="L34" s="53"/>
       <c r="M34" s="54">
-        <f>SUM(E92:E96)</f>
+        <f>SUM(E96:E100)</f>
         <v>0</v>
       </c>
       <c r="N34" s="55" t="s">
@@ -2656,8 +2685,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="95"/>
-      <c r="B35" s="90"/>
+      <c r="A35" s="126"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="47">
         <v>0.64583333333333337</v>
       </c>
@@ -2667,7 +2696,7 @@
       <c r="E35" s="51">
         <v>1</v>
       </c>
-      <c r="F35" s="92"/>
+      <c r="F35" s="80"/>
       <c r="G35" s="31" t="s">
         <v>26</v>
       </c>
@@ -2684,8 +2713,8 @@
       <c r="N35" s="55"/>
     </row>
     <row r="36" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="95"/>
-      <c r="B36" s="78"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="47">
         <v>0.90625</v>
       </c>
@@ -2695,7 +2724,7 @@
       <c r="E36" s="51">
         <v>2.75</v>
       </c>
-      <c r="F36" s="93"/>
+      <c r="F36" s="79"/>
       <c r="G36" s="31" t="s">
         <v>22</v>
       </c>
@@ -2710,8 +2739,8 @@
       <c r="N36" s="55"/>
     </row>
     <row r="37" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="95"/>
-      <c r="B37" s="77">
+      <c r="A37" s="126"/>
+      <c r="B37" s="76">
         <v>41601</v>
       </c>
       <c r="C37" s="47">
@@ -2723,7 +2752,7 @@
       <c r="E37" s="51">
         <v>0.25</v>
       </c>
-      <c r="F37" s="91">
+      <c r="F37" s="78">
         <f>SUM(E37:E39)</f>
         <v>5.25</v>
       </c>
@@ -2741,8 +2770,8 @@
       <c r="N37" s="55"/>
     </row>
     <row r="38" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="95"/>
-      <c r="B38" s="90"/>
+      <c r="A38" s="126"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="47">
         <v>0.57291666666666663</v>
       </c>
@@ -2752,7 +2781,7 @@
       <c r="E38" s="51">
         <v>1</v>
       </c>
-      <c r="F38" s="92"/>
+      <c r="F38" s="80"/>
       <c r="G38" s="31" t="s">
         <v>26</v>
       </c>
@@ -2769,8 +2798,8 @@
       <c r="N38" s="55"/>
     </row>
     <row r="39" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="96"/>
-      <c r="B39" s="78"/>
+      <c r="A39" s="127"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="47">
         <v>0.83333333333333337</v>
       </c>
@@ -2780,7 +2809,7 @@
       <c r="E39" s="51">
         <v>4</v>
       </c>
-      <c r="F39" s="93"/>
+      <c r="F39" s="79"/>
       <c r="G39" s="31" t="s">
         <v>24</v>
       </c>
@@ -2797,7 +2826,7 @@
       <c r="N39" s="55"/>
     </row>
     <row r="40" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="79">
+      <c r="A40" s="135">
         <v>4</v>
       </c>
       <c r="B40" s="82">
@@ -2812,7 +2841,7 @@
       <c r="E40" s="58">
         <v>2.25</v>
       </c>
-      <c r="F40" s="97">
+      <c r="F40" s="84">
         <f>SUM(E40:E43)</f>
         <v>7</v>
       </c>
@@ -2829,7 +2858,7 @@
       </c>
       <c r="L40" s="53"/>
       <c r="M40" s="54">
-        <f>SUM(E97:E101)</f>
+        <f>SUM(E101:E105)</f>
         <v>0</v>
       </c>
       <c r="N40" s="55" t="s">
@@ -2837,8 +2866,8 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="56" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="80"/>
-      <c r="B41" s="86"/>
+      <c r="A41" s="136"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="69">
         <v>0.875</v>
       </c>
@@ -2848,7 +2877,7 @@
       <c r="E41" s="58">
         <v>2.5</v>
       </c>
-      <c r="F41" s="98"/>
+      <c r="F41" s="85"/>
       <c r="G41" s="57" t="s">
         <v>25</v>
       </c>
@@ -2862,7 +2891,7 @@
       </c>
       <c r="L41" s="53"/>
       <c r="M41" s="54">
-        <f>SUM(E102:E106)</f>
+        <f>SUM(E106:E110)</f>
         <v>0</v>
       </c>
       <c r="N41" s="55" t="s">
@@ -2870,8 +2899,8 @@
       </c>
     </row>
     <row r="42" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="80"/>
-      <c r="B42" s="86"/>
+      <c r="A42" s="136"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="69">
         <v>0.5625</v>
       </c>
@@ -2881,7 +2910,7 @@
       <c r="E42" s="58">
         <v>1</v>
       </c>
-      <c r="F42" s="98"/>
+      <c r="F42" s="85"/>
       <c r="G42" s="38" t="s">
         <v>21</v>
       </c>
@@ -2896,7 +2925,7 @@
       <c r="N42" s="55"/>
     </row>
     <row r="43" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="80"/>
+      <c r="A43" s="136"/>
       <c r="B43" s="83"/>
       <c r="C43" s="69">
         <v>0.61458333333333337</v>
@@ -2907,7 +2936,7 @@
       <c r="E43" s="58">
         <v>1.25</v>
       </c>
-      <c r="F43" s="99"/>
+      <c r="F43" s="86"/>
       <c r="G43" s="57" t="s">
         <v>26</v>
       </c>
@@ -2922,7 +2951,7 @@
       <c r="N43" s="55"/>
     </row>
     <row r="44" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="80"/>
+      <c r="A44" s="136"/>
       <c r="B44" s="82">
         <v>41605</v>
       </c>
@@ -2935,7 +2964,7 @@
       <c r="E44" s="58">
         <v>2.33</v>
       </c>
-      <c r="F44" s="97">
+      <c r="F44" s="84">
         <f>SUM(E44:E45)</f>
         <v>5.08</v>
       </c>
@@ -2952,7 +2981,7 @@
       </c>
       <c r="L44" s="53"/>
       <c r="M44" s="54">
-        <f>SUM(E107:E111)</f>
+        <f>SUM(E111:E115)</f>
         <v>0</v>
       </c>
       <c r="N44" s="55" t="s">
@@ -2960,7 +2989,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="80"/>
+      <c r="A45" s="136"/>
       <c r="B45" s="83"/>
       <c r="C45" s="69">
         <v>0.91666666666666663</v>
@@ -2971,7 +3000,7 @@
       <c r="E45" s="58">
         <v>2.75</v>
       </c>
-      <c r="F45" s="99"/>
+      <c r="F45" s="86"/>
       <c r="G45" s="57" t="s">
         <v>22</v>
       </c>
@@ -2984,7 +3013,7 @@
       <c r="N45" s="55"/>
     </row>
     <row r="46" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="80"/>
+      <c r="A46" s="136"/>
       <c r="B46" s="82">
         <v>41606</v>
       </c>
@@ -2997,7 +3026,7 @@
       <c r="E46" s="58">
         <v>1.25</v>
       </c>
-      <c r="F46" s="97">
+      <c r="F46" s="84">
         <f>SUM(E46:E48)</f>
         <v>5.75</v>
       </c>
@@ -3014,7 +3043,7 @@
       </c>
       <c r="L46" s="53"/>
       <c r="M46" s="54">
-        <f>SUM(E112:E116)</f>
+        <f>SUM(E116:E120)</f>
         <v>0</v>
       </c>
       <c r="N46" s="55" t="s">
@@ -3022,8 +3051,8 @@
       </c>
     </row>
     <row r="47" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="80"/>
-      <c r="B47" s="86"/>
+      <c r="A47" s="136"/>
+      <c r="B47" s="128"/>
       <c r="C47" s="69">
         <v>0.38541666666666669</v>
       </c>
@@ -3033,7 +3062,7 @@
       <c r="E47" s="58">
         <v>1.75</v>
       </c>
-      <c r="F47" s="98"/>
+      <c r="F47" s="85"/>
       <c r="G47" s="71" t="s">
         <v>27</v>
       </c>
@@ -3048,7 +3077,7 @@
       <c r="N47" s="55"/>
     </row>
     <row r="48" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="80"/>
+      <c r="A48" s="136"/>
       <c r="B48" s="83"/>
       <c r="C48" s="69">
         <v>0.5625</v>
@@ -3059,7 +3088,7 @@
       <c r="E48" s="58">
         <v>2.75</v>
       </c>
-      <c r="F48" s="99"/>
+      <c r="F48" s="86"/>
       <c r="G48" s="32" t="s">
         <v>21</v>
       </c>
@@ -3074,7 +3103,7 @@
       <c r="N48" s="55"/>
     </row>
     <row r="49" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="80"/>
+      <c r="A49" s="136"/>
       <c r="B49" s="82">
         <v>41607</v>
       </c>
@@ -3087,7 +3116,7 @@
       <c r="E49" s="58">
         <v>3.5</v>
       </c>
-      <c r="F49" s="97">
+      <c r="F49" s="84">
         <f>SUM(E49:E50)</f>
         <v>6.25</v>
       </c>
@@ -3104,7 +3133,7 @@
       </c>
       <c r="L49" s="53"/>
       <c r="M49" s="54">
-        <f>SUM(E117:E121)</f>
+        <f>SUM(E121:E125)</f>
         <v>0</v>
       </c>
       <c r="N49" s="55" t="s">
@@ -3112,7 +3141,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="80"/>
+      <c r="A50" s="136"/>
       <c r="B50" s="83"/>
       <c r="C50" s="69">
         <v>0.91666666666666663</v>
@@ -3123,7 +3152,7 @@
       <c r="E50" s="58">
         <v>2.75</v>
       </c>
-      <c r="F50" s="99"/>
+      <c r="F50" s="86"/>
       <c r="G50" s="32" t="s">
         <v>24</v>
       </c>
@@ -3138,7 +3167,7 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="80"/>
+      <c r="A51" s="136"/>
       <c r="B51" s="82">
         <v>41608</v>
       </c>
@@ -3151,7 +3180,7 @@
       <c r="E51" s="58">
         <v>1.25</v>
       </c>
-      <c r="F51" s="87">
+      <c r="F51" s="74">
         <f>SUM(E51:E52)</f>
         <v>4.25</v>
       </c>
@@ -3169,7 +3198,7 @@
       <c r="N51" s="55"/>
     </row>
     <row r="52" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="81"/>
+      <c r="A52" s="137"/>
       <c r="B52" s="83"/>
       <c r="C52" s="69">
         <v>0.375</v>
@@ -3180,7 +3209,7 @@
       <c r="E52" s="58">
         <v>3</v>
       </c>
-      <c r="F52" s="89"/>
+      <c r="F52" s="75"/>
       <c r="G52" s="32" t="s">
         <v>24</v>
       </c>
@@ -3195,7 +3224,7 @@
       <c r="N52" s="55"/>
     </row>
     <row r="53" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="94">
+      <c r="A53" s="125">
         <v>5</v>
       </c>
       <c r="B53" s="17">
@@ -3211,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="51">
-        <f t="shared" ref="F53:F78" si="0">E53</f>
+        <f t="shared" ref="F53:F82" si="0">E53</f>
         <v>1</v>
       </c>
       <c r="G53" s="31" t="s">
@@ -3229,7 +3258,7 @@
       </c>
       <c r="L53" s="53"/>
       <c r="M53" s="54">
-        <f>SUM(E122:E126)</f>
+        <f>SUM(E126:E130)</f>
         <v>0</v>
       </c>
       <c r="N53" s="55" t="s">
@@ -3237,8 +3266,8 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="95"/>
-      <c r="B54" s="77">
+      <c r="A54" s="126"/>
+      <c r="B54" s="76">
         <v>41611</v>
       </c>
       <c r="C54" s="47">
@@ -3250,7 +3279,7 @@
       <c r="E54" s="51">
         <v>1</v>
       </c>
-      <c r="F54" s="91">
+      <c r="F54" s="78">
         <f>SUM(E54:E57)</f>
         <v>5.5</v>
       </c>
@@ -3267,7 +3296,7 @@
       </c>
       <c r="L54" s="53"/>
       <c r="M54" s="54">
-        <f>SUM(E127:E131)</f>
+        <f>SUM(E131:E135)</f>
         <v>0</v>
       </c>
       <c r="N54" s="55" t="s">
@@ -3275,8 +3304,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="95"/>
-      <c r="B55" s="90"/>
+      <c r="A55" s="126"/>
+      <c r="B55" s="81"/>
       <c r="C55" s="47">
         <v>0.375</v>
       </c>
@@ -3286,7 +3315,7 @@
       <c r="E55" s="51">
         <v>1.5</v>
       </c>
-      <c r="F55" s="92"/>
+      <c r="F55" s="80"/>
       <c r="G55" s="72" t="s">
         <v>27</v>
       </c>
@@ -3301,8 +3330,8 @@
       <c r="N55" s="55"/>
     </row>
     <row r="56" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="95"/>
-      <c r="B56" s="90"/>
+      <c r="A56" s="126"/>
+      <c r="B56" s="81"/>
       <c r="C56" s="47">
         <v>0.4375</v>
       </c>
@@ -3312,7 +3341,7 @@
       <c r="E56" s="51">
         <v>0.5</v>
       </c>
-      <c r="F56" s="92"/>
+      <c r="F56" s="80"/>
       <c r="G56" s="48" t="s">
         <v>21</v>
       </c>
@@ -3327,8 +3356,8 @@
       <c r="N56" s="55"/>
     </row>
     <row r="57" spans="1:14" s="56" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="95"/>
-      <c r="B57" s="78"/>
+      <c r="A57" s="126"/>
+      <c r="B57" s="77"/>
       <c r="C57" s="47">
         <v>0.5625</v>
       </c>
@@ -3338,7 +3367,7 @@
       <c r="E57" s="51">
         <v>2.5</v>
       </c>
-      <c r="F57" s="93"/>
+      <c r="F57" s="79"/>
       <c r="G57" s="72" t="s">
         <v>29</v>
       </c>
@@ -3353,8 +3382,8 @@
       <c r="N57" s="55"/>
     </row>
     <row r="58" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="95"/>
-      <c r="B58" s="77">
+      <c r="A58" s="126"/>
+      <c r="B58" s="76">
         <v>41612</v>
       </c>
       <c r="C58" s="47">
@@ -3366,7 +3395,7 @@
       <c r="E58" s="51">
         <v>3</v>
       </c>
-      <c r="F58" s="91">
+      <c r="F58" s="78">
         <f>SUM(E58:E59)</f>
         <v>7.5</v>
       </c>
@@ -3385,7 +3414,7 @@
       </c>
       <c r="L58" s="53"/>
       <c r="M58" s="54">
-        <f>SUM(E132:E136)</f>
+        <f>SUM(E136:E140)</f>
         <v>0</v>
       </c>
       <c r="N58" s="55" t="s">
@@ -3393,8 +3422,8 @@
       </c>
     </row>
     <row r="59" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="95"/>
-      <c r="B59" s="78"/>
+      <c r="A59" s="126"/>
+      <c r="B59" s="77"/>
       <c r="C59" s="47">
         <v>0.5625</v>
       </c>
@@ -3404,7 +3433,7 @@
       <c r="E59" s="51">
         <v>4.5</v>
       </c>
-      <c r="F59" s="93"/>
+      <c r="F59" s="79"/>
       <c r="G59" s="48" t="s">
         <v>21</v>
       </c>
@@ -3419,8 +3448,8 @@
       <c r="N59" s="55"/>
     </row>
     <row r="60" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="95"/>
-      <c r="B60" s="17">
+      <c r="A60" s="126"/>
+      <c r="B60" s="76">
         <v>41613</v>
       </c>
       <c r="C60" s="47">
@@ -3432,9 +3461,9 @@
       <c r="E60" s="51">
         <v>3</v>
       </c>
-      <c r="F60" s="51">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="F60" s="78">
+        <f>SUM(E60:E64)</f>
+        <v>7.82</v>
       </c>
       <c r="G60" s="31" t="s">
         <v>24</v>
@@ -3449,7 +3478,7 @@
       </c>
       <c r="L60" s="53"/>
       <c r="M60" s="54">
-        <f>SUM(E137:E141)</f>
+        <f>SUM(E141:E145)</f>
         <v>0</v>
       </c>
       <c r="N60" s="55" t="s">
@@ -3457,151 +3486,143 @@
       </c>
     </row>
     <row r="61" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="96"/>
-      <c r="B61" s="17">
-        <v>41614</v>
-      </c>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
+      <c r="A61" s="126"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="47">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D61" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="51">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F61" s="80"/>
+      <c r="G61" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="50" t="s">
+        <v>126</v>
+      </c>
       <c r="I61" s="31"/>
       <c r="J61" s="31"/>
-      <c r="K61" s="52" t="s">
+      <c r="K61" s="52"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="55"/>
+    </row>
+    <row r="62" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" s="126"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="F62" s="80"/>
+      <c r="G62" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="55"/>
+    </row>
+    <row r="63" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="126"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="51">
+        <v>0.66</v>
+      </c>
+      <c r="F63" s="80"/>
+      <c r="G63" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="55"/>
+    </row>
+    <row r="64" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="126"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="47">
+        <v>0.6875</v>
+      </c>
+      <c r="D64" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="F64" s="79"/>
+      <c r="G64" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="55"/>
+    </row>
+    <row r="65" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="127"/>
+      <c r="B65" s="17">
+        <v>41614</v>
+      </c>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="L61" s="53"/>
-      <c r="M61" s="54">
-        <f>SUM(E142:E146)</f>
-        <v>0</v>
-      </c>
-      <c r="N61" s="55" t="s">
+      <c r="L65" s="53"/>
+      <c r="M65" s="54">
+        <f>SUM(E146:E150)</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="103">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="99">
         <v>6</v>
       </c>
-      <c r="B62" s="28">
+      <c r="B66" s="28">
         <v>41617</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L62" s="6"/>
-      <c r="M62" s="10">
-        <f>SUM(E147:E151)</f>
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="104"/>
-      <c r="B63" s="28">
-        <v>41618</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L63" s="6"/>
-      <c r="M63" s="10">
-        <f>SUM(E152:E156)</f>
-        <v>0</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="104"/>
-      <c r="B64" s="28">
-        <v>41619</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L64" s="6"/>
-      <c r="M64" s="10">
-        <f>SUM(E157:E161)</f>
-        <v>0</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="104"/>
-      <c r="B65" s="28">
-        <v>41620</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L65" s="6"/>
-      <c r="M65" s="10">
-        <f>SUM(E162:E166)</f>
-        <v>0</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="105"/>
-      <c r="B66" s="28">
-        <v>41621</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -3615,11 +3636,11 @@
       <c r="I66" s="41"/>
       <c r="J66" s="41"/>
       <c r="K66" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="10">
-        <f>SUM(E167:E171)</f>
+        <f>SUM(E151:E155)</f>
         <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
@@ -3627,29 +3648,27 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="106">
-        <v>7</v>
-      </c>
-      <c r="B67" s="27">
-        <v>41624</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="51">
+      <c r="A67" s="100"/>
+      <c r="B67" s="28">
+        <v>41618</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="40"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
       <c r="K67" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="10">
-        <f>SUM(E172:E176)</f>
+        <f>SUM(E156:E160)</f>
         <v>0</v>
       </c>
       <c r="N67" s="3" t="s">
@@ -3657,27 +3676,27 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="107"/>
-      <c r="B68" s="27">
-        <v>41625</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="51">
+      <c r="A68" s="100"/>
+      <c r="B68" s="28">
+        <v>41619</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
       <c r="K68" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="10">
-        <f>SUM(E177:E181)</f>
+        <f>SUM(E161:E165)</f>
         <v>0</v>
       </c>
       <c r="N68" s="3" t="s">
@@ -3685,27 +3704,27 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="107"/>
-      <c r="B69" s="27">
-        <v>41626</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="51">
+      <c r="A69" s="100"/>
+      <c r="B69" s="28">
+        <v>41620</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="40"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
       <c r="K69" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="10">
-        <f>SUM(E182:E186)</f>
+        <f>SUM(E166:E170)</f>
         <v>0</v>
       </c>
       <c r="N69" s="3" t="s">
@@ -3713,26 +3732,39 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="107"/>
-      <c r="B70" s="27">
-        <v>41627</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="51">
+      <c r="A70" s="101"/>
+      <c r="B70" s="28">
+        <v>41621</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L70" s="6"/>
+      <c r="M70" s="10">
+        <f>SUM(E171:E175)</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="108"/>
+      <c r="A71" s="117">
+        <v>7</v>
+      </c>
       <c r="B71" s="27">
-        <v>41628</v>
+        <v>41624</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3745,81 +3777,114 @@
       <c r="H71" s="40"/>
       <c r="I71" s="40"/>
       <c r="J71" s="40"/>
+      <c r="K71" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L71" s="6"/>
+      <c r="M71" s="10">
+        <f>SUM(E176:E180)</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="103">
+      <c r="A72" s="118"/>
+      <c r="B72" s="27">
+        <v>41625</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L72" s="6"/>
+      <c r="M72" s="10">
+        <f>SUM(E181:E185)</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="118"/>
+      <c r="B73" s="27">
+        <v>41626</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L73" s="6"/>
+      <c r="M73" s="10">
+        <f>SUM(E186:E190)</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="118"/>
+      <c r="B74" s="27">
+        <v>41627</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="119"/>
+      <c r="B75" s="27">
+        <v>41628</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="99">
         <v>8</v>
       </c>
-      <c r="B72" s="28">
+      <c r="B76" s="28">
         <v>41631</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="104"/>
-      <c r="B73" s="28">
-        <v>41632</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="104"/>
-      <c r="B74" s="28">
-        <v>41633</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="104"/>
-      <c r="B75" s="28">
-        <v>41634</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="105"/>
-      <c r="B76" s="28">
-        <v>41635</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -3834,85 +3899,85 @@
       <c r="J76" s="41"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="106">
+      <c r="A77" s="100"/>
+      <c r="B77" s="28">
+        <v>41632</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="100"/>
+      <c r="B78" s="28">
+        <v>41633</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="100"/>
+      <c r="B79" s="28">
+        <v>41634</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="101"/>
+      <c r="B80" s="28">
+        <v>41635</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="117">
         <v>9</v>
       </c>
-      <c r="B77" s="27">
+      <c r="B81" s="27">
         <v>41638</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="107"/>
-      <c r="B78" s="27">
-        <v>41639</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="107"/>
-      <c r="B79" s="27">
-        <v>41640</v>
-      </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="51">
-        <f t="shared" ref="F79:F110" si="1">E79</f>
-        <v>0</v>
-      </c>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="107"/>
-      <c r="B80" s="27">
-        <v>41641</v>
-      </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="40"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="108"/>
-      <c r="B81" s="27">
-        <v>41642</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="60"/>
       <c r="F81" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G81" s="40"/>
@@ -3921,79 +3986,79 @@
       <c r="J81" s="40"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="103">
+      <c r="A82" s="118"/>
+      <c r="B82" s="27">
+        <v>41639</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="118"/>
+      <c r="B83" s="27">
+        <v>41640</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="51">
+        <f t="shared" ref="F83:F114" si="1">E83</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="118"/>
+      <c r="B84" s="27">
+        <v>41641</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="40"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="119"/>
+      <c r="B85" s="27">
+        <v>41642</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="40"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="99">
         <v>10</v>
       </c>
-      <c r="B82" s="28">
+      <c r="B86" s="28">
         <v>41645</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="104"/>
-      <c r="B83" s="28">
-        <v>41646</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="104"/>
-      <c r="B84" s="28">
-        <v>41647</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="104"/>
-      <c r="B85" s="28">
-        <v>41648</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="105"/>
-      <c r="B86" s="28">
-        <v>41649</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -4008,79 +4073,79 @@
       <c r="J86" s="41"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="106">
+      <c r="A87" s="100"/>
+      <c r="B87" s="28">
+        <v>41646</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="100"/>
+      <c r="B88" s="28">
+        <v>41647</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="100"/>
+      <c r="B89" s="28">
+        <v>41648</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="101"/>
+      <c r="B90" s="28">
+        <v>41649</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="117">
         <v>11</v>
       </c>
-      <c r="B87" s="27">
+      <c r="B91" s="27">
         <v>41652</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="107"/>
-      <c r="B88" s="27">
-        <v>41653</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="40"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="40"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="107"/>
-      <c r="B89" s="27">
-        <v>41654</v>
-      </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="40"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="107"/>
-      <c r="B90" s="27">
-        <v>41655</v>
-      </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="108"/>
-      <c r="B91" s="27">
-        <v>41656</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -4095,79 +4160,79 @@
       <c r="J91" s="40"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="103">
+      <c r="A92" s="118"/>
+      <c r="B92" s="27">
+        <v>41653</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="40"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="118"/>
+      <c r="B93" s="27">
+        <v>41654</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="40"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="118"/>
+      <c r="B94" s="27">
+        <v>41655</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="40"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="119"/>
+      <c r="B95" s="27">
+        <v>41656</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="40"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="99">
         <v>12</v>
       </c>
-      <c r="B92" s="28">
+      <c r="B96" s="28">
         <v>41659</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="41"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="104"/>
-      <c r="B93" s="28">
-        <v>41660</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="104"/>
-      <c r="B94" s="28">
-        <v>41661</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="59"/>
-      <c r="F94" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="41"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="104"/>
-      <c r="B95" s="28">
-        <v>41662</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="105"/>
-      <c r="B96" s="28">
-        <v>41663</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -4182,87 +4247,79 @@
       <c r="J96" s="41"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="106">
+      <c r="A97" s="100"/>
+      <c r="B97" s="28">
+        <v>41660</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="100"/>
+      <c r="B98" s="28">
+        <v>41661</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="100"/>
+      <c r="B99" s="28">
+        <v>41662</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="101"/>
+      <c r="B100" s="28">
+        <v>41663</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="117">
         <v>13</v>
       </c>
-      <c r="B97" s="27">
+      <c r="B101" s="27">
         <v>41666</v>
-      </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="40"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="107"/>
-      <c r="B98" s="27">
-        <v>41667</v>
-      </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H98" s="40"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="40"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="107"/>
-      <c r="B99" s="27">
-        <v>41668</v>
-      </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H99" s="40"/>
-      <c r="I99" s="40"/>
-      <c r="J99" s="40"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="107"/>
-      <c r="B100" s="27">
-        <v>41669</v>
-      </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H100" s="40"/>
-      <c r="I100" s="40"/>
-      <c r="J100" s="40"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="108"/>
-      <c r="B101" s="27">
-        <v>41670</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -4279,87 +4336,87 @@
       <c r="J101" s="40"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="103">
+      <c r="A102" s="118"/>
+      <c r="B102" s="27">
+        <v>41667</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" s="40"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="40"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="118"/>
+      <c r="B103" s="27">
+        <v>41668</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="40"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="118"/>
+      <c r="B104" s="27">
+        <v>41669</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="40"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="119"/>
+      <c r="B105" s="27">
+        <v>41670</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="60"/>
+      <c r="F105" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="40"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="99">
         <v>14</v>
       </c>
-      <c r="B102" s="28">
+      <c r="B106" s="28">
         <v>41673</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="59"/>
-      <c r="F102" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="104"/>
-      <c r="B103" s="28">
-        <v>41674</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="104"/>
-      <c r="B104" s="28">
-        <v>41675</v>
-      </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="104"/>
-      <c r="B105" s="28">
-        <v>41676</v>
-      </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="105"/>
-      <c r="B106" s="28">
-        <v>41677</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -4376,85 +4433,93 @@
       <c r="J106" s="41"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="106">
+      <c r="A107" s="100"/>
+      <c r="B107" s="28">
+        <v>41674</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="100"/>
+      <c r="B108" s="28">
+        <v>41675</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="59"/>
+      <c r="F108" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="100"/>
+      <c r="B109" s="28">
+        <v>41676</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="101"/>
+      <c r="B110" s="28">
+        <v>41677</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="59"/>
+      <c r="F110" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H110" s="41"/>
+      <c r="I110" s="41"/>
+      <c r="J110" s="41"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="117">
         <v>15</v>
       </c>
-      <c r="B107" s="27">
+      <c r="B111" s="27">
         <v>41680</v>
-      </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G107" s="40"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="40"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="107"/>
-      <c r="B108" s="27">
-        <v>41681</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="40"/>
-      <c r="H108" s="40"/>
-      <c r="I108" s="40"/>
-      <c r="J108" s="40"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="107"/>
-      <c r="B109" s="27">
-        <v>41682</v>
-      </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="60"/>
-      <c r="F109" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G109" s="40"/>
-      <c r="H109" s="40"/>
-      <c r="I109" s="40"/>
-      <c r="J109" s="40"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="107"/>
-      <c r="B110" s="27">
-        <v>41683</v>
-      </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="60"/>
-      <c r="F110" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G110" s="40"/>
-      <c r="H110" s="40"/>
-      <c r="I110" s="40"/>
-      <c r="J110" s="40"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="108"/>
-      <c r="B111" s="27">
-        <v>41684</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="60"/>
       <c r="F111" s="51">
-        <f t="shared" ref="F111:F142" si="2">E111</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G111" s="40"/>
@@ -4463,79 +4528,79 @@
       <c r="J111" s="40"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="103">
+      <c r="A112" s="118"/>
+      <c r="B112" s="27">
+        <v>41681</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="60"/>
+      <c r="F112" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="40"/>
+      <c r="H112" s="40"/>
+      <c r="I112" s="40"/>
+      <c r="J112" s="40"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="118"/>
+      <c r="B113" s="27">
+        <v>41682</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="60"/>
+      <c r="F113" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="40"/>
+      <c r="H113" s="40"/>
+      <c r="I113" s="40"/>
+      <c r="J113" s="40"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="118"/>
+      <c r="B114" s="27">
+        <v>41683</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="60"/>
+      <c r="F114" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="40"/>
+      <c r="H114" s="40"/>
+      <c r="I114" s="40"/>
+      <c r="J114" s="40"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="119"/>
+      <c r="B115" s="27">
+        <v>41684</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="60"/>
+      <c r="F115" s="51">
+        <f t="shared" ref="F115:F146" si="2">E115</f>
+        <v>0</v>
+      </c>
+      <c r="G115" s="40"/>
+      <c r="H115" s="40"/>
+      <c r="I115" s="40"/>
+      <c r="J115" s="40"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="99">
         <v>16</v>
       </c>
-      <c r="B112" s="28">
+      <c r="B116" s="28">
         <v>41687</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="41"/>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="41"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="104"/>
-      <c r="B113" s="28">
-        <v>41688</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-      <c r="I113" s="41"/>
-      <c r="J113" s="41"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="104"/>
-      <c r="B114" s="28">
-        <v>41689</v>
-      </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="59"/>
-      <c r="F114" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="41"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="104"/>
-      <c r="B115" s="28">
-        <v>41690</v>
-      </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="59"/>
-      <c r="F115" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G115" s="41"/>
-      <c r="H115" s="41"/>
-      <c r="I115" s="41"/>
-      <c r="J115" s="41"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="105"/>
-      <c r="B116" s="28">
-        <v>41691</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -4550,79 +4615,79 @@
       <c r="J116" s="41"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="106">
+      <c r="A117" s="100"/>
+      <c r="B117" s="28">
+        <v>41688</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="59"/>
+      <c r="F117" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="41"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="41"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="100"/>
+      <c r="B118" s="28">
+        <v>41689</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="59"/>
+      <c r="F118" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="41"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="100"/>
+      <c r="B119" s="28">
+        <v>41690</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="59"/>
+      <c r="F119" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="41"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="41"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="101"/>
+      <c r="B120" s="28">
+        <v>41691</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="59"/>
+      <c r="F120" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="41"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="41"/>
+      <c r="J120" s="41"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="117">
         <v>17</v>
       </c>
-      <c r="B117" s="27">
+      <c r="B121" s="27">
         <v>41694</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="60"/>
-      <c r="F117" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="40"/>
-      <c r="H117" s="40"/>
-      <c r="I117" s="40"/>
-      <c r="J117" s="40"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="107"/>
-      <c r="B118" s="27">
-        <v>41695</v>
-      </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="60"/>
-      <c r="F118" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="40"/>
-      <c r="H118" s="40"/>
-      <c r="I118" s="40"/>
-      <c r="J118" s="40"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="107"/>
-      <c r="B119" s="27">
-        <v>41696</v>
-      </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="60"/>
-      <c r="F119" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="40"/>
-      <c r="H119" s="40"/>
-      <c r="I119" s="40"/>
-      <c r="J119" s="40"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="107"/>
-      <c r="B120" s="27">
-        <v>41697</v>
-      </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="60"/>
-      <c r="F120" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G120" s="40"/>
-      <c r="H120" s="40"/>
-      <c r="I120" s="40"/>
-      <c r="J120" s="40"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="108"/>
-      <c r="B121" s="27">
-        <v>41698</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -4637,79 +4702,79 @@
       <c r="J121" s="40"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="103">
+      <c r="A122" s="118"/>
+      <c r="B122" s="27">
+        <v>41695</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="60"/>
+      <c r="F122" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="40"/>
+      <c r="H122" s="40"/>
+      <c r="I122" s="40"/>
+      <c r="J122" s="40"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="118"/>
+      <c r="B123" s="27">
+        <v>41696</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="60"/>
+      <c r="F123" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="40"/>
+      <c r="H123" s="40"/>
+      <c r="I123" s="40"/>
+      <c r="J123" s="40"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="118"/>
+      <c r="B124" s="27">
+        <v>41697</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="40"/>
+      <c r="H124" s="40"/>
+      <c r="I124" s="40"/>
+      <c r="J124" s="40"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="119"/>
+      <c r="B125" s="27">
+        <v>41698</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="60"/>
+      <c r="F125" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="40"/>
+      <c r="H125" s="40"/>
+      <c r="I125" s="40"/>
+      <c r="J125" s="40"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="99">
         <v>18</v>
       </c>
-      <c r="B122" s="28">
+      <c r="B126" s="28">
         <v>41701</v>
-      </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="59"/>
-      <c r="F122" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="104"/>
-      <c r="B123" s="28">
-        <v>41702</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="59"/>
-      <c r="F123" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="41"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="104"/>
-      <c r="B124" s="28">
-        <v>41703</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="59"/>
-      <c r="F124" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="41"/>
-      <c r="H124" s="41"/>
-      <c r="I124" s="41"/>
-      <c r="J124" s="41"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="104"/>
-      <c r="B125" s="28">
-        <v>41704</v>
-      </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="59"/>
-      <c r="F125" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="41"/>
-      <c r="H125" s="41"/>
-      <c r="I125" s="41"/>
-      <c r="J125" s="41"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="105"/>
-      <c r="B126" s="28">
-        <v>41705</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -4724,79 +4789,79 @@
       <c r="J126" s="41"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="106">
+      <c r="A127" s="100"/>
+      <c r="B127" s="28">
+        <v>41702</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="59"/>
+      <c r="F127" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="41"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="41"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="100"/>
+      <c r="B128" s="28">
+        <v>41703</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="59"/>
+      <c r="F128" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="41"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="100"/>
+      <c r="B129" s="28">
+        <v>41704</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="59"/>
+      <c r="F129" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="41"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="101"/>
+      <c r="B130" s="28">
+        <v>41705</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="59"/>
+      <c r="F130" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="41"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="41"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="117">
         <v>19</v>
       </c>
-      <c r="B127" s="27">
+      <c r="B131" s="27">
         <v>41708</v>
-      </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="60"/>
-      <c r="F127" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G127" s="40"/>
-      <c r="H127" s="40"/>
-      <c r="I127" s="40"/>
-      <c r="J127" s="40"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="107"/>
-      <c r="B128" s="27">
-        <v>41709</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="60"/>
-      <c r="F128" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G128" s="40"/>
-      <c r="H128" s="40"/>
-      <c r="I128" s="40"/>
-      <c r="J128" s="40"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="107"/>
-      <c r="B129" s="27">
-        <v>41710</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="60"/>
-      <c r="F129" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G129" s="40"/>
-      <c r="H129" s="40"/>
-      <c r="I129" s="40"/>
-      <c r="J129" s="40"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="107"/>
-      <c r="B130" s="27">
-        <v>41711</v>
-      </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="60"/>
-      <c r="F130" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G130" s="40"/>
-      <c r="H130" s="40"/>
-      <c r="I130" s="40"/>
-      <c r="J130" s="40"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="108"/>
-      <c r="B131" s="27">
-        <v>41712</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -4811,79 +4876,79 @@
       <c r="J131" s="40"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="103">
+      <c r="A132" s="118"/>
+      <c r="B132" s="27">
+        <v>41709</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="60"/>
+      <c r="F132" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="40"/>
+      <c r="H132" s="40"/>
+      <c r="I132" s="40"/>
+      <c r="J132" s="40"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="118"/>
+      <c r="B133" s="27">
+        <v>41710</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="60"/>
+      <c r="F133" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="40"/>
+      <c r="H133" s="40"/>
+      <c r="I133" s="40"/>
+      <c r="J133" s="40"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="118"/>
+      <c r="B134" s="27">
+        <v>41711</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="60"/>
+      <c r="F134" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G134" s="40"/>
+      <c r="H134" s="40"/>
+      <c r="I134" s="40"/>
+      <c r="J134" s="40"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="119"/>
+      <c r="B135" s="27">
+        <v>41712</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="60"/>
+      <c r="F135" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="40"/>
+      <c r="H135" s="40"/>
+      <c r="I135" s="40"/>
+      <c r="J135" s="40"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="99">
         <v>20</v>
       </c>
-      <c r="B132" s="28">
+      <c r="B136" s="28">
         <v>41715</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="59"/>
-      <c r="F132" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G132" s="41"/>
-      <c r="H132" s="41"/>
-      <c r="I132" s="41"/>
-      <c r="J132" s="41"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="104"/>
-      <c r="B133" s="28">
-        <v>41716</v>
-      </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="59"/>
-      <c r="F133" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G133" s="41"/>
-      <c r="H133" s="41"/>
-      <c r="I133" s="41"/>
-      <c r="J133" s="41"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="104"/>
-      <c r="B134" s="28">
-        <v>41717</v>
-      </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="59"/>
-      <c r="F134" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G134" s="41"/>
-      <c r="H134" s="41"/>
-      <c r="I134" s="41"/>
-      <c r="J134" s="41"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="104"/>
-      <c r="B135" s="28">
-        <v>41718</v>
-      </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="59"/>
-      <c r="F135" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G135" s="41"/>
-      <c r="H135" s="41"/>
-      <c r="I135" s="41"/>
-      <c r="J135" s="41"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="105"/>
-      <c r="B136" s="28">
-        <v>41719</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -4898,79 +4963,79 @@
       <c r="J136" s="41"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="106">
+      <c r="A137" s="100"/>
+      <c r="B137" s="28">
+        <v>41716</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="59"/>
+      <c r="F137" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="41"/>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+      <c r="J137" s="41"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="100"/>
+      <c r="B138" s="28">
+        <v>41717</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="59"/>
+      <c r="F138" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="41"/>
+      <c r="H138" s="41"/>
+      <c r="I138" s="41"/>
+      <c r="J138" s="41"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="100"/>
+      <c r="B139" s="28">
+        <v>41718</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="59"/>
+      <c r="F139" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G139" s="41"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="41"/>
+      <c r="J139" s="41"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="101"/>
+      <c r="B140" s="28">
+        <v>41719</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="59"/>
+      <c r="F140" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G140" s="41"/>
+      <c r="H140" s="41"/>
+      <c r="I140" s="41"/>
+      <c r="J140" s="41"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="117">
         <v>21</v>
       </c>
-      <c r="B137" s="27">
+      <c r="B141" s="27">
         <v>41722</v>
-      </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="60"/>
-      <c r="F137" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G137" s="40"/>
-      <c r="H137" s="40"/>
-      <c r="I137" s="40"/>
-      <c r="J137" s="40"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="107"/>
-      <c r="B138" s="27">
-        <v>41723</v>
-      </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="60"/>
-      <c r="F138" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G138" s="40"/>
-      <c r="H138" s="40"/>
-      <c r="I138" s="40"/>
-      <c r="J138" s="40"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="107"/>
-      <c r="B139" s="27">
-        <v>41724</v>
-      </c>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="60"/>
-      <c r="F139" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G139" s="40"/>
-      <c r="H139" s="40"/>
-      <c r="I139" s="40"/>
-      <c r="J139" s="40"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="107"/>
-      <c r="B140" s="27">
-        <v>41725</v>
-      </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="60"/>
-      <c r="F140" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G140" s="40"/>
-      <c r="H140" s="40"/>
-      <c r="I140" s="40"/>
-      <c r="J140" s="40"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="108"/>
-      <c r="B141" s="27">
-        <v>41726</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -4985,85 +5050,85 @@
       <c r="J141" s="40"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="103">
+      <c r="A142" s="118"/>
+      <c r="B142" s="27">
+        <v>41723</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G142" s="40"/>
+      <c r="H142" s="40"/>
+      <c r="I142" s="40"/>
+      <c r="J142" s="40"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="118"/>
+      <c r="B143" s="27">
+        <v>41724</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="60"/>
+      <c r="F143" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="40"/>
+      <c r="H143" s="40"/>
+      <c r="I143" s="40"/>
+      <c r="J143" s="40"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="118"/>
+      <c r="B144" s="27">
+        <v>41725</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="60"/>
+      <c r="F144" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="40"/>
+      <c r="H144" s="40"/>
+      <c r="I144" s="40"/>
+      <c r="J144" s="40"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="119"/>
+      <c r="B145" s="27">
+        <v>41726</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="60"/>
+      <c r="F145" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G145" s="40"/>
+      <c r="H145" s="40"/>
+      <c r="I145" s="40"/>
+      <c r="J145" s="40"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="99">
         <v>22</v>
       </c>
-      <c r="B142" s="28">
+      <c r="B146" s="28">
         <v>41729</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="59"/>
-      <c r="F142" s="58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G142" s="41"/>
-      <c r="H142" s="41"/>
-      <c r="I142" s="41"/>
-      <c r="J142" s="41"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="104"/>
-      <c r="B143" s="28">
-        <v>41730</v>
-      </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="59"/>
-      <c r="F143" s="58">
-        <f t="shared" ref="F143:F174" si="3">E143</f>
-        <v>0</v>
-      </c>
-      <c r="G143" s="41"/>
-      <c r="H143" s="41"/>
-      <c r="I143" s="41"/>
-      <c r="J143" s="41"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="104"/>
-      <c r="B144" s="28">
-        <v>41731</v>
-      </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="59"/>
-      <c r="F144" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G144" s="41"/>
-      <c r="H144" s="41"/>
-      <c r="I144" s="41"/>
-      <c r="J144" s="41"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="104"/>
-      <c r="B145" s="28">
-        <v>41732</v>
-      </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="59"/>
-      <c r="F145" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G145" s="41"/>
-      <c r="H145" s="41"/>
-      <c r="I145" s="41"/>
-      <c r="J145" s="41"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="105"/>
-      <c r="B146" s="28">
-        <v>41733</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="59"/>
       <c r="F146" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G146" s="41"/>
@@ -5072,79 +5137,79 @@
       <c r="J146" s="41"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="106">
+      <c r="A147" s="100"/>
+      <c r="B147" s="28">
+        <v>41730</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="59"/>
+      <c r="F147" s="58">
+        <f t="shared" ref="F147:F178" si="3">E147</f>
+        <v>0</v>
+      </c>
+      <c r="G147" s="41"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="41"/>
+      <c r="J147" s="41"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="100"/>
+      <c r="B148" s="28">
+        <v>41731</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="59"/>
+      <c r="F148" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="41"/>
+      <c r="H148" s="41"/>
+      <c r="I148" s="41"/>
+      <c r="J148" s="41"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="100"/>
+      <c r="B149" s="28">
+        <v>41732</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="59"/>
+      <c r="F149" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="41"/>
+      <c r="H149" s="41"/>
+      <c r="I149" s="41"/>
+      <c r="J149" s="41"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="101"/>
+      <c r="B150" s="28">
+        <v>41733</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="59"/>
+      <c r="F150" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="41"/>
+      <c r="H150" s="41"/>
+      <c r="I150" s="41"/>
+      <c r="J150" s="41"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="117">
         <v>23</v>
       </c>
-      <c r="B147" s="27">
+      <c r="B151" s="27">
         <v>41736</v>
-      </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="60"/>
-      <c r="F147" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G147" s="40"/>
-      <c r="H147" s="40"/>
-      <c r="I147" s="40"/>
-      <c r="J147" s="40"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="107"/>
-      <c r="B148" s="27">
-        <v>41737</v>
-      </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="60"/>
-      <c r="F148" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G148" s="40"/>
-      <c r="H148" s="40"/>
-      <c r="I148" s="40"/>
-      <c r="J148" s="40"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="107"/>
-      <c r="B149" s="27">
-        <v>41738</v>
-      </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="60"/>
-      <c r="F149" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G149" s="40"/>
-      <c r="H149" s="40"/>
-      <c r="I149" s="40"/>
-      <c r="J149" s="40"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="107"/>
-      <c r="B150" s="27">
-        <v>41739</v>
-      </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="60"/>
-      <c r="F150" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G150" s="40"/>
-      <c r="H150" s="40"/>
-      <c r="I150" s="40"/>
-      <c r="J150" s="40"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="108"/>
-      <c r="B151" s="27">
-        <v>41740</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -5159,79 +5224,79 @@
       <c r="J151" s="40"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="103">
+      <c r="A152" s="118"/>
+      <c r="B152" s="27">
+        <v>41737</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="60"/>
+      <c r="F152" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G152" s="40"/>
+      <c r="H152" s="40"/>
+      <c r="I152" s="40"/>
+      <c r="J152" s="40"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="118"/>
+      <c r="B153" s="27">
+        <v>41738</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="60"/>
+      <c r="F153" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="40"/>
+      <c r="H153" s="40"/>
+      <c r="I153" s="40"/>
+      <c r="J153" s="40"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="118"/>
+      <c r="B154" s="27">
+        <v>41739</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="60"/>
+      <c r="F154" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G154" s="40"/>
+      <c r="H154" s="40"/>
+      <c r="I154" s="40"/>
+      <c r="J154" s="40"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="119"/>
+      <c r="B155" s="27">
+        <v>41740</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="60"/>
+      <c r="F155" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G155" s="40"/>
+      <c r="H155" s="40"/>
+      <c r="I155" s="40"/>
+      <c r="J155" s="40"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="99">
         <v>24</v>
       </c>
-      <c r="B152" s="28">
+      <c r="B156" s="28">
         <v>41743</v>
-      </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="59"/>
-      <c r="F152" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G152" s="41"/>
-      <c r="H152" s="41"/>
-      <c r="I152" s="41"/>
-      <c r="J152" s="41"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="104"/>
-      <c r="B153" s="28">
-        <v>41744</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="59"/>
-      <c r="F153" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G153" s="41"/>
-      <c r="H153" s="41"/>
-      <c r="I153" s="41"/>
-      <c r="J153" s="41"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="104"/>
-      <c r="B154" s="28">
-        <v>41745</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="59"/>
-      <c r="F154" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G154" s="41"/>
-      <c r="H154" s="41"/>
-      <c r="I154" s="41"/>
-      <c r="J154" s="41"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="104"/>
-      <c r="B155" s="28">
-        <v>41746</v>
-      </c>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="59"/>
-      <c r="F155" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G155" s="41"/>
-      <c r="H155" s="41"/>
-      <c r="I155" s="41"/>
-      <c r="J155" s="41"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="105"/>
-      <c r="B156" s="28">
-        <v>41747</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -5246,79 +5311,79 @@
       <c r="J156" s="41"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="106">
+      <c r="A157" s="100"/>
+      <c r="B157" s="28">
+        <v>41744</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="59"/>
+      <c r="F157" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="41"/>
+      <c r="H157" s="41"/>
+      <c r="I157" s="41"/>
+      <c r="J157" s="41"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="100"/>
+      <c r="B158" s="28">
+        <v>41745</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="59"/>
+      <c r="F158" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="41"/>
+      <c r="H158" s="41"/>
+      <c r="I158" s="41"/>
+      <c r="J158" s="41"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="100"/>
+      <c r="B159" s="28">
+        <v>41746</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="59"/>
+      <c r="F159" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="41"/>
+      <c r="H159" s="41"/>
+      <c r="I159" s="41"/>
+      <c r="J159" s="41"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="101"/>
+      <c r="B160" s="28">
+        <v>41747</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="59"/>
+      <c r="F160" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G160" s="41"/>
+      <c r="H160" s="41"/>
+      <c r="I160" s="41"/>
+      <c r="J160" s="41"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="117">
         <v>25</v>
       </c>
-      <c r="B157" s="27">
+      <c r="B161" s="27">
         <v>41750</v>
-      </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="60"/>
-      <c r="F157" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G157" s="40"/>
-      <c r="H157" s="40"/>
-      <c r="I157" s="40"/>
-      <c r="J157" s="40"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="107"/>
-      <c r="B158" s="27">
-        <v>41751</v>
-      </c>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="60"/>
-      <c r="F158" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G158" s="40"/>
-      <c r="H158" s="40"/>
-      <c r="I158" s="40"/>
-      <c r="J158" s="40"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="107"/>
-      <c r="B159" s="27">
-        <v>41752</v>
-      </c>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="60"/>
-      <c r="F159" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G159" s="40"/>
-      <c r="H159" s="40"/>
-      <c r="I159" s="40"/>
-      <c r="J159" s="40"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="107"/>
-      <c r="B160" s="27">
-        <v>41753</v>
-      </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="60"/>
-      <c r="F160" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G160" s="40"/>
-      <c r="H160" s="40"/>
-      <c r="I160" s="40"/>
-      <c r="J160" s="40"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="108"/>
-      <c r="B161" s="27">
-        <v>41754</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -5333,79 +5398,79 @@
       <c r="J161" s="40"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="103">
+      <c r="A162" s="118"/>
+      <c r="B162" s="27">
+        <v>41751</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="60"/>
+      <c r="F162" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G162" s="40"/>
+      <c r="H162" s="40"/>
+      <c r="I162" s="40"/>
+      <c r="J162" s="40"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="118"/>
+      <c r="B163" s="27">
+        <v>41752</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="60"/>
+      <c r="F163" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="40"/>
+      <c r="H163" s="40"/>
+      <c r="I163" s="40"/>
+      <c r="J163" s="40"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="118"/>
+      <c r="B164" s="27">
+        <v>41753</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="60"/>
+      <c r="F164" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G164" s="40"/>
+      <c r="H164" s="40"/>
+      <c r="I164" s="40"/>
+      <c r="J164" s="40"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="119"/>
+      <c r="B165" s="27">
+        <v>41754</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="60"/>
+      <c r="F165" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G165" s="40"/>
+      <c r="H165" s="40"/>
+      <c r="I165" s="40"/>
+      <c r="J165" s="40"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="99">
         <v>26</v>
       </c>
-      <c r="B162" s="28">
+      <c r="B166" s="28">
         <v>41757</v>
-      </c>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="59"/>
-      <c r="F162" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G162" s="41"/>
-      <c r="H162" s="41"/>
-      <c r="I162" s="41"/>
-      <c r="J162" s="41"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="104"/>
-      <c r="B163" s="28">
-        <v>41758</v>
-      </c>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="59"/>
-      <c r="F163" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G163" s="41"/>
-      <c r="H163" s="41"/>
-      <c r="I163" s="41"/>
-      <c r="J163" s="41"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="104"/>
-      <c r="B164" s="28">
-        <v>41759</v>
-      </c>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="59"/>
-      <c r="F164" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G164" s="41"/>
-      <c r="H164" s="41"/>
-      <c r="I164" s="41"/>
-      <c r="J164" s="41"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="104"/>
-      <c r="B165" s="28">
-        <v>41760</v>
-      </c>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="59"/>
-      <c r="F165" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G165" s="41"/>
-      <c r="H165" s="41"/>
-      <c r="I165" s="41"/>
-      <c r="J165" s="41"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="105"/>
-      <c r="B166" s="28">
-        <v>41761</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -5420,79 +5485,79 @@
       <c r="J166" s="41"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="106">
+      <c r="A167" s="100"/>
+      <c r="B167" s="28">
+        <v>41758</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="59"/>
+      <c r="F167" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G167" s="41"/>
+      <c r="H167" s="41"/>
+      <c r="I167" s="41"/>
+      <c r="J167" s="41"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="100"/>
+      <c r="B168" s="28">
+        <v>41759</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="59"/>
+      <c r="F168" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="41"/>
+      <c r="H168" s="41"/>
+      <c r="I168" s="41"/>
+      <c r="J168" s="41"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="100"/>
+      <c r="B169" s="28">
+        <v>41760</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="59"/>
+      <c r="F169" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G169" s="41"/>
+      <c r="H169" s="41"/>
+      <c r="I169" s="41"/>
+      <c r="J169" s="41"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="101"/>
+      <c r="B170" s="28">
+        <v>41761</v>
+      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="59"/>
+      <c r="F170" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G170" s="41"/>
+      <c r="H170" s="41"/>
+      <c r="I170" s="41"/>
+      <c r="J170" s="41"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="117">
         <v>27</v>
       </c>
-      <c r="B167" s="27">
+      <c r="B171" s="27">
         <v>41764</v>
-      </c>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="60"/>
-      <c r="F167" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G167" s="40"/>
-      <c r="H167" s="40"/>
-      <c r="I167" s="40"/>
-      <c r="J167" s="40"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="107"/>
-      <c r="B168" s="27">
-        <v>41765</v>
-      </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="60"/>
-      <c r="F168" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G168" s="40"/>
-      <c r="H168" s="40"/>
-      <c r="I168" s="40"/>
-      <c r="J168" s="40"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="107"/>
-      <c r="B169" s="27">
-        <v>41766</v>
-      </c>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="60"/>
-      <c r="F169" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G169" s="40"/>
-      <c r="H169" s="40"/>
-      <c r="I169" s="40"/>
-      <c r="J169" s="40"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="107"/>
-      <c r="B170" s="27">
-        <v>41767</v>
-      </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="60"/>
-      <c r="F170" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G170" s="40"/>
-      <c r="H170" s="40"/>
-      <c r="I170" s="40"/>
-      <c r="J170" s="40"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="108"/>
-      <c r="B171" s="27">
-        <v>41768</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -5507,85 +5572,85 @@
       <c r="J171" s="40"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="103">
+      <c r="A172" s="118"/>
+      <c r="B172" s="27">
+        <v>41765</v>
+      </c>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="60"/>
+      <c r="F172" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G172" s="40"/>
+      <c r="H172" s="40"/>
+      <c r="I172" s="40"/>
+      <c r="J172" s="40"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="118"/>
+      <c r="B173" s="27">
+        <v>41766</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="60"/>
+      <c r="F173" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G173" s="40"/>
+      <c r="H173" s="40"/>
+      <c r="I173" s="40"/>
+      <c r="J173" s="40"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="118"/>
+      <c r="B174" s="27">
+        <v>41767</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="60"/>
+      <c r="F174" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G174" s="40"/>
+      <c r="H174" s="40"/>
+      <c r="I174" s="40"/>
+      <c r="J174" s="40"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="119"/>
+      <c r="B175" s="27">
+        <v>41768</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="60"/>
+      <c r="F175" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G175" s="40"/>
+      <c r="H175" s="40"/>
+      <c r="I175" s="40"/>
+      <c r="J175" s="40"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="99">
         <v>28</v>
       </c>
-      <c r="B172" s="28">
+      <c r="B176" s="28">
         <v>41771</v>
-      </c>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="59"/>
-      <c r="F172" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G172" s="41"/>
-      <c r="H172" s="41"/>
-      <c r="I172" s="41"/>
-      <c r="J172" s="41"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="104"/>
-      <c r="B173" s="28">
-        <v>41772</v>
-      </c>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="59"/>
-      <c r="F173" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G173" s="41"/>
-      <c r="H173" s="41"/>
-      <c r="I173" s="41"/>
-      <c r="J173" s="41"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="104"/>
-      <c r="B174" s="28">
-        <v>41773</v>
-      </c>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="59"/>
-      <c r="F174" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G174" s="41"/>
-      <c r="H174" s="41"/>
-      <c r="I174" s="41"/>
-      <c r="J174" s="41"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="104"/>
-      <c r="B175" s="28">
-        <v>41774</v>
-      </c>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="59"/>
-      <c r="F175" s="58">
-        <f t="shared" ref="F175:F186" si="4">E175</f>
-        <v>0</v>
-      </c>
-      <c r="G175" s="41"/>
-      <c r="H175" s="41"/>
-      <c r="I175" s="41"/>
-      <c r="J175" s="41"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="105"/>
-      <c r="B176" s="28">
-        <v>41775</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="59"/>
       <c r="F176" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G176" s="41"/>
@@ -5594,79 +5659,79 @@
       <c r="J176" s="41"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="106">
+      <c r="A177" s="100"/>
+      <c r="B177" s="28">
+        <v>41772</v>
+      </c>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="59"/>
+      <c r="F177" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G177" s="41"/>
+      <c r="H177" s="41"/>
+      <c r="I177" s="41"/>
+      <c r="J177" s="41"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="100"/>
+      <c r="B178" s="28">
+        <v>41773</v>
+      </c>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="59"/>
+      <c r="F178" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G178" s="41"/>
+      <c r="H178" s="41"/>
+      <c r="I178" s="41"/>
+      <c r="J178" s="41"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="100"/>
+      <c r="B179" s="28">
+        <v>41774</v>
+      </c>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="59"/>
+      <c r="F179" s="58">
+        <f t="shared" ref="F179:F190" si="4">E179</f>
+        <v>0</v>
+      </c>
+      <c r="G179" s="41"/>
+      <c r="H179" s="41"/>
+      <c r="I179" s="41"/>
+      <c r="J179" s="41"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="101"/>
+      <c r="B180" s="28">
+        <v>41775</v>
+      </c>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="59"/>
+      <c r="F180" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G180" s="41"/>
+      <c r="H180" s="41"/>
+      <c r="I180" s="41"/>
+      <c r="J180" s="41"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="117">
         <v>29</v>
       </c>
-      <c r="B177" s="27">
+      <c r="B181" s="27">
         <v>41778</v>
-      </c>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="60"/>
-      <c r="F177" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G177" s="40"/>
-      <c r="H177" s="40"/>
-      <c r="I177" s="40"/>
-      <c r="J177" s="40"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="107"/>
-      <c r="B178" s="27">
-        <v>41779</v>
-      </c>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="60"/>
-      <c r="F178" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G178" s="40"/>
-      <c r="H178" s="40"/>
-      <c r="I178" s="40"/>
-      <c r="J178" s="40"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="107"/>
-      <c r="B179" s="27">
-        <v>41780</v>
-      </c>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="60"/>
-      <c r="F179" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G179" s="40"/>
-      <c r="H179" s="40"/>
-      <c r="I179" s="40"/>
-      <c r="J179" s="40"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="107"/>
-      <c r="B180" s="27">
-        <v>41781</v>
-      </c>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="60"/>
-      <c r="F180" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G180" s="40"/>
-      <c r="H180" s="40"/>
-      <c r="I180" s="40"/>
-      <c r="J180" s="40"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="108"/>
-      <c r="B181" s="27">
-        <v>41782</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -5681,79 +5746,79 @@
       <c r="J181" s="40"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="100">
+      <c r="A182" s="118"/>
+      <c r="B182" s="27">
+        <v>41779</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="60"/>
+      <c r="F182" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G182" s="40"/>
+      <c r="H182" s="40"/>
+      <c r="I182" s="40"/>
+      <c r="J182" s="40"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="118"/>
+      <c r="B183" s="27">
+        <v>41780</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="60"/>
+      <c r="F183" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G183" s="40"/>
+      <c r="H183" s="40"/>
+      <c r="I183" s="40"/>
+      <c r="J183" s="40"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="118"/>
+      <c r="B184" s="27">
+        <v>41781</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="60"/>
+      <c r="F184" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G184" s="40"/>
+      <c r="H184" s="40"/>
+      <c r="I184" s="40"/>
+      <c r="J184" s="40"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="119"/>
+      <c r="B185" s="27">
+        <v>41782</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="60"/>
+      <c r="F185" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G185" s="40"/>
+      <c r="H185" s="40"/>
+      <c r="I185" s="40"/>
+      <c r="J185" s="40"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="129">
         <v>30</v>
       </c>
-      <c r="B182" s="28">
+      <c r="B186" s="28">
         <v>41785</v>
-      </c>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="61"/>
-      <c r="F182" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G182" s="42"/>
-      <c r="H182" s="42"/>
-      <c r="I182" s="42"/>
-      <c r="J182" s="42"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="101"/>
-      <c r="B183" s="28">
-        <v>41786</v>
-      </c>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="61"/>
-      <c r="F183" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G183" s="42"/>
-      <c r="H183" s="42"/>
-      <c r="I183" s="42"/>
-      <c r="J183" s="42"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="101"/>
-      <c r="B184" s="28">
-        <v>41787</v>
-      </c>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="61"/>
-      <c r="F184" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G184" s="42"/>
-      <c r="H184" s="42"/>
-      <c r="I184" s="42"/>
-      <c r="J184" s="42"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="101"/>
-      <c r="B185" s="28">
-        <v>41788</v>
-      </c>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="61"/>
-      <c r="F185" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G185" s="42"/>
-      <c r="H185" s="42"/>
-      <c r="I185" s="42"/>
-      <c r="J185" s="42"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="102"/>
-      <c r="B186" s="28">
-        <v>41789</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -5767,67 +5832,78 @@
       <c r="I186" s="42"/>
       <c r="J186" s="42"/>
     </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="130"/>
+      <c r="B187" s="28">
+        <v>41786</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="61"/>
+      <c r="F187" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G187" s="42"/>
+      <c r="H187" s="42"/>
+      <c r="I187" s="42"/>
+      <c r="J187" s="42"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="130"/>
+      <c r="B188" s="28">
+        <v>41787</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="61"/>
+      <c r="F188" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G188" s="42"/>
+      <c r="H188" s="42"/>
+      <c r="I188" s="42"/>
+      <c r="J188" s="42"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="130"/>
+      <c r="B189" s="28">
+        <v>41788</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="61"/>
+      <c r="F189" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G189" s="42"/>
+      <c r="H189" s="42"/>
+      <c r="I189" s="42"/>
+      <c r="J189" s="42"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="131"/>
+      <c r="B190" s="28">
+        <v>41789</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="61"/>
+      <c r="F190" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G190" s="42"/>
+      <c r="H190" s="42"/>
+      <c r="I190" s="42"/>
+      <c r="J190" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A53:A61"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A177:A181"/>
-    <mergeCell ref="A182:A186"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A162:A166"/>
+  <mergeCells count="77">
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="B60:B64"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="F7:F8"/>
@@ -5844,6 +5920,65 @@
     <mergeCell ref="F40:F43"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="F28:F33"/>
+    <mergeCell ref="A186:A190"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="A176:A180"/>
+    <mergeCell ref="A181:A185"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A53:A65"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F49:F50"/>
   </mergeCells>
   <conditionalFormatting sqref="M7:M8">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
@@ -5860,7 +5995,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F14 F21 F28 M14:M16 F40 F9 F7 F12 F16 F23 F26 F34 F37 M9 M12 F46 F44 F49 F51 F54 F58 M19" formulaRange="1"/>
+    <ignoredError sqref="F14 F21 F28 M14:M16 F40 F9 F7 F12 F16 F23 F26 F34 F37 M9 M12 F46 F44 F49 F51 F54 F58 M19 F60" formulaRange="1"/>
     <ignoredError sqref="F19" formula="1" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
@@ -6206,86 +6341,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M60</xm:sqref>
+          <xm:sqref>M60:M64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="19" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M61</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M62</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M64</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6304,7 +6363,7 @@
           <xm:sqref>M65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="18" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6323,7 +6382,7 @@
           <xm:sqref>M66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="17" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6342,7 +6401,7 @@
           <xm:sqref>M67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="16" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6361,7 +6420,7 @@
           <xm:sqref>M68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="15" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6378,6 +6437,82 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M72</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="10" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -6434,7 +6569,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F40 F7 F12 F16 F19 F23 F26 F34 F37 F9 F14 F28 F44 F49 F46 F53:F54 F60:F186 F58</xm:sqref>
+          <xm:sqref>F40 F7 F12 F16 F19 F23 F26 F34 F37 F9 F14 F28 F44 F49 F46 F53:F54 F58 F60 F65:F190</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="41" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -1013,35 +1013,74 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,6 +1091,33 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,15 +1154,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1142,15 +1199,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1165,54 +1213,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1639,11 +1639,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" ySplit="6" topLeftCell="G55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1665,84 +1665,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
+      <c r="A1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="114"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="117"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="120"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="135"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="1">
-        <f>4/6</f>
-        <v>0.66666666666666663</v>
-      </c>
       <c r="H5" s="44" t="s">
         <v>75</v>
       </c>
@@ -1786,16 +1782,16 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="122">
+      <c r="A7" s="138">
         <v>1</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="77">
         <v>41585</v>
       </c>
       <c r="C7" s="18">
@@ -1807,7 +1803,7 @@
       <c r="E7" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F7" s="132">
+      <c r="F7" s="80">
         <f>SUM(E7:E8)</f>
         <v>1.24</v>
       </c>
@@ -1819,10 +1815,10 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="121" t="s">
+      <c r="K7" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="121"/>
+      <c r="L7" s="137"/>
       <c r="M7" s="64">
         <f>SUM(M9:M73)</f>
         <v>94.983000000000004</v>
@@ -1832,8 +1828,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="123"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="18">
         <v>0.60416666666666663</v>
       </c>
@@ -1843,7 +1839,7 @@
       <c r="E8" s="19">
         <v>0.08</v>
       </c>
-      <c r="F8" s="134"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="20" t="s">
         <v>24</v>
       </c>
@@ -1858,8 +1854,8 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="123"/>
-      <c r="B9" s="76">
+      <c r="A9" s="139"/>
+      <c r="B9" s="77">
         <v>41586</v>
       </c>
       <c r="C9" s="18">
@@ -1871,7 +1867,7 @@
       <c r="E9" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F9" s="132">
+      <c r="F9" s="80">
         <f>SUM(E9:E11)</f>
         <v>1.74</v>
       </c>
@@ -1896,8 +1892,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1907,7 +1903,7 @@
       <c r="E10" s="19">
         <v>0.5</v>
       </c>
-      <c r="F10" s="133"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="31" t="s">
         <v>25</v>
       </c>
@@ -1918,8 +1914,8 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="124"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="18" t="s">
         <v>100</v>
       </c>
@@ -1929,7 +1925,7 @@
       <c r="E11" s="19">
         <v>0.08</v>
       </c>
-      <c r="F11" s="134"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="31" t="s">
         <v>24</v>
       </c>
@@ -1940,10 +1936,10 @@
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="111">
+      <c r="A12" s="130">
         <v>2</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="86">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1955,7 +1951,7 @@
       <c r="E12" s="24">
         <v>2.25</v>
       </c>
-      <c r="F12" s="138">
+      <c r="F12" s="88">
         <f>SUM(E12:E13)</f>
         <v>2.33</v>
       </c>
@@ -1983,8 +1979,8 @@
       <c r="O12" s="35"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
-      <c r="B13" s="83"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="23">
         <v>0.625</v>
       </c>
@@ -1994,7 +1990,7 @@
       <c r="E13" s="24">
         <v>0.08</v>
       </c>
-      <c r="F13" s="139"/>
+      <c r="F13" s="89"/>
       <c r="G13" s="32" t="s">
         <v>24</v>
       </c>
@@ -2010,8 +2006,8 @@
       <c r="O13" s="35"/>
     </row>
     <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
-      <c r="B14" s="82">
+      <c r="A14" s="131"/>
+      <c r="B14" s="86">
         <v>41591</v>
       </c>
       <c r="C14" s="26">
@@ -2023,7 +2019,7 @@
       <c r="E14" s="29">
         <v>2</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="91">
         <f>SUM(E14:E15)</f>
         <v>3</v>
       </c>
@@ -2043,8 +2039,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
-      <c r="B15" s="83"/>
+      <c r="A15" s="131"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="26">
         <v>0.91666666666666663</v>
       </c>
@@ -2054,7 +2050,7 @@
       <c r="E15" s="29">
         <v>1</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="30" t="s">
         <v>24</v>
       </c>
@@ -2078,8 +2074,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="82">
+      <c r="A16" s="131"/>
+      <c r="B16" s="86">
         <v>41592</v>
       </c>
       <c r="C16" s="26">
@@ -2091,7 +2087,7 @@
       <c r="E16" s="29">
         <v>0.75</v>
       </c>
-      <c r="F16" s="74">
+      <c r="F16" s="91">
         <f>SUM(E16:E18)</f>
         <v>2.08</v>
       </c>
@@ -2118,8 +2114,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
-      <c r="B17" s="128"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="90"/>
       <c r="C17" s="26">
         <v>0.375</v>
       </c>
@@ -2129,7 +2125,7 @@
       <c r="E17" s="29">
         <v>1.25</v>
       </c>
-      <c r="F17" s="140"/>
+      <c r="F17" s="92"/>
       <c r="G17" s="45" t="s">
         <v>25</v>
       </c>
@@ -2146,8 +2142,8 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="131"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -2157,7 +2153,7 @@
       <c r="E18" s="29">
         <v>0.08</v>
       </c>
-      <c r="F18" s="75"/>
+      <c r="F18" s="93"/>
       <c r="G18" s="45" t="s">
         <v>24</v>
       </c>
@@ -2172,8 +2168,8 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
-      <c r="B19" s="82">
+      <c r="A19" s="131"/>
+      <c r="B19" s="86">
         <v>41593</v>
       </c>
       <c r="C19" s="26">
@@ -2185,7 +2181,7 @@
       <c r="E19" s="29">
         <v>1.083</v>
       </c>
-      <c r="F19" s="74">
+      <c r="F19" s="91">
         <f>SUM(E19:E22)</f>
         <v>5.883</v>
       </c>
@@ -2212,8 +2208,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="131"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="26">
         <v>0.91666666666666663</v>
       </c>
@@ -2223,7 +2219,7 @@
       <c r="E20" s="29">
         <v>2.33</v>
       </c>
-      <c r="F20" s="75"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="30" t="s">
         <v>24</v>
       </c>
@@ -2247,8 +2243,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="82">
+      <c r="A21" s="131"/>
+      <c r="B21" s="86">
         <v>41594</v>
       </c>
       <c r="C21" s="26">
@@ -2260,7 +2256,7 @@
       <c r="E21" s="29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F21" s="74">
+      <c r="F21" s="91">
         <f>SUM(E21:E22)</f>
         <v>2.4699999999999998</v>
       </c>
@@ -2287,8 +2283,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="113"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -2298,7 +2294,7 @@
       <c r="E22" s="29">
         <v>1.92</v>
       </c>
-      <c r="F22" s="75"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="30" t="s">
         <v>24</v>
       </c>
@@ -2315,10 +2311,10 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="125">
+      <c r="A23" s="94">
         <v>3</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="77">
         <v>41597</v>
       </c>
       <c r="C23" s="47">
@@ -2330,7 +2326,7 @@
       <c r="E23" s="51">
         <v>2</v>
       </c>
-      <c r="F23" s="78">
+      <c r="F23" s="74">
         <f>SUM(E23:E25)</f>
         <v>3.08</v>
       </c>
@@ -2355,8 +2351,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="126"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="78"/>
       <c r="C24" s="47">
         <v>0.5625</v>
       </c>
@@ -2366,7 +2362,7 @@
       <c r="E24" s="51">
         <v>1</v>
       </c>
-      <c r="F24" s="80"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="48" t="s">
         <v>21</v>
       </c>
@@ -2381,8 +2377,8 @@
       <c r="N24" s="55"/>
     </row>
     <row r="25" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="126"/>
-      <c r="B25" s="77"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="47">
         <v>0.60416666666666663</v>
       </c>
@@ -2392,7 +2388,7 @@
       <c r="E25" s="51">
         <v>0.08</v>
       </c>
-      <c r="F25" s="79"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="48" t="s">
         <v>24</v>
       </c>
@@ -2407,8 +2403,8 @@
       <c r="N25" s="55"/>
     </row>
     <row r="26" spans="1:14" s="56" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="126"/>
-      <c r="B26" s="76">
+      <c r="A26" s="95"/>
+      <c r="B26" s="77">
         <v>41598</v>
       </c>
       <c r="C26" s="47">
@@ -2420,7 +2416,7 @@
       <c r="E26" s="51">
         <v>4</v>
       </c>
-      <c r="F26" s="78">
+      <c r="F26" s="74">
         <f>SUM(E26:E27)</f>
         <v>4.08</v>
       </c>
@@ -2445,8 +2441,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="126"/>
-      <c r="B27" s="77"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="47">
         <v>0.72916666666666663</v>
       </c>
@@ -2456,7 +2452,7 @@
       <c r="E27" s="51">
         <v>0.08</v>
       </c>
-      <c r="F27" s="79"/>
+      <c r="F27" s="76"/>
       <c r="G27" s="31" t="s">
         <v>24</v>
       </c>
@@ -2471,8 +2467,8 @@
       <c r="N27" s="55"/>
     </row>
     <row r="28" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="126"/>
-      <c r="B28" s="76">
+      <c r="A28" s="95"/>
+      <c r="B28" s="77">
         <v>41599</v>
       </c>
       <c r="C28" s="47">
@@ -2484,7 +2480,7 @@
       <c r="E28" s="51">
         <v>1</v>
       </c>
-      <c r="F28" s="78">
+      <c r="F28" s="74">
         <f>SUM(E28:E33)</f>
         <v>11.15</v>
       </c>
@@ -2511,8 +2507,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="126"/>
-      <c r="B29" s="81"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="47">
         <v>0.375</v>
       </c>
@@ -2522,7 +2518,7 @@
       <c r="E29" s="51">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F29" s="80"/>
+      <c r="F29" s="75"/>
       <c r="G29" s="31" t="s">
         <v>25</v>
       </c>
@@ -2537,8 +2533,8 @@
       <c r="N29" s="55"/>
     </row>
     <row r="30" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="126"/>
-      <c r="B30" s="81"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="47">
         <v>0.4236111111111111</v>
       </c>
@@ -2548,7 +2544,7 @@
       <c r="E30" s="51">
         <v>1.33</v>
       </c>
-      <c r="F30" s="80"/>
+      <c r="F30" s="75"/>
       <c r="G30" s="48" t="s">
         <v>21</v>
       </c>
@@ -2563,8 +2559,8 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="126"/>
-      <c r="B31" s="81"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="47">
         <v>0.5625</v>
       </c>
@@ -2574,7 +2570,7 @@
       <c r="E31" s="51">
         <v>1.5</v>
       </c>
-      <c r="F31" s="80"/>
+      <c r="F31" s="75"/>
       <c r="G31" s="31" t="s">
         <v>30</v>
       </c>
@@ -2591,8 +2587,8 @@
       <c r="N31" s="55"/>
     </row>
     <row r="32" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="126"/>
-      <c r="B32" s="81"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="47">
         <v>0.625</v>
       </c>
@@ -2602,7 +2598,7 @@
       <c r="E32" s="51">
         <v>2.16</v>
       </c>
-      <c r="F32" s="80"/>
+      <c r="F32" s="75"/>
       <c r="G32" s="31" t="s">
         <v>21</v>
       </c>
@@ -2619,8 +2615,8 @@
       <c r="N32" s="55"/>
     </row>
     <row r="33" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="126"/>
-      <c r="B33" s="77"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="79"/>
       <c r="C33" s="47">
         <v>0.83333333333333337</v>
       </c>
@@ -2630,7 +2626,7 @@
       <c r="E33" s="51">
         <v>4</v>
       </c>
-      <c r="F33" s="79"/>
+      <c r="F33" s="76"/>
       <c r="G33" s="31" t="s">
         <v>22</v>
       </c>
@@ -2645,8 +2641,8 @@
       <c r="N33" s="55"/>
     </row>
     <row r="34" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="126"/>
-      <c r="B34" s="76">
+      <c r="A34" s="95"/>
+      <c r="B34" s="77">
         <v>41600</v>
       </c>
       <c r="C34" s="47">
@@ -2658,7 +2654,7 @@
       <c r="E34" s="51">
         <v>1.25</v>
       </c>
-      <c r="F34" s="78">
+      <c r="F34" s="74">
         <f>SUM(E34:E36)</f>
         <v>5</v>
       </c>
@@ -2685,8 +2681,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="126"/>
-      <c r="B35" s="81"/>
+      <c r="A35" s="95"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="47">
         <v>0.64583333333333337</v>
       </c>
@@ -2696,7 +2692,7 @@
       <c r="E35" s="51">
         <v>1</v>
       </c>
-      <c r="F35" s="80"/>
+      <c r="F35" s="75"/>
       <c r="G35" s="31" t="s">
         <v>26</v>
       </c>
@@ -2713,8 +2709,8 @@
       <c r="N35" s="55"/>
     </row>
     <row r="36" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="126"/>
-      <c r="B36" s="77"/>
+      <c r="A36" s="95"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="47">
         <v>0.90625</v>
       </c>
@@ -2724,7 +2720,7 @@
       <c r="E36" s="51">
         <v>2.75</v>
       </c>
-      <c r="F36" s="79"/>
+      <c r="F36" s="76"/>
       <c r="G36" s="31" t="s">
         <v>22</v>
       </c>
@@ -2739,8 +2735,8 @@
       <c r="N36" s="55"/>
     </row>
     <row r="37" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="126"/>
-      <c r="B37" s="76">
+      <c r="A37" s="95"/>
+      <c r="B37" s="77">
         <v>41601</v>
       </c>
       <c r="C37" s="47">
@@ -2752,7 +2748,7 @@
       <c r="E37" s="51">
         <v>0.25</v>
       </c>
-      <c r="F37" s="78">
+      <c r="F37" s="74">
         <f>SUM(E37:E39)</f>
         <v>5.25</v>
       </c>
@@ -2770,8 +2766,8 @@
       <c r="N37" s="55"/>
     </row>
     <row r="38" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="126"/>
-      <c r="B38" s="81"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="47">
         <v>0.57291666666666663</v>
       </c>
@@ -2781,7 +2777,7 @@
       <c r="E38" s="51">
         <v>1</v>
       </c>
-      <c r="F38" s="80"/>
+      <c r="F38" s="75"/>
       <c r="G38" s="31" t="s">
         <v>26</v>
       </c>
@@ -2798,8 +2794,8 @@
       <c r="N38" s="55"/>
     </row>
     <row r="39" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="127"/>
-      <c r="B39" s="77"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="79"/>
       <c r="C39" s="47">
         <v>0.83333333333333337</v>
       </c>
@@ -2809,7 +2805,7 @@
       <c r="E39" s="51">
         <v>4</v>
       </c>
-      <c r="F39" s="79"/>
+      <c r="F39" s="76"/>
       <c r="G39" s="31" t="s">
         <v>24</v>
       </c>
@@ -2826,10 +2822,10 @@
       <c r="N39" s="55"/>
     </row>
     <row r="40" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="135">
+      <c r="A40" s="83">
         <v>4</v>
       </c>
-      <c r="B40" s="82">
+      <c r="B40" s="86">
         <v>41604</v>
       </c>
       <c r="C40" s="69">
@@ -2841,7 +2837,7 @@
       <c r="E40" s="58">
         <v>2.25</v>
       </c>
-      <c r="F40" s="84">
+      <c r="F40" s="97">
         <f>SUM(E40:E43)</f>
         <v>7</v>
       </c>
@@ -2866,8 +2862,8 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="56" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="136"/>
-      <c r="B41" s="128"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="90"/>
       <c r="C41" s="69">
         <v>0.875</v>
       </c>
@@ -2877,7 +2873,7 @@
       <c r="E41" s="58">
         <v>2.5</v>
       </c>
-      <c r="F41" s="85"/>
+      <c r="F41" s="98"/>
       <c r="G41" s="57" t="s">
         <v>25</v>
       </c>
@@ -2899,8 +2895,8 @@
       </c>
     </row>
     <row r="42" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="136"/>
-      <c r="B42" s="128"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="90"/>
       <c r="C42" s="69">
         <v>0.5625</v>
       </c>
@@ -2910,7 +2906,7 @@
       <c r="E42" s="58">
         <v>1</v>
       </c>
-      <c r="F42" s="85"/>
+      <c r="F42" s="98"/>
       <c r="G42" s="38" t="s">
         <v>21</v>
       </c>
@@ -2925,8 +2921,8 @@
       <c r="N42" s="55"/>
     </row>
     <row r="43" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="136"/>
-      <c r="B43" s="83"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="69">
         <v>0.61458333333333337</v>
       </c>
@@ -2936,7 +2932,7 @@
       <c r="E43" s="58">
         <v>1.25</v>
       </c>
-      <c r="F43" s="86"/>
+      <c r="F43" s="99"/>
       <c r="G43" s="57" t="s">
         <v>26</v>
       </c>
@@ -2951,8 +2947,8 @@
       <c r="N43" s="55"/>
     </row>
     <row r="44" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="136"/>
-      <c r="B44" s="82">
+      <c r="A44" s="84"/>
+      <c r="B44" s="86">
         <v>41605</v>
       </c>
       <c r="C44" s="69">
@@ -2964,7 +2960,7 @@
       <c r="E44" s="58">
         <v>2.33</v>
       </c>
-      <c r="F44" s="84">
+      <c r="F44" s="97">
         <f>SUM(E44:E45)</f>
         <v>5.08</v>
       </c>
@@ -2989,8 +2985,8 @@
       </c>
     </row>
     <row r="45" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="136"/>
-      <c r="B45" s="83"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="87"/>
       <c r="C45" s="69">
         <v>0.91666666666666663</v>
       </c>
@@ -3000,7 +2996,7 @@
       <c r="E45" s="58">
         <v>2.75</v>
       </c>
-      <c r="F45" s="86"/>
+      <c r="F45" s="99"/>
       <c r="G45" s="57" t="s">
         <v>22</v>
       </c>
@@ -3013,8 +3009,8 @@
       <c r="N45" s="55"/>
     </row>
     <row r="46" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="136"/>
-      <c r="B46" s="82">
+      <c r="A46" s="84"/>
+      <c r="B46" s="86">
         <v>41606</v>
       </c>
       <c r="C46" s="69">
@@ -3026,7 +3022,7 @@
       <c r="E46" s="58">
         <v>1.25</v>
       </c>
-      <c r="F46" s="84">
+      <c r="F46" s="97">
         <f>SUM(E46:E48)</f>
         <v>5.75</v>
       </c>
@@ -3051,8 +3047,8 @@
       </c>
     </row>
     <row r="47" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="136"/>
-      <c r="B47" s="128"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="90"/>
       <c r="C47" s="69">
         <v>0.38541666666666669</v>
       </c>
@@ -3062,7 +3058,7 @@
       <c r="E47" s="58">
         <v>1.75</v>
       </c>
-      <c r="F47" s="85"/>
+      <c r="F47" s="98"/>
       <c r="G47" s="71" t="s">
         <v>27</v>
       </c>
@@ -3077,8 +3073,8 @@
       <c r="N47" s="55"/>
     </row>
     <row r="48" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="136"/>
-      <c r="B48" s="83"/>
+      <c r="A48" s="84"/>
+      <c r="B48" s="87"/>
       <c r="C48" s="69">
         <v>0.5625</v>
       </c>
@@ -3088,7 +3084,7 @@
       <c r="E48" s="58">
         <v>2.75</v>
       </c>
-      <c r="F48" s="86"/>
+      <c r="F48" s="99"/>
       <c r="G48" s="32" t="s">
         <v>21</v>
       </c>
@@ -3103,8 +3099,8 @@
       <c r="N48" s="55"/>
     </row>
     <row r="49" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="136"/>
-      <c r="B49" s="82">
+      <c r="A49" s="84"/>
+      <c r="B49" s="86">
         <v>41607</v>
       </c>
       <c r="C49" s="69">
@@ -3116,7 +3112,7 @@
       <c r="E49" s="58">
         <v>3.5</v>
       </c>
-      <c r="F49" s="84">
+      <c r="F49" s="97">
         <f>SUM(E49:E50)</f>
         <v>6.25</v>
       </c>
@@ -3141,8 +3137,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="136"/>
-      <c r="B50" s="83"/>
+      <c r="A50" s="84"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="69">
         <v>0.91666666666666663</v>
       </c>
@@ -3152,7 +3148,7 @@
       <c r="E50" s="58">
         <v>2.75</v>
       </c>
-      <c r="F50" s="86"/>
+      <c r="F50" s="99"/>
       <c r="G50" s="32" t="s">
         <v>24</v>
       </c>
@@ -3167,8 +3163,8 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="136"/>
-      <c r="B51" s="82">
+      <c r="A51" s="84"/>
+      <c r="B51" s="86">
         <v>41608</v>
       </c>
       <c r="C51" s="69">
@@ -3180,7 +3176,7 @@
       <c r="E51" s="58">
         <v>1.25</v>
       </c>
-      <c r="F51" s="74">
+      <c r="F51" s="91">
         <f>SUM(E51:E52)</f>
         <v>4.25</v>
       </c>
@@ -3198,8 +3194,8 @@
       <c r="N51" s="55"/>
     </row>
     <row r="52" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="137"/>
-      <c r="B52" s="83"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="87"/>
       <c r="C52" s="69">
         <v>0.375</v>
       </c>
@@ -3209,7 +3205,7 @@
       <c r="E52" s="58">
         <v>3</v>
       </c>
-      <c r="F52" s="75"/>
+      <c r="F52" s="93"/>
       <c r="G52" s="32" t="s">
         <v>24</v>
       </c>
@@ -3224,7 +3220,7 @@
       <c r="N52" s="55"/>
     </row>
     <row r="53" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="125">
+      <c r="A53" s="94">
         <v>5</v>
       </c>
       <c r="B53" s="17">
@@ -3266,8 +3262,8 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="126"/>
-      <c r="B54" s="76">
+      <c r="A54" s="95"/>
+      <c r="B54" s="77">
         <v>41611</v>
       </c>
       <c r="C54" s="47">
@@ -3279,7 +3275,7 @@
       <c r="E54" s="51">
         <v>1</v>
       </c>
-      <c r="F54" s="78">
+      <c r="F54" s="74">
         <f>SUM(E54:E57)</f>
         <v>5.5</v>
       </c>
@@ -3304,8 +3300,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="126"/>
-      <c r="B55" s="81"/>
+      <c r="A55" s="95"/>
+      <c r="B55" s="78"/>
       <c r="C55" s="47">
         <v>0.375</v>
       </c>
@@ -3315,7 +3311,7 @@
       <c r="E55" s="51">
         <v>1.5</v>
       </c>
-      <c r="F55" s="80"/>
+      <c r="F55" s="75"/>
       <c r="G55" s="72" t="s">
         <v>27</v>
       </c>
@@ -3330,8 +3326,8 @@
       <c r="N55" s="55"/>
     </row>
     <row r="56" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="126"/>
-      <c r="B56" s="81"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="78"/>
       <c r="C56" s="47">
         <v>0.4375</v>
       </c>
@@ -3341,7 +3337,7 @@
       <c r="E56" s="51">
         <v>0.5</v>
       </c>
-      <c r="F56" s="80"/>
+      <c r="F56" s="75"/>
       <c r="G56" s="48" t="s">
         <v>21</v>
       </c>
@@ -3356,8 +3352,8 @@
       <c r="N56" s="55"/>
     </row>
     <row r="57" spans="1:14" s="56" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="126"/>
-      <c r="B57" s="77"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="79"/>
       <c r="C57" s="47">
         <v>0.5625</v>
       </c>
@@ -3367,7 +3363,7 @@
       <c r="E57" s="51">
         <v>2.5</v>
       </c>
-      <c r="F57" s="79"/>
+      <c r="F57" s="76"/>
       <c r="G57" s="72" t="s">
         <v>29</v>
       </c>
@@ -3382,8 +3378,8 @@
       <c r="N57" s="55"/>
     </row>
     <row r="58" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="126"/>
-      <c r="B58" s="76">
+      <c r="A58" s="95"/>
+      <c r="B58" s="77">
         <v>41612</v>
       </c>
       <c r="C58" s="47">
@@ -3395,7 +3391,7 @@
       <c r="E58" s="51">
         <v>3</v>
       </c>
-      <c r="F58" s="78">
+      <c r="F58" s="74">
         <f>SUM(E58:E59)</f>
         <v>7.5</v>
       </c>
@@ -3422,8 +3418,8 @@
       </c>
     </row>
     <row r="59" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="126"/>
-      <c r="B59" s="77"/>
+      <c r="A59" s="95"/>
+      <c r="B59" s="79"/>
       <c r="C59" s="47">
         <v>0.5625</v>
       </c>
@@ -3433,7 +3429,7 @@
       <c r="E59" s="51">
         <v>4.5</v>
       </c>
-      <c r="F59" s="79"/>
+      <c r="F59" s="76"/>
       <c r="G59" s="48" t="s">
         <v>21</v>
       </c>
@@ -3448,8 +3444,8 @@
       <c r="N59" s="55"/>
     </row>
     <row r="60" spans="1:14" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="126"/>
-      <c r="B60" s="76">
+      <c r="A60" s="95"/>
+      <c r="B60" s="77">
         <v>41613</v>
       </c>
       <c r="C60" s="47">
@@ -3461,7 +3457,7 @@
       <c r="E60" s="51">
         <v>3</v>
       </c>
-      <c r="F60" s="78">
+      <c r="F60" s="74">
         <f>SUM(E60:E64)</f>
         <v>7.82</v>
       </c>
@@ -3486,8 +3482,8 @@
       </c>
     </row>
     <row r="61" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="126"/>
-      <c r="B61" s="81"/>
+      <c r="A61" s="95"/>
+      <c r="B61" s="78"/>
       <c r="C61" s="47">
         <v>0.33333333333333331</v>
       </c>
@@ -3497,7 +3493,7 @@
       <c r="E61" s="51">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F61" s="80"/>
+      <c r="F61" s="75"/>
       <c r="G61" s="31" t="s">
         <v>26</v>
       </c>
@@ -3512,8 +3508,8 @@
       <c r="N61" s="55"/>
     </row>
     <row r="62" spans="1:14" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A62" s="126"/>
-      <c r="B62" s="81"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="78"/>
       <c r="C62" s="47" t="s">
         <v>125</v>
       </c>
@@ -3523,7 +3519,7 @@
       <c r="E62" s="51">
         <v>1.5</v>
       </c>
-      <c r="F62" s="80"/>
+      <c r="F62" s="75"/>
       <c r="G62" s="31" t="s">
         <v>25</v>
       </c>
@@ -3538,8 +3534,8 @@
       <c r="N62" s="55"/>
     </row>
     <row r="63" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="126"/>
-      <c r="B63" s="81"/>
+      <c r="A63" s="95"/>
+      <c r="B63" s="78"/>
       <c r="C63" s="47" t="s">
         <v>127</v>
       </c>
@@ -3549,7 +3545,7 @@
       <c r="E63" s="51">
         <v>0.66</v>
       </c>
-      <c r="F63" s="80"/>
+      <c r="F63" s="75"/>
       <c r="G63" s="31" t="s">
         <v>21</v>
       </c>
@@ -3564,8 +3560,8 @@
       <c r="N63" s="55"/>
     </row>
     <row r="64" spans="1:14" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="126"/>
-      <c r="B64" s="77"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="79"/>
       <c r="C64" s="47">
         <v>0.6875</v>
       </c>
@@ -3575,7 +3571,7 @@
       <c r="E64" s="51">
         <v>1.5</v>
       </c>
-      <c r="F64" s="79"/>
+      <c r="F64" s="76"/>
       <c r="G64" s="31" t="s">
         <v>26</v>
       </c>
@@ -3590,7 +3586,7 @@
       <c r="N64" s="55"/>
     </row>
     <row r="65" spans="1:14" s="56" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="127"/>
+      <c r="A65" s="96"/>
       <c r="B65" s="17">
         <v>41614</v>
       </c>
@@ -3618,7 +3614,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="99">
+      <c r="A66" s="103">
         <v>6</v>
       </c>
       <c r="B66" s="28">
@@ -3648,7 +3644,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="100"/>
+      <c r="A67" s="104"/>
       <c r="B67" s="28">
         <v>41618</v>
       </c>
@@ -3676,7 +3672,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="100"/>
+      <c r="A68" s="104"/>
       <c r="B68" s="28">
         <v>41619</v>
       </c>
@@ -3704,7 +3700,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="100"/>
+      <c r="A69" s="104"/>
       <c r="B69" s="28">
         <v>41620</v>
       </c>
@@ -3732,7 +3728,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="101"/>
+      <c r="A70" s="105"/>
       <c r="B70" s="28">
         <v>41621</v>
       </c>
@@ -3760,7 +3756,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="117">
+      <c r="A71" s="106">
         <v>7</v>
       </c>
       <c r="B71" s="27">
@@ -3790,7 +3786,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="118"/>
+      <c r="A72" s="107"/>
       <c r="B72" s="27">
         <v>41625</v>
       </c>
@@ -3818,7 +3814,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="118"/>
+      <c r="A73" s="107"/>
       <c r="B73" s="27">
         <v>41626</v>
       </c>
@@ -3846,7 +3842,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="118"/>
+      <c r="A74" s="107"/>
       <c r="B74" s="27">
         <v>41627</v>
       </c>
@@ -3863,7 +3859,7 @@
       <c r="J74" s="40"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="119"/>
+      <c r="A75" s="108"/>
       <c r="B75" s="27">
         <v>41628</v>
       </c>
@@ -3880,7 +3876,7 @@
       <c r="J75" s="40"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="99">
+      <c r="A76" s="103">
         <v>8</v>
       </c>
       <c r="B76" s="28">
@@ -3899,7 +3895,7 @@
       <c r="J76" s="41"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="100"/>
+      <c r="A77" s="104"/>
       <c r="B77" s="28">
         <v>41632</v>
       </c>
@@ -3916,7 +3912,7 @@
       <c r="J77" s="41"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="100"/>
+      <c r="A78" s="104"/>
       <c r="B78" s="28">
         <v>41633</v>
       </c>
@@ -3933,7 +3929,7 @@
       <c r="J78" s="41"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="100"/>
+      <c r="A79" s="104"/>
       <c r="B79" s="28">
         <v>41634</v>
       </c>
@@ -3950,7 +3946,7 @@
       <c r="J79" s="41"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="101"/>
+      <c r="A80" s="105"/>
       <c r="B80" s="28">
         <v>41635</v>
       </c>
@@ -3967,7 +3963,7 @@
       <c r="J80" s="41"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="117">
+      <c r="A81" s="106">
         <v>9</v>
       </c>
       <c r="B81" s="27">
@@ -3986,7 +3982,7 @@
       <c r="J81" s="40"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="118"/>
+      <c r="A82" s="107"/>
       <c r="B82" s="27">
         <v>41639</v>
       </c>
@@ -4003,7 +3999,7 @@
       <c r="J82" s="40"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="118"/>
+      <c r="A83" s="107"/>
       <c r="B83" s="27">
         <v>41640</v>
       </c>
@@ -4020,7 +4016,7 @@
       <c r="J83" s="40"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="118"/>
+      <c r="A84" s="107"/>
       <c r="B84" s="27">
         <v>41641</v>
       </c>
@@ -4037,7 +4033,7 @@
       <c r="J84" s="40"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="119"/>
+      <c r="A85" s="108"/>
       <c r="B85" s="27">
         <v>41642</v>
       </c>
@@ -4054,7 +4050,7 @@
       <c r="J85" s="40"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="99">
+      <c r="A86" s="103">
         <v>10</v>
       </c>
       <c r="B86" s="28">
@@ -4073,7 +4069,7 @@
       <c r="J86" s="41"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="100"/>
+      <c r="A87" s="104"/>
       <c r="B87" s="28">
         <v>41646</v>
       </c>
@@ -4090,7 +4086,7 @@
       <c r="J87" s="41"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="100"/>
+      <c r="A88" s="104"/>
       <c r="B88" s="28">
         <v>41647</v>
       </c>
@@ -4107,7 +4103,7 @@
       <c r="J88" s="41"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="100"/>
+      <c r="A89" s="104"/>
       <c r="B89" s="28">
         <v>41648</v>
       </c>
@@ -4124,7 +4120,7 @@
       <c r="J89" s="41"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="101"/>
+      <c r="A90" s="105"/>
       <c r="B90" s="28">
         <v>41649</v>
       </c>
@@ -4141,7 +4137,7 @@
       <c r="J90" s="41"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="117">
+      <c r="A91" s="106">
         <v>11</v>
       </c>
       <c r="B91" s="27">
@@ -4160,7 +4156,7 @@
       <c r="J91" s="40"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="118"/>
+      <c r="A92" s="107"/>
       <c r="B92" s="27">
         <v>41653</v>
       </c>
@@ -4177,7 +4173,7 @@
       <c r="J92" s="40"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="118"/>
+      <c r="A93" s="107"/>
       <c r="B93" s="27">
         <v>41654</v>
       </c>
@@ -4194,7 +4190,7 @@
       <c r="J93" s="40"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="118"/>
+      <c r="A94" s="107"/>
       <c r="B94" s="27">
         <v>41655</v>
       </c>
@@ -4211,7 +4207,7 @@
       <c r="J94" s="40"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="119"/>
+      <c r="A95" s="108"/>
       <c r="B95" s="27">
         <v>41656</v>
       </c>
@@ -4228,7 +4224,7 @@
       <c r="J95" s="40"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="99">
+      <c r="A96" s="103">
         <v>12</v>
       </c>
       <c r="B96" s="28">
@@ -4247,7 +4243,7 @@
       <c r="J96" s="41"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="100"/>
+      <c r="A97" s="104"/>
       <c r="B97" s="28">
         <v>41660</v>
       </c>
@@ -4264,7 +4260,7 @@
       <c r="J97" s="41"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="100"/>
+      <c r="A98" s="104"/>
       <c r="B98" s="28">
         <v>41661</v>
       </c>
@@ -4281,7 +4277,7 @@
       <c r="J98" s="41"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="100"/>
+      <c r="A99" s="104"/>
       <c r="B99" s="28">
         <v>41662</v>
       </c>
@@ -4298,7 +4294,7 @@
       <c r="J99" s="41"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="101"/>
+      <c r="A100" s="105"/>
       <c r="B100" s="28">
         <v>41663</v>
       </c>
@@ -4315,7 +4311,7 @@
       <c r="J100" s="41"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="117">
+      <c r="A101" s="106">
         <v>13</v>
       </c>
       <c r="B101" s="27">
@@ -4336,7 +4332,7 @@
       <c r="J101" s="40"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="118"/>
+      <c r="A102" s="107"/>
       <c r="B102" s="27">
         <v>41667</v>
       </c>
@@ -4355,7 +4351,7 @@
       <c r="J102" s="40"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="118"/>
+      <c r="A103" s="107"/>
       <c r="B103" s="27">
         <v>41668</v>
       </c>
@@ -4374,7 +4370,7 @@
       <c r="J103" s="40"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="118"/>
+      <c r="A104" s="107"/>
       <c r="B104" s="27">
         <v>41669</v>
       </c>
@@ -4393,7 +4389,7 @@
       <c r="J104" s="40"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="119"/>
+      <c r="A105" s="108"/>
       <c r="B105" s="27">
         <v>41670</v>
       </c>
@@ -4412,7 +4408,7 @@
       <c r="J105" s="40"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="99">
+      <c r="A106" s="103">
         <v>14</v>
       </c>
       <c r="B106" s="28">
@@ -4433,7 +4429,7 @@
       <c r="J106" s="41"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="100"/>
+      <c r="A107" s="104"/>
       <c r="B107" s="28">
         <v>41674</v>
       </c>
@@ -4452,7 +4448,7 @@
       <c r="J107" s="41"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="100"/>
+      <c r="A108" s="104"/>
       <c r="B108" s="28">
         <v>41675</v>
       </c>
@@ -4471,7 +4467,7 @@
       <c r="J108" s="41"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="100"/>
+      <c r="A109" s="104"/>
       <c r="B109" s="28">
         <v>41676</v>
       </c>
@@ -4490,7 +4486,7 @@
       <c r="J109" s="41"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="101"/>
+      <c r="A110" s="105"/>
       <c r="B110" s="28">
         <v>41677</v>
       </c>
@@ -4509,7 +4505,7 @@
       <c r="J110" s="41"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="117">
+      <c r="A111" s="106">
         <v>15</v>
       </c>
       <c r="B111" s="27">
@@ -4528,7 +4524,7 @@
       <c r="J111" s="40"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="118"/>
+      <c r="A112" s="107"/>
       <c r="B112" s="27">
         <v>41681</v>
       </c>
@@ -4545,7 +4541,7 @@
       <c r="J112" s="40"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="118"/>
+      <c r="A113" s="107"/>
       <c r="B113" s="27">
         <v>41682</v>
       </c>
@@ -4562,7 +4558,7 @@
       <c r="J113" s="40"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="118"/>
+      <c r="A114" s="107"/>
       <c r="B114" s="27">
         <v>41683</v>
       </c>
@@ -4579,7 +4575,7 @@
       <c r="J114" s="40"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="119"/>
+      <c r="A115" s="108"/>
       <c r="B115" s="27">
         <v>41684</v>
       </c>
@@ -4596,7 +4592,7 @@
       <c r="J115" s="40"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="99">
+      <c r="A116" s="103">
         <v>16</v>
       </c>
       <c r="B116" s="28">
@@ -4615,7 +4611,7 @@
       <c r="J116" s="41"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="100"/>
+      <c r="A117" s="104"/>
       <c r="B117" s="28">
         <v>41688</v>
       </c>
@@ -4632,7 +4628,7 @@
       <c r="J117" s="41"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="100"/>
+      <c r="A118" s="104"/>
       <c r="B118" s="28">
         <v>41689</v>
       </c>
@@ -4649,7 +4645,7 @@
       <c r="J118" s="41"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="100"/>
+      <c r="A119" s="104"/>
       <c r="B119" s="28">
         <v>41690</v>
       </c>
@@ -4666,7 +4662,7 @@
       <c r="J119" s="41"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="101"/>
+      <c r="A120" s="105"/>
       <c r="B120" s="28">
         <v>41691</v>
       </c>
@@ -4683,7 +4679,7 @@
       <c r="J120" s="41"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="117">
+      <c r="A121" s="106">
         <v>17</v>
       </c>
       <c r="B121" s="27">
@@ -4702,7 +4698,7 @@
       <c r="J121" s="40"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="118"/>
+      <c r="A122" s="107"/>
       <c r="B122" s="27">
         <v>41695</v>
       </c>
@@ -4719,7 +4715,7 @@
       <c r="J122" s="40"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="118"/>
+      <c r="A123" s="107"/>
       <c r="B123" s="27">
         <v>41696</v>
       </c>
@@ -4736,7 +4732,7 @@
       <c r="J123" s="40"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="118"/>
+      <c r="A124" s="107"/>
       <c r="B124" s="27">
         <v>41697</v>
       </c>
@@ -4753,7 +4749,7 @@
       <c r="J124" s="40"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="119"/>
+      <c r="A125" s="108"/>
       <c r="B125" s="27">
         <v>41698</v>
       </c>
@@ -4770,7 +4766,7 @@
       <c r="J125" s="40"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="99">
+      <c r="A126" s="103">
         <v>18</v>
       </c>
       <c r="B126" s="28">
@@ -4789,7 +4785,7 @@
       <c r="J126" s="41"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="100"/>
+      <c r="A127" s="104"/>
       <c r="B127" s="28">
         <v>41702</v>
       </c>
@@ -4806,7 +4802,7 @@
       <c r="J127" s="41"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="100"/>
+      <c r="A128" s="104"/>
       <c r="B128" s="28">
         <v>41703</v>
       </c>
@@ -4823,7 +4819,7 @@
       <c r="J128" s="41"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="100"/>
+      <c r="A129" s="104"/>
       <c r="B129" s="28">
         <v>41704</v>
       </c>
@@ -4840,7 +4836,7 @@
       <c r="J129" s="41"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="101"/>
+      <c r="A130" s="105"/>
       <c r="B130" s="28">
         <v>41705</v>
       </c>
@@ -4857,7 +4853,7 @@
       <c r="J130" s="41"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="117">
+      <c r="A131" s="106">
         <v>19</v>
       </c>
       <c r="B131" s="27">
@@ -4876,7 +4872,7 @@
       <c r="J131" s="40"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="118"/>
+      <c r="A132" s="107"/>
       <c r="B132" s="27">
         <v>41709</v>
       </c>
@@ -4893,7 +4889,7 @@
       <c r="J132" s="40"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="118"/>
+      <c r="A133" s="107"/>
       <c r="B133" s="27">
         <v>41710</v>
       </c>
@@ -4910,7 +4906,7 @@
       <c r="J133" s="40"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="118"/>
+      <c r="A134" s="107"/>
       <c r="B134" s="27">
         <v>41711</v>
       </c>
@@ -4927,7 +4923,7 @@
       <c r="J134" s="40"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="119"/>
+      <c r="A135" s="108"/>
       <c r="B135" s="27">
         <v>41712</v>
       </c>
@@ -4944,7 +4940,7 @@
       <c r="J135" s="40"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="99">
+      <c r="A136" s="103">
         <v>20</v>
       </c>
       <c r="B136" s="28">
@@ -4963,7 +4959,7 @@
       <c r="J136" s="41"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="100"/>
+      <c r="A137" s="104"/>
       <c r="B137" s="28">
         <v>41716</v>
       </c>
@@ -4980,7 +4976,7 @@
       <c r="J137" s="41"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="100"/>
+      <c r="A138" s="104"/>
       <c r="B138" s="28">
         <v>41717</v>
       </c>
@@ -4997,7 +4993,7 @@
       <c r="J138" s="41"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="100"/>
+      <c r="A139" s="104"/>
       <c r="B139" s="28">
         <v>41718</v>
       </c>
@@ -5014,7 +5010,7 @@
       <c r="J139" s="41"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="101"/>
+      <c r="A140" s="105"/>
       <c r="B140" s="28">
         <v>41719</v>
       </c>
@@ -5031,7 +5027,7 @@
       <c r="J140" s="41"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="117">
+      <c r="A141" s="106">
         <v>21</v>
       </c>
       <c r="B141" s="27">
@@ -5050,7 +5046,7 @@
       <c r="J141" s="40"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="118"/>
+      <c r="A142" s="107"/>
       <c r="B142" s="27">
         <v>41723</v>
       </c>
@@ -5067,7 +5063,7 @@
       <c r="J142" s="40"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="118"/>
+      <c r="A143" s="107"/>
       <c r="B143" s="27">
         <v>41724</v>
       </c>
@@ -5084,7 +5080,7 @@
       <c r="J143" s="40"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="118"/>
+      <c r="A144" s="107"/>
       <c r="B144" s="27">
         <v>41725</v>
       </c>
@@ -5101,7 +5097,7 @@
       <c r="J144" s="40"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="119"/>
+      <c r="A145" s="108"/>
       <c r="B145" s="27">
         <v>41726</v>
       </c>
@@ -5118,7 +5114,7 @@
       <c r="J145" s="40"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="99">
+      <c r="A146" s="103">
         <v>22</v>
       </c>
       <c r="B146" s="28">
@@ -5137,7 +5133,7 @@
       <c r="J146" s="41"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="100"/>
+      <c r="A147" s="104"/>
       <c r="B147" s="28">
         <v>41730</v>
       </c>
@@ -5154,7 +5150,7 @@
       <c r="J147" s="41"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="100"/>
+      <c r="A148" s="104"/>
       <c r="B148" s="28">
         <v>41731</v>
       </c>
@@ -5171,7 +5167,7 @@
       <c r="J148" s="41"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="100"/>
+      <c r="A149" s="104"/>
       <c r="B149" s="28">
         <v>41732</v>
       </c>
@@ -5188,7 +5184,7 @@
       <c r="J149" s="41"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="101"/>
+      <c r="A150" s="105"/>
       <c r="B150" s="28">
         <v>41733</v>
       </c>
@@ -5205,7 +5201,7 @@
       <c r="J150" s="41"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="117">
+      <c r="A151" s="106">
         <v>23</v>
       </c>
       <c r="B151" s="27">
@@ -5224,7 +5220,7 @@
       <c r="J151" s="40"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="118"/>
+      <c r="A152" s="107"/>
       <c r="B152" s="27">
         <v>41737</v>
       </c>
@@ -5241,7 +5237,7 @@
       <c r="J152" s="40"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="118"/>
+      <c r="A153" s="107"/>
       <c r="B153" s="27">
         <v>41738</v>
       </c>
@@ -5258,7 +5254,7 @@
       <c r="J153" s="40"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="118"/>
+      <c r="A154" s="107"/>
       <c r="B154" s="27">
         <v>41739</v>
       </c>
@@ -5275,7 +5271,7 @@
       <c r="J154" s="40"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="119"/>
+      <c r="A155" s="108"/>
       <c r="B155" s="27">
         <v>41740</v>
       </c>
@@ -5292,7 +5288,7 @@
       <c r="J155" s="40"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="99">
+      <c r="A156" s="103">
         <v>24</v>
       </c>
       <c r="B156" s="28">
@@ -5311,7 +5307,7 @@
       <c r="J156" s="41"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="100"/>
+      <c r="A157" s="104"/>
       <c r="B157" s="28">
         <v>41744</v>
       </c>
@@ -5328,7 +5324,7 @@
       <c r="J157" s="41"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="100"/>
+      <c r="A158" s="104"/>
       <c r="B158" s="28">
         <v>41745</v>
       </c>
@@ -5345,7 +5341,7 @@
       <c r="J158" s="41"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="100"/>
+      <c r="A159" s="104"/>
       <c r="B159" s="28">
         <v>41746</v>
       </c>
@@ -5362,7 +5358,7 @@
       <c r="J159" s="41"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="101"/>
+      <c r="A160" s="105"/>
       <c r="B160" s="28">
         <v>41747</v>
       </c>
@@ -5379,7 +5375,7 @@
       <c r="J160" s="41"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="117">
+      <c r="A161" s="106">
         <v>25</v>
       </c>
       <c r="B161" s="27">
@@ -5398,7 +5394,7 @@
       <c r="J161" s="40"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="118"/>
+      <c r="A162" s="107"/>
       <c r="B162" s="27">
         <v>41751</v>
       </c>
@@ -5415,7 +5411,7 @@
       <c r="J162" s="40"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="118"/>
+      <c r="A163" s="107"/>
       <c r="B163" s="27">
         <v>41752</v>
       </c>
@@ -5432,7 +5428,7 @@
       <c r="J163" s="40"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="118"/>
+      <c r="A164" s="107"/>
       <c r="B164" s="27">
         <v>41753</v>
       </c>
@@ -5449,7 +5445,7 @@
       <c r="J164" s="40"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="119"/>
+      <c r="A165" s="108"/>
       <c r="B165" s="27">
         <v>41754</v>
       </c>
@@ -5466,7 +5462,7 @@
       <c r="J165" s="40"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="99">
+      <c r="A166" s="103">
         <v>26</v>
       </c>
       <c r="B166" s="28">
@@ -5485,7 +5481,7 @@
       <c r="J166" s="41"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="100"/>
+      <c r="A167" s="104"/>
       <c r="B167" s="28">
         <v>41758</v>
       </c>
@@ -5502,7 +5498,7 @@
       <c r="J167" s="41"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="100"/>
+      <c r="A168" s="104"/>
       <c r="B168" s="28">
         <v>41759</v>
       </c>
@@ -5519,7 +5515,7 @@
       <c r="J168" s="41"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="100"/>
+      <c r="A169" s="104"/>
       <c r="B169" s="28">
         <v>41760</v>
       </c>
@@ -5536,7 +5532,7 @@
       <c r="J169" s="41"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="101"/>
+      <c r="A170" s="105"/>
       <c r="B170" s="28">
         <v>41761</v>
       </c>
@@ -5553,7 +5549,7 @@
       <c r="J170" s="41"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="117">
+      <c r="A171" s="106">
         <v>27</v>
       </c>
       <c r="B171" s="27">
@@ -5572,7 +5568,7 @@
       <c r="J171" s="40"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="118"/>
+      <c r="A172" s="107"/>
       <c r="B172" s="27">
         <v>41765</v>
       </c>
@@ -5589,7 +5585,7 @@
       <c r="J172" s="40"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="118"/>
+      <c r="A173" s="107"/>
       <c r="B173" s="27">
         <v>41766</v>
       </c>
@@ -5606,7 +5602,7 @@
       <c r="J173" s="40"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="118"/>
+      <c r="A174" s="107"/>
       <c r="B174" s="27">
         <v>41767</v>
       </c>
@@ -5623,7 +5619,7 @@
       <c r="J174" s="40"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="119"/>
+      <c r="A175" s="108"/>
       <c r="B175" s="27">
         <v>41768</v>
       </c>
@@ -5640,7 +5636,7 @@
       <c r="J175" s="40"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="99">
+      <c r="A176" s="103">
         <v>28</v>
       </c>
       <c r="B176" s="28">
@@ -5659,7 +5655,7 @@
       <c r="J176" s="41"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="100"/>
+      <c r="A177" s="104"/>
       <c r="B177" s="28">
         <v>41772</v>
       </c>
@@ -5676,7 +5672,7 @@
       <c r="J177" s="41"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="100"/>
+      <c r="A178" s="104"/>
       <c r="B178" s="28">
         <v>41773</v>
       </c>
@@ -5693,7 +5689,7 @@
       <c r="J178" s="41"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="100"/>
+      <c r="A179" s="104"/>
       <c r="B179" s="28">
         <v>41774</v>
       </c>
@@ -5710,7 +5706,7 @@
       <c r="J179" s="41"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="101"/>
+      <c r="A180" s="105"/>
       <c r="B180" s="28">
         <v>41775</v>
       </c>
@@ -5727,7 +5723,7 @@
       <c r="J180" s="41"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="117">
+      <c r="A181" s="106">
         <v>29</v>
       </c>
       <c r="B181" s="27">
@@ -5746,7 +5742,7 @@
       <c r="J181" s="40"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="118"/>
+      <c r="A182" s="107"/>
       <c r="B182" s="27">
         <v>41779</v>
       </c>
@@ -5763,7 +5759,7 @@
       <c r="J182" s="40"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="118"/>
+      <c r="A183" s="107"/>
       <c r="B183" s="27">
         <v>41780</v>
       </c>
@@ -5780,7 +5776,7 @@
       <c r="J183" s="40"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="118"/>
+      <c r="A184" s="107"/>
       <c r="B184" s="27">
         <v>41781</v>
       </c>
@@ -5797,7 +5793,7 @@
       <c r="J184" s="40"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="119"/>
+      <c r="A185" s="108"/>
       <c r="B185" s="27">
         <v>41782</v>
       </c>
@@ -5814,7 +5810,7 @@
       <c r="J185" s="40"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="129">
+      <c r="A186" s="100">
         <v>30</v>
       </c>
       <c r="B186" s="28">
@@ -5833,7 +5829,7 @@
       <c r="J186" s="42"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" s="130"/>
+      <c r="A187" s="101"/>
       <c r="B187" s="28">
         <v>41786</v>
       </c>
@@ -5850,7 +5846,7 @@
       <c r="J187" s="42"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" s="130"/>
+      <c r="A188" s="101"/>
       <c r="B188" s="28">
         <v>41787</v>
       </c>
@@ -5867,7 +5863,7 @@
       <c r="J188" s="42"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="130"/>
+      <c r="A189" s="101"/>
       <c r="B189" s="28">
         <v>41788</v>
       </c>
@@ -5884,7 +5880,7 @@
       <c r="J189" s="42"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="131"/>
+      <c r="A190" s="102"/>
       <c r="B190" s="28">
         <v>41789</v>
       </c>
@@ -5902,40 +5898,22 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A40:A52"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="A23:A39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="A186:A190"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A161:A165"/>
-    <mergeCell ref="A166:A170"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A171:A175"/>
-    <mergeCell ref="A176:A180"/>
-    <mergeCell ref="A181:A185"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A7:A11"/>
     <mergeCell ref="A106:A110"/>
     <mergeCell ref="A76:A80"/>
     <mergeCell ref="A81:A85"/>
@@ -5952,29 +5930,47 @@
     <mergeCell ref="A101:A105"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="A176:A180"/>
+    <mergeCell ref="A181:A185"/>
+    <mergeCell ref="A186:A190"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="A40:A52"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A23:A39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F33"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="F58:F59"/>
     <mergeCell ref="F54:F57"/>
     <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B51:B52"/>
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="F46:F48"/>
     <mergeCell ref="F44:F45"/>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_ChauLe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main